--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED82654-EAF4-43E1-9A8D-EDFD3F935B4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$130</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$131</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="243">
   <si>
     <t>年代</t>
   </si>
@@ -1373,11 +1372,24 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>県内453例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1801,15 +1813,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B131" sqref="B131"/>
+      <selection pane="bottomRight" activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4641,7 +4653,7 @@
       <c r="C127" s="3">
         <v>44098</v>
       </c>
-      <c r="D127" s="9"/>
+      <c r="D127" s="4"/>
       <c r="E127" s="7">
         <v>50</v>
       </c>
@@ -4660,7 +4672,9 @@
       <c r="C128" s="3">
         <v>44098</v>
       </c>
-      <c r="D128" s="9"/>
+      <c r="D128" s="5">
+        <v>44111</v>
+      </c>
       <c r="E128" s="7">
         <v>20</v>
       </c>
@@ -4702,7 +4716,9 @@
       <c r="C130" s="3">
         <v>44107</v>
       </c>
-      <c r="D130" s="9"/>
+      <c r="D130" s="5">
+        <v>44116</v>
+      </c>
       <c r="E130" s="7">
         <v>20</v>
       </c>
@@ -4710,6 +4726,25 @@
         <v>241</v>
       </c>
       <c r="G130" s="9"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A131" s="6">
+        <v>129</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C131" s="3">
+        <v>44118</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="7">
+        <v>40</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G131" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1817,11 +1817,11 @@
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F132" sqref="F132"/>
+      <selection pane="bottomRight" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4653,7 +4653,9 @@
       <c r="C127" s="3">
         <v>44098</v>
       </c>
-      <c r="D127" s="4"/>
+      <c r="D127" s="5">
+        <v>44119</v>
+      </c>
       <c r="E127" s="7">
         <v>50</v>
       </c>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$131</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$132</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="244">
   <si>
     <t>年代</t>
   </si>
@@ -1374,6 +1374,19 @@
   </si>
   <si>
     <t>県内453例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内459例目</t>
     <rPh sb="0" eb="2">
       <t>ケンナイ</t>
     </rPh>
@@ -1814,14 +1827,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I92" sqref="I92"/>
+      <selection pane="bottomRight" activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4748,6 +4761,25 @@
       </c>
       <c r="G131" s="9"/>
     </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A132" s="6">
+        <v>130</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C132" s="3">
+        <v>44120</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="7">
+        <v>30</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G132" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DAEA86-2371-4A1E-AD4E-A4C7EA9FE4C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1402,7 +1403,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1826,15 +1827,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E134" sqref="E134"/>
+      <selection pane="bottomRight" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4752,7 +4753,9 @@
       <c r="C131" s="3">
         <v>44118</v>
       </c>
-      <c r="D131" s="5"/>
+      <c r="D131" s="5">
+        <v>44127</v>
+      </c>
       <c r="E131" s="7">
         <v>40</v>
       </c>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DAEA86-2371-4A1E-AD4E-A4C7EA9FE4C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$133</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="245">
   <si>
     <t>年代</t>
   </si>
@@ -1399,11 +1398,24 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>県内489例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1827,15 +1839,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D131" sqref="D131"/>
+      <selection pane="bottomRight" activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4774,7 +4786,9 @@
       <c r="C132" s="3">
         <v>44120</v>
       </c>
-      <c r="D132" s="5"/>
+      <c r="D132" s="5">
+        <v>44128</v>
+      </c>
       <c r="E132" s="7">
         <v>30</v>
       </c>
@@ -4782,6 +4796,25 @@
         <v>145</v>
       </c>
       <c r="G132" s="9"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A133" s="6">
+        <v>131</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C133" s="3">
+        <v>44134</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="7">
+        <v>50</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G133" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="246">
   <si>
     <t>年代</t>
   </si>
@@ -1408,6 +1408,25 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他県での陽性判明者との接触あり</t>
+    <rPh sb="0" eb="2">
+      <t>タケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンメイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッショク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1843,11 +1862,11 @@
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E132" sqref="E132"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4753,7 +4772,9 @@
       <c r="F130" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="G130" s="9"/>
+      <c r="G130" s="9" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" s="6">
@@ -4774,7 +4795,9 @@
       <c r="F131" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G131" s="9"/>
+      <c r="G131" s="9" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" s="6">
@@ -4814,7 +4837,9 @@
       <c r="F133" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G133" s="9"/>
+      <c r="G133" s="9" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$133</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$135</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="248">
   <si>
     <t>年代</t>
   </si>
@@ -1427,6 +1427,32 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内496例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内497例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1859,14 +1885,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4841,6 +4867,46 @@
         <v>134</v>
       </c>
     </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A134" s="6">
+        <v>132</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C134" s="3">
+        <v>44140</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="7">
+        <v>20</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A135" s="6">
+        <v>133</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C135" s="3">
+        <v>44141</v>
+      </c>
+      <c r="D135" s="9"/>
+      <c r="E135" s="7">
+        <v>20</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G135" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$135</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$136</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="249">
   <si>
     <t>年代</t>
   </si>
@@ -1445,6 +1445,19 @@
   </si>
   <si>
     <t>県内497例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内500例目</t>
     <rPh sb="0" eb="2">
       <t>ケンナイ</t>
     </rPh>
@@ -1885,14 +1898,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D134" sqref="D134"/>
+      <selection pane="bottomRight" activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4877,7 +4890,9 @@
       <c r="C134" s="3">
         <v>44140</v>
       </c>
-      <c r="D134" s="5"/>
+      <c r="D134" s="5">
+        <v>44144</v>
+      </c>
       <c r="E134" s="7">
         <v>20</v>
       </c>
@@ -4906,6 +4921,27 @@
         <v>145</v>
       </c>
       <c r="G135" s="9"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A136" s="6">
+        <v>134</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C136" s="3">
+        <v>44144</v>
+      </c>
+      <c r="D136" s="9"/>
+      <c r="E136" s="7">
+        <v>30</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>245</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$136</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$138</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="252">
   <si>
     <t>年代</t>
   </si>
@@ -1469,12 +1469,42 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>No.135の妻</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内503例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内504例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1534,6 +1564,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1578,7 +1614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1617,6 +1653,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1898,14 +1937,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B138" sqref="B138"/>
+      <selection pane="bottomRight" activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4943,6 +4982,46 @@
         <v>245</v>
       </c>
     </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A137" s="6">
+        <v>135</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C137" s="3">
+        <v>44145</v>
+      </c>
+      <c r="D137" s="9"/>
+      <c r="E137" s="7">
+        <v>70</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G137" s="9"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A138" s="6">
+        <v>136</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C138" s="3">
+        <v>44145</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="7">
+        <v>60</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$138</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$139</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="254">
   <si>
     <t>年代</t>
   </si>
@@ -1496,6 +1496,32 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内506例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高根沢町在住（№136の同僚）</t>
+    <rPh sb="0" eb="4">
+      <t>タカネザワマチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザイジュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1571,7 +1597,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1581,6 +1607,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,7 +1646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1651,11 +1683,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1937,14 +1972,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B143" sqref="B143"/>
+      <selection pane="bottomRight" activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1959,15 +1994,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -5005,7 +5040,7 @@
       <c r="A138" s="6">
         <v>136</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="12" t="s">
         <v>251</v>
       </c>
       <c r="C138" s="3">
@@ -5020,6 +5055,27 @@
       </c>
       <c r="G138" s="9" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A139" s="6">
+        <v>137</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C139" s="3">
+        <v>44146</v>
+      </c>
+      <c r="D139" s="9"/>
+      <c r="E139" s="7">
+        <v>50</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA82A6AA-9C56-4444-BE0D-04AED1860214}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1529,7 +1530,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1971,15 +1972,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I141" sqref="I141"/>
+      <selection pane="bottomRight" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4987,7 +4988,9 @@
       <c r="C135" s="3">
         <v>44141</v>
       </c>
-      <c r="D135" s="9"/>
+      <c r="D135" s="5">
+        <v>44147</v>
+      </c>
       <c r="E135" s="7">
         <v>20</v>
       </c>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.20.30.42\userprofile2\0000077178\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA82A6AA-9C56-4444-BE0D-04AED1860214}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$142</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="258">
   <si>
     <t>年代</t>
   </si>
@@ -1526,11 +1525,57 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>県内512例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内513例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内514例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1972,15 +2017,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B135" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D137" sqref="D137"/>
+      <selection pane="bottomRight" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5081,6 +5126,65 @@
         <v>253</v>
       </c>
     </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A140" s="6">
+        <v>138</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C140" s="5">
+        <v>44148</v>
+      </c>
+      <c r="D140" s="9"/>
+      <c r="E140" s="4">
+        <v>60</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G140" s="9"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A141" s="6">
+        <v>139</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C141" s="5">
+        <v>44149</v>
+      </c>
+      <c r="D141" s="9"/>
+      <c r="E141" s="4">
+        <v>50</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G141" s="9"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A142" s="6">
+        <v>140</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C142" s="5">
+        <v>44149</v>
+      </c>
+      <c r="D142" s="9"/>
+      <c r="E142" s="4">
+        <v>50</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.20.30.42\userprofile2\0000077178\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.20.30.42\userprofile2\0000072729\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$142</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$144</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="262">
   <si>
     <t>年代</t>
   </si>
@@ -1568,6 +1568,43 @@
     <t>男</t>
     <rPh sb="0" eb="1">
       <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.139の妻</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.139の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内516例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内517例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2018,14 +2055,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A143" sqref="A143"/>
+      <selection pane="bottomRight" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5185,6 +5222,48 @@
         <v>140</v>
       </c>
     </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A143" s="6">
+        <v>141</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C143" s="5">
+        <v>44150</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="4">
+        <v>50</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A144" s="6">
+        <v>142</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C144" s="5">
+        <v>44150</v>
+      </c>
+      <c r="D144" s="9"/>
+      <c r="E144" s="4">
+        <v>20</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.20.30.42\userprofile2\0000072729\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12564CF6-C1B8-4BD5-BFCC-158AEA439F14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$144</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$145</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="263">
   <si>
     <t>年代</t>
   </si>
@@ -1608,11 +1609,24 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>県内518例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2054,15 +2068,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G144"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D139" sqref="D139"/>
+      <selection pane="bottomRight" activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5264,12 +5281,31 @@
         <v>259</v>
       </c>
     </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A145" s="6">
+        <v>143</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C145" s="5">
+        <v>44151</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="4">
+        <v>10</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G145" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12564CF6-C1B8-4BD5-BFCC-158AEA439F14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508DCB18-ACD3-4A30-A1B0-2C24A12E8173}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$145</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$147</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="267">
   <si>
     <t>年代</t>
   </si>
@@ -1619,6 +1619,46 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内523例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.143の父</t>
+    <rPh sb="7" eb="8">
+      <t>チチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内524例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.143の弟</t>
+    <rPh sb="7" eb="8">
+      <t>オトウト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2072,14 +2112,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E148" sqref="E148"/>
+      <selection pane="bottomRight" activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5300,6 +5340,48 @@
       </c>
       <c r="G145" s="9"/>
     </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A146" s="6">
+        <v>144</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C146" s="5">
+        <v>44152</v>
+      </c>
+      <c r="D146" s="9"/>
+      <c r="E146" s="4">
+        <v>40</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A147" s="6">
+        <v>145</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C147" s="5">
+        <v>44152</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="4">
+        <v>10</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508DCB18-ACD3-4A30-A1B0-2C24A12E8173}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$147</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$148</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="268">
   <si>
     <t>年代</t>
   </si>
@@ -1662,11 +1661,24 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>県内528例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2108,18 +2120,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G148" sqref="G148"/>
+      <selection pane="bottomRight" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5382,6 +5394,25 @@
         <v>266</v>
       </c>
     </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A148" s="6">
+        <v>146</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C148" s="5">
+        <v>44153</v>
+      </c>
+      <c r="D148" s="9"/>
+      <c r="E148" s="4">
+        <v>30</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G148" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB95350-8A9F-4B93-9901-50B7199852A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$148</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$153</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="277">
   <si>
     <t>年代</t>
   </si>
@@ -1674,11 +1675,98 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内539例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内540例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内541例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内542例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内543例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1795,7 +1883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1840,6 +1928,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2120,18 +2211,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C150" sqref="C150"/>
+      <selection pane="bottomRight" activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5413,6 +5504,105 @@
       </c>
       <c r="G148" s="10"/>
     </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A149" s="6">
+        <v>147</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C149" s="5">
+        <v>44153</v>
+      </c>
+      <c r="D149" s="9"/>
+      <c r="E149" s="4">
+        <v>60</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G149" s="9"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A150" s="6">
+        <v>148</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C150" s="5">
+        <v>44154</v>
+      </c>
+      <c r="D150" s="9"/>
+      <c r="E150" s="4">
+        <v>20</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A151" s="6">
+        <v>149</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C151" s="5">
+        <v>44154</v>
+      </c>
+      <c r="D151" s="9"/>
+      <c r="E151" s="4">
+        <v>60</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A152" s="6">
+        <v>150</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C152" s="5">
+        <v>44154</v>
+      </c>
+      <c r="D152" s="9"/>
+      <c r="E152" s="4">
+        <v>40</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="G152" s="9"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A153" s="4">
+        <v>151</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C153" s="5">
+        <v>44154</v>
+      </c>
+      <c r="D153" s="9"/>
+      <c r="E153" s="4">
+        <v>40</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G153" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
@@ -5420,5 +5610,10 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="48" max="6" man="1"/>
+    <brk id="98" max="6" man="1"/>
+    <brk id="148" max="6" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB95350-8A9F-4B93-9901-50B7199852A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$155</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="281">
   <si>
     <t>年代</t>
   </si>
@@ -1762,11 +1761,51 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>県内549例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内550例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.149の濃厚接触者</t>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1926,11 +1965,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2211,18 +2250,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F152" sqref="F152"/>
+      <selection pane="bottomRight" activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2237,15 +2276,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -5579,7 +5618,7 @@
       <c r="E152" s="4">
         <v>40</v>
       </c>
-      <c r="F152" s="15" t="s">
+      <c r="F152" s="14" t="s">
         <v>276</v>
       </c>
       <c r="G152" s="9"/>
@@ -5602,6 +5641,66 @@
         <v>145</v>
       </c>
       <c r="G153" s="9"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A154" s="6">
+        <v>152</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C154" s="5">
+        <v>44155</v>
+      </c>
+      <c r="D154" s="9"/>
+      <c r="E154" s="4">
+        <v>70</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A155" s="6">
+        <v>153</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C155" s="5">
+        <v>44155</v>
+      </c>
+      <c r="D155" s="9"/>
+      <c r="E155" s="4">
+        <v>40</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A156"/>
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A157"/>
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$155</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$156</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="282">
   <si>
     <t>年代</t>
   </si>
@@ -1798,6 +1798,19 @@
     </rPh>
     <rPh sb="9" eb="12">
       <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内552例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2254,14 +2267,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A153" sqref="A153"/>
+      <selection pane="bottomRight" activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5678,20 +5691,30 @@
         <v>40</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="G155" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A156"/>
-      <c r="B156"/>
-      <c r="C156"/>
-      <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156"/>
-      <c r="G156"/>
+      <c r="A156" s="6">
+        <v>154</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C156" s="5">
+        <v>44155</v>
+      </c>
+      <c r="D156" s="9"/>
+      <c r="E156" s="4">
+        <v>40</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G156" s="10"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157"/>
@@ -5701,6 +5724,15 @@
       <c r="E157"/>
       <c r="F157"/>
       <c r="G157"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A158"/>
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$156</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$163</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="293">
   <si>
     <t>年代</t>
   </si>
@@ -1811,6 +1811,125 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内567例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内568例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内569例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内570例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内571例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内572例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内573例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№151の接触者</t>
+    <rPh sb="5" eb="8">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高根沢町在住</t>
+    <rPh sb="0" eb="4">
+      <t>タカネザワマチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№155の子</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1935,7 +2054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1983,6 +2102,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2267,14 +2389,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B148" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A156" sqref="A156"/>
+      <selection pane="bottomRight" activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5717,22 +5839,145 @@
       <c r="G156" s="10"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A157"/>
-      <c r="B157"/>
-      <c r="C157"/>
-      <c r="D157"/>
-      <c r="E157"/>
-      <c r="F157"/>
-      <c r="G157"/>
+      <c r="A157" s="6">
+        <v>155</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C157" s="5">
+        <v>44156</v>
+      </c>
+      <c r="D157" s="9"/>
+      <c r="E157" s="4">
+        <v>60</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G157" s="10"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A158"/>
-      <c r="B158"/>
-      <c r="C158"/>
-      <c r="D158"/>
-      <c r="E158"/>
-      <c r="F158"/>
-      <c r="G158"/>
+      <c r="A158" s="6">
+        <v>156</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C158" s="5">
+        <v>44156</v>
+      </c>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4">
+        <v>40</v>
+      </c>
+      <c r="F158" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G158" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A159" s="4">
+        <v>157</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C159" s="5">
+        <v>44156</v>
+      </c>
+      <c r="D159" s="9"/>
+      <c r="E159" s="4">
+        <v>40</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G159" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A160" s="6">
+        <v>158</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C160" s="5">
+        <v>44157</v>
+      </c>
+      <c r="D160" s="9"/>
+      <c r="E160" s="4">
+        <v>40</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A161" s="6">
+        <v>159</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C161" s="5">
+        <v>44157</v>
+      </c>
+      <c r="D161" s="9"/>
+      <c r="E161" s="4">
+        <v>40</v>
+      </c>
+      <c r="F161" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G161" s="9"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A162" s="6">
+        <v>160</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C162" s="5">
+        <v>44157</v>
+      </c>
+      <c r="D162" s="9"/>
+      <c r="E162" s="4">
+        <v>30</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G162" s="9"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A163" s="4">
+        <v>161</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C163" s="5">
+        <v>44157</v>
+      </c>
+      <c r="D163" s="9"/>
+      <c r="E163" s="4">
+        <v>30</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5740,7 +5985,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="48" max="6" man="1"/>
     <brk id="98" max="6" man="1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$163</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$164</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="296">
   <si>
     <t>年代</t>
   </si>
@@ -1930,6 +1930,45 @@
     <t>№155の子</t>
     <rPh sb="5" eb="6">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内559例目の妻</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内574例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2100,11 +2139,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2389,14 +2428,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B157" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A158" sqref="A158"/>
+      <selection pane="bottomRight" activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2411,15 +2450,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -5871,10 +5910,10 @@
       <c r="E158" s="4">
         <v>40</v>
       </c>
-      <c r="F158" s="16" t="s">
+      <c r="F158" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G158" s="16" t="s">
+      <c r="G158" s="15" t="s">
         <v>289</v>
       </c>
     </row>
@@ -5895,7 +5934,7 @@
       <c r="F159" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="G159" s="16" t="s">
+      <c r="G159" s="15" t="s">
         <v>289</v>
       </c>
     </row>
@@ -5934,7 +5973,7 @@
       <c r="E161" s="4">
         <v>40</v>
       </c>
-      <c r="F161" s="16" t="s">
+      <c r="F161" s="15" t="s">
         <v>145</v>
       </c>
       <c r="G161" s="9"/>
@@ -5977,6 +6016,27 @@
       </c>
       <c r="G163" s="9" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A164" s="4">
+        <v>162</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C164" s="5">
+        <v>44158</v>
+      </c>
+      <c r="D164" s="9"/>
+      <c r="E164" s="4">
+        <v>70</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5985,7 +6045,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="48" max="6" man="1"/>
     <brk id="98" max="6" man="1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$164</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$169</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="303">
   <si>
     <t>年代</t>
   </si>
@@ -1969,6 +1969,82 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内581例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内582例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内583例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内584例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内585例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2428,14 +2504,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B165" sqref="B165"/>
+      <selection pane="bottomRight" activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6039,6 +6115,101 @@
         <v>294</v>
       </c>
     </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A165" s="6">
+        <v>163</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C165" s="5">
+        <v>44159</v>
+      </c>
+      <c r="D165" s="9"/>
+      <c r="E165" s="4">
+        <v>50</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G165" s="9"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A166" s="4">
+        <v>164</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C166" s="5">
+        <v>44159</v>
+      </c>
+      <c r="D166" s="9"/>
+      <c r="E166" s="4">
+        <v>20</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G166" s="9"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A167" s="4">
+        <v>165</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C167" s="5">
+        <v>44159</v>
+      </c>
+      <c r="D167" s="9"/>
+      <c r="E167" s="4">
+        <v>30</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G167" s="9"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A168" s="6">
+        <v>166</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C168" s="5">
+        <v>44159</v>
+      </c>
+      <c r="D168" s="9"/>
+      <c r="E168" s="4">
+        <v>60</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G168" s="9"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A169" s="4">
+        <v>167</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C169" s="5">
+        <v>44159</v>
+      </c>
+      <c r="D169" s="9"/>
+      <c r="E169" s="4">
+        <v>50</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G169" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,8 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$169</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$178</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="321">
   <si>
     <t>年代</t>
   </si>
@@ -2046,6 +2047,204 @@
     <rPh sb="0" eb="1">
       <t>オトコ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内591例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内592例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内593例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内594例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内595例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内596例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№166の父</t>
+    <rPh sb="5" eb="6">
+      <t>チチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№166の母</t>
+    <rPh sb="5" eb="6">
+      <t>ハハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№166の子</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№167の同僚</t>
+    <rPh sb="5" eb="7">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内598例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内599例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№175の夫</t>
+    <rPh sb="5" eb="6">
+      <t>オット</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№174の妻</t>
+    <rPh sb="5" eb="6">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内600例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№160の同僚</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2169,7 +2368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2217,6 +2416,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2504,14 +2706,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B163" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E170" sqref="E170"/>
+      <selection pane="bottomRight" activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2519,22 +2721,22 @@
     <col min="1" max="1" width="9" style="11"/>
     <col min="2" max="2" width="19.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9" style="11"/>
+    <col min="4" max="4" width="14.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9" style="16"/>
     <col min="6" max="6" width="7.75" style="11" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -5475,7 +5677,9 @@
       <c r="C133" s="3">
         <v>44134</v>
       </c>
-      <c r="D133" s="5"/>
+      <c r="D133" s="5">
+        <v>44159</v>
+      </c>
       <c r="E133" s="7">
         <v>50</v>
       </c>
@@ -5540,7 +5744,9 @@
       <c r="C136" s="3">
         <v>44144</v>
       </c>
-      <c r="D136" s="9"/>
+      <c r="D136" s="5">
+        <v>44154</v>
+      </c>
       <c r="E136" s="7">
         <v>30</v>
       </c>
@@ -5561,7 +5767,7 @@
       <c r="C137" s="3">
         <v>44145</v>
       </c>
-      <c r="D137" s="9"/>
+      <c r="D137" s="4"/>
       <c r="E137" s="7">
         <v>70</v>
       </c>
@@ -5580,7 +5786,9 @@
       <c r="C138" s="3">
         <v>44145</v>
       </c>
-      <c r="D138" s="9"/>
+      <c r="D138" s="5">
+        <v>44151</v>
+      </c>
       <c r="E138" s="7">
         <v>60</v>
       </c>
@@ -5601,7 +5809,7 @@
       <c r="C139" s="3">
         <v>44146</v>
       </c>
-      <c r="D139" s="9"/>
+      <c r="D139" s="4"/>
       <c r="E139" s="7">
         <v>50</v>
       </c>
@@ -5622,7 +5830,9 @@
       <c r="C140" s="5">
         <v>44148</v>
       </c>
-      <c r="D140" s="9"/>
+      <c r="D140" s="5">
+        <v>44158</v>
+      </c>
       <c r="E140" s="4">
         <v>60</v>
       </c>
@@ -5641,7 +5851,9 @@
       <c r="C141" s="5">
         <v>44149</v>
       </c>
-      <c r="D141" s="9"/>
+      <c r="D141" s="5">
+        <v>44157</v>
+      </c>
       <c r="E141" s="4">
         <v>50</v>
       </c>
@@ -5660,7 +5872,7 @@
       <c r="C142" s="5">
         <v>44149</v>
       </c>
-      <c r="D142" s="9"/>
+      <c r="D142" s="4"/>
       <c r="E142" s="4">
         <v>50</v>
       </c>
@@ -5681,7 +5893,7 @@
       <c r="C143" s="5">
         <v>44150</v>
       </c>
-      <c r="D143" s="9"/>
+      <c r="D143" s="4"/>
       <c r="E143" s="4">
         <v>50</v>
       </c>
@@ -5702,7 +5914,9 @@
       <c r="C144" s="5">
         <v>44150</v>
       </c>
-      <c r="D144" s="9"/>
+      <c r="D144" s="5">
+        <v>44160</v>
+      </c>
       <c r="E144" s="4">
         <v>20</v>
       </c>
@@ -5723,7 +5937,7 @@
       <c r="C145" s="5">
         <v>44151</v>
       </c>
-      <c r="D145" s="9"/>
+      <c r="D145" s="4"/>
       <c r="E145" s="4">
         <v>10</v>
       </c>
@@ -5742,7 +5956,7 @@
       <c r="C146" s="5">
         <v>44152</v>
       </c>
-      <c r="D146" s="9"/>
+      <c r="D146" s="4"/>
       <c r="E146" s="4">
         <v>40</v>
       </c>
@@ -5763,7 +5977,7 @@
       <c r="C147" s="5">
         <v>44152</v>
       </c>
-      <c r="D147" s="9"/>
+      <c r="D147" s="4"/>
       <c r="E147" s="4">
         <v>10</v>
       </c>
@@ -5784,7 +5998,9 @@
       <c r="C148" s="5">
         <v>44153</v>
       </c>
-      <c r="D148" s="9"/>
+      <c r="D148" s="5">
+        <v>44157</v>
+      </c>
       <c r="E148" s="4">
         <v>30</v>
       </c>
@@ -5803,7 +6019,7 @@
       <c r="C149" s="5">
         <v>44153</v>
       </c>
-      <c r="D149" s="9"/>
+      <c r="D149" s="4"/>
       <c r="E149" s="4">
         <v>60</v>
       </c>
@@ -5822,7 +6038,7 @@
       <c r="C150" s="5">
         <v>44154</v>
       </c>
-      <c r="D150" s="9"/>
+      <c r="D150" s="4"/>
       <c r="E150" s="4">
         <v>20</v>
       </c>
@@ -5843,7 +6059,7 @@
       <c r="C151" s="5">
         <v>44154</v>
       </c>
-      <c r="D151" s="9"/>
+      <c r="D151" s="4"/>
       <c r="E151" s="4">
         <v>60</v>
       </c>
@@ -5864,7 +6080,9 @@
       <c r="C152" s="5">
         <v>44154</v>
       </c>
-      <c r="D152" s="9"/>
+      <c r="D152" s="5">
+        <v>44159</v>
+      </c>
       <c r="E152" s="4">
         <v>40</v>
       </c>
@@ -5883,7 +6101,9 @@
       <c r="C153" s="5">
         <v>44154</v>
       </c>
-      <c r="D153" s="9"/>
+      <c r="D153" s="5">
+        <v>44158</v>
+      </c>
       <c r="E153" s="4">
         <v>40</v>
       </c>
@@ -5902,7 +6122,7 @@
       <c r="C154" s="5">
         <v>44155</v>
       </c>
-      <c r="D154" s="9"/>
+      <c r="D154" s="4"/>
       <c r="E154" s="4">
         <v>70</v>
       </c>
@@ -5923,7 +6143,7 @@
       <c r="C155" s="5">
         <v>44155</v>
       </c>
-      <c r="D155" s="9"/>
+      <c r="D155" s="4"/>
       <c r="E155" s="4">
         <v>40</v>
       </c>
@@ -5944,7 +6164,7 @@
       <c r="C156" s="5">
         <v>44155</v>
       </c>
-      <c r="D156" s="9"/>
+      <c r="D156" s="4"/>
       <c r="E156" s="4">
         <v>40</v>
       </c>
@@ -5963,7 +6183,7 @@
       <c r="C157" s="5">
         <v>44156</v>
       </c>
-      <c r="D157" s="9"/>
+      <c r="D157" s="4"/>
       <c r="E157" s="4">
         <v>60</v>
       </c>
@@ -5982,7 +6202,9 @@
       <c r="C158" s="5">
         <v>44156</v>
       </c>
-      <c r="D158" s="4"/>
+      <c r="D158" s="5">
+        <v>44159</v>
+      </c>
       <c r="E158" s="4">
         <v>40</v>
       </c>
@@ -6003,7 +6225,7 @@
       <c r="C159" s="5">
         <v>44156</v>
       </c>
-      <c r="D159" s="9"/>
+      <c r="D159" s="4"/>
       <c r="E159" s="4">
         <v>40</v>
       </c>
@@ -6024,7 +6246,7 @@
       <c r="C160" s="5">
         <v>44157</v>
       </c>
-      <c r="D160" s="9"/>
+      <c r="D160" s="4"/>
       <c r="E160" s="4">
         <v>40</v>
       </c>
@@ -6045,7 +6267,7 @@
       <c r="C161" s="5">
         <v>44157</v>
       </c>
-      <c r="D161" s="9"/>
+      <c r="D161" s="4"/>
       <c r="E161" s="4">
         <v>40</v>
       </c>
@@ -6064,7 +6286,7 @@
       <c r="C162" s="5">
         <v>44157</v>
       </c>
-      <c r="D162" s="9"/>
+      <c r="D162" s="4"/>
       <c r="E162" s="4">
         <v>30</v>
       </c>
@@ -6083,7 +6305,7 @@
       <c r="C163" s="5">
         <v>44157</v>
       </c>
-      <c r="D163" s="9"/>
+      <c r="D163" s="4"/>
       <c r="E163" s="4">
         <v>30</v>
       </c>
@@ -6104,7 +6326,7 @@
       <c r="C164" s="5">
         <v>44158</v>
       </c>
-      <c r="D164" s="9"/>
+      <c r="D164" s="4"/>
       <c r="E164" s="4">
         <v>70</v>
       </c>
@@ -6125,7 +6347,7 @@
       <c r="C165" s="5">
         <v>44159</v>
       </c>
-      <c r="D165" s="9"/>
+      <c r="D165" s="4"/>
       <c r="E165" s="4">
         <v>50</v>
       </c>
@@ -6144,7 +6366,7 @@
       <c r="C166" s="5">
         <v>44159</v>
       </c>
-      <c r="D166" s="9"/>
+      <c r="D166" s="4"/>
       <c r="E166" s="4">
         <v>20</v>
       </c>
@@ -6163,7 +6385,7 @@
       <c r="C167" s="5">
         <v>44159</v>
       </c>
-      <c r="D167" s="9"/>
+      <c r="D167" s="4"/>
       <c r="E167" s="4">
         <v>30</v>
       </c>
@@ -6182,7 +6404,7 @@
       <c r="C168" s="5">
         <v>44159</v>
       </c>
-      <c r="D168" s="9"/>
+      <c r="D168" s="4"/>
       <c r="E168" s="4">
         <v>60</v>
       </c>
@@ -6201,7 +6423,7 @@
       <c r="C169" s="5">
         <v>44159</v>
       </c>
-      <c r="D169" s="9"/>
+      <c r="D169" s="4"/>
       <c r="E169" s="4">
         <v>50</v>
       </c>
@@ -6209,14 +6431,201 @@
         <v>302</v>
       </c>
       <c r="G169" s="9"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A170" s="6">
+        <v>168</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C170" s="5">
+        <v>44160</v>
+      </c>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4">
+        <v>90</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A171" s="4">
+        <v>169</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C171" s="5">
+        <v>44160</v>
+      </c>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4">
+        <v>90</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A172" s="4">
+        <v>170</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C172" s="5">
+        <v>44160</v>
+      </c>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4">
+        <v>30</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A173" s="6">
+        <v>171</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C173" s="5">
+        <v>44160</v>
+      </c>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4">
+        <v>50</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A174" s="4">
+        <v>172</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C174" s="5">
+        <v>44160</v>
+      </c>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4">
+        <v>50</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G174" s="9"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A175" s="6">
+        <v>173</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C175" s="5">
+        <v>44160</v>
+      </c>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4">
+        <v>40</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A176" s="6">
+        <v>174</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C176" s="5">
+        <v>44160</v>
+      </c>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4">
+        <v>50</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G176" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A177" s="4">
+        <v>175</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C177" s="5">
+        <v>44160</v>
+      </c>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4">
+        <v>50</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A178" s="6">
+        <v>176</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C178" s="5">
+        <v>44161</v>
+      </c>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4">
+        <v>50</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G178" s="9" t="s">
+        <v>320</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="48" max="6" man="1"/>
     <brk id="98" max="6" man="1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47126D79-3A11-4432-A244-1EAF33719CED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$178</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$183</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="331">
   <si>
     <t>年代</t>
   </si>
@@ -2247,11 +2248,126 @@
     <t>№160の同僚</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>県内601例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内602例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内606例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内607例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内608例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№172の同僚</t>
+    <rPh sb="5" eb="7">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№176の妻</t>
+    <rPh sb="5" eb="6">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№179の夫</t>
+    <rPh sb="5" eb="6">
+      <t>オット</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№181の妻</t>
+    <rPh sb="5" eb="6">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2702,18 +2818,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B163" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B173" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I176" sqref="I176"/>
+      <selection pane="bottomRight" activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6619,6 +6735,109 @@
         <v>320</v>
       </c>
     </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A179" s="6">
+        <v>177</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C179" s="5">
+        <v>44161</v>
+      </c>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4">
+        <v>50</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A180" s="6">
+        <v>178</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C180" s="5">
+        <v>44161</v>
+      </c>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4">
+        <v>10</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G180" s="9"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A181" s="4">
+        <v>179</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C181" s="5">
+        <v>44162</v>
+      </c>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4">
+        <v>80</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A182" s="6">
+        <v>180</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C182" s="5">
+        <v>44162</v>
+      </c>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4">
+        <v>50</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A183" s="6">
+        <v>181</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C183" s="5">
+        <v>44162</v>
+      </c>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4">
+        <v>80</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
@@ -6628,8 +6847,8 @@
   <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="48" max="6" man="1"/>
-    <brk id="98" max="6" man="1"/>
-    <brk id="148" max="6" man="1"/>
+    <brk id="97" max="6" man="1"/>
+    <brk id="144" max="6" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47126D79-3A11-4432-A244-1EAF33719CED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$183</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$185</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="334">
   <si>
     <t>年代</t>
   </si>
@@ -2363,11 +2362,59 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>県内619例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内620例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内610例目の家族</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2818,18 +2865,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G180" sqref="G180"/>
+      <selection pane="bottomRight" activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6838,6 +6885,48 @@
         <v>329</v>
       </c>
     </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A184" s="6">
+        <v>182</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C184" s="5">
+        <v>44163</v>
+      </c>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4">
+        <v>40</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A185" s="6">
+        <v>183</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C185" s="5">
+        <v>44163</v>
+      </c>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4">
+        <v>60</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$185</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$189</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="340">
   <si>
     <t>年代</t>
   </si>
@@ -2408,6 +2408,72 @@
     <rPh sb="8" eb="10">
       <t>カゾク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鹿沼市在住(他県での陽性者との接触あり)</t>
+    <rPh sb="0" eb="3">
+      <t>カヌマシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内632例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内633例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内634例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内635例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他県での陽性者との接触あり</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2502,7 +2568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2525,13 +2591,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2582,6 +2681,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2869,14 +2989,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B177" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F189" sqref="F189"/>
+      <selection pane="bottomRight" activeCell="I184" sqref="I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2887,19 +3007,19 @@
     <col min="4" max="4" width="14.75" style="16" customWidth="1"/>
     <col min="5" max="5" width="9" style="16"/>
     <col min="6" max="6" width="7.75" style="11" customWidth="1"/>
-    <col min="7" max="7" width="28.75" style="11" customWidth="1"/>
+    <col min="7" max="7" width="38.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -3874,7 +3994,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -3897,7 +4017,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -6740,7 +6860,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="4">
         <v>175</v>
       </c>
@@ -6761,7 +6881,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="6">
         <v>176</v>
       </c>
@@ -6782,7 +6902,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="6">
         <v>177</v>
       </c>
@@ -6803,7 +6923,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="6">
         <v>178</v>
       </c>
@@ -6822,7 +6942,7 @@
       </c>
       <c r="G180" s="9"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="4">
         <v>179</v>
       </c>
@@ -6843,7 +6963,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="6">
         <v>180</v>
       </c>
@@ -6864,7 +6984,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="6">
         <v>181</v>
       </c>
@@ -6885,7 +7005,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="6">
         <v>182</v>
       </c>
@@ -6906,7 +7026,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="6">
         <v>183</v>
       </c>
@@ -6926,6 +7046,105 @@
       <c r="G185" s="9" t="s">
         <v>140</v>
       </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A186" s="6">
+        <v>184</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C186" s="5">
+        <v>44164</v>
+      </c>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4">
+        <v>30</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G186" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A187" s="6">
+        <v>185</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C187" s="5">
+        <v>44164</v>
+      </c>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4">
+        <v>60</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G187" s="9"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A188" s="6">
+        <v>186</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C188" s="5">
+        <v>44164</v>
+      </c>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4">
+        <v>40</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G188" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A189" s="6">
+        <v>187</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C189" s="5">
+        <v>44164</v>
+      </c>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4">
+        <v>50</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A190" s="17"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="22"/>
+      <c r="H190" s="23"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A191" s="18"/>
+      <c r="B191" s="18"/>
+      <c r="C191" s="18"/>
+      <c r="F191" s="18"/>
+      <c r="G191" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6933,7 +7152,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="48" max="6" man="1"/>
     <brk id="97" max="6" man="1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$189</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$190</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="341">
   <si>
     <t>年代</t>
   </si>
@@ -2474,6 +2474,19 @@
   </si>
   <si>
     <t>他県での陽性者との接触あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内639例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2568,7 +2581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2591,46 +2604,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2682,22 +2662,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -2992,11 +2957,11 @@
   <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I184" sqref="I184"/>
+      <selection pane="bottomRight" activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3011,15 +2976,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -6092,7 +6057,9 @@
       <c r="C139" s="3">
         <v>44146</v>
       </c>
-      <c r="D139" s="4"/>
+      <c r="D139" s="5">
+        <v>44160</v>
+      </c>
       <c r="E139" s="7">
         <v>50</v>
       </c>
@@ -6220,7 +6187,9 @@
       <c r="C145" s="5">
         <v>44151</v>
       </c>
-      <c r="D145" s="4"/>
+      <c r="D145" s="5">
+        <v>44160</v>
+      </c>
       <c r="E145" s="4">
         <v>10</v>
       </c>
@@ -6239,7 +6208,9 @@
       <c r="C146" s="5">
         <v>44152</v>
       </c>
-      <c r="D146" s="4"/>
+      <c r="D146" s="5">
+        <v>44160</v>
+      </c>
       <c r="E146" s="4">
         <v>40</v>
       </c>
@@ -6260,7 +6231,9 @@
       <c r="C147" s="5">
         <v>44152</v>
       </c>
-      <c r="D147" s="4"/>
+      <c r="D147" s="5">
+        <v>44160</v>
+      </c>
       <c r="E147" s="4">
         <v>10</v>
       </c>
@@ -6447,7 +6420,9 @@
       <c r="C156" s="5">
         <v>44155</v>
       </c>
-      <c r="D156" s="4"/>
+      <c r="D156" s="5">
+        <v>44164</v>
+      </c>
       <c r="E156" s="4">
         <v>40</v>
       </c>
@@ -7130,21 +7105,31 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A190" s="17"/>
-      <c r="B190" s="19"/>
-      <c r="C190" s="20"/>
-      <c r="D190" s="21"/>
-      <c r="E190" s="21"/>
-      <c r="F190" s="22"/>
-      <c r="G190" s="22"/>
-      <c r="H190" s="23"/>
+      <c r="A190" s="6">
+        <v>188</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C190" s="5">
+        <v>44165</v>
+      </c>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4">
+        <v>60</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G190" s="9"/>
+      <c r="H190" s="18"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A191" s="18"/>
-      <c r="B191" s="18"/>
-      <c r="C191" s="18"/>
-      <c r="F191" s="18"/>
-      <c r="G191" s="18"/>
+      <c r="A191" s="17"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="17"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$190</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$192</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="345">
   <si>
     <t>年代</t>
   </si>
@@ -2478,6 +2478,46 @@
   </si>
   <si>
     <t>県内639例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内664例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№188の妻</t>
+    <rPh sb="5" eb="6">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№189の夫</t>
+    <rPh sb="5" eb="6">
+      <t>オット</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内665例目</t>
     <rPh sb="0" eb="2">
       <t>ケンナイ</t>
     </rPh>
@@ -2610,7 +2650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2661,9 +2701,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2954,14 +2991,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E195" sqref="E195"/>
+      <selection pane="bottomRight" activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2976,15 +3013,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -7121,15 +7158,51 @@
       <c r="F190" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G190" s="9"/>
-      <c r="H190" s="18"/>
+      <c r="G190" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="H190" s="17"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A191" s="17"/>
-      <c r="B191" s="17"/>
-      <c r="C191" s="17"/>
-      <c r="F191" s="17"/>
-      <c r="G191" s="17"/>
+      <c r="A191" s="6">
+        <v>189</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C191" s="5">
+        <v>44166</v>
+      </c>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4">
+        <v>50</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H191" s="17"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A192" s="6">
+        <v>190</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C192" s="5">
+        <v>44166</v>
+      </c>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4">
+        <v>80</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G192" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$192</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$196</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="353">
   <si>
     <t>年代</t>
   </si>
@@ -2518,6 +2518,83 @@
   </si>
   <si>
     <t>県内665例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内666例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内667例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内668例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№193の夫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内689例目</t>
     <rPh sb="0" eb="2">
       <t>ケンナイ</t>
     </rPh>
@@ -2991,14 +3068,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C196" sqref="C196"/>
+      <selection pane="bottomRight" activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7204,6 +7281,84 @@
       </c>
       <c r="G192" s="9"/>
     </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A193" s="6">
+        <v>191</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C193" s="5">
+        <v>44166</v>
+      </c>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4">
+        <v>30</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="G193" s="9"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A194" s="6">
+        <v>192</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C194" s="5">
+        <v>44166</v>
+      </c>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4">
+        <v>50</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="G194" s="9"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A195" s="6">
+        <v>193</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C195" s="5">
+        <v>44166</v>
+      </c>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4">
+        <v>50</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G195" s="9"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A196" s="4">
+        <v>194</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C196" s="5">
+        <v>44167</v>
+      </c>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4">
+        <v>50</v>
+      </c>
+      <c r="F196" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G196" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8F6D02-3F21-4998-993E-9146DED3AC7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$196</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$198</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="357">
   <si>
     <t>年代</t>
   </si>
@@ -2606,11 +2607,51 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>県内702例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内703例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№195の同僚</t>
+    <rPh sb="5" eb="7">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3064,18 +3105,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B198" sqref="B198"/>
+      <selection pane="bottomRight" activeCell="F199" sqref="F199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7359,6 +7400,46 @@
         <v>351</v>
       </c>
     </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A197" s="6">
+        <v>195</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C197" s="5">
+        <v>44167</v>
+      </c>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4">
+        <v>30</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G197" s="9"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A198" s="4">
+        <v>196</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C198" s="5">
+        <v>44168</v>
+      </c>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4">
+        <v>40</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G198" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8F6D02-3F21-4998-993E-9146DED3AC7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5876DF83-6E8C-432E-9647-E97387D890BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$198</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$200</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="361">
   <si>
     <t>年代</t>
   </si>
@@ -2644,6 +2644,46 @@
     <t>№195の同僚</t>
     <rPh sb="5" eb="7">
       <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内719例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内720例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3109,14 +3149,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B190" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F199" sqref="F199"/>
+      <selection pane="bottomRight" activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7440,6 +7480,44 @@
         <v>356</v>
       </c>
     </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A199" s="4">
+        <v>197</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C199" s="5">
+        <v>44169</v>
+      </c>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4">
+        <v>20</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="G199" s="9"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A200" s="6">
+        <v>198</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C200" s="5">
+        <v>44169</v>
+      </c>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4">
+        <v>40</v>
+      </c>
+      <c r="F200" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G200" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5876DF83-6E8C-432E-9647-E97387D890BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$200</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$203</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="367">
   <si>
     <t>年代</t>
   </si>
@@ -2661,6 +2660,60 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内732例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内733例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№197の母</t>
+    <rPh sb="5" eb="6">
+      <t>ハハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№198の妻</t>
+    <rPh sb="5" eb="6">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>県内720例目</t>
     <rPh sb="0" eb="2">
       <t>ケンナイ</t>
@@ -2674,16 +2727,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>県内731例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>女</t>
     <rPh sb="0" eb="1">
       <t>オンナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男</t>
-    <rPh sb="0" eb="1">
-      <t>オトコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2691,7 +2753,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3145,18 +3207,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B190" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B193" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D195" sqref="D195"/>
+      <selection pane="bottomRight" activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7495,7 +7557,7 @@
         <v>20</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G199" s="9"/>
     </row>
@@ -7504,7 +7566,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C200" s="5">
         <v>44169</v>
@@ -7514,9 +7576,70 @@
         <v>40</v>
       </c>
       <c r="F200" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="G200" s="9"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A201" s="6">
+        <v>199</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C201" s="5">
+        <v>44169</v>
+      </c>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4">
+        <v>20</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="G201" s="9"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A202" s="6">
+        <v>200</v>
+      </c>
+      <c r="B202" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="G200" s="9"/>
+      <c r="C202" s="5">
+        <v>44170</v>
+      </c>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4">
+        <v>40</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G202" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A203" s="6">
+        <v>201</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C203" s="5">
+        <v>44170</v>
+      </c>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4">
+        <v>30</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G203" s="9" t="s">
+        <v>363</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$203</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$204</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="369">
   <si>
     <t>年代</t>
   </si>
@@ -2746,6 +2746,26 @@
     <t>女</t>
     <rPh sb="0" eb="1">
       <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内750例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内672例目の濃厚接触者</t>
+    <rPh sb="8" eb="13">
+      <t>ノウコウセッショクシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3211,14 +3231,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B193" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B199" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A204" sqref="A204"/>
+      <selection pane="bottomRight" activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7641,6 +7661,27 @@
         <v>363</v>
       </c>
     </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A204" s="6">
+        <v>202</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C204" s="5">
+        <v>44171</v>
+      </c>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4">
+        <v>50</v>
+      </c>
+      <c r="F204" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G204" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$204</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$208</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="376">
   <si>
     <t>年代</t>
   </si>
@@ -2767,6 +2767,70 @@
     <rPh sb="8" eb="13">
       <t>ノウコウセッショクシャ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内763例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内764例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内765例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内766例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№204･205の同僚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№203･205の同僚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№203･204の同僚</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3231,14 +3295,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B199" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B203" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G205" sqref="G205"/>
+      <selection pane="bottomRight" activeCell="G208" sqref="G208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6655,7 +6719,9 @@
       <c r="C154" s="5">
         <v>44155</v>
       </c>
-      <c r="D154" s="4"/>
+      <c r="D154" s="5">
+        <v>44168</v>
+      </c>
       <c r="E154" s="4">
         <v>70</v>
       </c>
@@ -6676,7 +6742,9 @@
       <c r="C155" s="5">
         <v>44155</v>
       </c>
-      <c r="D155" s="4"/>
+      <c r="D155" s="5">
+        <v>44168</v>
+      </c>
       <c r="E155" s="4">
         <v>40</v>
       </c>
@@ -6840,7 +6908,9 @@
       <c r="C163" s="5">
         <v>44157</v>
       </c>
-      <c r="D163" s="4"/>
+      <c r="D163" s="5">
+        <v>44166</v>
+      </c>
       <c r="E163" s="4">
         <v>30</v>
       </c>
@@ -6861,7 +6931,9 @@
       <c r="C164" s="5">
         <v>44158</v>
       </c>
-      <c r="D164" s="4"/>
+      <c r="D164" s="5">
+        <v>44167</v>
+      </c>
       <c r="E164" s="4">
         <v>70</v>
       </c>
@@ -6901,7 +6973,9 @@
       <c r="C166" s="5">
         <v>44159</v>
       </c>
-      <c r="D166" s="4"/>
+      <c r="D166" s="5">
+        <v>44166</v>
+      </c>
       <c r="E166" s="4">
         <v>20</v>
       </c>
@@ -6920,7 +6994,9 @@
       <c r="C167" s="5">
         <v>44159</v>
       </c>
-      <c r="D167" s="4"/>
+      <c r="D167" s="5">
+        <v>44167</v>
+      </c>
       <c r="E167" s="4">
         <v>30</v>
       </c>
@@ -6939,7 +7015,9 @@
       <c r="C168" s="5">
         <v>44159</v>
       </c>
-      <c r="D168" s="4"/>
+      <c r="D168" s="5">
+        <v>44167</v>
+      </c>
       <c r="E168" s="4">
         <v>60</v>
       </c>
@@ -6958,7 +7036,9 @@
       <c r="C169" s="5">
         <v>44159</v>
       </c>
-      <c r="D169" s="4"/>
+      <c r="D169" s="5">
+        <v>44168</v>
+      </c>
       <c r="E169" s="4">
         <v>50</v>
       </c>
@@ -7019,7 +7099,9 @@
       <c r="C172" s="5">
         <v>44160</v>
       </c>
-      <c r="D172" s="4"/>
+      <c r="D172" s="5">
+        <v>44166</v>
+      </c>
       <c r="E172" s="4">
         <v>30</v>
       </c>
@@ -7164,7 +7246,9 @@
       <c r="C179" s="5">
         <v>44161</v>
       </c>
-      <c r="D179" s="4"/>
+      <c r="D179" s="5">
+        <v>44171</v>
+      </c>
       <c r="E179" s="4">
         <v>50</v>
       </c>
@@ -7185,7 +7269,9 @@
       <c r="C180" s="5">
         <v>44161</v>
       </c>
-      <c r="D180" s="4"/>
+      <c r="D180" s="5">
+        <v>44168</v>
+      </c>
       <c r="E180" s="4">
         <v>10</v>
       </c>
@@ -7267,7 +7353,9 @@
       <c r="C184" s="5">
         <v>44163</v>
       </c>
-      <c r="D184" s="4"/>
+      <c r="D184" s="5">
+        <v>44167</v>
+      </c>
       <c r="E184" s="4">
         <v>40</v>
       </c>
@@ -7309,7 +7397,9 @@
       <c r="C186" s="5">
         <v>44164</v>
       </c>
-      <c r="D186" s="4"/>
+      <c r="D186" s="5">
+        <v>44170</v>
+      </c>
       <c r="E186" s="4">
         <v>30</v>
       </c>
@@ -7330,7 +7420,7 @@
       <c r="C187" s="5">
         <v>44164</v>
       </c>
-      <c r="D187" s="4"/>
+      <c r="D187" s="5"/>
       <c r="E187" s="4">
         <v>60</v>
       </c>
@@ -7413,7 +7503,9 @@
       <c r="C191" s="5">
         <v>44166</v>
       </c>
-      <c r="D191" s="4"/>
+      <c r="D191" s="5">
+        <v>44169</v>
+      </c>
       <c r="E191" s="4">
         <v>50</v>
       </c>
@@ -7454,7 +7546,9 @@
       <c r="C193" s="5">
         <v>44166</v>
       </c>
-      <c r="D193" s="4"/>
+      <c r="D193" s="5">
+        <v>44172</v>
+      </c>
       <c r="E193" s="4">
         <v>30</v>
       </c>
@@ -7681,6 +7775,88 @@
       <c r="G204" s="9" t="s">
         <v>368</v>
       </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A205" s="6">
+        <v>203</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C205" s="5">
+        <v>44172</v>
+      </c>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4">
+        <v>20</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G205" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A206" s="6">
+        <v>204</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C206" s="5">
+        <v>44172</v>
+      </c>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4">
+        <v>20</v>
+      </c>
+      <c r="F206" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G206" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A207" s="6">
+        <v>205</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C207" s="5">
+        <v>44172</v>
+      </c>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4">
+        <v>30</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G207" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A208" s="6">
+        <v>206</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C208" s="5">
+        <v>44172</v>
+      </c>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4">
+        <v>70</v>
+      </c>
+      <c r="F208" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G208" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$208</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$210</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="379">
   <si>
     <t>年代</t>
   </si>
@@ -2830,7 +2830,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>№203･204の同僚</t>
+    <t>県内782例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内783例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№205の夫</t>
+    <rPh sb="5" eb="6">
+      <t>オット</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№203･204の同僚，№207の妻</t>
+    <rPh sb="17" eb="18">
+      <t>ツマ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3295,14 +3331,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B203" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B200" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G208" sqref="G208"/>
+      <selection pane="bottomRight" activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7836,7 +7872,7 @@
         <v>327</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.4">
@@ -7857,6 +7893,46 @@
         <v>145</v>
       </c>
       <c r="G208" s="9"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A209" s="6">
+        <v>207</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C209" s="5">
+        <v>44173</v>
+      </c>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4">
+        <v>50</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A210" s="6">
+        <v>208</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C210" s="5">
+        <v>44173</v>
+      </c>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4">
+        <v>20</v>
+      </c>
+      <c r="F210" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G210" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1902\無害化フォルダ$\1000350000広報広聴課\外部ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$210</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$219</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="388">
   <si>
     <t>年代</t>
   </si>
@@ -2866,6 +2866,123 @@
     <t>№203･204の同僚，№207の妻</t>
     <rPh sb="17" eb="18">
       <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内793例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内794例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内795例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内796例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内797例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内798例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内799例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内800例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内801例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2990,7 +3107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3044,6 +3161,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3331,14 +3451,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B200" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B208" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F211" sqref="F211"/>
+      <selection pane="bottomRight" activeCell="F220" sqref="F220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3353,15 +3473,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -3376,7 +3496,7 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -7933,6 +8053,177 @@
         <v>145</v>
       </c>
       <c r="G210" s="9"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A211" s="6">
+        <v>209</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C211" s="5">
+        <v>44174</v>
+      </c>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4">
+        <v>60</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G211" s="9"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A212" s="6">
+        <v>210</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C212" s="5">
+        <v>44174</v>
+      </c>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4">
+        <v>50</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G212" s="9"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A213" s="6">
+        <v>211</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C213" s="5">
+        <v>44174</v>
+      </c>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4">
+        <v>50</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G213" s="9"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A214" s="6">
+        <v>212</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C214" s="5">
+        <v>44174</v>
+      </c>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4">
+        <v>20</v>
+      </c>
+      <c r="F214" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G214" s="9"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A215" s="6">
+        <v>213</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C215" s="5">
+        <v>44174</v>
+      </c>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4">
+        <v>20</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G215" s="9"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A216" s="6">
+        <v>214</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C216" s="5">
+        <v>44174</v>
+      </c>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4">
+        <v>60</v>
+      </c>
+      <c r="F216" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G216" s="9"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A217" s="6">
+        <v>215</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C217" s="5">
+        <v>44174</v>
+      </c>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4">
+        <v>40</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G217" s="9"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A218" s="6">
+        <v>216</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C218" s="5">
+        <v>44174</v>
+      </c>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4">
+        <v>20</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G218" s="9"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A219" s="6">
+        <v>217</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C219" s="5">
+        <v>44174</v>
+      </c>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4">
+        <v>20</v>
+      </c>
+      <c r="F219" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G219" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1902\無害化フォルダ$\1000350000広報広聴課\外部ファイル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACA55B8-B5D2-496B-953F-8C843B130CC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$219</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$224</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="411">
   <si>
     <t>年代</t>
   </si>
@@ -2822,14 +2823,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>№204･205の同僚</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>№203･205の同僚</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>県内782例目</t>
     <rPh sb="0" eb="2">
       <t>ケンナイ</t>
@@ -2856,125 +2849,483 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>№205の夫</t>
-    <rPh sb="5" eb="6">
+    <t>県内793例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内794例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内795例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内796例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内797例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内798例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内799例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内800例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内801例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№203～205･207～209･211～222の同僚</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･204･205･207～209･211～222の同僚</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203･205･207～209･211～222の同僚</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203･204･207～209･211～222の同僚，№207の妻</t>
+    <rPh sb="53" eb="54">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203～205･208･209･211～222の同僚，№205の夫</t>
+    <rPh sb="53" eb="54">
       <t>オット</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>№203･204の同僚，№207の妻</t>
-    <rPh sb="17" eb="18">
-      <t>ツマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>県内793例目</t>
-    <rPh sb="0" eb="2">
-      <t>ケンナイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>県内794例目</t>
-    <rPh sb="0" eb="2">
-      <t>ケンナイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>県内795例目</t>
-    <rPh sb="0" eb="2">
-      <t>ケンナイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>県内796例目</t>
-    <rPh sb="0" eb="2">
-      <t>ケンナイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>県内797例目</t>
-    <rPh sb="0" eb="2">
-      <t>ケンナイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>県内798例目</t>
-    <rPh sb="0" eb="2">
-      <t>ケンナイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>県内799例目</t>
-    <rPh sb="0" eb="2">
-      <t>ケンナイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>県内800例目</t>
-    <rPh sb="0" eb="2">
-      <t>ケンナイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>県内801例目</t>
+    <t>県内615･735･739例目，№199･203～205･207･209･211～222の同僚</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203～205･207･208･211～222の同僚</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203～205･207～209･212～222の同僚</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203～205･207～209･211･213～222の同僚</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203～205･207～209･211･212･214～222の同僚</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203～205･207～209･211～213･215～222の同僚</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203～205･207～209･211～214･216～222の同僚</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203～205･207～209･211～215･217～222の同僚</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203～205･207～209･211～216･218～222の同僚</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203～205･207～209･211～217･219～222の同僚</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203～205･207～209･211～218･220～222の同僚</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203～205･207～209･211～219･221～222の同僚</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203～205･207～209･211～220･222の同僚</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内615･735･739例目，№199･203～205･207～209･211～221の同僚</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内819例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内820例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内821例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内822例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内823例目</t>
     <rPh sb="0" eb="2">
       <t>ケンナイ</t>
     </rPh>
@@ -2990,7 +3341,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3107,7 +3458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3164,6 +3515,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3447,18 +3801,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B208" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B219" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F220" sqref="F220"/>
+      <selection pane="bottomRight" activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3473,15 +3827,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -7850,7 +8204,7 @@
       </c>
       <c r="G200" s="9"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A201" s="6">
         <v>199</v>
       </c>
@@ -7867,7 +8221,9 @@
       <c r="F201" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="G201" s="9"/>
+      <c r="G201" s="19" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A202" s="6">
@@ -7932,7 +8288,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A205" s="6">
         <v>203</v>
       </c>
@@ -7949,11 +8305,11 @@
       <c r="F205" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="G205" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G205" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A206" s="6">
         <v>204</v>
       </c>
@@ -7970,11 +8326,11 @@
       <c r="F206" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="G206" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G206" s="19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A207" s="6">
         <v>205</v>
       </c>
@@ -7991,8 +8347,8 @@
       <c r="F207" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="G207" s="9" t="s">
-        <v>378</v>
+      <c r="G207" s="19" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.4">
@@ -8012,14 +8368,14 @@
       <c r="F208" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G208" s="9"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G208" s="19"/>
+    </row>
+    <row r="209" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A209" s="6">
         <v>207</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C209" s="5">
         <v>44173</v>
@@ -8031,16 +8387,16 @@
       <c r="F209" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G209" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G209" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A210" s="6">
         <v>208</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C210" s="5">
         <v>44173</v>
@@ -8052,14 +8408,16 @@
       <c r="F210" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G210" s="9"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G210" s="19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A211" s="6">
         <v>209</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C211" s="5">
         <v>44174</v>
@@ -8071,14 +8429,16 @@
       <c r="F211" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G211" s="9"/>
+      <c r="G211" s="19" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A212" s="6">
         <v>210</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C212" s="5">
         <v>44174</v>
@@ -8090,14 +8450,14 @@
       <c r="F212" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G212" s="9"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G212" s="19"/>
+    </row>
+    <row r="213" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A213" s="6">
         <v>211</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C213" s="5">
         <v>44174</v>
@@ -8109,14 +8469,16 @@
       <c r="F213" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G213" s="9"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G213" s="19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A214" s="6">
         <v>212</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C214" s="5">
         <v>44174</v>
@@ -8128,14 +8490,16 @@
       <c r="F214" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G214" s="9"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G214" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A215" s="6">
         <v>213</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C215" s="5">
         <v>44174</v>
@@ -8147,14 +8511,16 @@
       <c r="F215" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G215" s="9"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G215" s="19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A216" s="6">
         <v>214</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C216" s="5">
         <v>44174</v>
@@ -8166,14 +8532,16 @@
       <c r="F216" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G216" s="9"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G216" s="19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A217" s="6">
         <v>215</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C217" s="5">
         <v>44174</v>
@@ -8185,14 +8553,16 @@
       <c r="F217" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="G217" s="9"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G217" s="19" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A218" s="6">
         <v>216</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C218" s="5">
         <v>44174</v>
@@ -8204,14 +8574,16 @@
       <c r="F218" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G218" s="9"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G218" s="19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A219" s="6">
         <v>217</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C219" s="5">
         <v>44174</v>
@@ -8223,7 +8595,114 @@
       <c r="F219" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G219" s="9"/>
+      <c r="G219" s="19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A220" s="4">
+        <v>218</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C220" s="5">
+        <v>44175</v>
+      </c>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4">
+        <v>10</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="G220" s="19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A221" s="4">
+        <v>219</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C221" s="5">
+        <v>44175</v>
+      </c>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4">
+        <v>20</v>
+      </c>
+      <c r="F221" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="G221" s="19" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A222" s="6">
+        <v>220</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C222" s="5">
+        <v>44175</v>
+      </c>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4">
+        <v>20</v>
+      </c>
+      <c r="F222" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="G222" s="19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A223" s="6">
+        <v>221</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C223" s="5">
+        <v>44175</v>
+      </c>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4">
+        <v>20</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="G223" s="19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A224" s="6">
+        <v>222</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C224" s="5">
+        <v>44175</v>
+      </c>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4">
+        <v>20</v>
+      </c>
+      <c r="F224" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G224" s="19" t="s">
+        <v>405</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACA55B8-B5D2-496B-953F-8C843B130CC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$224</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$228</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="419">
   <si>
     <t>年代</t>
   </si>
@@ -3337,11 +3336,100 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>県内824例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内825例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№213の接触者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内839例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内840例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茂木町在住（県内615･735･739例目，№199･203～205･207～209･211～222の同僚）</t>
+    <rPh sb="0" eb="2">
+      <t>モテギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№214の同居人</t>
+    <rPh sb="5" eb="8">
+      <t>ドウキョニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3801,18 +3889,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H224"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B219" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B223" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B225" sqref="B225"/>
+      <selection pane="bottomRight" activeCell="E225" sqref="E225:G225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8704,13 +8792,95 @@
         <v>405</v>
       </c>
     </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A225" s="6">
+        <v>223</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C225" s="5">
+        <v>44176</v>
+      </c>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4">
+        <v>60</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G225" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A226" s="6">
+        <v>224</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C226" s="5">
+        <v>44176</v>
+      </c>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4">
+        <v>20</v>
+      </c>
+      <c r="F226" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G226" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A227" s="6">
+        <v>225</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C227" s="5">
+        <v>44176</v>
+      </c>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4">
+        <v>50</v>
+      </c>
+      <c r="F227" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="G227" s="19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A228" s="6">
+        <v>226</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C228" s="5">
+        <v>44176</v>
+      </c>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4">
+        <v>20</v>
+      </c>
+      <c r="F228" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="G228" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="48" max="6" man="1"/>
     <brk id="97" max="6" man="1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BBD16A-4D60-4867-B61A-8AFD523FD3BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1231,10 +1232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>県内30７例目</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>県内281例目</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3425,11 +3422,15 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>県内307例目</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3889,18 +3890,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B223" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B190" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E225" sqref="E225:G225"/>
+      <selection pane="bottomRight" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5824,7 +5825,7 @@
         <v>20</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>138</v>
@@ -5891,7 +5892,7 @@
         <v>40</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>166</v>
@@ -5969,7 +5970,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C93" s="3">
         <v>44049</v>
@@ -6034,7 +6035,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C96" s="3">
         <v>44050</v>
@@ -6210,7 +6211,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C104" s="3">
         <v>44055</v>
@@ -6265,7 +6266,7 @@
         <v>44058</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>219</v>
@@ -6337,7 +6338,7 @@
         <v>50</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G109" s="4"/>
     </row>
@@ -6346,7 +6347,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C110" s="3">
         <v>44056</v>
@@ -6367,7 +6368,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C111" s="3">
         <v>44058</v>
@@ -6390,7 +6391,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C112" s="3">
         <v>44058</v>
@@ -6413,7 +6414,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C113" s="3">
         <v>44059</v>
@@ -6459,7 +6460,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C115" s="3">
         <v>44061</v>
@@ -6572,7 +6573,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C120" s="3">
         <v>44064</v>
@@ -6593,7 +6594,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C121" s="3">
         <v>44066</v>
@@ -6683,7 +6684,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>222</v>
+        <v>418</v>
       </c>
       <c r="C125" s="3">
         <v>44076</v>
@@ -6727,7 +6728,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C127" s="3">
         <v>44098</v>
@@ -6748,7 +6749,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C128" s="3">
         <v>44098</v>
@@ -6771,7 +6772,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C129" s="3">
         <v>44099</v>
@@ -6792,7 +6793,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C130" s="3">
         <v>44107</v>
@@ -6804,10 +6805,10 @@
         <v>20</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.4">
@@ -6815,7 +6816,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C131" s="3">
         <v>44118</v>
@@ -6830,7 +6831,7 @@
         <v>145</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.4">
@@ -6838,7 +6839,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C132" s="3">
         <v>44120</v>
@@ -6859,7 +6860,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C133" s="3">
         <v>44134</v>
@@ -6882,7 +6883,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C134" s="3">
         <v>44140</v>
@@ -6897,7 +6898,7 @@
         <v>137</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.4">
@@ -6905,7 +6906,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C135" s="3">
         <v>44141</v>
@@ -6926,7 +6927,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C136" s="3">
         <v>44144</v>
@@ -6941,7 +6942,7 @@
         <v>145</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.4">
@@ -6949,7 +6950,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C137" s="3">
         <v>44145</v>
@@ -6968,7 +6969,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C138" s="3">
         <v>44145</v>
@@ -6980,10 +6981,10 @@
         <v>60</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.4">
@@ -6991,7 +6992,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C139" s="3">
         <v>44146</v>
@@ -7006,7 +7007,7 @@
         <v>137</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.4">
@@ -7014,7 +7015,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C140" s="5">
         <v>44148</v>
@@ -7026,7 +7027,7 @@
         <v>60</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G140" s="9"/>
     </row>
@@ -7035,7 +7036,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C141" s="5">
         <v>44149</v>
@@ -7047,7 +7048,7 @@
         <v>50</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G141" s="9"/>
     </row>
@@ -7056,7 +7057,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C142" s="5">
         <v>44149</v>
@@ -7066,7 +7067,7 @@
         <v>50</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G142" s="9" t="s">
         <v>140</v>
@@ -7077,12 +7078,14 @@
         <v>141</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C143" s="5">
         <v>44150</v>
       </c>
-      <c r="D143" s="4"/>
+      <c r="D143" s="5">
+        <v>44161</v>
+      </c>
       <c r="E143" s="4">
         <v>50</v>
       </c>
@@ -7090,7 +7093,7 @@
         <v>137</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.4">
@@ -7098,7 +7101,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C144" s="5">
         <v>44150</v>
@@ -7113,7 +7116,7 @@
         <v>145</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.4">
@@ -7121,7 +7124,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C145" s="5">
         <v>44151</v>
@@ -7142,7 +7145,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C146" s="5">
         <v>44152</v>
@@ -7157,7 +7160,7 @@
         <v>145</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.4">
@@ -7165,7 +7168,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C147" s="5">
         <v>44152</v>
@@ -7180,7 +7183,7 @@
         <v>145</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.4">
@@ -7188,7 +7191,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C148" s="5">
         <v>44153</v>
@@ -7209,17 +7212,19 @@
         <v>147</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C149" s="5">
         <v>44153</v>
       </c>
-      <c r="D149" s="4"/>
+      <c r="D149" s="5">
+        <v>44162</v>
+      </c>
       <c r="E149" s="4">
         <v>60</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G149" s="9"/>
     </row>
@@ -7228,20 +7233,22 @@
         <v>148</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C150" s="5">
         <v>44154</v>
       </c>
-      <c r="D150" s="4"/>
+      <c r="D150" s="5">
+        <v>44164</v>
+      </c>
       <c r="E150" s="4">
         <v>20</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.4">
@@ -7249,20 +7256,22 @@
         <v>149</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C151" s="5">
         <v>44154</v>
       </c>
-      <c r="D151" s="4"/>
+      <c r="D151" s="5">
+        <v>44164</v>
+      </c>
       <c r="E151" s="4">
         <v>60</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.4">
@@ -7270,7 +7279,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C152" s="5">
         <v>44154</v>
@@ -7282,7 +7291,7 @@
         <v>40</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G152" s="9"/>
     </row>
@@ -7291,7 +7300,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C153" s="5">
         <v>44154</v>
@@ -7312,7 +7321,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C154" s="5">
         <v>44155</v>
@@ -7324,10 +7333,10 @@
         <v>70</v>
       </c>
       <c r="F154" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G154" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.4">
@@ -7335,7 +7344,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C155" s="5">
         <v>44155</v>
@@ -7350,7 +7359,7 @@
         <v>137</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.4">
@@ -7358,7 +7367,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C156" s="5">
         <v>44155</v>
@@ -7379,12 +7388,14 @@
         <v>155</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C157" s="5">
         <v>44156</v>
       </c>
-      <c r="D157" s="4"/>
+      <c r="D157" s="5">
+        <v>44165</v>
+      </c>
       <c r="E157" s="4">
         <v>60</v>
       </c>
@@ -7398,7 +7409,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C158" s="5">
         <v>44156</v>
@@ -7413,7 +7424,7 @@
         <v>145</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.4">
@@ -7421,20 +7432,22 @@
         <v>157</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C159" s="5">
         <v>44156</v>
       </c>
-      <c r="D159" s="4"/>
+      <c r="D159" s="5">
+        <v>44161</v>
+      </c>
       <c r="E159" s="4">
         <v>40</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G159" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.4">
@@ -7442,20 +7455,22 @@
         <v>158</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C160" s="5">
         <v>44157</v>
       </c>
-      <c r="D160" s="4"/>
+      <c r="D160" s="5">
+        <v>44165</v>
+      </c>
       <c r="E160" s="4">
         <v>40</v>
       </c>
       <c r="F160" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G160" s="9" t="s">
         <v>290</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.4">
@@ -7463,12 +7478,14 @@
         <v>159</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C161" s="5">
         <v>44157</v>
       </c>
-      <c r="D161" s="4"/>
+      <c r="D161" s="5">
+        <v>44161</v>
+      </c>
       <c r="E161" s="4">
         <v>40</v>
       </c>
@@ -7482,12 +7499,14 @@
         <v>160</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C162" s="5">
         <v>44157</v>
       </c>
-      <c r="D162" s="4"/>
+      <c r="D162" s="5">
+        <v>44170</v>
+      </c>
       <c r="E162" s="4">
         <v>30</v>
       </c>
@@ -7501,7 +7520,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C163" s="5">
         <v>44157</v>
@@ -7516,7 +7535,7 @@
         <v>145</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.4">
@@ -7524,7 +7543,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C164" s="5">
         <v>44158</v>
@@ -7536,10 +7555,10 @@
         <v>70</v>
       </c>
       <c r="F164" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G164" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="G164" s="9" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.4">
@@ -7547,17 +7566,19 @@
         <v>163</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C165" s="5">
         <v>44159</v>
       </c>
-      <c r="D165" s="4"/>
+      <c r="D165" s="5">
+        <v>44165</v>
+      </c>
       <c r="E165" s="4">
         <v>50</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G165" s="9"/>
     </row>
@@ -7566,7 +7587,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C166" s="5">
         <v>44159</v>
@@ -7578,7 +7599,7 @@
         <v>20</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G166" s="9"/>
     </row>
@@ -7587,7 +7608,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C167" s="5">
         <v>44159</v>
@@ -7599,7 +7620,7 @@
         <v>30</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G167" s="9"/>
     </row>
@@ -7608,7 +7629,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C168" s="5">
         <v>44159</v>
@@ -7620,7 +7641,7 @@
         <v>60</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G168" s="9"/>
     </row>
@@ -7629,7 +7650,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C169" s="5">
         <v>44159</v>
@@ -7641,7 +7662,7 @@
         <v>50</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G169" s="9"/>
     </row>
@@ -7650,7 +7671,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C170" s="5">
         <v>44160</v>
@@ -7663,7 +7684,7 @@
         <v>145</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.4">
@@ -7671,7 +7692,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C171" s="5">
         <v>44160</v>
@@ -7681,10 +7702,10 @@
         <v>90</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.4">
@@ -7692,7 +7713,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C172" s="5">
         <v>44160</v>
@@ -7707,7 +7728,7 @@
         <v>137</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.4">
@@ -7715,12 +7736,14 @@
         <v>171</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C173" s="5">
         <v>44160</v>
       </c>
-      <c r="D173" s="4"/>
+      <c r="D173" s="5">
+        <v>44172</v>
+      </c>
       <c r="E173" s="4">
         <v>50</v>
       </c>
@@ -7728,7 +7751,7 @@
         <v>145</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.4">
@@ -7736,12 +7759,14 @@
         <v>172</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C174" s="5">
         <v>44160</v>
       </c>
-      <c r="D174" s="4"/>
+      <c r="D174" s="5">
+        <v>44170</v>
+      </c>
       <c r="E174" s="4">
         <v>50</v>
       </c>
@@ -7755,7 +7780,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C175" s="5">
         <v>44160</v>
@@ -7765,7 +7790,7 @@
         <v>40</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G175" s="9" t="s">
         <v>146</v>
@@ -7776,7 +7801,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C176" s="5">
         <v>44160</v>
@@ -7789,7 +7814,7 @@
         <v>145</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.4">
@@ -7797,12 +7822,14 @@
         <v>175</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C177" s="5">
         <v>44160</v>
       </c>
-      <c r="D177" s="4"/>
+      <c r="D177" s="5">
+        <v>44169</v>
+      </c>
       <c r="E177" s="4">
         <v>50</v>
       </c>
@@ -7810,7 +7837,7 @@
         <v>137</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.4">
@@ -7818,12 +7845,14 @@
         <v>176</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C178" s="5">
         <v>44161</v>
       </c>
-      <c r="D178" s="4"/>
+      <c r="D178" s="5">
+        <v>44172</v>
+      </c>
       <c r="E178" s="4">
         <v>50</v>
       </c>
@@ -7831,7 +7860,7 @@
         <v>145</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.4">
@@ -7839,7 +7868,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C179" s="5">
         <v>44161</v>
@@ -7854,7 +7883,7 @@
         <v>145</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.4">
@@ -7862,7 +7891,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C180" s="5">
         <v>44161</v>
@@ -7883,7 +7912,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C181" s="5">
         <v>44162</v>
@@ -7893,10 +7922,10 @@
         <v>80</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.4">
@@ -7904,12 +7933,14 @@
         <v>180</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C182" s="5">
         <v>44162</v>
       </c>
-      <c r="D182" s="4"/>
+      <c r="D182" s="5">
+        <v>44172</v>
+      </c>
       <c r="E182" s="4">
         <v>50</v>
       </c>
@@ -7917,7 +7948,7 @@
         <v>137</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.4">
@@ -7925,7 +7956,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C183" s="5">
         <v>44162</v>
@@ -7938,7 +7969,7 @@
         <v>145</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.4">
@@ -7946,7 +7977,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C184" s="5">
         <v>44163</v>
@@ -7961,7 +7992,7 @@
         <v>145</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.4">
@@ -7969,7 +8000,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C185" s="5">
         <v>44163</v>
@@ -7990,7 +8021,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C186" s="5">
         <v>44164</v>
@@ -8002,10 +8033,10 @@
         <v>30</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.4">
@@ -8013,12 +8044,14 @@
         <v>185</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C187" s="5">
         <v>44164</v>
       </c>
-      <c r="D187" s="5"/>
+      <c r="D187" s="5">
+        <v>44172</v>
+      </c>
       <c r="E187" s="4">
         <v>60</v>
       </c>
@@ -8032,7 +8065,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C188" s="5">
         <v>44164</v>
@@ -8045,7 +8078,7 @@
         <v>145</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
@@ -8053,7 +8086,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C189" s="5">
         <v>44164</v>
@@ -8066,7 +8099,7 @@
         <v>145</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.4">
@@ -8074,12 +8107,14 @@
         <v>188</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C190" s="5">
         <v>44165</v>
       </c>
-      <c r="D190" s="4"/>
+      <c r="D190" s="5">
+        <v>44172</v>
+      </c>
       <c r="E190" s="4">
         <v>60</v>
       </c>
@@ -8087,7 +8122,7 @@
         <v>145</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H190" s="17"/>
     </row>
@@ -8096,7 +8131,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C191" s="5">
         <v>44166</v>
@@ -8108,10 +8143,10 @@
         <v>50</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H191" s="17"/>
     </row>
@@ -8120,7 +8155,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C192" s="5">
         <v>44166</v>
@@ -8130,7 +8165,7 @@
         <v>80</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G192" s="9"/>
     </row>
@@ -8139,7 +8174,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C193" s="5">
         <v>44166</v>
@@ -8151,7 +8186,7 @@
         <v>30</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G193" s="9"/>
     </row>
@@ -8160,17 +8195,19 @@
         <v>192</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C194" s="5">
         <v>44166</v>
       </c>
-      <c r="D194" s="4"/>
+      <c r="D194" s="5">
+        <v>44177</v>
+      </c>
       <c r="E194" s="4">
         <v>50</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G194" s="9"/>
     </row>
@@ -8179,17 +8216,19 @@
         <v>193</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C195" s="5">
         <v>44166</v>
       </c>
-      <c r="D195" s="4"/>
+      <c r="D195" s="5">
+        <v>44174</v>
+      </c>
       <c r="E195" s="4">
         <v>50</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G195" s="9"/>
     </row>
@@ -8198,20 +8237,22 @@
         <v>194</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C196" s="5">
         <v>44167</v>
       </c>
-      <c r="D196" s="4"/>
+      <c r="D196" s="5">
+        <v>44174</v>
+      </c>
       <c r="E196" s="4">
         <v>50</v>
       </c>
       <c r="F196" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G196" s="9" t="s">
         <v>350</v>
-      </c>
-      <c r="G196" s="9" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.4">
@@ -8219,7 +8260,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C197" s="5">
         <v>44167</v>
@@ -8238,7 +8279,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C198" s="5">
         <v>44168</v>
@@ -8248,10 +8289,10 @@
         <v>40</v>
       </c>
       <c r="F198" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G198" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="G198" s="9" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.4">
@@ -8259,17 +8300,19 @@
         <v>197</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C199" s="5">
         <v>44169</v>
       </c>
-      <c r="D199" s="4"/>
+      <c r="D199" s="5">
+        <v>44177</v>
+      </c>
       <c r="E199" s="4">
         <v>20</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G199" s="9"/>
     </row>
@@ -8278,17 +8321,19 @@
         <v>198</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C200" s="5">
         <v>44169</v>
       </c>
-      <c r="D200" s="4"/>
+      <c r="D200" s="5">
+        <v>44177</v>
+      </c>
       <c r="E200" s="4">
         <v>40</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G200" s="9"/>
     </row>
@@ -8297,7 +8342,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C201" s="5">
         <v>44169</v>
@@ -8307,10 +8352,10 @@
         <v>20</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G201" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.4">
@@ -8318,7 +8363,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C202" s="5">
         <v>44170</v>
@@ -8328,10 +8373,10 @@
         <v>40</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.4">
@@ -8339,20 +8384,22 @@
         <v>201</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C203" s="5">
         <v>44170</v>
       </c>
-      <c r="D203" s="4"/>
+      <c r="D203" s="5">
+        <v>44176</v>
+      </c>
       <c r="E203" s="4">
         <v>30</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.4">
@@ -8360,7 +8407,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C204" s="5">
         <v>44171</v>
@@ -8373,7 +8420,7 @@
         <v>145</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8381,7 +8428,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C205" s="5">
         <v>44172</v>
@@ -8391,10 +8438,10 @@
         <v>20</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G205" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8402,7 +8449,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C206" s="5">
         <v>44172</v>
@@ -8412,10 +8459,10 @@
         <v>20</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G206" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8423,20 +8470,22 @@
         <v>205</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C207" s="5">
         <v>44172</v>
       </c>
-      <c r="D207" s="4"/>
+      <c r="D207" s="5">
+        <v>44176</v>
+      </c>
       <c r="E207" s="4">
         <v>30</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G207" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.4">
@@ -8444,7 +8493,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C208" s="5">
         <v>44172</v>
@@ -8463,7 +8512,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C209" s="5">
         <v>44173</v>
@@ -8476,7 +8525,7 @@
         <v>145</v>
       </c>
       <c r="G209" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8484,7 +8533,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C210" s="5">
         <v>44173</v>
@@ -8497,7 +8546,7 @@
         <v>145</v>
       </c>
       <c r="G210" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8505,7 +8554,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C211" s="5">
         <v>44174</v>
@@ -8518,7 +8567,7 @@
         <v>145</v>
       </c>
       <c r="G211" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.4">
@@ -8526,7 +8575,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C212" s="5">
         <v>44174</v>
@@ -8545,7 +8594,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C213" s="5">
         <v>44174</v>
@@ -8558,7 +8607,7 @@
         <v>145</v>
       </c>
       <c r="G213" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8566,7 +8615,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C214" s="5">
         <v>44174</v>
@@ -8579,7 +8628,7 @@
         <v>145</v>
       </c>
       <c r="G214" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8587,7 +8636,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C215" s="5">
         <v>44174</v>
@@ -8600,7 +8649,7 @@
         <v>145</v>
       </c>
       <c r="G215" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8608,7 +8657,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C216" s="5">
         <v>44174</v>
@@ -8621,7 +8670,7 @@
         <v>145</v>
       </c>
       <c r="G216" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8629,7 +8678,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C217" s="5">
         <v>44174</v>
@@ -8639,10 +8688,10 @@
         <v>40</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G217" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8650,7 +8699,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C218" s="5">
         <v>44174</v>
@@ -8663,7 +8712,7 @@
         <v>145</v>
       </c>
       <c r="G218" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8671,7 +8720,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C219" s="5">
         <v>44174</v>
@@ -8684,7 +8733,7 @@
         <v>145</v>
       </c>
       <c r="G219" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8692,7 +8741,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C220" s="5">
         <v>44175</v>
@@ -8702,10 +8751,10 @@
         <v>10</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G220" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8713,7 +8762,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C221" s="5">
         <v>44175</v>
@@ -8723,10 +8772,10 @@
         <v>20</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G221" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8734,7 +8783,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C222" s="5">
         <v>44175</v>
@@ -8744,10 +8793,10 @@
         <v>20</v>
       </c>
       <c r="F222" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G222" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8755,7 +8804,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C223" s="5">
         <v>44175</v>
@@ -8765,10 +8814,10 @@
         <v>20</v>
       </c>
       <c r="F223" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G223" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8776,7 +8825,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C224" s="5">
         <v>44175</v>
@@ -8789,7 +8838,7 @@
         <v>145</v>
       </c>
       <c r="G224" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.4">
@@ -8797,7 +8846,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C225" s="5">
         <v>44176</v>
@@ -8807,10 +8856,10 @@
         <v>60</v>
       </c>
       <c r="F225" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.4">
@@ -8818,7 +8867,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C226" s="5">
         <v>44176</v>
@@ -8831,7 +8880,7 @@
         <v>145</v>
       </c>
       <c r="G226" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
@@ -8839,7 +8888,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C227" s="5">
         <v>44176</v>
@@ -8849,10 +8898,10 @@
         <v>50</v>
       </c>
       <c r="F227" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G227" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.4">
@@ -8860,7 +8909,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C228" s="5">
         <v>44176</v>
@@ -8870,7 +8919,7 @@
         <v>20</v>
       </c>
       <c r="F228" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G228" s="9"/>
     </row>
@@ -8880,7 +8929,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="48" max="6" man="1"/>
     <brk id="97" max="6" man="1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BBD16A-4D60-4867-B61A-8AFD523FD3BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793112FF-24F7-42B1-A001-46C60138CB07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$228</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$233</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="426">
   <si>
     <t>年代</t>
   </si>
@@ -3424,6 +3424,85 @@
   </si>
   <si>
     <t>県内307例目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内867例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内868例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内869例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内870例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内871例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№203の濃厚接触者</t>
+    <rPh sb="5" eb="7">
+      <t>ノウコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3894,14 +3973,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B190" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B226" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B126" sqref="B126"/>
+      <selection pane="bottomRight" activeCell="I229" sqref="I229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8923,6 +9002,107 @@
       </c>
       <c r="G228" s="9"/>
     </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A229" s="6">
+        <v>227</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C229" s="5">
+        <v>44177</v>
+      </c>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4">
+        <v>30</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="G229" s="9"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A230" s="6">
+        <v>228</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C230" s="5">
+        <v>44178</v>
+      </c>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4">
+        <v>30</v>
+      </c>
+      <c r="F230" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="G230" s="9"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A231" s="6">
+        <v>229</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C231" s="5">
+        <v>44178</v>
+      </c>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4">
+        <v>20</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="G231" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A232" s="6">
+        <v>230</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C232" s="5">
+        <v>44178</v>
+      </c>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4">
+        <v>20</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="G232" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A233" s="6">
+        <v>231</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C233" s="5">
+        <v>44178</v>
+      </c>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4">
+        <v>20</v>
+      </c>
+      <c r="F233" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="G233" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793112FF-24F7-42B1-A001-46C60138CB07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143E22B6-9B94-4523-B590-0A59E34EC040}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$233</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$237</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="433">
   <si>
     <t>年代</t>
   </si>
@@ -3500,6 +3500,79 @@
   </si>
   <si>
     <t>№203の濃厚接触者</t>
+    <rPh sb="5" eb="7">
+      <t>ノウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内872例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内879例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内880例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内881例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№204の濃厚接触者</t>
     <rPh sb="5" eb="7">
       <t>ノウコウ</t>
     </rPh>
@@ -3973,14 +4046,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B226" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I229" sqref="I229"/>
+      <selection pane="bottomRight" activeCell="G236" sqref="G236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9103,6 +9176,84 @@
         <v>425</v>
       </c>
     </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A234" s="6">
+        <v>232</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C234" s="5">
+        <v>44178</v>
+      </c>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4">
+        <v>50</v>
+      </c>
+      <c r="F234" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="G234" s="9"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A235" s="6">
+        <v>233</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C235" s="5">
+        <v>44179</v>
+      </c>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4">
+        <v>20</v>
+      </c>
+      <c r="F235" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="G235" s="9"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A236" s="6">
+        <v>234</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C236" s="5">
+        <v>44179</v>
+      </c>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4">
+        <v>20</v>
+      </c>
+      <c r="F236" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="G236" s="9"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A237" s="6">
+        <v>235</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C237" s="5">
+        <v>44179</v>
+      </c>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4">
+        <v>20</v>
+      </c>
+      <c r="F237" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="G237" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143E22B6-9B94-4523-B590-0A59E34EC040}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" tabRatio="560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$237</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$257</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="470">
   <si>
     <t>年代</t>
   </si>
@@ -3578,11 +3577,450 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>県内882例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内883例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内884例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内885例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内909例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内910例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内911例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内912例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内913例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内914例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内915例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内916例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内908例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県875例目の同居者</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ドウキョシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№227の同僚</t>
+    <rPh sb="5" eb="7">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№234の同居者</t>
+    <rPh sb="5" eb="8">
+      <t>ドウキョシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県889例目の母</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県889例目の兄</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県877例目の同居者</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ドウキョシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内933例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内934例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内935例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内936例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内937例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内938例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内939例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.253の同居家族</t>
+    <rPh sb="7" eb="9">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.252の同居家族</t>
+    <rPh sb="7" eb="11">
+      <t>ドウキョカゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県895例目の同居者</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ドウキョシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県894例目の同居者</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ドウキョシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真岡市在住</t>
+    <rPh sb="0" eb="3">
+      <t>モオカシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4042,18 +4480,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B226" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B247" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G236" sqref="G236"/>
+      <selection pane="bottomRight" activeCell="F253" sqref="F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9254,6 +9692,418 @@
         <v>432</v>
       </c>
     </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A238" s="6">
+        <v>236</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C238" s="5">
+        <v>44179</v>
+      </c>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4">
+        <v>30</v>
+      </c>
+      <c r="F238" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G238" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A239" s="6">
+        <v>237</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C239" s="5">
+        <v>44179</v>
+      </c>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4">
+        <v>50</v>
+      </c>
+      <c r="F239" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G239" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A240" s="6">
+        <v>238</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C240" s="5">
+        <v>44179</v>
+      </c>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4">
+        <v>50</v>
+      </c>
+      <c r="F240" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G240" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A241" s="6">
+        <v>239</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C241" s="5">
+        <v>44179</v>
+      </c>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4">
+        <v>40</v>
+      </c>
+      <c r="F241" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G241" s="9"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A242" s="6">
+        <v>240</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C242" s="5">
+        <v>44180</v>
+      </c>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4">
+        <v>50</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G242" s="9"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A243" s="6">
+        <v>241</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C243" s="5">
+        <v>44180</v>
+      </c>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4">
+        <v>20</v>
+      </c>
+      <c r="F243" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G243" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A244" s="6">
+        <v>242</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C244" s="5">
+        <v>44180</v>
+      </c>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4">
+        <v>20</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="G244" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A245" s="6">
+        <v>243</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C245" s="5">
+        <v>44180</v>
+      </c>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4">
+        <v>20</v>
+      </c>
+      <c r="F245" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="G245" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A246" s="6">
+        <v>244</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C246" s="5">
+        <v>44180</v>
+      </c>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4">
+        <v>60</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="G246" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A247" s="6">
+        <v>245</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C247" s="5">
+        <v>44180</v>
+      </c>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4">
+        <v>40</v>
+      </c>
+      <c r="F247" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G247" s="9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A248" s="6">
+        <v>246</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C248" s="5">
+        <v>44180</v>
+      </c>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4">
+        <v>20</v>
+      </c>
+      <c r="F248" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="G248" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A249" s="6">
+        <v>247</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C249" s="5">
+        <v>44180</v>
+      </c>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4">
+        <v>20</v>
+      </c>
+      <c r="F249" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G249" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A250" s="6">
+        <v>248</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C250" s="5">
+        <v>44180</v>
+      </c>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4">
+        <v>20</v>
+      </c>
+      <c r="F250" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G250" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A251" s="6">
+        <v>249</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C251" s="5">
+        <v>44180</v>
+      </c>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4">
+        <v>20</v>
+      </c>
+      <c r="F251" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="G251" s="9"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A252" s="6">
+        <v>250</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C252" s="5">
+        <v>44181</v>
+      </c>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4">
+        <v>30</v>
+      </c>
+      <c r="F252" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G252" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A253" s="6">
+        <v>251</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C253" s="5">
+        <v>44181</v>
+      </c>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4">
+        <v>20</v>
+      </c>
+      <c r="F253" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="G253" s="9"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A254" s="6">
+        <v>252</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C254" s="5">
+        <v>44181</v>
+      </c>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4">
+        <v>10</v>
+      </c>
+      <c r="F254" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G254" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A255" s="6">
+        <v>253</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C255" s="5">
+        <v>44181</v>
+      </c>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4">
+        <v>10</v>
+      </c>
+      <c r="F255" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G255" s="9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A256" s="6">
+        <v>254</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C256" s="5">
+        <v>44181</v>
+      </c>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4">
+        <v>20</v>
+      </c>
+      <c r="F256" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="G256" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A257" s="6">
+        <v>255</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C257" s="5">
+        <v>44181</v>
+      </c>
+      <c r="D257" s="4"/>
+      <c r="E257" s="4">
+        <v>20</v>
+      </c>
+      <c r="F257" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G257" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
@@ -9261,10 +10111,8 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="6" man="1"/>
-    <brk id="97" max="6" man="1"/>
-    <brk id="144" max="6" man="1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="213" max="6" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$257</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$263</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="480">
   <si>
     <t>年代</t>
   </si>
@@ -4014,6 +4014,109 @@
     <rPh sb="3" eb="5">
       <t>ザイジュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内966例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内967例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内968例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内969例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.241，242，243の知人</t>
+    <rPh sb="15" eb="17">
+      <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.226の知人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内964例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内965例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上三川町在住,No.13クラスターの同僚</t>
+    <rPh sb="0" eb="4">
+      <t>カミノカワマチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.14クラスターの同僚</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4484,14 +4587,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:H263"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B247" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B254" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F253" sqref="F253"/>
+      <selection pane="bottomRight" activeCell="G263" sqref="G263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10104,6 +10207,130 @@
         <v>467</v>
       </c>
     </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A258" s="6">
+        <v>256</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C258" s="5">
+        <v>44182</v>
+      </c>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4">
+        <v>30</v>
+      </c>
+      <c r="F258" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G258" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A259" s="6">
+        <v>257</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C259" s="5">
+        <v>44182</v>
+      </c>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4">
+        <v>50</v>
+      </c>
+      <c r="F259" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G259" s="9"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A260" s="6">
+        <v>258</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C260" s="5">
+        <v>44182</v>
+      </c>
+      <c r="D260" s="4"/>
+      <c r="E260" s="4">
+        <v>60</v>
+      </c>
+      <c r="F260" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G260" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A261" s="6">
+        <v>259</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C261" s="5">
+        <v>44182</v>
+      </c>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4">
+        <v>10</v>
+      </c>
+      <c r="F261" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G261" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A262" s="6">
+        <v>260</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C262" s="5">
+        <v>44182</v>
+      </c>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4">
+        <v>20</v>
+      </c>
+      <c r="F262" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G262" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A263" s="6">
+        <v>261</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C263" s="5">
+        <v>44182</v>
+      </c>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4">
+        <v>20</v>
+      </c>
+      <c r="F263" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G263" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$263</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$265</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="483">
   <si>
     <t>年代</t>
   </si>
@@ -4117,6 +4117,39 @@
   </si>
   <si>
     <t>No.14クラスターの同僚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内970例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内971例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№227，236，237，238，256の同僚</t>
+    <rPh sb="21" eb="23">
+      <t>ドウリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4587,14 +4620,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H263"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B254" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G263" sqref="G263"/>
+      <selection pane="bottomRight" activeCell="G258" sqref="G258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10331,6 +10364,46 @@
         <v>479</v>
       </c>
     </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A264" s="6">
+        <v>262</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C264" s="5">
+        <v>44182</v>
+      </c>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4">
+        <v>20</v>
+      </c>
+      <c r="F264" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G264" s="9"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A265" s="6">
+        <v>263</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C265" s="5">
+        <v>44182</v>
+      </c>
+      <c r="D265" s="4"/>
+      <c r="E265" s="4">
+        <v>20</v>
+      </c>
+      <c r="F265" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G265" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$265</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$271</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="493">
   <si>
     <t>年代</t>
   </si>
@@ -4120,35 +4120,147 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>県内970例目</t>
-    <rPh sb="0" eb="2">
-      <t>ケンナイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>県内971例目</t>
-    <rPh sb="0" eb="2">
-      <t>ケンナイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>№227，236，237，238，256の同僚</t>
     <rPh sb="21" eb="23">
       <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくら市在住</t>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内983例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内984例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内985例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内986例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内987例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内988例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内989例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内990例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.261の同居家族</t>
+    <rPh sb="7" eb="9">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.262の知人</t>
+    <rPh sb="7" eb="9">
+      <t>チジン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4620,14 +4732,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:H271"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B254" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B260" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G258" sqref="G258"/>
+      <selection pane="bottomRight" activeCell="A271" sqref="A271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10369,7 +10481,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C264" s="5">
         <v>44182</v>
@@ -10388,7 +10500,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C265" s="5">
         <v>44182</v>
@@ -10401,7 +10513,131 @@
         <v>145</v>
       </c>
       <c r="G265" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A266" s="6">
+        <v>264</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C266" s="5">
+        <v>44183</v>
+      </c>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4">
+        <v>20</v>
+      </c>
+      <c r="F266" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G266" s="9" t="s">
         <v>482</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A267" s="6">
+        <v>265</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C267" s="5">
+        <v>44183</v>
+      </c>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4">
+        <v>20</v>
+      </c>
+      <c r="F267" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="G267" s="9"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A268" s="6">
+        <v>266</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C268" s="5">
+        <v>44183</v>
+      </c>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4">
+        <v>20</v>
+      </c>
+      <c r="F268" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="G268" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A269" s="6">
+        <v>267</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C269" s="5">
+        <v>44183</v>
+      </c>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4">
+        <v>20</v>
+      </c>
+      <c r="F269" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G269" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A270" s="6">
+        <v>268</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C270" s="5">
+        <v>44183</v>
+      </c>
+      <c r="D270" s="4"/>
+      <c r="E270" s="4">
+        <v>20</v>
+      </c>
+      <c r="F270" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G270" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A271" s="6">
+        <v>269</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C271" s="5">
+        <v>44183</v>
+      </c>
+      <c r="D271" s="4"/>
+      <c r="E271" s="4">
+        <v>10</v>
+      </c>
+      <c r="F271" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G271" s="9" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$271</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$273</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="495">
   <si>
     <t>年代</t>
   </si>
@@ -4261,6 +4261,32 @@
     <t>No.262の知人</t>
     <rPh sb="7" eb="9">
       <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1022例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1023例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4732,14 +4758,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H271"/>
+  <dimension ref="A1:H273"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B260" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A271" sqref="A271"/>
+      <selection pane="bottomRight" activeCell="I272" sqref="I272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10640,13 +10666,51 @@
         <v>492</v>
       </c>
     </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A272" s="6">
+        <v>270</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C272" s="5">
+        <v>44185</v>
+      </c>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4">
+        <v>50</v>
+      </c>
+      <c r="F272" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G272" s="9"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A273" s="6">
+        <v>271</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C273" s="5">
+        <v>44185</v>
+      </c>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4">
+        <v>20</v>
+      </c>
+      <c r="F273" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G273" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="213" max="6" man="1"/>
   </rowBreaks>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A398678D-EB2C-4502-B3E4-17A4FA3C415E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" tabRatio="560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$273</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$281</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="509">
   <si>
     <t>年代</t>
   </si>
@@ -4290,11 +4291,163 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.276の同居家族</t>
+    <rPh sb="7" eb="9">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.273の同居家族</t>
+    <rPh sb="7" eb="9">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1033例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1034例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1035例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1036例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1037例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1038例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1039例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1040例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4754,18 +4907,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H273"/>
+  <dimension ref="A1:H281"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B271" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I272" sqref="I272"/>
+      <selection pane="bottomRight" activeCell="A276" sqref="A276:A281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10704,15 +10857,171 @@
       </c>
       <c r="G273" s="9"/>
     </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A274" s="6">
+        <v>272</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C274" s="5">
+        <v>44185</v>
+      </c>
+      <c r="D274" s="4"/>
+      <c r="E274" s="4">
+        <v>30</v>
+      </c>
+      <c r="F274" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="G274" s="9"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A275" s="6">
+        <v>273</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C275" s="5">
+        <v>44186</v>
+      </c>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4">
+        <v>20</v>
+      </c>
+      <c r="F275" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="G275" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A276" s="6">
+        <v>274</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C276" s="5">
+        <v>44186</v>
+      </c>
+      <c r="D276" s="4"/>
+      <c r="E276" s="4">
+        <v>30</v>
+      </c>
+      <c r="F276" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="G276" s="9"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A277" s="6">
+        <v>275</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C277" s="5">
+        <v>44186</v>
+      </c>
+      <c r="D277" s="4"/>
+      <c r="E277" s="4">
+        <v>50</v>
+      </c>
+      <c r="F277" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="G277" s="9"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A278" s="4">
+        <v>276</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C278" s="5">
+        <v>44186</v>
+      </c>
+      <c r="D278" s="4"/>
+      <c r="E278" s="4">
+        <v>20</v>
+      </c>
+      <c r="F278" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="G278" s="9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A279" s="6">
+        <v>277</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C279" s="5">
+        <v>44186</v>
+      </c>
+      <c r="D279" s="4"/>
+      <c r="E279" s="4">
+        <v>40</v>
+      </c>
+      <c r="F279" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="G279" s="9"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A280" s="6">
+        <v>278</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C280" s="5">
+        <v>44186</v>
+      </c>
+      <c r="D280" s="4"/>
+      <c r="E280" s="4">
+        <v>30</v>
+      </c>
+      <c r="F280" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G280" s="9"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A281" s="4">
+        <v>279</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C281" s="5">
+        <v>44186</v>
+      </c>
+      <c r="D281" s="4"/>
+      <c r="E281" s="4">
+        <v>40</v>
+      </c>
+      <c r="F281" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G281" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="213" max="6" man="1"/>
+    <brk id="213" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A398678D-EB2C-4502-B3E4-17A4FA3C415E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6735" tabRatio="560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$281</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$297</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="530">
   <si>
     <t>年代</t>
   </si>
@@ -4443,11 +4442,245 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.262例目の同居者</t>
+    <rPh sb="9" eb="11">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1070例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1071例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1072例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1073例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1074例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.282例目の知人</t>
+    <rPh sb="9" eb="11">
+      <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1099例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1100例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1101例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1102例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1103例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1104例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1105例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1106例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1107例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4907,18 +5140,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H281"/>
+  <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B271" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B286" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A276" sqref="A276:A281"/>
+      <selection pane="bottomRight" activeCell="G296" sqref="G296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11013,6 +11246,282 @@
       </c>
       <c r="G281" s="9"/>
     </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A282" s="6">
+        <v>280</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C282" s="5">
+        <v>44186</v>
+      </c>
+      <c r="D282" s="4"/>
+      <c r="E282" s="4">
+        <v>40</v>
+      </c>
+      <c r="F282" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G282" s="9"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A283" s="6">
+        <v>281</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C283" s="5">
+        <v>44186</v>
+      </c>
+      <c r="D283" s="4"/>
+      <c r="E283" s="4">
+        <v>50</v>
+      </c>
+      <c r="F283" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G283" s="9"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A284" s="4">
+        <v>282</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C284" s="5">
+        <v>44186</v>
+      </c>
+      <c r="D284" s="4"/>
+      <c r="E284" s="4">
+        <v>20</v>
+      </c>
+      <c r="F284" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="G284" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A285" s="4">
+        <v>283</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C285" s="5">
+        <v>44187</v>
+      </c>
+      <c r="D285" s="4"/>
+      <c r="E285" s="4">
+        <v>20</v>
+      </c>
+      <c r="F285" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="G285" s="9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A286" s="6">
+        <v>284</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C286" s="5">
+        <v>44187</v>
+      </c>
+      <c r="D286" s="4"/>
+      <c r="E286" s="4">
+        <v>30</v>
+      </c>
+      <c r="F286" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G286" s="9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A287" s="4">
+        <v>285</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C287" s="5">
+        <v>44187</v>
+      </c>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4">
+        <v>40</v>
+      </c>
+      <c r="F287" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G287" s="9"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A288" s="4">
+        <v>286</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C288" s="5">
+        <v>44187</v>
+      </c>
+      <c r="D288" s="4"/>
+      <c r="E288" s="4">
+        <v>30</v>
+      </c>
+      <c r="F288" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="G288" s="9"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A289" s="6">
+        <v>287</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C289" s="5">
+        <v>44188</v>
+      </c>
+      <c r="D289" s="4"/>
+      <c r="E289" s="4">
+        <v>50</v>
+      </c>
+      <c r="F289" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="G289" s="9"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A290" s="4">
+        <v>288</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C290" s="5">
+        <v>44188</v>
+      </c>
+      <c r="D290" s="4"/>
+      <c r="E290" s="4">
+        <v>40</v>
+      </c>
+      <c r="F290" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="G290" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A291" s="4">
+        <v>289</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C291" s="5">
+        <v>44188</v>
+      </c>
+      <c r="D291" s="4"/>
+      <c r="E291" s="4">
+        <v>40</v>
+      </c>
+      <c r="F291" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="G291" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A292" s="6">
+        <v>290</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C292" s="5">
+        <v>44188</v>
+      </c>
+      <c r="D292" s="4"/>
+      <c r="E292" s="4">
+        <v>20</v>
+      </c>
+      <c r="F292" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="G292" s="9"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A293" s="4">
+        <v>291</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C293" s="5">
+        <v>44188</v>
+      </c>
+      <c r="D293" s="4"/>
+      <c r="E293" s="4">
+        <v>30</v>
+      </c>
+      <c r="F293" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G293" s="9"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A294" s="4">
+        <v>292</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C294" s="5">
+        <v>44188</v>
+      </c>
+      <c r="D294" s="4"/>
+      <c r="E294" s="4">
+        <v>30</v>
+      </c>
+      <c r="F294" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G294" s="9"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A295" s="6">
+        <v>293</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C295" s="5">
+        <v>44188</v>
+      </c>
+      <c r="D295" s="4"/>
+      <c r="E295" s="4">
+        <v>40</v>
+      </c>
+      <c r="F295" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G295" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -15,7 +15,8 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$297</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$306</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$306</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="544">
   <si>
     <t>年代</t>
   </si>
@@ -4676,12 +4677,175 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高根沢町在住</t>
+    <rPh sb="0" eb="4">
+      <t>タカネザワマチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県878例目の同居者</t>
+  </si>
+  <si>
+    <t>県内1121例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1122例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1123例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1124例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1125例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1126例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1127例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1128例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1129例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1130例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1131例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4747,6 +4911,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4797,7 +4968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4857,6 +5028,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5144,14 +5318,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H295"/>
+  <dimension ref="A1:H306"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B286" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B305" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G296" sqref="G296"/>
+      <selection pane="bottomRight" activeCell="E276" sqref="E276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5166,15 +5340,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -9035,7 +9209,9 @@
       <c r="C175" s="5">
         <v>44160</v>
       </c>
-      <c r="D175" s="4"/>
+      <c r="D175" s="5">
+        <v>44168</v>
+      </c>
       <c r="E175" s="4">
         <v>40</v>
       </c>
@@ -9056,7 +9232,9 @@
       <c r="C176" s="5">
         <v>44160</v>
       </c>
-      <c r="D176" s="4"/>
+      <c r="D176" s="5">
+        <v>44176</v>
+      </c>
       <c r="E176" s="4">
         <v>50</v>
       </c>
@@ -9167,7 +9345,9 @@
       <c r="C181" s="5">
         <v>44162</v>
       </c>
-      <c r="D181" s="4"/>
+      <c r="D181" s="5">
+        <v>44177</v>
+      </c>
       <c r="E181" s="4">
         <v>80</v>
       </c>
@@ -9211,7 +9391,9 @@
       <c r="C183" s="5">
         <v>44162</v>
       </c>
-      <c r="D183" s="4"/>
+      <c r="D183" s="5">
+        <v>44177</v>
+      </c>
       <c r="E183" s="4">
         <v>80</v>
       </c>
@@ -9255,7 +9437,9 @@
       <c r="C185" s="5">
         <v>44163</v>
       </c>
-      <c r="D185" s="4"/>
+      <c r="D185" s="5">
+        <v>44169</v>
+      </c>
       <c r="E185" s="4">
         <v>60</v>
       </c>
@@ -9320,7 +9504,9 @@
       <c r="C188" s="5">
         <v>44164</v>
       </c>
-      <c r="D188" s="4"/>
+      <c r="D188" s="5">
+        <v>44175</v>
+      </c>
       <c r="E188" s="4">
         <v>40</v>
       </c>
@@ -9341,7 +9527,9 @@
       <c r="C189" s="5">
         <v>44164</v>
       </c>
-      <c r="D189" s="4"/>
+      <c r="D189" s="5">
+        <v>44173</v>
+      </c>
       <c r="E189" s="4">
         <v>50</v>
       </c>
@@ -9410,7 +9598,9 @@
       <c r="C192" s="5">
         <v>44166</v>
       </c>
-      <c r="D192" s="4"/>
+      <c r="D192" s="5">
+        <v>44172</v>
+      </c>
       <c r="E192" s="4">
         <v>80</v>
       </c>
@@ -9515,7 +9705,9 @@
       <c r="C197" s="5">
         <v>44167</v>
       </c>
-      <c r="D197" s="4"/>
+      <c r="D197" s="5">
+        <v>44176</v>
+      </c>
       <c r="E197" s="4">
         <v>30</v>
       </c>
@@ -9534,7 +9726,9 @@
       <c r="C198" s="5">
         <v>44168</v>
       </c>
-      <c r="D198" s="4"/>
+      <c r="D198" s="5">
+        <v>44184</v>
+      </c>
       <c r="E198" s="4">
         <v>40</v>
       </c>
@@ -9597,7 +9791,9 @@
       <c r="C201" s="5">
         <v>44169</v>
       </c>
-      <c r="D201" s="4"/>
+      <c r="D201" s="5">
+        <v>44178</v>
+      </c>
       <c r="E201" s="4">
         <v>20</v>
       </c>
@@ -9618,7 +9814,9 @@
       <c r="C202" s="5">
         <v>44170</v>
       </c>
-      <c r="D202" s="4"/>
+      <c r="D202" s="5">
+        <v>44180</v>
+      </c>
       <c r="E202" s="4">
         <v>40</v>
       </c>
@@ -9662,7 +9860,9 @@
       <c r="C204" s="5">
         <v>44171</v>
       </c>
-      <c r="D204" s="4"/>
+      <c r="D204" s="5">
+        <v>44181</v>
+      </c>
       <c r="E204" s="4">
         <v>50</v>
       </c>
@@ -9683,7 +9883,9 @@
       <c r="C205" s="5">
         <v>44172</v>
       </c>
-      <c r="D205" s="4"/>
+      <c r="D205" s="5">
+        <v>44180</v>
+      </c>
       <c r="E205" s="4">
         <v>20</v>
       </c>
@@ -9704,7 +9906,9 @@
       <c r="C206" s="5">
         <v>44172</v>
       </c>
-      <c r="D206" s="4"/>
+      <c r="D206" s="5">
+        <v>44180</v>
+      </c>
       <c r="E206" s="4">
         <v>20</v>
       </c>
@@ -9748,7 +9952,9 @@
       <c r="C208" s="5">
         <v>44172</v>
       </c>
-      <c r="D208" s="4"/>
+      <c r="D208" s="5">
+        <v>44175</v>
+      </c>
       <c r="E208" s="4">
         <v>70</v>
       </c>
@@ -9767,7 +9973,9 @@
       <c r="C209" s="5">
         <v>44173</v>
       </c>
-      <c r="D209" s="4"/>
+      <c r="D209" s="5">
+        <v>44183</v>
+      </c>
       <c r="E209" s="4">
         <v>50</v>
       </c>
@@ -9788,7 +9996,9 @@
       <c r="C210" s="5">
         <v>44173</v>
       </c>
-      <c r="D210" s="4"/>
+      <c r="D210" s="5">
+        <v>44183</v>
+      </c>
       <c r="E210" s="4">
         <v>20</v>
       </c>
@@ -9809,7 +10019,9 @@
       <c r="C211" s="5">
         <v>44174</v>
       </c>
-      <c r="D211" s="4"/>
+      <c r="D211" s="5">
+        <v>44182</v>
+      </c>
       <c r="E211" s="4">
         <v>60</v>
       </c>
@@ -9830,7 +10042,9 @@
       <c r="C212" s="5">
         <v>44174</v>
       </c>
-      <c r="D212" s="4"/>
+      <c r="D212" s="5">
+        <v>44182</v>
+      </c>
       <c r="E212" s="4">
         <v>50</v>
       </c>
@@ -9849,7 +10063,9 @@
       <c r="C213" s="5">
         <v>44174</v>
       </c>
-      <c r="D213" s="4"/>
+      <c r="D213" s="5">
+        <v>44187</v>
+      </c>
       <c r="E213" s="4">
         <v>50</v>
       </c>
@@ -9870,7 +10086,9 @@
       <c r="C214" s="5">
         <v>44174</v>
       </c>
-      <c r="D214" s="4"/>
+      <c r="D214" s="5">
+        <v>44183</v>
+      </c>
       <c r="E214" s="4">
         <v>20</v>
       </c>
@@ -9891,7 +10109,9 @@
       <c r="C215" s="5">
         <v>44174</v>
       </c>
-      <c r="D215" s="4"/>
+      <c r="D215" s="5">
+        <v>44181</v>
+      </c>
       <c r="E215" s="4">
         <v>20</v>
       </c>
@@ -9912,7 +10132,9 @@
       <c r="C216" s="5">
         <v>44174</v>
       </c>
-      <c r="D216" s="4"/>
+      <c r="D216" s="5">
+        <v>44183</v>
+      </c>
       <c r="E216" s="4">
         <v>60</v>
       </c>
@@ -9933,7 +10155,9 @@
       <c r="C217" s="5">
         <v>44174</v>
       </c>
-      <c r="D217" s="4"/>
+      <c r="D217" s="5">
+        <v>44175</v>
+      </c>
       <c r="E217" s="4">
         <v>40</v>
       </c>
@@ -9954,7 +10178,9 @@
       <c r="C218" s="5">
         <v>44174</v>
       </c>
-      <c r="D218" s="4"/>
+      <c r="D218" s="5">
+        <v>44185</v>
+      </c>
       <c r="E218" s="4">
         <v>20</v>
       </c>
@@ -9975,7 +10201,9 @@
       <c r="C219" s="5">
         <v>44174</v>
       </c>
-      <c r="D219" s="4"/>
+      <c r="D219" s="5">
+        <v>44185</v>
+      </c>
       <c r="E219" s="4">
         <v>20</v>
       </c>
@@ -9996,7 +10224,9 @@
       <c r="C220" s="5">
         <v>44175</v>
       </c>
-      <c r="D220" s="4"/>
+      <c r="D220" s="5">
+        <v>44185</v>
+      </c>
       <c r="E220" s="4">
         <v>10</v>
       </c>
@@ -10017,7 +10247,9 @@
       <c r="C221" s="5">
         <v>44175</v>
       </c>
-      <c r="D221" s="4"/>
+      <c r="D221" s="5">
+        <v>44186</v>
+      </c>
       <c r="E221" s="4">
         <v>20</v>
       </c>
@@ -10038,7 +10270,9 @@
       <c r="C222" s="5">
         <v>44175</v>
       </c>
-      <c r="D222" s="4"/>
+      <c r="D222" s="5">
+        <v>44183</v>
+      </c>
       <c r="E222" s="4">
         <v>20</v>
       </c>
@@ -10059,7 +10293,9 @@
       <c r="C223" s="5">
         <v>44175</v>
       </c>
-      <c r="D223" s="4"/>
+      <c r="D223" s="5">
+        <v>44183</v>
+      </c>
       <c r="E223" s="4">
         <v>20</v>
       </c>
@@ -10080,7 +10316,9 @@
       <c r="C224" s="5">
         <v>44175</v>
       </c>
-      <c r="D224" s="4"/>
+      <c r="D224" s="5">
+        <v>44183</v>
+      </c>
       <c r="E224" s="4">
         <v>20</v>
       </c>
@@ -10101,7 +10339,9 @@
       <c r="C225" s="5">
         <v>44176</v>
       </c>
-      <c r="D225" s="4"/>
+      <c r="D225" s="5">
+        <v>44187</v>
+      </c>
       <c r="E225" s="4">
         <v>60</v>
       </c>
@@ -10122,7 +10362,9 @@
       <c r="C226" s="5">
         <v>44176</v>
       </c>
-      <c r="D226" s="4"/>
+      <c r="D226" s="5">
+        <v>44182</v>
+      </c>
       <c r="E226" s="4">
         <v>20</v>
       </c>
@@ -10143,7 +10385,9 @@
       <c r="C227" s="5">
         <v>44176</v>
       </c>
-      <c r="D227" s="4"/>
+      <c r="D227" s="5">
+        <v>44186</v>
+      </c>
       <c r="E227" s="4">
         <v>50</v>
       </c>
@@ -10164,7 +10408,9 @@
       <c r="C228" s="5">
         <v>44176</v>
       </c>
-      <c r="D228" s="4"/>
+      <c r="D228" s="5">
+        <v>44185</v>
+      </c>
       <c r="E228" s="4">
         <v>20</v>
       </c>
@@ -10183,7 +10429,9 @@
       <c r="C229" s="5">
         <v>44177</v>
       </c>
-      <c r="D229" s="4"/>
+      <c r="D229" s="5">
+        <v>44185</v>
+      </c>
       <c r="E229" s="4">
         <v>30</v>
       </c>
@@ -10202,7 +10450,9 @@
       <c r="C230" s="5">
         <v>44178</v>
       </c>
-      <c r="D230" s="4"/>
+      <c r="D230" s="5">
+        <v>44184</v>
+      </c>
       <c r="E230" s="4">
         <v>30</v>
       </c>
@@ -10221,7 +10471,9 @@
       <c r="C231" s="5">
         <v>44178</v>
       </c>
-      <c r="D231" s="4"/>
+      <c r="D231" s="5">
+        <v>44186</v>
+      </c>
       <c r="E231" s="4">
         <v>20</v>
       </c>
@@ -10242,7 +10494,9 @@
       <c r="C232" s="5">
         <v>44178</v>
       </c>
-      <c r="D232" s="4"/>
+      <c r="D232" s="5">
+        <v>44186</v>
+      </c>
       <c r="E232" s="4">
         <v>20</v>
       </c>
@@ -10263,7 +10517,9 @@
       <c r="C233" s="5">
         <v>44178</v>
       </c>
-      <c r="D233" s="4"/>
+      <c r="D233" s="5">
+        <v>44186</v>
+      </c>
       <c r="E233" s="4">
         <v>20</v>
       </c>
@@ -10284,7 +10540,9 @@
       <c r="C234" s="5">
         <v>44178</v>
       </c>
-      <c r="D234" s="4"/>
+      <c r="D234" s="5">
+        <v>44186</v>
+      </c>
       <c r="E234" s="4">
         <v>50</v>
       </c>
@@ -10303,7 +10561,9 @@
       <c r="C235" s="5">
         <v>44179</v>
       </c>
-      <c r="D235" s="4"/>
+      <c r="D235" s="5">
+        <v>44186</v>
+      </c>
       <c r="E235" s="4">
         <v>20</v>
       </c>
@@ -10322,7 +10582,9 @@
       <c r="C236" s="5">
         <v>44179</v>
       </c>
-      <c r="D236" s="4"/>
+      <c r="D236" s="5">
+        <v>44185</v>
+      </c>
       <c r="E236" s="4">
         <v>20</v>
       </c>
@@ -10362,7 +10624,9 @@
       <c r="C238" s="5">
         <v>44179</v>
       </c>
-      <c r="D238" s="4"/>
+      <c r="D238" s="5">
+        <v>44188</v>
+      </c>
       <c r="E238" s="4">
         <v>30</v>
       </c>
@@ -10383,7 +10647,9 @@
       <c r="C239" s="5">
         <v>44179</v>
       </c>
-      <c r="D239" s="4"/>
+      <c r="D239" s="5">
+        <v>44188</v>
+      </c>
       <c r="E239" s="4">
         <v>50</v>
       </c>
@@ -10404,7 +10670,9 @@
       <c r="C240" s="5">
         <v>44179</v>
       </c>
-      <c r="D240" s="4"/>
+      <c r="D240" s="5">
+        <v>44188</v>
+      </c>
       <c r="E240" s="4">
         <v>50</v>
       </c>
@@ -10463,7 +10731,9 @@
       <c r="C243" s="5">
         <v>44180</v>
       </c>
-      <c r="D243" s="4"/>
+      <c r="D243" s="5">
+        <v>44188</v>
+      </c>
       <c r="E243" s="4">
         <v>20</v>
       </c>
@@ -10484,7 +10754,9 @@
       <c r="C244" s="5">
         <v>44180</v>
       </c>
-      <c r="D244" s="4"/>
+      <c r="D244" s="5">
+        <v>44187</v>
+      </c>
       <c r="E244" s="4">
         <v>20</v>
       </c>
@@ -10505,7 +10777,9 @@
       <c r="C245" s="5">
         <v>44180</v>
       </c>
-      <c r="D245" s="4"/>
+      <c r="D245" s="5">
+        <v>44186</v>
+      </c>
       <c r="E245" s="4">
         <v>20</v>
       </c>
@@ -10589,7 +10863,9 @@
       <c r="C249" s="5">
         <v>44180</v>
       </c>
-      <c r="D249" s="4"/>
+      <c r="D249" s="5">
+        <v>44188</v>
+      </c>
       <c r="E249" s="4">
         <v>20</v>
       </c>
@@ -10732,7 +11008,9 @@
       <c r="C256" s="5">
         <v>44181</v>
       </c>
-      <c r="D256" s="4"/>
+      <c r="D256" s="5">
+        <v>44188</v>
+      </c>
       <c r="E256" s="4">
         <v>20</v>
       </c>
@@ -11522,7 +11800,223 @@
       </c>
       <c r="G295" s="9"/>
     </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A296" s="4">
+        <v>294</v>
+      </c>
+      <c r="B296" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C296" s="5">
+        <v>44188</v>
+      </c>
+      <c r="D296" s="4"/>
+      <c r="E296" s="4">
+        <v>20</v>
+      </c>
+      <c r="F296" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="G296" s="9"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A297" s="4">
+        <v>295</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C297" s="5">
+        <v>44189</v>
+      </c>
+      <c r="D297" s="4"/>
+      <c r="E297" s="4">
+        <v>30</v>
+      </c>
+      <c r="F297" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G297" s="9"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A298" s="6">
+        <v>296</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C298" s="5">
+        <v>44189</v>
+      </c>
+      <c r="D298" s="4"/>
+      <c r="E298" s="4">
+        <v>30</v>
+      </c>
+      <c r="F298" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G298" s="9"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A299" s="4">
+        <v>297</v>
+      </c>
+      <c r="B299" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C299" s="5">
+        <v>44189</v>
+      </c>
+      <c r="D299" s="4"/>
+      <c r="E299" s="4">
+        <v>40</v>
+      </c>
+      <c r="F299" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="G299" s="9"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A300" s="4">
+        <v>298</v>
+      </c>
+      <c r="B300" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C300" s="5">
+        <v>44189</v>
+      </c>
+      <c r="D300" s="4"/>
+      <c r="E300" s="4">
+        <v>20</v>
+      </c>
+      <c r="F300" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G300" s="9"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A301" s="6">
+        <v>299</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C301" s="5">
+        <v>44189</v>
+      </c>
+      <c r="D301" s="4"/>
+      <c r="E301" s="4">
+        <v>10</v>
+      </c>
+      <c r="F301" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G301" s="9"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A302" s="4">
+        <v>300</v>
+      </c>
+      <c r="B302" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="C302" s="5">
+        <v>44189</v>
+      </c>
+      <c r="D302" s="4"/>
+      <c r="E302" s="4">
+        <v>20</v>
+      </c>
+      <c r="F302" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G302" s="20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A303" s="4">
+        <v>301</v>
+      </c>
+      <c r="B303" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C303" s="5">
+        <v>44189</v>
+      </c>
+      <c r="D303" s="4"/>
+      <c r="E303" s="4">
+        <v>20</v>
+      </c>
+      <c r="F303" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G303" s="20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A304" s="6">
+        <v>302</v>
+      </c>
+      <c r="B304" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C304" s="5">
+        <v>44189</v>
+      </c>
+      <c r="D304" s="4"/>
+      <c r="E304" s="4">
+        <v>20</v>
+      </c>
+      <c r="F304" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G304" s="9"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A305" s="4">
+        <v>303</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C305" s="5">
+        <v>44189</v>
+      </c>
+      <c r="D305" s="4"/>
+      <c r="E305" s="4">
+        <v>30</v>
+      </c>
+      <c r="F305" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="G305" s="9"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A306" s="4">
+        <v>304</v>
+      </c>
+      <c r="B306" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C306" s="5">
+        <v>44189</v>
+      </c>
+      <c r="D306" s="4"/>
+      <c r="E306" s="4">
+        <v>40</v>
+      </c>
+      <c r="F306" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G306" s="9" t="s">
+        <v>531</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:H306"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$306</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$306</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$356</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterate="1" iterateCount="1" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="611">
   <si>
     <t>年代</t>
   </si>
@@ -4837,6 +4837,898 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1155例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1156例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1157例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1158例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1159例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1160例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1161例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1162例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1163例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1164例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1165例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1166例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.287例目の同居家族</t>
+    <rPh sb="9" eb="11">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.269例目の知人</t>
+    <rPh sb="9" eb="11">
+      <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.296例目の濃厚接触者</t>
+    <rPh sb="9" eb="11">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.318例目の同居家族</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ドウキョカゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.317例目の同居家族</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ドウキョカゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1189例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1190例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1191例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1192例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1193例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1194例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1195例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1196例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1197例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1198例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1199例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1200例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1201例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1202例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1203例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1204例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1205例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1206例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1207例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1208例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.307例目の同僚</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.307例目の同僚，さくら市在住</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ザイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.332例目の同居家族</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ドウキョカゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上三川町在住</t>
+    <rPh sb="0" eb="4">
+      <t>カミノカワマチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1219例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1220例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1221例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1222例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1223例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1224例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1225例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1226例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1227例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1228例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1229例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1230例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1231例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1232例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1233例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1234例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1235例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1236例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.323例目の同僚</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.305例目の同居家族</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.309例目の濃厚接触者</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>ノウコウセッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.305例目の接触者</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.321例目の濃厚接触者</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>ノウコウセッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.326例目の濃厚接触者</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>ノウコウセッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.335例目の同居家族</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ドウキョカゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.333例目の同居家族</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ドウキョカゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5318,14 +6210,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H306"/>
+  <dimension ref="A1:H371"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B305" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B338" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E276" sqref="E276"/>
+      <selection pane="bottomRight" activeCell="M355" sqref="M355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12015,6 +12907,1137 @@
         <v>531</v>
       </c>
     </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A307" s="4">
+        <v>305</v>
+      </c>
+      <c r="B307" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C307" s="5">
+        <v>44189</v>
+      </c>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4">
+        <v>50</v>
+      </c>
+      <c r="F307" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G307" s="9"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A308" s="4">
+        <v>306</v>
+      </c>
+      <c r="B308" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C308" s="5">
+        <v>44189</v>
+      </c>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4">
+        <v>20</v>
+      </c>
+      <c r="F308" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G308" s="9"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A309" s="4">
+        <v>307</v>
+      </c>
+      <c r="B309" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C309" s="5">
+        <v>44189</v>
+      </c>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4">
+        <v>20</v>
+      </c>
+      <c r="F309" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G309" s="9"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A310" s="4">
+        <v>308</v>
+      </c>
+      <c r="B310" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C310" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4">
+        <v>80</v>
+      </c>
+      <c r="F310" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G310" s="9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A311" s="4">
+        <v>309</v>
+      </c>
+      <c r="B311" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C311" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D311" s="4"/>
+      <c r="E311" s="4">
+        <v>70</v>
+      </c>
+      <c r="F311" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G311" s="9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A312" s="4">
+        <v>310</v>
+      </c>
+      <c r="B312" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C312" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D312" s="4"/>
+      <c r="E312" s="4">
+        <v>40</v>
+      </c>
+      <c r="F312" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G312" s="9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A313" s="4">
+        <v>311</v>
+      </c>
+      <c r="B313" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C313" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4">
+        <v>10</v>
+      </c>
+      <c r="F313" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G313" s="9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A314" s="4">
+        <v>312</v>
+      </c>
+      <c r="B314" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C314" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D314" s="4"/>
+      <c r="E314" s="4">
+        <v>30</v>
+      </c>
+      <c r="F314" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G314" s="9"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A315" s="4">
+        <v>313</v>
+      </c>
+      <c r="B315" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C315" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D315" s="4"/>
+      <c r="E315" s="4">
+        <v>50</v>
+      </c>
+      <c r="F315" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G315" s="9"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A316" s="4">
+        <v>314</v>
+      </c>
+      <c r="B316" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C316" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4">
+        <v>30</v>
+      </c>
+      <c r="F316" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G316" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A317" s="4">
+        <v>315</v>
+      </c>
+      <c r="B317" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C317" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D317" s="4"/>
+      <c r="E317" s="4">
+        <v>20</v>
+      </c>
+      <c r="F317" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G317" s="9"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A318" s="4">
+        <v>316</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C318" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4">
+        <v>30</v>
+      </c>
+      <c r="F318" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G318" s="9" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A319" s="4">
+        <v>317</v>
+      </c>
+      <c r="B319" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="C319" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D319" s="4"/>
+      <c r="E319" s="4">
+        <v>50</v>
+      </c>
+      <c r="F319" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G319" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A320" s="4">
+        <v>318</v>
+      </c>
+      <c r="B320" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C320" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D320" s="4"/>
+      <c r="E320" s="4">
+        <v>20</v>
+      </c>
+      <c r="F320" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G320" s="9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A321" s="4">
+        <v>319</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C321" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D321" s="4"/>
+      <c r="E321" s="4">
+        <v>30</v>
+      </c>
+      <c r="F321" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G321" s="9"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A322" s="4">
+        <v>320</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C322" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D322" s="4"/>
+      <c r="E322" s="4">
+        <v>30</v>
+      </c>
+      <c r="F322" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G322" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A323" s="4">
+        <v>321</v>
+      </c>
+      <c r="B323" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C323" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4">
+        <v>20</v>
+      </c>
+      <c r="F323" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G323" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A324" s="4">
+        <v>322</v>
+      </c>
+      <c r="B324" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C324" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D324" s="4"/>
+      <c r="E324" s="4">
+        <v>40</v>
+      </c>
+      <c r="F324" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G324" s="9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A325" s="4">
+        <v>323</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="C325" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4">
+        <v>30</v>
+      </c>
+      <c r="F325" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G325" s="9"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A326" s="4">
+        <v>324</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="C326" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D326" s="4"/>
+      <c r="E326" s="4">
+        <v>20</v>
+      </c>
+      <c r="F326" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G326" s="9"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A327" s="4">
+        <v>325</v>
+      </c>
+      <c r="B327" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C327" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D327" s="4"/>
+      <c r="E327" s="4">
+        <v>50</v>
+      </c>
+      <c r="F327" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G327" s="9"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A328" s="4">
+        <v>326</v>
+      </c>
+      <c r="B328" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C328" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4">
+        <v>40</v>
+      </c>
+      <c r="F328" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G328" s="9"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A329" s="4">
+        <v>327</v>
+      </c>
+      <c r="B329" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C329" s="5">
+        <v>44190</v>
+      </c>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4">
+        <v>30</v>
+      </c>
+      <c r="F329" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G329" s="9"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A330" s="4">
+        <v>328</v>
+      </c>
+      <c r="B330" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C330" s="5">
+        <v>44191</v>
+      </c>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4">
+        <v>30</v>
+      </c>
+      <c r="F330" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G330" s="9"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A331" s="4">
+        <v>329</v>
+      </c>
+      <c r="B331" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C331" s="5">
+        <v>44191</v>
+      </c>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4">
+        <v>30</v>
+      </c>
+      <c r="F331" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G331" s="9"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A332" s="4">
+        <v>330</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="C332" s="5">
+        <v>44191</v>
+      </c>
+      <c r="D332" s="4"/>
+      <c r="E332" s="4">
+        <v>40</v>
+      </c>
+      <c r="F332" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G332" s="9"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A333" s="4">
+        <v>331</v>
+      </c>
+      <c r="B333" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="C333" s="5">
+        <v>44191</v>
+      </c>
+      <c r="D333" s="4"/>
+      <c r="E333" s="4">
+        <v>40</v>
+      </c>
+      <c r="F333" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G333" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A334" s="4">
+        <v>332</v>
+      </c>
+      <c r="B334" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C334" s="5">
+        <v>44191</v>
+      </c>
+      <c r="D334" s="4"/>
+      <c r="E334" s="4">
+        <v>10</v>
+      </c>
+      <c r="F334" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G334" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A335" s="4">
+        <v>333</v>
+      </c>
+      <c r="B335" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C335" s="5">
+        <v>44191</v>
+      </c>
+      <c r="D335" s="4"/>
+      <c r="E335" s="4">
+        <v>50</v>
+      </c>
+      <c r="F335" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G335" s="9"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A336" s="4">
+        <v>334</v>
+      </c>
+      <c r="B336" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C336" s="5">
+        <v>44191</v>
+      </c>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4">
+        <v>30</v>
+      </c>
+      <c r="F336" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G336" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A337" s="4">
+        <v>335</v>
+      </c>
+      <c r="B337" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C337" s="5">
+        <v>44191</v>
+      </c>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4">
+        <v>20</v>
+      </c>
+      <c r="F337" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G337" s="9"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A338" s="4">
+        <v>336</v>
+      </c>
+      <c r="B338" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C338" s="5">
+        <v>44191</v>
+      </c>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4">
+        <v>20</v>
+      </c>
+      <c r="F338" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G338" s="9"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A339" s="4">
+        <v>337</v>
+      </c>
+      <c r="B339" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="C339" s="5">
+        <v>44191</v>
+      </c>
+      <c r="D339" s="4"/>
+      <c r="E339" s="4">
+        <v>30</v>
+      </c>
+      <c r="F339" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G339" s="9"/>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A340" s="4">
+        <v>338</v>
+      </c>
+      <c r="B340" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C340" s="5">
+        <v>44191</v>
+      </c>
+      <c r="D340" s="4"/>
+      <c r="E340" s="4">
+        <v>60</v>
+      </c>
+      <c r="F340" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G340" s="9"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A341" s="4">
+        <v>339</v>
+      </c>
+      <c r="B341" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C341" s="5">
+        <v>44191</v>
+      </c>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4">
+        <v>30</v>
+      </c>
+      <c r="F341" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G341" s="9" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A342" s="4">
+        <v>340</v>
+      </c>
+      <c r="B342" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C342" s="5">
+        <v>44191</v>
+      </c>
+      <c r="D342" s="4"/>
+      <c r="E342" s="4">
+        <v>30</v>
+      </c>
+      <c r="F342" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G342" s="9"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A343" s="4">
+        <v>341</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="C343" s="5">
+        <v>44192</v>
+      </c>
+      <c r="D343" s="4"/>
+      <c r="E343" s="4">
+        <v>30</v>
+      </c>
+      <c r="F343" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G343" s="9"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A344" s="4">
+        <v>342</v>
+      </c>
+      <c r="B344" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C344" s="5">
+        <v>44192</v>
+      </c>
+      <c r="D344" s="4"/>
+      <c r="E344" s="4">
+        <v>40</v>
+      </c>
+      <c r="F344" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G344" s="9"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A345" s="4">
+        <v>343</v>
+      </c>
+      <c r="B345" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C345" s="5">
+        <v>44192</v>
+      </c>
+      <c r="D345" s="4"/>
+      <c r="E345" s="4">
+        <v>30</v>
+      </c>
+      <c r="F345" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G345" s="9"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A346" s="4">
+        <v>344</v>
+      </c>
+      <c r="B346" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="C346" s="5">
+        <v>44192</v>
+      </c>
+      <c r="D346" s="4"/>
+      <c r="E346" s="4">
+        <v>10</v>
+      </c>
+      <c r="F346" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G346" s="9"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A347" s="4">
+        <v>345</v>
+      </c>
+      <c r="B347" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="C347" s="5">
+        <v>44192</v>
+      </c>
+      <c r="D347" s="4"/>
+      <c r="E347" s="4">
+        <v>30</v>
+      </c>
+      <c r="F347" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G347" s="9"/>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A348" s="4">
+        <v>346</v>
+      </c>
+      <c r="B348" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C348" s="5">
+        <v>44192</v>
+      </c>
+      <c r="D348" s="4"/>
+      <c r="E348" s="4">
+        <v>50</v>
+      </c>
+      <c r="F348" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G348" s="9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A349" s="4">
+        <v>347</v>
+      </c>
+      <c r="B349" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C349" s="5">
+        <v>44192</v>
+      </c>
+      <c r="D349" s="4"/>
+      <c r="E349" s="4">
+        <v>20</v>
+      </c>
+      <c r="F349" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G349" s="9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A350" s="4">
+        <v>348</v>
+      </c>
+      <c r="B350" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="C350" s="5">
+        <v>44192</v>
+      </c>
+      <c r="D350" s="4"/>
+      <c r="E350" s="4">
+        <v>50</v>
+      </c>
+      <c r="F350" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G350" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A351" s="4">
+        <v>349</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="C351" s="5">
+        <v>44192</v>
+      </c>
+      <c r="D351" s="4"/>
+      <c r="E351" s="4">
+        <v>70</v>
+      </c>
+      <c r="F351" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G351" s="9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A352" s="4">
+        <v>350</v>
+      </c>
+      <c r="B352" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C352" s="5">
+        <v>44192</v>
+      </c>
+      <c r="D352" s="4"/>
+      <c r="E352" s="4">
+        <v>20</v>
+      </c>
+      <c r="F352" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G352" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A353" s="4">
+        <v>351</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="C353" s="5">
+        <v>44192</v>
+      </c>
+      <c r="D353" s="4"/>
+      <c r="E353" s="4">
+        <v>40</v>
+      </c>
+      <c r="F353" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G353" s="9" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A354" s="4">
+        <v>352</v>
+      </c>
+      <c r="B354" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="C354" s="5">
+        <v>44192</v>
+      </c>
+      <c r="D354" s="4"/>
+      <c r="E354" s="4">
+        <v>20</v>
+      </c>
+      <c r="F354" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G354" s="9" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A355" s="4">
+        <v>353</v>
+      </c>
+      <c r="B355" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="C355" s="5">
+        <v>44192</v>
+      </c>
+      <c r="D355" s="4"/>
+      <c r="E355" s="4">
+        <v>60</v>
+      </c>
+      <c r="F355" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G355" s="9" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A356" s="4">
+        <v>354</v>
+      </c>
+      <c r="B356" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="C356" s="5">
+        <v>44192</v>
+      </c>
+      <c r="D356" s="4"/>
+      <c r="E356" s="4">
+        <v>20</v>
+      </c>
+      <c r="F356" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G356" s="9"/>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A357" s="4"/>
+      <c r="B357" s="9"/>
+      <c r="C357" s="5"/>
+      <c r="D357" s="4"/>
+      <c r="E357" s="4"/>
+      <c r="F357" s="9"/>
+      <c r="G357" s="9"/>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A358" s="4"/>
+      <c r="B358" s="9"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="4"/>
+      <c r="E358" s="4"/>
+      <c r="F358" s="9"/>
+      <c r="G358" s="9"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A359" s="4"/>
+      <c r="B359" s="9"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="4"/>
+      <c r="E359" s="4"/>
+      <c r="F359" s="9"/>
+      <c r="G359" s="9"/>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A360" s="4"/>
+      <c r="B360" s="9"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="4"/>
+      <c r="E360" s="4"/>
+      <c r="F360" s="9"/>
+      <c r="G360" s="9"/>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A361" s="4"/>
+      <c r="B361" s="9"/>
+      <c r="C361" s="5"/>
+      <c r="D361" s="4"/>
+      <c r="E361" s="4"/>
+      <c r="F361" s="9"/>
+      <c r="G361" s="9"/>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A362" s="4"/>
+      <c r="B362" s="9"/>
+      <c r="C362" s="5"/>
+      <c r="D362" s="4"/>
+      <c r="E362" s="4"/>
+      <c r="F362" s="9"/>
+      <c r="G362" s="9"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A363" s="4"/>
+      <c r="B363" s="9"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="4"/>
+      <c r="E363" s="4"/>
+      <c r="F363" s="9"/>
+      <c r="G363" s="9"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A364" s="4"/>
+      <c r="B364" s="9"/>
+      <c r="C364" s="5"/>
+      <c r="D364" s="4"/>
+      <c r="E364" s="4"/>
+      <c r="F364" s="9"/>
+      <c r="G364" s="9"/>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A365" s="4"/>
+      <c r="B365" s="9"/>
+      <c r="C365" s="5"/>
+      <c r="D365" s="4"/>
+      <c r="E365" s="4"/>
+      <c r="F365" s="9"/>
+      <c r="G365" s="9"/>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A366" s="4"/>
+      <c r="B366" s="9"/>
+      <c r="C366" s="5"/>
+      <c r="D366" s="4"/>
+      <c r="E366" s="4"/>
+      <c r="F366" s="9"/>
+      <c r="G366" s="9"/>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A367" s="4"/>
+      <c r="B367" s="9"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="4"/>
+      <c r="E367" s="4"/>
+      <c r="F367" s="9"/>
+      <c r="G367" s="9"/>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A368" s="4"/>
+      <c r="B368" s="9"/>
+      <c r="C368" s="5"/>
+      <c r="D368" s="4"/>
+      <c r="E368" s="4"/>
+      <c r="F368" s="9"/>
+      <c r="G368" s="9"/>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A369" s="4"/>
+      <c r="B369" s="9"/>
+      <c r="C369" s="5"/>
+      <c r="D369" s="4"/>
+      <c r="E369" s="4"/>
+      <c r="F369" s="9"/>
+      <c r="G369" s="9"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A370" s="4"/>
+      <c r="B370" s="9"/>
+      <c r="C370" s="5"/>
+      <c r="D370" s="4"/>
+      <c r="E370" s="4"/>
+      <c r="F370" s="9"/>
+      <c r="G370" s="9"/>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A371" s="4"/>
+      <c r="B371" s="9"/>
+      <c r="C371" s="5"/>
+      <c r="D371" s="4"/>
+      <c r="E371" s="4"/>
+      <c r="F371" s="9"/>
+      <c r="G371" s="9"/>
+    </row>
   </sheetData>
   <autoFilter ref="A2:H306"/>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$306</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$356</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$380</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511" iterate="1" iterateCount="1" iterateDelta="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="640">
   <si>
     <t>年代</t>
   </si>
@@ -5721,6 +5721,446 @@
   </si>
   <si>
     <t>No.333例目の同居家族</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ドウキョカゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1244例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1245例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1246例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1247例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1248例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1249例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1250例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1251例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1252例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1253例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1254例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1255例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1256例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1257例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1258例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1259例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1260例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1261例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1262例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1263例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1264例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1265例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1266例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1267例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10未満</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.340例目の同居家族</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ドウキョカゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.335例目の同僚</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.343例目の同僚</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.343例目の同居家族</t>
     <rPh sb="6" eb="7">
       <t>レイ</t>
     </rPh>
@@ -6210,14 +6650,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H371"/>
+  <dimension ref="A1:H380"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B338" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B354" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M355" sqref="M355"/>
+      <selection pane="bottomRight" activeCell="G360" sqref="G360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13904,139 +14344,484 @@
       <c r="G356" s="9"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A357" s="4"/>
-      <c r="B357" s="9"/>
-      <c r="C357" s="5"/>
+      <c r="A357" s="4">
+        <v>355</v>
+      </c>
+      <c r="B357" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="C357" s="5">
+        <v>44192</v>
+      </c>
       <c r="D357" s="4"/>
-      <c r="E357" s="4"/>
-      <c r="F357" s="9"/>
+      <c r="E357" s="4">
+        <v>60</v>
+      </c>
+      <c r="F357" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="G357" s="9"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A358" s="4"/>
-      <c r="B358" s="9"/>
-      <c r="C358" s="5"/>
+      <c r="A358" s="4">
+        <v>356</v>
+      </c>
+      <c r="B358" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C358" s="5">
+        <v>44192</v>
+      </c>
       <c r="D358" s="4"/>
-      <c r="E358" s="4"/>
-      <c r="F358" s="9"/>
+      <c r="E358" s="4">
+        <v>20</v>
+      </c>
+      <c r="F358" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="G358" s="9"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A359" s="4"/>
-      <c r="B359" s="9"/>
-      <c r="C359" s="5"/>
+      <c r="A359" s="4">
+        <v>357</v>
+      </c>
+      <c r="B359" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="C359" s="5">
+        <v>44193</v>
+      </c>
       <c r="D359" s="4"/>
-      <c r="E359" s="4"/>
-      <c r="F359" s="9"/>
+      <c r="E359" s="4">
+        <v>30</v>
+      </c>
+      <c r="F359" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="G359" s="9"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A360" s="4"/>
-      <c r="B360" s="9"/>
-      <c r="C360" s="5"/>
+      <c r="A360" s="4">
+        <v>358</v>
+      </c>
+      <c r="B360" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C360" s="5">
+        <v>44193</v>
+      </c>
       <c r="D360" s="4"/>
-      <c r="E360" s="4"/>
-      <c r="F360" s="9"/>
+      <c r="E360" s="4">
+        <v>30</v>
+      </c>
+      <c r="F360" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="G360" s="9"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A361" s="4"/>
-      <c r="B361" s="9"/>
-      <c r="C361" s="5"/>
+      <c r="A361" s="4">
+        <v>359</v>
+      </c>
+      <c r="B361" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C361" s="5">
+        <v>44193</v>
+      </c>
       <c r="D361" s="4"/>
-      <c r="E361" s="4"/>
-      <c r="F361" s="9"/>
+      <c r="E361" s="4">
+        <v>30</v>
+      </c>
+      <c r="F361" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="G361" s="9"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A362" s="4"/>
-      <c r="B362" s="9"/>
-      <c r="C362" s="5"/>
+      <c r="A362" s="4">
+        <v>360</v>
+      </c>
+      <c r="B362" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="C362" s="5">
+        <v>44193</v>
+      </c>
       <c r="D362" s="4"/>
-      <c r="E362" s="4"/>
-      <c r="F362" s="9"/>
+      <c r="E362" s="4">
+        <v>40</v>
+      </c>
+      <c r="F362" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="G362" s="9"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A363" s="4"/>
-      <c r="B363" s="9"/>
-      <c r="C363" s="5"/>
+      <c r="A363" s="4">
+        <v>361</v>
+      </c>
+      <c r="B363" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C363" s="5">
+        <v>44193</v>
+      </c>
       <c r="D363" s="4"/>
-      <c r="E363" s="4"/>
-      <c r="F363" s="9"/>
+      <c r="E363" s="4">
+        <v>40</v>
+      </c>
+      <c r="F363" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="G363" s="9"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A364" s="4"/>
-      <c r="B364" s="9"/>
-      <c r="C364" s="5"/>
+      <c r="A364" s="4">
+        <v>362</v>
+      </c>
+      <c r="B364" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C364" s="5">
+        <v>44193</v>
+      </c>
       <c r="D364" s="4"/>
-      <c r="E364" s="4"/>
-      <c r="F364" s="9"/>
+      <c r="E364" s="4">
+        <v>30</v>
+      </c>
+      <c r="F364" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="G364" s="9"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A365" s="4"/>
-      <c r="B365" s="9"/>
-      <c r="C365" s="5"/>
+      <c r="A365" s="4">
+        <v>363</v>
+      </c>
+      <c r="B365" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C365" s="5">
+        <v>44193</v>
+      </c>
       <c r="D365" s="4"/>
-      <c r="E365" s="4"/>
-      <c r="F365" s="9"/>
+      <c r="E365" s="4">
+        <v>50</v>
+      </c>
+      <c r="F365" s="9" t="s">
+        <v>326</v>
+      </c>
       <c r="G365" s="9"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A366" s="4"/>
-      <c r="B366" s="9"/>
-      <c r="C366" s="5"/>
+      <c r="A366" s="4">
+        <v>364</v>
+      </c>
+      <c r="B366" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="C366" s="5">
+        <v>44193</v>
+      </c>
       <c r="D366" s="4"/>
-      <c r="E366" s="4"/>
-      <c r="F366" s="9"/>
-      <c r="G366" s="9"/>
+      <c r="E366" s="4">
+        <v>30</v>
+      </c>
+      <c r="F366" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G366" s="9" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A367" s="4"/>
-      <c r="B367" s="9"/>
-      <c r="C367" s="5"/>
+      <c r="A367" s="4">
+        <v>365</v>
+      </c>
+      <c r="B367" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C367" s="5">
+        <v>44193</v>
+      </c>
       <c r="D367" s="4"/>
-      <c r="E367" s="4"/>
-      <c r="F367" s="9"/>
+      <c r="E367" s="4">
+        <v>50</v>
+      </c>
+      <c r="F367" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="G367" s="9"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A368" s="4"/>
-      <c r="B368" s="9"/>
-      <c r="C368" s="5"/>
+      <c r="A368" s="4">
+        <v>366</v>
+      </c>
+      <c r="B368" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="C368" s="5">
+        <v>44193</v>
+      </c>
       <c r="D368" s="4"/>
-      <c r="E368" s="4"/>
-      <c r="F368" s="9"/>
+      <c r="E368" s="4">
+        <v>40</v>
+      </c>
+      <c r="F368" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="G368" s="9"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A369" s="4"/>
-      <c r="B369" s="9"/>
-      <c r="C369" s="5"/>
+      <c r="A369" s="4">
+        <v>367</v>
+      </c>
+      <c r="B369" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C369" s="5">
+        <v>44193</v>
+      </c>
       <c r="D369" s="4"/>
-      <c r="E369" s="4"/>
-      <c r="F369" s="9"/>
-      <c r="G369" s="9"/>
+      <c r="E369" s="4">
+        <v>20</v>
+      </c>
+      <c r="F369" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G369" s="9" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A370" s="4"/>
-      <c r="B370" s="9"/>
-      <c r="C370" s="5"/>
+      <c r="A370" s="4">
+        <v>368</v>
+      </c>
+      <c r="B370" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C370" s="5">
+        <v>44193</v>
+      </c>
       <c r="D370" s="4"/>
-      <c r="E370" s="4"/>
-      <c r="F370" s="9"/>
-      <c r="G370" s="9"/>
+      <c r="E370" s="4">
+        <v>60</v>
+      </c>
+      <c r="F370" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G370" s="9" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A371" s="4"/>
-      <c r="B371" s="9"/>
-      <c r="C371" s="5"/>
+      <c r="A371" s="4">
+        <v>369</v>
+      </c>
+      <c r="B371" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C371" s="5">
+        <v>44193</v>
+      </c>
       <c r="D371" s="4"/>
-      <c r="E371" s="4"/>
-      <c r="F371" s="9"/>
-      <c r="G371" s="9"/>
+      <c r="E371" s="4">
+        <v>60</v>
+      </c>
+      <c r="F371" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G371" s="9" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A372" s="4">
+        <v>370</v>
+      </c>
+      <c r="B372" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C372" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D372" s="4"/>
+      <c r="E372" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="F372" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G372" s="9" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A373" s="4">
+        <v>371</v>
+      </c>
+      <c r="B373" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="C373" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D373" s="4"/>
+      <c r="E373" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F373" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G373" s="9" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A374" s="4">
+        <v>372</v>
+      </c>
+      <c r="B374" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="C374" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D374" s="4"/>
+      <c r="E374" s="4">
+        <v>60</v>
+      </c>
+      <c r="F374" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G374" s="9" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A375" s="4">
+        <v>373</v>
+      </c>
+      <c r="B375" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C375" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D375" s="4"/>
+      <c r="E375" s="4">
+        <v>50</v>
+      </c>
+      <c r="F375" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G375" s="9" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A376" s="4">
+        <v>374</v>
+      </c>
+      <c r="B376" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C376" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D376" s="4"/>
+      <c r="E376" s="4">
+        <v>80</v>
+      </c>
+      <c r="F376" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G376" s="9" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A377" s="4">
+        <v>375</v>
+      </c>
+      <c r="B377" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="C377" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D377" s="4"/>
+      <c r="E377" s="4">
+        <v>20</v>
+      </c>
+      <c r="F377" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G377" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A378" s="4">
+        <v>376</v>
+      </c>
+      <c r="B378" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="C378" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D378" s="4"/>
+      <c r="E378" s="4">
+        <v>20</v>
+      </c>
+      <c r="F378" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G378" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A379" s="4">
+        <v>377</v>
+      </c>
+      <c r="B379" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C379" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D379" s="4"/>
+      <c r="E379" s="4">
+        <v>20</v>
+      </c>
+      <c r="F379" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G379" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A380" s="4">
+        <v>378</v>
+      </c>
+      <c r="B380" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="C380" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D380" s="4"/>
+      <c r="E380" s="4">
+        <v>40</v>
+      </c>
+      <c r="F380" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G380" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H306"/>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$306</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$380</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$398</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511" iterate="1" iterateCount="1" iterateDelta="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="667">
   <si>
     <t>年代</t>
   </si>
@@ -6169,6 +6169,423 @@
     </rPh>
     <rPh sb="9" eb="13">
       <t>ドウキョカゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1333例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1334例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1335例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1336例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1337例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1338例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1339例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1340例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1341例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1342例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1343例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1344例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1345例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1346例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1347例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1348例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1349例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1350例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.325例目の同僚</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.325例目の同居家族</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.361例目の同居家族</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.378例目の同居家族</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.355例目の同居家族</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.365例目の同居家族</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.384例目の同居家族</t>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.343‣344例目の同居家族</t>
+    <rPh sb="10" eb="11">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6650,14 +7067,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H380"/>
+  <dimension ref="A1:H398"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B354" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B382" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G360" sqref="G360"/>
+      <selection pane="bottomRight" activeCell="J393" sqref="J393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14823,6 +15240,364 @@
       </c>
       <c r="G380" s="9"/>
     </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A381" s="4">
+        <v>379</v>
+      </c>
+      <c r="B381" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="C381" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D381" s="4"/>
+      <c r="E381" s="4">
+        <v>70</v>
+      </c>
+      <c r="F381" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G381" s="9"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A382" s="4">
+        <v>380</v>
+      </c>
+      <c r="B382" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C382" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D382" s="4"/>
+      <c r="E382" s="4">
+        <v>60</v>
+      </c>
+      <c r="F382" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G382" s="9"/>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A383" s="4">
+        <v>381</v>
+      </c>
+      <c r="B383" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="C383" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D383" s="4"/>
+      <c r="E383" s="4">
+        <v>30</v>
+      </c>
+      <c r="F383" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="G383" s="9"/>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A384" s="4">
+        <v>382</v>
+      </c>
+      <c r="B384" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="C384" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D384" s="4"/>
+      <c r="E384" s="4">
+        <v>40</v>
+      </c>
+      <c r="F384" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G384" s="9"/>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A385" s="4">
+        <v>383</v>
+      </c>
+      <c r="B385" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="C385" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D385" s="4"/>
+      <c r="E385" s="4">
+        <v>50</v>
+      </c>
+      <c r="F385" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G385" s="9"/>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A386" s="4">
+        <v>384</v>
+      </c>
+      <c r="B386" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="C386" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D386" s="4"/>
+      <c r="E386" s="4">
+        <v>40</v>
+      </c>
+      <c r="F386" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G386" s="9"/>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A387" s="4">
+        <v>385</v>
+      </c>
+      <c r="B387" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="C387" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D387" s="4"/>
+      <c r="E387" s="4">
+        <v>20</v>
+      </c>
+      <c r="F387" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G387" s="9"/>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A388" s="4">
+        <v>386</v>
+      </c>
+      <c r="B388" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="C388" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D388" s="4"/>
+      <c r="E388" s="4">
+        <v>50</v>
+      </c>
+      <c r="F388" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G388" s="9"/>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A389" s="4">
+        <v>387</v>
+      </c>
+      <c r="B389" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="C389" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D389" s="4"/>
+      <c r="E389" s="4">
+        <v>60</v>
+      </c>
+      <c r="F389" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G389" s="9"/>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A390" s="4">
+        <v>388</v>
+      </c>
+      <c r="B390" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C390" s="5">
+        <v>44193</v>
+      </c>
+      <c r="D390" s="4"/>
+      <c r="E390" s="4">
+        <v>50</v>
+      </c>
+      <c r="F390" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G390" s="9" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A391" s="4">
+        <v>389</v>
+      </c>
+      <c r="B391" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C391" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D391" s="4"/>
+      <c r="E391" s="4">
+        <v>70</v>
+      </c>
+      <c r="F391" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G391" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A392" s="4">
+        <v>390</v>
+      </c>
+      <c r="B392" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="C392" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D392" s="4"/>
+      <c r="E392" s="4">
+        <v>40</v>
+      </c>
+      <c r="F392" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G392" s="9" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A393" s="4">
+        <v>391</v>
+      </c>
+      <c r="B393" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="C393" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D393" s="4"/>
+      <c r="E393" s="4">
+        <v>40</v>
+      </c>
+      <c r="F393" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G393" s="9" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A394" s="4">
+        <v>392</v>
+      </c>
+      <c r="B394" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="C394" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D394" s="4"/>
+      <c r="E394" s="4">
+        <v>70</v>
+      </c>
+      <c r="F394" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G394" s="9" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A395" s="4">
+        <v>393</v>
+      </c>
+      <c r="B395" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="C395" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D395" s="4"/>
+      <c r="E395" s="4">
+        <v>50</v>
+      </c>
+      <c r="F395" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G395" s="9" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A396" s="4">
+        <v>394</v>
+      </c>
+      <c r="B396" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C396" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D396" s="4"/>
+      <c r="E396" s="4">
+        <v>40</v>
+      </c>
+      <c r="F396" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G396" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A397" s="4">
+        <v>395</v>
+      </c>
+      <c r="B397" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="C397" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D397" s="4"/>
+      <c r="E397" s="4">
+        <v>10</v>
+      </c>
+      <c r="F397" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G397" s="9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A398" s="4">
+        <v>396</v>
+      </c>
+      <c r="B398" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="C398" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D398" s="4"/>
+      <c r="E398" s="4">
+        <v>50</v>
+      </c>
+      <c r="F398" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G398" s="9"/>
+    </row>
   </sheetData>
   <autoFilter ref="A2:H306"/>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$306</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$398</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$431</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="152511" iterate="1" iterateCount="1" iterateDelta="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="707">
   <si>
     <t>年代</t>
   </si>
@@ -6586,6 +6586,625 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1376例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1377例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1378例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1379例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1380例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1381例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1382例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1383例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1384例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1385例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1386例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1387例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1388例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1389例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1390例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1391例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1392例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1393例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1394例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1395例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1396例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1397例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1398例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1399例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1400例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1401例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1402例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1403例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1404例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1405例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1406例目</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№356例目の同僚</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№399例目の同僚</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№398例目の同僚</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№358例目の同僚</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№404例目の同居家族</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№404例目の知人</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№400例目の同居家族</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№406例目の同居家族</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足利市在住</t>
+    <rPh sb="0" eb="3">
+      <t>アシカガシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザイジュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7067,14 +7686,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H398"/>
+  <dimension ref="A1:H429"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B382" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B399" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J393" sqref="J393"/>
+      <selection pane="bottomRight" activeCell="K413" sqref="K413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15598,6 +16217,617 @@
       </c>
       <c r="G398" s="9"/>
     </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A399" s="16">
+        <v>397</v>
+      </c>
+      <c r="B399" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="C399" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D399" s="4"/>
+      <c r="E399" s="4">
+        <v>20</v>
+      </c>
+      <c r="F399" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G399" s="9" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A400" s="4">
+        <v>398</v>
+      </c>
+      <c r="B400" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C400" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D400" s="4"/>
+      <c r="E400" s="4">
+        <v>20</v>
+      </c>
+      <c r="F400" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G400" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A401" s="4">
+        <v>399</v>
+      </c>
+      <c r="B401" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C401" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D401" s="4"/>
+      <c r="E401" s="4">
+        <v>20</v>
+      </c>
+      <c r="F401" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G401" s="9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A402" s="4">
+        <v>400</v>
+      </c>
+      <c r="B402" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="C402" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D402" s="4"/>
+      <c r="E402" s="4">
+        <v>50</v>
+      </c>
+      <c r="F402" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G402" s="9"/>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A403" s="4">
+        <v>401</v>
+      </c>
+      <c r="B403" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="C403" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D403" s="4"/>
+      <c r="E403" s="4">
+        <v>60</v>
+      </c>
+      <c r="F403" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G403" s="9"/>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A404" s="4">
+        <v>402</v>
+      </c>
+      <c r="B404" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="C404" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D404" s="4"/>
+      <c r="E404" s="4">
+        <v>40</v>
+      </c>
+      <c r="F404" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G404" s="9"/>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A405" s="4">
+        <v>403</v>
+      </c>
+      <c r="B405" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="C405" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D405" s="4"/>
+      <c r="E405" s="4">
+        <v>50</v>
+      </c>
+      <c r="F405" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G405" s="9" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A406" s="4">
+        <v>404</v>
+      </c>
+      <c r="B406" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="C406" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D406" s="4"/>
+      <c r="E406" s="4">
+        <v>20</v>
+      </c>
+      <c r="F406" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G406" s="9"/>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A407" s="4">
+        <v>405</v>
+      </c>
+      <c r="B407" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="C407" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D407" s="4"/>
+      <c r="E407" s="4">
+        <v>20</v>
+      </c>
+      <c r="F407" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G407" s="9"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A408" s="4">
+        <v>406</v>
+      </c>
+      <c r="B408" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="C408" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D408" s="4"/>
+      <c r="E408" s="4">
+        <v>40</v>
+      </c>
+      <c r="F408" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G408" s="9"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A409" s="4">
+        <v>407</v>
+      </c>
+      <c r="B409" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C409" s="5">
+        <v>44194</v>
+      </c>
+      <c r="D409" s="4"/>
+      <c r="E409" s="4">
+        <v>30</v>
+      </c>
+      <c r="F409" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G409" s="9"/>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A410" s="4">
+        <v>408</v>
+      </c>
+      <c r="B410" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="C410" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D410" s="4"/>
+      <c r="E410" s="4">
+        <v>50</v>
+      </c>
+      <c r="F410" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G410" s="9"/>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A411" s="4">
+        <v>409</v>
+      </c>
+      <c r="B411" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="C411" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D411" s="4"/>
+      <c r="E411" s="4">
+        <v>30</v>
+      </c>
+      <c r="F411" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G411" s="9"/>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A412" s="4">
+        <v>410</v>
+      </c>
+      <c r="B412" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C412" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D412" s="4"/>
+      <c r="E412" s="4">
+        <v>20</v>
+      </c>
+      <c r="F412" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G412" s="9"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A413" s="4">
+        <v>411</v>
+      </c>
+      <c r="B413" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C413" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D413" s="4"/>
+      <c r="E413" s="4">
+        <v>20</v>
+      </c>
+      <c r="F413" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G413" s="9"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A414" s="4">
+        <v>412</v>
+      </c>
+      <c r="B414" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="C414" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D414" s="4"/>
+      <c r="E414" s="4">
+        <v>40</v>
+      </c>
+      <c r="F414" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G414" s="9"/>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A415" s="4">
+        <v>413</v>
+      </c>
+      <c r="B415" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="C415" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D415" s="4"/>
+      <c r="E415" s="4">
+        <v>40</v>
+      </c>
+      <c r="F415" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G415" s="9" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A416" s="4">
+        <v>414</v>
+      </c>
+      <c r="B416" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C416" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D416" s="4"/>
+      <c r="E416" s="4">
+        <v>50</v>
+      </c>
+      <c r="F416" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G416" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A417" s="4">
+        <v>415</v>
+      </c>
+      <c r="B417" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C417" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D417" s="4"/>
+      <c r="E417" s="4">
+        <v>50</v>
+      </c>
+      <c r="F417" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G417" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A418" s="4">
+        <v>416</v>
+      </c>
+      <c r="B418" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="C418" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D418" s="4"/>
+      <c r="E418" s="4">
+        <v>20</v>
+      </c>
+      <c r="F418" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G418" s="9"/>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A419" s="4">
+        <v>417</v>
+      </c>
+      <c r="B419" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="C419" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D419" s="4"/>
+      <c r="E419" s="4">
+        <v>20</v>
+      </c>
+      <c r="F419" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G419" s="9"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A420" s="4">
+        <v>418</v>
+      </c>
+      <c r="B420" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="C420" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D420" s="4"/>
+      <c r="E420" s="4">
+        <v>50</v>
+      </c>
+      <c r="F420" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G420" s="9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A421" s="4">
+        <v>419</v>
+      </c>
+      <c r="B421" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="C421" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D421" s="4"/>
+      <c r="E421" s="4">
+        <v>20</v>
+      </c>
+      <c r="F421" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G421" s="9" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A422" s="4">
+        <v>420</v>
+      </c>
+      <c r="B422" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="C422" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D422" s="4"/>
+      <c r="E422" s="4">
+        <v>70</v>
+      </c>
+      <c r="F422" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G422" s="9" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A423" s="4">
+        <v>421</v>
+      </c>
+      <c r="B423" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="C423" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D423" s="4"/>
+      <c r="E423" s="4">
+        <v>70</v>
+      </c>
+      <c r="F423" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G423" s="9" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A424" s="4">
+        <v>422</v>
+      </c>
+      <c r="B424" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="C424" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D424" s="4"/>
+      <c r="E424" s="4">
+        <v>50</v>
+      </c>
+      <c r="F424" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G424" s="9"/>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A425" s="4">
+        <v>423</v>
+      </c>
+      <c r="B425" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C425" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D425" s="4"/>
+      <c r="E425" s="4">
+        <v>60</v>
+      </c>
+      <c r="F425" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G425" s="9"/>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A426" s="4">
+        <v>424</v>
+      </c>
+      <c r="B426" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C426" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D426" s="4"/>
+      <c r="E426" s="4">
+        <v>40</v>
+      </c>
+      <c r="F426" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G426" s="9"/>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A427" s="4">
+        <v>425</v>
+      </c>
+      <c r="B427" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="C427" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D427" s="4"/>
+      <c r="E427" s="4">
+        <v>30</v>
+      </c>
+      <c r="F427" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G427" s="9"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A428" s="4">
+        <v>426</v>
+      </c>
+      <c r="B428" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="C428" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D428" s="4"/>
+      <c r="E428" s="4">
+        <v>30</v>
+      </c>
+      <c r="F428" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G428" s="9"/>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A429" s="4">
+        <v>427</v>
+      </c>
+      <c r="B429" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C429" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D429" s="4"/>
+      <c r="E429" s="4">
+        <v>40</v>
+      </c>
+      <c r="F429" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G429" s="9"/>
+    </row>
   </sheetData>
   <autoFilter ref="A2:H306"/>
   <mergeCells count="1">

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="年齢・男女別集計" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$306</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$431</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$511</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterate="1" iterateCount="1" iterateDelta="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="818">
   <si>
     <t>年代</t>
   </si>
@@ -7205,6 +7206,695 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ザイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1432例目</t>
+  </si>
+  <si>
+    <t>県内1433例目</t>
+  </si>
+  <si>
+    <t>県内1434例目</t>
+  </si>
+  <si>
+    <t>県内1435例目</t>
+  </si>
+  <si>
+    <t>県内1436例目</t>
+  </si>
+  <si>
+    <t>県内1437例目</t>
+  </si>
+  <si>
+    <t>県内1438例目</t>
+  </si>
+  <si>
+    <t>県内1439例目</t>
+  </si>
+  <si>
+    <t>県内1440例目</t>
+  </si>
+  <si>
+    <t>県内1441例目</t>
+  </si>
+  <si>
+    <t>県内1442例目</t>
+  </si>
+  <si>
+    <t>県内1443例目</t>
+  </si>
+  <si>
+    <t>県内1444例目</t>
+  </si>
+  <si>
+    <t>県内1445例目</t>
+  </si>
+  <si>
+    <t>県内1446例目</t>
+  </si>
+  <si>
+    <t>県内1447例目</t>
+  </si>
+  <si>
+    <t>県内1448例目</t>
+  </si>
+  <si>
+    <t>県内1449例目</t>
+  </si>
+  <si>
+    <t>県内1450例目</t>
+  </si>
+  <si>
+    <t>県内1451例目</t>
+  </si>
+  <si>
+    <t>県内1452例目</t>
+  </si>
+  <si>
+    <t>県内1453例目</t>
+  </si>
+  <si>
+    <t>県内1454例目</t>
+  </si>
+  <si>
+    <t>県内1455例目</t>
+  </si>
+  <si>
+    <t>県内1456例目</t>
+  </si>
+  <si>
+    <t>県内1457例目</t>
+  </si>
+  <si>
+    <t>県内1458例目</t>
+  </si>
+  <si>
+    <t>県内1459例目</t>
+  </si>
+  <si>
+    <t>県内1460例目</t>
+  </si>
+  <si>
+    <t>県内1461例目</t>
+  </si>
+  <si>
+    <t>県内1462例目</t>
+  </si>
+  <si>
+    <t>県内1463例目</t>
+  </si>
+  <si>
+    <t>県内1464例目</t>
+  </si>
+  <si>
+    <t>県内1465例目</t>
+  </si>
+  <si>
+    <t>県内1466例目</t>
+  </si>
+  <si>
+    <t>県内1467例目</t>
+  </si>
+  <si>
+    <t>県内1468例目</t>
+  </si>
+  <si>
+    <t>県内1469例目</t>
+  </si>
+  <si>
+    <t>県内1470例目</t>
+  </si>
+  <si>
+    <t>県内1471例目</t>
+  </si>
+  <si>
+    <t>県内1472例目</t>
+  </si>
+  <si>
+    <t>県内1473例目</t>
+  </si>
+  <si>
+    <t>県内1474例目</t>
+  </si>
+  <si>
+    <t>県内1475例目</t>
+  </si>
+  <si>
+    <t>県内1476例目</t>
+  </si>
+  <si>
+    <t>県内1477例目</t>
+  </si>
+  <si>
+    <t>県内1478例目</t>
+  </si>
+  <si>
+    <t>県内1479例目</t>
+  </si>
+  <si>
+    <t>№437,438例目の濃厚接触者</t>
+    <rPh sb="8" eb="9">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№436,438例目の濃厚接触者</t>
+    <rPh sb="8" eb="9">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№436,437例目の濃厚接触者</t>
+    <rPh sb="8" eb="9">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№330例目の同僚</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№394例目の同僚</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№462例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="12">
+      <t>ノウコウセッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№438例目の接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都在住</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№451例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№387例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№407例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県1359例目の別居家族</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ベッキョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№416例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№358,403,425例目,県1362例目の同僚</t>
+    <rPh sb="15" eb="16">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№435例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№423例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№444例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群馬県在住</t>
+    <rPh sb="0" eb="3">
+      <t>グンマケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内1502例目</t>
+  </si>
+  <si>
+    <t>県内1503例目</t>
+  </si>
+  <si>
+    <t>県内1504例目</t>
+  </si>
+  <si>
+    <t>県内1505例目</t>
+  </si>
+  <si>
+    <t>県内1506例目</t>
+  </si>
+  <si>
+    <t>県内1507例目</t>
+  </si>
+  <si>
+    <t>県内1508例目</t>
+  </si>
+  <si>
+    <t>県内1509例目</t>
+  </si>
+  <si>
+    <t>県内1510例目</t>
+  </si>
+  <si>
+    <t>県内1511例目</t>
+  </si>
+  <si>
+    <t>県内1512例目</t>
+  </si>
+  <si>
+    <t>県内1513例目</t>
+  </si>
+  <si>
+    <t>県内1514例目</t>
+  </si>
+  <si>
+    <t>県内1515例目</t>
+  </si>
+  <si>
+    <t>県内1516例目</t>
+  </si>
+  <si>
+    <t>県内1517例目</t>
+  </si>
+  <si>
+    <t>県内1518例目</t>
+  </si>
+  <si>
+    <t>県内1519例目</t>
+  </si>
+  <si>
+    <t>県内1520例目</t>
+  </si>
+  <si>
+    <t>県内1521例目</t>
+  </si>
+  <si>
+    <t>県内1522例目</t>
+  </si>
+  <si>
+    <t>県内1523例目</t>
+  </si>
+  <si>
+    <t>県内1524例目</t>
+  </si>
+  <si>
+    <t>県内1525例目</t>
+  </si>
+  <si>
+    <t>県内1526例目</t>
+  </si>
+  <si>
+    <t>県内1527例目</t>
+  </si>
+  <si>
+    <t>県内1528例目</t>
+  </si>
+  <si>
+    <t>県内1529例目</t>
+  </si>
+  <si>
+    <t>県内1530例目</t>
+  </si>
+  <si>
+    <t>県内1531例目</t>
+  </si>
+  <si>
+    <t>県内1532例目</t>
+  </si>
+  <si>
+    <t>県内1533例目</t>
+  </si>
+  <si>
+    <t>県内1534例目</t>
+  </si>
+  <si>
+    <t>県内1535例目</t>
+  </si>
+  <si>
+    <t>№481例目の同居家族</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№480例目の同居家族</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№479例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№432例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№445例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№458例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№452例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№408例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№450例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№472例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>№468例目の濃厚接触者</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7307,7 +7997,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -7330,13 +8020,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7402,6 +8129,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7686,14 +8422,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H429"/>
+  <dimension ref="A1:H552"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B399" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K413" sqref="K413"/>
+      <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7702,7 +8438,7 @@
     <col min="2" max="2" width="19.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="11" customWidth="1"/>
     <col min="4" max="4" width="14.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="9" style="16"/>
+    <col min="5" max="5" width="9" style="16" customWidth="1"/>
     <col min="6" max="6" width="7.75" style="11" customWidth="1"/>
     <col min="7" max="7" width="38.5" style="11" customWidth="1"/>
   </cols>
@@ -16828,10 +17564,2096 @@
       </c>
       <c r="G429" s="9"/>
     </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A430" s="4">
+        <f>A429+1</f>
+        <v>428</v>
+      </c>
+      <c r="B430" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="C430" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D430" s="4"/>
+      <c r="E430" s="4">
+        <v>30</v>
+      </c>
+      <c r="F430" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G430" s="9"/>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A431" s="4">
+        <f t="shared" ref="A431:A477" si="0">A430+1</f>
+        <v>429</v>
+      </c>
+      <c r="B431" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="C431" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D431" s="4"/>
+      <c r="E431" s="4">
+        <v>20</v>
+      </c>
+      <c r="F431" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G431" s="9"/>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A432" s="4">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="B432" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="C432" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D432" s="4"/>
+      <c r="E432" s="4">
+        <v>30</v>
+      </c>
+      <c r="F432" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G432" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A433" s="4">
+        <f t="shared" si="0"/>
+        <v>431</v>
+      </c>
+      <c r="B433" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="C433" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D433" s="4"/>
+      <c r="E433" s="4">
+        <v>60</v>
+      </c>
+      <c r="F433" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G433" s="9"/>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A434" s="4">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="B434" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="C434" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D434" s="4"/>
+      <c r="E434" s="4">
+        <v>20</v>
+      </c>
+      <c r="F434" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G434" s="9"/>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A435" s="4">
+        <f t="shared" si="0"/>
+        <v>433</v>
+      </c>
+      <c r="B435" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C435" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D435" s="4"/>
+      <c r="E435" s="4">
+        <v>30</v>
+      </c>
+      <c r="F435" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G435" s="9"/>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A436" s="4">
+        <f t="shared" si="0"/>
+        <v>434</v>
+      </c>
+      <c r="B436" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="C436" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D436" s="4"/>
+      <c r="E436" s="4">
+        <v>50</v>
+      </c>
+      <c r="F436" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G436" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A437" s="4">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="B437" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C437" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D437" s="4"/>
+      <c r="E437" s="4">
+        <v>40</v>
+      </c>
+      <c r="F437" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G437" s="9"/>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A438" s="4">
+        <f t="shared" si="0"/>
+        <v>436</v>
+      </c>
+      <c r="B438" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="C438" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D438" s="4"/>
+      <c r="E438" s="4">
+        <v>30</v>
+      </c>
+      <c r="F438" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G438" s="9" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A439" s="4">
+        <f t="shared" si="0"/>
+        <v>437</v>
+      </c>
+      <c r="B439" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="C439" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D439" s="4"/>
+      <c r="E439" s="4">
+        <v>40</v>
+      </c>
+      <c r="F439" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G439" s="9" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A440" s="4">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
+      <c r="B440" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C440" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D440" s="4"/>
+      <c r="E440" s="4">
+        <v>40</v>
+      </c>
+      <c r="F440" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G440" s="9" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A441" s="4">
+        <f t="shared" si="0"/>
+        <v>439</v>
+      </c>
+      <c r="B441" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C441" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D441" s="4"/>
+      <c r="E441" s="4">
+        <v>70</v>
+      </c>
+      <c r="F441" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G441" s="9"/>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A442" s="4">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="B442" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C442" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D442" s="4"/>
+      <c r="E442" s="4">
+        <v>60</v>
+      </c>
+      <c r="F442" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G442" s="9"/>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A443" s="4">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+      <c r="B443" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C443" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D443" s="4"/>
+      <c r="E443" s="4">
+        <v>70</v>
+      </c>
+      <c r="F443" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G443" s="9"/>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A444" s="4">
+        <f t="shared" si="0"/>
+        <v>442</v>
+      </c>
+      <c r="B444" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="C444" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D444" s="4"/>
+      <c r="E444" s="4">
+        <v>40</v>
+      </c>
+      <c r="F444" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G444" s="9"/>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A445" s="4">
+        <f t="shared" si="0"/>
+        <v>443</v>
+      </c>
+      <c r="B445" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="C445" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D445" s="4"/>
+      <c r="E445" s="4">
+        <v>40</v>
+      </c>
+      <c r="F445" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G445" s="9"/>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A446" s="4">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+      <c r="B446" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C446" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D446" s="4"/>
+      <c r="E446" s="4">
+        <v>40</v>
+      </c>
+      <c r="F446" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G446" s="9"/>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A447" s="4">
+        <f t="shared" si="0"/>
+        <v>445</v>
+      </c>
+      <c r="B447" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="C447" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D447" s="4"/>
+      <c r="E447" s="4">
+        <v>70</v>
+      </c>
+      <c r="F447" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G447" s="9" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A448" s="4">
+        <f t="shared" si="0"/>
+        <v>446</v>
+      </c>
+      <c r="B448" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="C448" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D448" s="4"/>
+      <c r="E448" s="4">
+        <v>20</v>
+      </c>
+      <c r="F448" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G448" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A449" s="4">
+        <f t="shared" si="0"/>
+        <v>447</v>
+      </c>
+      <c r="B449" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C449" s="5">
+        <v>44195</v>
+      </c>
+      <c r="D449" s="4"/>
+      <c r="E449" s="4">
+        <v>30</v>
+      </c>
+      <c r="F449" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G449" s="9" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A450" s="4">
+        <f t="shared" si="0"/>
+        <v>448</v>
+      </c>
+      <c r="B450" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="C450" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D450" s="4"/>
+      <c r="E450" s="4">
+        <v>20</v>
+      </c>
+      <c r="F450" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G450" s="9"/>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A451" s="4">
+        <f t="shared" si="0"/>
+        <v>449</v>
+      </c>
+      <c r="B451" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="C451" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D451" s="4"/>
+      <c r="E451" s="4">
+        <v>20</v>
+      </c>
+      <c r="F451" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G451" s="9"/>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A452" s="4">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="B452" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="C452" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D452" s="4"/>
+      <c r="E452" s="4">
+        <v>30</v>
+      </c>
+      <c r="F452" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G452" s="9" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A453" s="4">
+        <f t="shared" si="0"/>
+        <v>451</v>
+      </c>
+      <c r="B453" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="C453" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D453" s="4"/>
+      <c r="E453" s="4">
+        <v>40</v>
+      </c>
+      <c r="F453" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G453" s="9" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A454" s="4">
+        <f t="shared" si="0"/>
+        <v>452</v>
+      </c>
+      <c r="B454" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="C454" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D454" s="4"/>
+      <c r="E454" s="4">
+        <v>30</v>
+      </c>
+      <c r="F454" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G454" s="9"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A455" s="4">
+        <f t="shared" si="0"/>
+        <v>453</v>
+      </c>
+      <c r="B455" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="C455" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D455" s="4"/>
+      <c r="E455" s="4">
+        <v>50</v>
+      </c>
+      <c r="F455" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G455" s="9"/>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A456" s="4">
+        <f t="shared" si="0"/>
+        <v>454</v>
+      </c>
+      <c r="B456" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="C456" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D456" s="4"/>
+      <c r="E456" s="4">
+        <v>20</v>
+      </c>
+      <c r="F456" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G456" s="9"/>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A457" s="4">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+      <c r="B457" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="C457" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D457" s="4"/>
+      <c r="E457" s="4">
+        <v>50</v>
+      </c>
+      <c r="F457" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G457" s="9" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A458" s="4">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+      <c r="B458" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="C458" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D458" s="4"/>
+      <c r="E458" s="4">
+        <v>30</v>
+      </c>
+      <c r="F458" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G458" s="9"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A459" s="4">
+        <f t="shared" si="0"/>
+        <v>457</v>
+      </c>
+      <c r="B459" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C459" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D459" s="4"/>
+      <c r="E459" s="4">
+        <v>30</v>
+      </c>
+      <c r="F459" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G459" s="9"/>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A460" s="4">
+        <f t="shared" si="0"/>
+        <v>458</v>
+      </c>
+      <c r="B460" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="C460" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D460" s="4"/>
+      <c r="E460" s="4">
+        <v>20</v>
+      </c>
+      <c r="F460" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G460" s="9"/>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A461" s="4">
+        <f t="shared" si="0"/>
+        <v>459</v>
+      </c>
+      <c r="B461" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="C461" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D461" s="4"/>
+      <c r="E461" s="4">
+        <v>40</v>
+      </c>
+      <c r="F461" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G461" s="9"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A462" s="4">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="B462" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="C462" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D462" s="4"/>
+      <c r="E462" s="4">
+        <v>50</v>
+      </c>
+      <c r="F462" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G462" s="9" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A463" s="4">
+        <f t="shared" si="0"/>
+        <v>461</v>
+      </c>
+      <c r="B463" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="C463" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D463" s="4"/>
+      <c r="E463" s="4">
+        <v>50</v>
+      </c>
+      <c r="F463" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G463" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A464" s="4">
+        <f t="shared" si="0"/>
+        <v>462</v>
+      </c>
+      <c r="B464" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="C464" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D464" s="4"/>
+      <c r="E464" s="4">
+        <v>30</v>
+      </c>
+      <c r="F464" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G464" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A465" s="4">
+        <f t="shared" si="0"/>
+        <v>463</v>
+      </c>
+      <c r="B465" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C465" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D465" s="4"/>
+      <c r="E465" s="4">
+        <v>30</v>
+      </c>
+      <c r="F465" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G465" s="9"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A466" s="4">
+        <f t="shared" si="0"/>
+        <v>464</v>
+      </c>
+      <c r="B466" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="C466" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D466" s="4"/>
+      <c r="E466" s="4">
+        <v>30</v>
+      </c>
+      <c r="F466" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G466" s="9" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A467" s="4">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="B467" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C467" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D467" s="4"/>
+      <c r="E467" s="4">
+        <v>20</v>
+      </c>
+      <c r="F467" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G467" s="9"/>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A468" s="4">
+        <f t="shared" si="0"/>
+        <v>466</v>
+      </c>
+      <c r="B468" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C468" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D468" s="4"/>
+      <c r="E468" s="4">
+        <v>60</v>
+      </c>
+      <c r="F468" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G468" s="9" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A469" s="4">
+        <f t="shared" si="0"/>
+        <v>467</v>
+      </c>
+      <c r="B469" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="C469" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D469" s="4"/>
+      <c r="E469" s="4">
+        <v>10</v>
+      </c>
+      <c r="F469" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G469" s="9" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A470" s="4">
+        <f t="shared" si="0"/>
+        <v>468</v>
+      </c>
+      <c r="B470" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="C470" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D470" s="4"/>
+      <c r="E470" s="4">
+        <v>40</v>
+      </c>
+      <c r="F470" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G470" s="9" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A471" s="4">
+        <f t="shared" si="0"/>
+        <v>469</v>
+      </c>
+      <c r="B471" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C471" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D471" s="4"/>
+      <c r="E471" s="4">
+        <v>20</v>
+      </c>
+      <c r="F471" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G471" s="9" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A472" s="4">
+        <f t="shared" si="0"/>
+        <v>470</v>
+      </c>
+      <c r="B472" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="C472" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D472" s="4"/>
+      <c r="E472" s="4">
+        <v>20</v>
+      </c>
+      <c r="F472" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G472" s="22" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A473" s="4">
+        <f t="shared" si="0"/>
+        <v>471</v>
+      </c>
+      <c r="B473" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="C473" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D473" s="4"/>
+      <c r="E473" s="4">
+        <v>20</v>
+      </c>
+      <c r="F473" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G473" s="23"/>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A474" s="4">
+        <f t="shared" si="0"/>
+        <v>472</v>
+      </c>
+      <c r="B474" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="C474" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D474" s="4"/>
+      <c r="E474" s="4">
+        <v>20</v>
+      </c>
+      <c r="F474" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G474" s="24"/>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A475" s="4">
+        <f t="shared" si="0"/>
+        <v>473</v>
+      </c>
+      <c r="B475" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="C475" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D475" s="4"/>
+      <c r="E475" s="4">
+        <v>40</v>
+      </c>
+      <c r="F475" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G475" s="9" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A476" s="4">
+        <f t="shared" si="0"/>
+        <v>474</v>
+      </c>
+      <c r="B476" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="C476" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D476" s="4"/>
+      <c r="E476" s="4">
+        <v>60</v>
+      </c>
+      <c r="F476" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G476" s="9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A477" s="4">
+        <f t="shared" si="0"/>
+        <v>475</v>
+      </c>
+      <c r="B477" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="C477" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D477" s="4"/>
+      <c r="E477" s="4">
+        <v>40</v>
+      </c>
+      <c r="F477" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G477" s="9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A478" s="4">
+        <f>A477+1</f>
+        <v>476</v>
+      </c>
+      <c r="B478" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="C478" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D478" s="4"/>
+      <c r="E478" s="4">
+        <v>30</v>
+      </c>
+      <c r="F478" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G478" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A479" s="4">
+        <f t="shared" ref="A479:A512" si="1">A478+1</f>
+        <v>477</v>
+      </c>
+      <c r="B479" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="C479" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D479" s="4"/>
+      <c r="E479" s="4">
+        <v>20</v>
+      </c>
+      <c r="F479" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G479" s="9"/>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A480" s="4">
+        <f t="shared" si="1"/>
+        <v>478</v>
+      </c>
+      <c r="B480" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="C480" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D480" s="4"/>
+      <c r="E480" s="4">
+        <v>40</v>
+      </c>
+      <c r="F480" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G480" s="9"/>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A481" s="4">
+        <f t="shared" si="1"/>
+        <v>479</v>
+      </c>
+      <c r="B481" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="C481" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D481" s="4"/>
+      <c r="E481" s="4">
+        <v>60</v>
+      </c>
+      <c r="F481" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G481" s="9"/>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A482" s="4">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="B482" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="C482" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D482" s="4"/>
+      <c r="E482" s="4">
+        <v>50</v>
+      </c>
+      <c r="F482" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G482" s="9" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A483" s="4">
+        <f t="shared" si="1"/>
+        <v>481</v>
+      </c>
+      <c r="B483" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="C483" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D483" s="4"/>
+      <c r="E483" s="4">
+        <v>60</v>
+      </c>
+      <c r="F483" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G483" s="9" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A484" s="4">
+        <f t="shared" si="1"/>
+        <v>482</v>
+      </c>
+      <c r="B484" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="C484" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D484" s="4"/>
+      <c r="E484" s="4">
+        <v>80</v>
+      </c>
+      <c r="F484" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G484" s="9"/>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A485" s="4">
+        <f t="shared" si="1"/>
+        <v>483</v>
+      </c>
+      <c r="B485" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="C485" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D485" s="4"/>
+      <c r="E485" s="4">
+        <v>20</v>
+      </c>
+      <c r="F485" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G485" s="9"/>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A486" s="4">
+        <f t="shared" si="1"/>
+        <v>484</v>
+      </c>
+      <c r="B486" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="C486" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D486" s="4"/>
+      <c r="E486" s="4">
+        <v>40</v>
+      </c>
+      <c r="F486" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G486" s="9"/>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A487" s="4">
+        <f t="shared" si="1"/>
+        <v>485</v>
+      </c>
+      <c r="B487" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C487" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D487" s="4"/>
+      <c r="E487" s="4">
+        <v>30</v>
+      </c>
+      <c r="F487" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G487" s="9"/>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A488" s="4">
+        <f t="shared" si="1"/>
+        <v>486</v>
+      </c>
+      <c r="B488" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="C488" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D488" s="4"/>
+      <c r="E488" s="4">
+        <v>50</v>
+      </c>
+      <c r="F488" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G488" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A489" s="4">
+        <f t="shared" si="1"/>
+        <v>487</v>
+      </c>
+      <c r="B489" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="C489" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D489" s="4"/>
+      <c r="E489" s="4">
+        <v>70</v>
+      </c>
+      <c r="F489" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G489" s="9"/>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A490" s="4">
+        <f t="shared" si="1"/>
+        <v>488</v>
+      </c>
+      <c r="B490" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="C490" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D490" s="4"/>
+      <c r="E490" s="4">
+        <v>40</v>
+      </c>
+      <c r="F490" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G490" s="9"/>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A491" s="4">
+        <f t="shared" si="1"/>
+        <v>489</v>
+      </c>
+      <c r="B491" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="C491" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D491" s="4"/>
+      <c r="E491" s="4">
+        <v>30</v>
+      </c>
+      <c r="F491" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G491" s="9"/>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A492" s="4">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+      <c r="B492" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="C492" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D492" s="4"/>
+      <c r="E492" s="4">
+        <v>30</v>
+      </c>
+      <c r="F492" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G492" s="9"/>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A493" s="4">
+        <f t="shared" si="1"/>
+        <v>491</v>
+      </c>
+      <c r="B493" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="C493" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D493" s="4"/>
+      <c r="E493" s="4">
+        <v>70</v>
+      </c>
+      <c r="F493" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G493" s="9" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A494" s="4">
+        <f t="shared" si="1"/>
+        <v>492</v>
+      </c>
+      <c r="B494" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="C494" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D494" s="4"/>
+      <c r="E494" s="4">
+        <v>30</v>
+      </c>
+      <c r="F494" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G494" s="9"/>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A495" s="4">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="B495" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C495" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D495" s="4"/>
+      <c r="E495" s="4">
+        <v>40</v>
+      </c>
+      <c r="F495" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G495" s="9"/>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A496" s="4">
+        <f t="shared" si="1"/>
+        <v>494</v>
+      </c>
+      <c r="B496" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="C496" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D496" s="4"/>
+      <c r="E496" s="4">
+        <v>40</v>
+      </c>
+      <c r="F496" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G496" s="9"/>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A497" s="4">
+        <f t="shared" si="1"/>
+        <v>495</v>
+      </c>
+      <c r="B497" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="C497" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D497" s="4"/>
+      <c r="E497" s="4">
+        <v>60</v>
+      </c>
+      <c r="F497" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G497" s="9"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A498" s="4">
+        <f t="shared" si="1"/>
+        <v>496</v>
+      </c>
+      <c r="B498" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="C498" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D498" s="4"/>
+      <c r="E498" s="4">
+        <v>30</v>
+      </c>
+      <c r="F498" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G498" s="9"/>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A499" s="4">
+        <f t="shared" si="1"/>
+        <v>497</v>
+      </c>
+      <c r="B499" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="C499" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D499" s="4"/>
+      <c r="E499" s="4">
+        <v>20</v>
+      </c>
+      <c r="F499" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G499" s="9"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A500" s="4">
+        <f t="shared" si="1"/>
+        <v>498</v>
+      </c>
+      <c r="B500" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="C500" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D500" s="4"/>
+      <c r="E500" s="4">
+        <v>80</v>
+      </c>
+      <c r="F500" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G500" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A501" s="4">
+        <f t="shared" si="1"/>
+        <v>499</v>
+      </c>
+      <c r="B501" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="C501" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D501" s="4"/>
+      <c r="E501" s="4">
+        <v>40</v>
+      </c>
+      <c r="F501" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G501" s="9"/>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A502" s="4">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="B502" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="C502" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D502" s="4"/>
+      <c r="E502" s="4">
+        <v>40</v>
+      </c>
+      <c r="F502" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G502" s="9"/>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A503" s="4">
+        <f t="shared" si="1"/>
+        <v>501</v>
+      </c>
+      <c r="B503" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="C503" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D503" s="4"/>
+      <c r="E503" s="4">
+        <v>60</v>
+      </c>
+      <c r="F503" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G503" s="9" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A504" s="4">
+        <f t="shared" si="1"/>
+        <v>502</v>
+      </c>
+      <c r="B504" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="C504" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D504" s="4"/>
+      <c r="E504" s="4">
+        <v>20</v>
+      </c>
+      <c r="F504" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G504" s="9" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A505" s="4">
+        <f t="shared" si="1"/>
+        <v>503</v>
+      </c>
+      <c r="B505" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="C505" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D505" s="4"/>
+      <c r="E505" s="4">
+        <v>60</v>
+      </c>
+      <c r="F505" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G505" s="9" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A506" s="4">
+        <f t="shared" si="1"/>
+        <v>504</v>
+      </c>
+      <c r="B506" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="C506" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D506" s="4"/>
+      <c r="E506" s="4">
+        <v>20</v>
+      </c>
+      <c r="F506" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G506" s="9" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A507" s="4">
+        <f t="shared" si="1"/>
+        <v>505</v>
+      </c>
+      <c r="B507" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="C507" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D507" s="4"/>
+      <c r="E507" s="4">
+        <v>30</v>
+      </c>
+      <c r="F507" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G507" s="9" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A508" s="4">
+        <f t="shared" si="1"/>
+        <v>506</v>
+      </c>
+      <c r="B508" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="C508" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D508" s="4"/>
+      <c r="E508" s="4">
+        <v>10</v>
+      </c>
+      <c r="F508" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G508" s="9" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A509" s="4">
+        <f t="shared" si="1"/>
+        <v>507</v>
+      </c>
+      <c r="B509" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="C509" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D509" s="4"/>
+      <c r="E509" s="4">
+        <v>60</v>
+      </c>
+      <c r="F509" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G509" s="9" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A510" s="4">
+        <f t="shared" si="1"/>
+        <v>508</v>
+      </c>
+      <c r="B510" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="C510" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D510" s="4"/>
+      <c r="E510" s="4">
+        <v>20</v>
+      </c>
+      <c r="F510" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G510" s="9" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A511" s="4">
+        <f t="shared" si="1"/>
+        <v>509</v>
+      </c>
+      <c r="B511" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="C511" s="5">
+        <v>44197</v>
+      </c>
+      <c r="D511" s="4"/>
+      <c r="E511" s="4">
+        <v>40</v>
+      </c>
+      <c r="F511" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G511" s="9" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A512" s="4"/>
+      <c r="B512" s="9"/>
+      <c r="C512" s="5"/>
+      <c r="D512" s="4"/>
+      <c r="E512" s="4"/>
+      <c r="F512" s="9"/>
+      <c r="G512" s="9"/>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A513" s="4"/>
+      <c r="B513" s="9"/>
+      <c r="C513" s="5"/>
+      <c r="D513" s="4"/>
+      <c r="E513" s="4"/>
+      <c r="F513" s="9"/>
+      <c r="G513" s="9"/>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A514" s="4"/>
+      <c r="B514" s="9"/>
+      <c r="C514" s="5"/>
+      <c r="D514" s="4"/>
+      <c r="E514" s="4"/>
+      <c r="F514" s="9"/>
+      <c r="G514" s="9"/>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A515" s="4"/>
+      <c r="B515" s="9"/>
+      <c r="C515" s="5"/>
+      <c r="D515" s="4"/>
+      <c r="E515" s="4"/>
+      <c r="F515" s="9"/>
+      <c r="G515" s="9"/>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A516" s="4"/>
+      <c r="B516" s="9"/>
+      <c r="C516" s="5"/>
+      <c r="D516" s="4"/>
+      <c r="E516" s="4"/>
+      <c r="F516" s="9"/>
+      <c r="G516" s="9"/>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A517" s="4"/>
+      <c r="B517" s="9"/>
+      <c r="C517" s="5"/>
+      <c r="D517" s="4"/>
+      <c r="E517" s="4"/>
+      <c r="F517" s="9"/>
+      <c r="G517" s="9"/>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A518" s="4"/>
+      <c r="B518" s="9"/>
+      <c r="C518" s="5"/>
+      <c r="D518" s="4"/>
+      <c r="E518" s="4"/>
+      <c r="F518" s="9"/>
+      <c r="G518" s="9"/>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A519" s="4"/>
+      <c r="B519" s="9"/>
+      <c r="C519" s="5"/>
+      <c r="D519" s="4"/>
+      <c r="E519" s="4"/>
+      <c r="F519" s="9"/>
+      <c r="G519" s="9"/>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A520" s="4"/>
+      <c r="B520" s="9"/>
+      <c r="C520" s="5"/>
+      <c r="D520" s="4"/>
+      <c r="E520" s="4"/>
+      <c r="F520" s="9"/>
+      <c r="G520" s="9"/>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A521" s="4"/>
+      <c r="B521" s="9"/>
+      <c r="C521" s="5"/>
+      <c r="D521" s="4"/>
+      <c r="E521" s="4"/>
+      <c r="F521" s="9"/>
+      <c r="G521" s="9"/>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A522" s="4"/>
+      <c r="B522" s="9"/>
+      <c r="C522" s="5"/>
+      <c r="D522" s="4"/>
+      <c r="E522" s="4"/>
+      <c r="F522" s="9"/>
+      <c r="G522" s="9"/>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A523" s="4"/>
+      <c r="B523" s="9"/>
+      <c r="C523" s="5"/>
+      <c r="D523" s="4"/>
+      <c r="E523" s="4"/>
+      <c r="F523" s="9"/>
+      <c r="G523" s="9"/>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A524" s="4"/>
+      <c r="B524" s="9"/>
+      <c r="C524" s="5"/>
+      <c r="D524" s="4"/>
+      <c r="E524" s="4"/>
+      <c r="F524" s="9"/>
+      <c r="G524" s="9"/>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A525" s="4"/>
+      <c r="B525" s="9"/>
+      <c r="C525" s="5"/>
+      <c r="D525" s="4"/>
+      <c r="E525" s="4"/>
+      <c r="F525" s="9"/>
+      <c r="G525" s="9"/>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A526" s="4"/>
+      <c r="B526" s="9"/>
+      <c r="C526" s="5"/>
+      <c r="D526" s="4"/>
+      <c r="E526" s="4"/>
+      <c r="F526" s="9"/>
+      <c r="G526" s="9"/>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A527" s="4"/>
+      <c r="B527" s="9"/>
+      <c r="C527" s="5"/>
+      <c r="D527" s="4"/>
+      <c r="E527" s="4"/>
+      <c r="F527" s="9"/>
+      <c r="G527" s="9"/>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A528" s="4"/>
+      <c r="B528" s="9"/>
+      <c r="C528" s="5"/>
+      <c r="D528" s="4"/>
+      <c r="E528" s="4"/>
+      <c r="F528" s="9"/>
+      <c r="G528" s="9"/>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A529" s="4"/>
+      <c r="B529" s="9"/>
+      <c r="C529" s="5"/>
+      <c r="D529" s="4"/>
+      <c r="E529" s="4"/>
+      <c r="F529" s="9"/>
+      <c r="G529" s="9"/>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A530" s="4"/>
+      <c r="B530" s="9"/>
+      <c r="C530" s="5"/>
+      <c r="D530" s="4"/>
+      <c r="E530" s="4"/>
+      <c r="F530" s="9"/>
+      <c r="G530" s="9"/>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A531" s="4"/>
+      <c r="B531" s="9"/>
+      <c r="C531" s="5"/>
+      <c r="D531" s="4"/>
+      <c r="E531" s="4"/>
+      <c r="F531" s="9"/>
+      <c r="G531" s="9"/>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A532" s="4"/>
+      <c r="B532" s="9"/>
+      <c r="C532" s="5"/>
+      <c r="D532" s="4"/>
+      <c r="E532" s="4"/>
+      <c r="F532" s="9"/>
+      <c r="G532" s="9"/>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A533" s="4"/>
+      <c r="B533" s="9"/>
+      <c r="C533" s="5"/>
+      <c r="D533" s="4"/>
+      <c r="E533" s="4"/>
+      <c r="F533" s="9"/>
+      <c r="G533" s="9"/>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A534" s="4"/>
+      <c r="B534" s="9"/>
+      <c r="C534" s="5"/>
+      <c r="D534" s="4"/>
+      <c r="E534" s="4"/>
+      <c r="F534" s="9"/>
+      <c r="G534" s="9"/>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A535" s="4"/>
+      <c r="B535" s="9"/>
+      <c r="C535" s="5"/>
+      <c r="D535" s="4"/>
+      <c r="E535" s="4"/>
+      <c r="F535" s="9"/>
+      <c r="G535" s="9"/>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A536" s="4"/>
+      <c r="B536" s="9"/>
+      <c r="C536" s="5"/>
+      <c r="D536" s="4"/>
+      <c r="E536" s="4"/>
+      <c r="F536" s="9"/>
+      <c r="G536" s="9"/>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A537" s="4"/>
+      <c r="B537" s="9"/>
+      <c r="C537" s="5"/>
+      <c r="D537" s="4"/>
+      <c r="E537" s="4"/>
+      <c r="F537" s="9"/>
+      <c r="G537" s="9"/>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A538" s="4"/>
+      <c r="B538" s="9"/>
+      <c r="C538" s="5"/>
+      <c r="D538" s="4"/>
+      <c r="E538" s="4"/>
+      <c r="F538" s="9"/>
+      <c r="G538" s="9"/>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A539" s="4"/>
+      <c r="B539" s="9"/>
+      <c r="C539" s="5"/>
+      <c r="D539" s="4"/>
+      <c r="E539" s="4"/>
+      <c r="F539" s="9"/>
+      <c r="G539" s="9"/>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A540" s="4"/>
+      <c r="B540" s="9"/>
+      <c r="C540" s="5"/>
+      <c r="D540" s="4"/>
+      <c r="E540" s="4"/>
+      <c r="F540" s="9"/>
+      <c r="G540" s="9"/>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A541" s="4"/>
+      <c r="B541" s="9"/>
+      <c r="C541" s="5"/>
+      <c r="D541" s="4"/>
+      <c r="E541" s="4"/>
+      <c r="F541" s="9"/>
+      <c r="G541" s="9"/>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A542" s="4"/>
+      <c r="B542" s="9"/>
+      <c r="C542" s="5"/>
+      <c r="D542" s="4"/>
+      <c r="E542" s="4"/>
+      <c r="F542" s="9"/>
+      <c r="G542" s="9"/>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A543" s="4"/>
+      <c r="B543" s="9"/>
+      <c r="C543" s="5"/>
+      <c r="D543" s="4"/>
+      <c r="E543" s="4"/>
+      <c r="F543" s="9"/>
+      <c r="G543" s="9"/>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A544" s="4"/>
+      <c r="B544" s="9"/>
+      <c r="C544" s="5"/>
+      <c r="D544" s="4"/>
+      <c r="E544" s="4"/>
+      <c r="F544" s="9"/>
+      <c r="G544" s="9"/>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A545" s="4"/>
+      <c r="B545" s="9"/>
+      <c r="C545" s="5"/>
+      <c r="D545" s="4"/>
+      <c r="E545" s="4"/>
+      <c r="F545" s="9"/>
+      <c r="G545" s="9"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A546" s="4"/>
+      <c r="B546" s="9"/>
+      <c r="C546" s="5"/>
+      <c r="D546" s="4"/>
+      <c r="E546" s="4"/>
+      <c r="F546" s="9"/>
+      <c r="G546" s="9"/>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A547" s="4"/>
+      <c r="B547" s="9"/>
+      <c r="C547" s="5"/>
+      <c r="D547" s="4"/>
+      <c r="E547" s="4"/>
+      <c r="F547" s="9"/>
+      <c r="G547" s="9"/>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A548" s="4"/>
+      <c r="B548" s="9"/>
+      <c r="C548" s="5"/>
+      <c r="D548" s="4"/>
+      <c r="E548" s="4"/>
+      <c r="F548" s="9"/>
+      <c r="G548" s="9"/>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A549" s="4"/>
+      <c r="B549" s="9"/>
+      <c r="C549" s="5"/>
+      <c r="D549" s="4"/>
+      <c r="E549" s="4"/>
+      <c r="F549" s="9"/>
+      <c r="G549" s="9"/>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A550" s="4"/>
+      <c r="B550" s="9"/>
+      <c r="C550" s="5"/>
+      <c r="D550" s="4"/>
+      <c r="E550" s="4"/>
+      <c r="F550" s="9"/>
+      <c r="G550" s="9"/>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A551" s="4"/>
+      <c r="B551" s="9"/>
+      <c r="C551" s="5"/>
+      <c r="D551" s="4"/>
+      <c r="E551" s="4"/>
+      <c r="F551" s="9"/>
+      <c r="G551" s="9"/>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A552" s="4"/>
+      <c r="B552" s="9"/>
+      <c r="C552" s="5"/>
+      <c r="D552" s="4"/>
+      <c r="E552" s="4"/>
+      <c r="F552" s="9"/>
+      <c r="G552" s="9"/>
+    </row>
   </sheetData>
   <autoFilter ref="A2:H306"/>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G472:G474"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16840,4 +19662,395 @@
     <brk id="213" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="9" width="5.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="15">
+        <v>10</v>
+      </c>
+      <c r="G4" s="15">
+        <f>COUNTIF($C$4:$C$104,F4)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="15">
+        <f>COUNTIF($D$4:$D$104,H4)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="15">
+        <f>F4+10</f>
+        <v>20</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" ref="G5:G11" si="0">COUNTIF($C$4:$C$104,F5)</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="I5" s="15">
+        <f>COUNTIF($D$4:$D$104,H5)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" ref="F6:F11" si="1">F5+10</f>
+        <v>30</v>
+      </c>
+      <c r="G6" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15">
+        <f>SUM(I4:I5)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15">
+        <f>SUM(G4:G11)</f>
+        <v>34</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C15">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C19">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C26">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C27">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C29">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C35">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C37">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HP公表用 一覧'!$A$2:$H$306</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'HP公表用 一覧'!$A$1:$G$675</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'HP公表用 一覧'!$A$1:$G$806</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'年齢・男女別集計　自動集計'!$B$1:$H$20</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'HP公表用 一覧'!$2:$2</definedName>
   </definedNames>
@@ -8626,12 +8626,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="10"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>※自動表示※
+表示日の1日前の日付</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="1246">
   <si>
     <t>年代</t>
   </si>
@@ -17898,6 +17914,549 @@
     <t>県1783（№613）例目の濃厚接触者</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>県内1899例目</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>県内1900例目</t>
+  </si>
+  <si>
+    <t>県内1901例目</t>
+  </si>
+  <si>
+    <t>県内1902例目</t>
+  </si>
+  <si>
+    <t>県内1903例目</t>
+  </si>
+  <si>
+    <t>県内1904例目</t>
+  </si>
+  <si>
+    <t>県内1905例目</t>
+  </si>
+  <si>
+    <t>県内1906例目</t>
+  </si>
+  <si>
+    <t>日光市在住</t>
+  </si>
+  <si>
+    <t>県内1907例目</t>
+  </si>
+  <si>
+    <t>県内1908例目</t>
+  </si>
+  <si>
+    <t>県内1909例目</t>
+  </si>
+  <si>
+    <t>県1776（No.606）例目の接触者</t>
+  </si>
+  <si>
+    <t>県内1910例目</t>
+  </si>
+  <si>
+    <t>県内1911例目</t>
+  </si>
+  <si>
+    <t>県内1912例目</t>
+  </si>
+  <si>
+    <t>県内1913例目</t>
+  </si>
+  <si>
+    <t>県内1914例目</t>
+  </si>
+  <si>
+    <t>県内1915例目</t>
+  </si>
+  <si>
+    <t>県内1916例目</t>
+  </si>
+  <si>
+    <t>県1728（No.600）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内1917例目</t>
+  </si>
+  <si>
+    <t>県内1918例目</t>
+  </si>
+  <si>
+    <t>県内1919例目</t>
+  </si>
+  <si>
+    <t>県内1920例目</t>
+  </si>
+  <si>
+    <t>県内1921例目</t>
+  </si>
+  <si>
+    <t>県内1922例目</t>
+  </si>
+  <si>
+    <t>県内1923例目</t>
+  </si>
+  <si>
+    <t>下野市在住</t>
+  </si>
+  <si>
+    <t>県内1924例目</t>
+  </si>
+  <si>
+    <t>県内1925例目</t>
+  </si>
+  <si>
+    <t>県内1926例目</t>
+  </si>
+  <si>
+    <t>県内1927例目</t>
+  </si>
+  <si>
+    <t>県内1928例目</t>
+  </si>
+  <si>
+    <t>県内1929例目</t>
+  </si>
+  <si>
+    <t>県内1930例目</t>
+  </si>
+  <si>
+    <t>県内1931例目</t>
+  </si>
+  <si>
+    <t>県内1932例目</t>
+  </si>
+  <si>
+    <t>県内1933例目</t>
+  </si>
+  <si>
+    <t>県内1934例目</t>
+  </si>
+  <si>
+    <t>県内1935例目</t>
+  </si>
+  <si>
+    <t>県内1936例目</t>
+  </si>
+  <si>
+    <t>県内1937例目</t>
+  </si>
+  <si>
+    <t>県内1938例目</t>
+  </si>
+  <si>
+    <t>県内1939例目</t>
+  </si>
+  <si>
+    <t>県内1940例目</t>
+  </si>
+  <si>
+    <t>県内1941例目</t>
+  </si>
+  <si>
+    <t>県内1942例目</t>
+  </si>
+  <si>
+    <t>県内1943例目</t>
+  </si>
+  <si>
+    <t>県内1944例目</t>
+  </si>
+  <si>
+    <t>県内1945例目</t>
+  </si>
+  <si>
+    <t>県内1946例目</t>
+  </si>
+  <si>
+    <t>県内1947例目</t>
+  </si>
+  <si>
+    <t>県内1948例目</t>
+  </si>
+  <si>
+    <t>県内1949例目</t>
+  </si>
+  <si>
+    <t>県内1950例目</t>
+  </si>
+  <si>
+    <t>県内1951例目</t>
+  </si>
+  <si>
+    <t>県内1952例目</t>
+  </si>
+  <si>
+    <t>県内1953例目</t>
+  </si>
+  <si>
+    <t>県内1954例目</t>
+  </si>
+  <si>
+    <t>県内1955例目</t>
+  </si>
+  <si>
+    <t>県内1956例目</t>
+  </si>
+  <si>
+    <t>県1784（No.614）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内1957例目</t>
+  </si>
+  <si>
+    <t>県1794（No.624）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内1958例目</t>
+  </si>
+  <si>
+    <t>県内1959例目</t>
+  </si>
+  <si>
+    <t>県1780（No.610）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内1960例目</t>
+  </si>
+  <si>
+    <t>県内1961例目</t>
+  </si>
+  <si>
+    <t>県内1962例目</t>
+  </si>
+  <si>
+    <t>県内1963例目</t>
+  </si>
+  <si>
+    <t>県1803（No.633）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内1964例目</t>
+  </si>
+  <si>
+    <t>県1791（No.621）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内1965例目</t>
+  </si>
+  <si>
+    <t>県内1966例目</t>
+  </si>
+  <si>
+    <t>県1808（No.638）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内1967例目</t>
+  </si>
+  <si>
+    <t>県1810（No.640）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内1968例目</t>
+  </si>
+  <si>
+    <t>県内1969例目</t>
+  </si>
+  <si>
+    <t>県内1970例目</t>
+  </si>
+  <si>
+    <t>県1913（No.688）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内1971例目</t>
+  </si>
+  <si>
+    <t>県20(No.7）例目のクラスター関連</t>
+  </si>
+  <si>
+    <t>県内1972例目</t>
+  </si>
+  <si>
+    <t>県内1973例目</t>
+  </si>
+  <si>
+    <t>県内1974例目</t>
+  </si>
+  <si>
+    <t>県内1975例目</t>
+  </si>
+  <si>
+    <t>県内2052例目</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>県内2053例目</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>県2054，2055，2056（No.753，754，755）の別居家族</t>
+  </si>
+  <si>
+    <t>県内2054例目</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>県2053（No.752）の別居家族，県2055，2056（No.754，755）の同居家族</t>
+  </si>
+  <si>
+    <t>県内2055例目</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>県2053（No.752）の別居家族，県2054，2056（No.753，755）の同居家族</t>
+  </si>
+  <si>
+    <t>県内2056例目</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>県2053（No.752）の別居家族，県2054，2055（No.753，754）の同居家族</t>
+  </si>
+  <si>
+    <t>県内2057例目</t>
+  </si>
+  <si>
+    <t>県内2058例目</t>
+  </si>
+  <si>
+    <t>県内2059例目</t>
+  </si>
+  <si>
+    <t>県内2060例目</t>
+  </si>
+  <si>
+    <t>県1639（No.545）例目の接触者</t>
+  </si>
+  <si>
+    <t>県内2061例目</t>
+  </si>
+  <si>
+    <t>県内2062例目</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>県内2063例目</t>
+  </si>
+  <si>
+    <t>県内2064例目</t>
+  </si>
+  <si>
+    <t>県内2065例目</t>
+  </si>
+  <si>
+    <t>県内2066例目</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>県内2067例目</t>
+  </si>
+  <si>
+    <t>県内2068例目</t>
+  </si>
+  <si>
+    <t>県内2069例目</t>
+  </si>
+  <si>
+    <t>県内2070例目</t>
+  </si>
+  <si>
+    <t>県1900（No.675）例目の接触者</t>
+  </si>
+  <si>
+    <t>県内2071例目</t>
+  </si>
+  <si>
+    <t>県1809（No.639）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2072例目</t>
+  </si>
+  <si>
+    <t>県1939（No.714）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2073例目</t>
+  </si>
+  <si>
+    <t>県依頼の濃厚接触者，県2074，2075（No.773，774）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2074例目</t>
+  </si>
+  <si>
+    <t>県依頼の濃厚接触者，県2073，2075（No.772，774）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2075例目</t>
+  </si>
+  <si>
+    <t>県依頼の濃厚接触者，県2073，2074（No.772，773）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2076例目</t>
+  </si>
+  <si>
+    <t>県依頼の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2077例目</t>
+  </si>
+  <si>
+    <t>県1921（No.696）例目の接触者</t>
+  </si>
+  <si>
+    <t>県内2078例目</t>
+  </si>
+  <si>
+    <t>市貝町在住</t>
+  </si>
+  <si>
+    <t>県内2079例目</t>
+  </si>
+  <si>
+    <t>県1938（No.713）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2080例目</t>
+  </si>
+  <si>
+    <t>県1925（No.700）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2081例目</t>
+  </si>
+  <si>
+    <t>県1942（No.717）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2082例目</t>
+  </si>
+  <si>
+    <t>県1946（No.721）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2083例目</t>
+  </si>
+  <si>
+    <t>県内2084例目</t>
+  </si>
+  <si>
+    <t>県1973（No.748）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2085例目</t>
+  </si>
+  <si>
+    <t>県1975（No.750）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2086例目</t>
+  </si>
+  <si>
+    <t>県2052（No.751）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2087例目</t>
+  </si>
+  <si>
+    <t>県1947（No.722）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2088例目</t>
+  </si>
+  <si>
+    <t>県1948（No.723）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2089例目</t>
+  </si>
+  <si>
+    <t>県内2090例目</t>
+  </si>
+  <si>
+    <t>県内2091例目</t>
+  </si>
+  <si>
+    <t>県内2092例目</t>
+  </si>
+  <si>
+    <t>県2093（No.792）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2093例目</t>
+  </si>
+  <si>
+    <t>県2092（No.791）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2094例目</t>
+  </si>
+  <si>
+    <t>県内2095例目</t>
+  </si>
+  <si>
+    <t>県内2096例目</t>
+  </si>
+  <si>
+    <t>県2097，2098（No.796，797）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2097例目</t>
+  </si>
+  <si>
+    <t>県2096，2098（No.795，797）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2098例目</t>
+  </si>
+  <si>
+    <t>県2096，2097（No.795，796）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2099例目</t>
+  </si>
+  <si>
+    <t>壬生町在住</t>
+  </si>
+  <si>
+    <t>県内2100例目</t>
+  </si>
+  <si>
+    <t>県内2101例目</t>
+  </si>
+  <si>
+    <t>県内2102例目</t>
+  </si>
+  <si>
+    <t>県内2103例目</t>
+  </si>
+  <si>
+    <t>県内2104例目</t>
+  </si>
+  <si>
+    <t>県内2105例目</t>
+  </si>
 </sst>
 </file>
 
@@ -17906,7 +18465,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;県内&quot;@&quot;例目&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18034,6 +18593,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -18230,7 +18797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -18413,6 +18980,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18729,14 +19299,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I675"/>
+  <dimension ref="A1:I1102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D581" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G647" sqref="G647"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -18751,15 +19321,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="31" t="s">
@@ -29284,7 +29854,7 @@
       <c r="F472" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G472" s="57" t="s">
+      <c r="G472" s="58" t="s">
         <v>766</v>
       </c>
     </row>
@@ -29306,7 +29876,7 @@
       <c r="F473" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G473" s="58"/>
+      <c r="G473" s="59"/>
     </row>
     <row r="474" spans="1:7">
       <c r="A474" s="32">
@@ -29326,7 +29896,7 @@
       <c r="F474" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G474" s="59"/>
+      <c r="G474" s="60"/>
     </row>
     <row r="475" spans="1:7">
       <c r="A475" s="32">
@@ -32891,7 +33461,7 @@
     </row>
     <row r="644" spans="1:8">
       <c r="A644" s="32">
-        <f t="shared" ref="A644:A675" si="10">ROW()-2</f>
+        <f t="shared" ref="A644:A707" si="10">ROW()-2</f>
         <v>642</v>
       </c>
       <c r="B644" s="18" t="s">
@@ -33296,7 +33866,7 @@
         <v>60</v>
       </c>
       <c r="F661" s="28" t="s">
-        <v>324</v>
+        <v>143</v>
       </c>
       <c r="G661" s="55" t="s">
         <v>1059</v>
@@ -33540,7 +34110,7 @@
       </c>
       <c r="D672" s="4"/>
       <c r="E672" s="28">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F672" s="28" t="s">
         <v>143</v>
@@ -33618,6 +34188,5814 @@
         <v>1041</v>
       </c>
       <c r="H675" s="53"/>
+    </row>
+    <row r="676" spans="1:8">
+      <c r="A676" s="32">
+        <f t="shared" si="10"/>
+        <v>674</v>
+      </c>
+      <c r="B676" s="56" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C676" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D676" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E676" s="28">
+        <v>30</v>
+      </c>
+      <c r="F676" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G676" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8">
+      <c r="A677" s="32">
+        <f t="shared" si="10"/>
+        <v>675</v>
+      </c>
+      <c r="B677" s="56" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C677" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D677" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E677" s="28">
+        <v>20</v>
+      </c>
+      <c r="F677" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G677" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8">
+      <c r="A678" s="32">
+        <f t="shared" si="10"/>
+        <v>676</v>
+      </c>
+      <c r="B678" s="56" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C678" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D678" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E678" s="28">
+        <v>20</v>
+      </c>
+      <c r="F678" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G678" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8">
+      <c r="A679" s="32">
+        <f t="shared" si="10"/>
+        <v>677</v>
+      </c>
+      <c r="B679" s="56" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C679" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D679" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E679" s="28">
+        <v>20</v>
+      </c>
+      <c r="F679" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G679" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8">
+      <c r="A680" s="32">
+        <f t="shared" si="10"/>
+        <v>678</v>
+      </c>
+      <c r="B680" s="56" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C680" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D680" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E680" s="28">
+        <v>50</v>
+      </c>
+      <c r="F680" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G680" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8">
+      <c r="A681" s="32">
+        <f t="shared" si="10"/>
+        <v>679</v>
+      </c>
+      <c r="B681" s="56" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C681" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D681" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E681" s="28">
+        <v>50</v>
+      </c>
+      <c r="F681" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G681" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8">
+      <c r="A682" s="32">
+        <f t="shared" si="10"/>
+        <v>680</v>
+      </c>
+      <c r="B682" s="56" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C682" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D682" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E682" s="28">
+        <v>50</v>
+      </c>
+      <c r="F682" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G682" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8">
+      <c r="A683" s="32">
+        <f t="shared" si="10"/>
+        <v>681</v>
+      </c>
+      <c r="B683" s="56" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C683" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D683" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E683" s="28">
+        <v>70</v>
+      </c>
+      <c r="F683" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G683" s="8" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8">
+      <c r="A684" s="32">
+        <f t="shared" si="10"/>
+        <v>682</v>
+      </c>
+      <c r="B684" s="56" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C684" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D684" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E684" s="28">
+        <v>40</v>
+      </c>
+      <c r="F684" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G684" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8">
+      <c r="A685" s="32">
+        <f t="shared" si="10"/>
+        <v>683</v>
+      </c>
+      <c r="B685" s="56" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C685" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D685" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E685" s="28">
+        <v>50</v>
+      </c>
+      <c r="F685" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G685" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8">
+      <c r="A686" s="32">
+        <f t="shared" si="10"/>
+        <v>684</v>
+      </c>
+      <c r="B686" s="56" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C686" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D686" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E686" s="28">
+        <v>20</v>
+      </c>
+      <c r="F686" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G686" s="8" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8">
+      <c r="A687" s="32">
+        <f t="shared" si="10"/>
+        <v>685</v>
+      </c>
+      <c r="B687" s="56" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C687" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D687" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E687" s="28">
+        <v>50</v>
+      </c>
+      <c r="F687" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G687" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8">
+      <c r="A688" s="32">
+        <f t="shared" si="10"/>
+        <v>686</v>
+      </c>
+      <c r="B688" s="56" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C688" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D688" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E688" s="28">
+        <v>20</v>
+      </c>
+      <c r="F688" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G688" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7">
+      <c r="A689" s="32">
+        <f t="shared" si="10"/>
+        <v>687</v>
+      </c>
+      <c r="B689" s="56" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C689" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D689" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E689" s="28">
+        <v>60</v>
+      </c>
+      <c r="F689" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G689" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7">
+      <c r="A690" s="32">
+        <f t="shared" si="10"/>
+        <v>688</v>
+      </c>
+      <c r="B690" s="56" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C690" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D690" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E690" s="28">
+        <v>80</v>
+      </c>
+      <c r="F690" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G690" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7">
+      <c r="A691" s="32">
+        <f t="shared" si="10"/>
+        <v>689</v>
+      </c>
+      <c r="B691" s="56" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C691" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D691" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E691" s="28">
+        <v>60</v>
+      </c>
+      <c r="F691" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G691" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7">
+      <c r="A692" s="32">
+        <f t="shared" si="10"/>
+        <v>690</v>
+      </c>
+      <c r="B692" s="56" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C692" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D692" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E692" s="28">
+        <v>60</v>
+      </c>
+      <c r="F692" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G692" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7">
+      <c r="A693" s="32">
+        <f t="shared" si="10"/>
+        <v>691</v>
+      </c>
+      <c r="B693" s="56" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C693" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D693" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E693" s="28">
+        <v>20</v>
+      </c>
+      <c r="F693" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G693" s="8" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7">
+      <c r="A694" s="32">
+        <f t="shared" si="10"/>
+        <v>692</v>
+      </c>
+      <c r="B694" s="56" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C694" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D694" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E694" s="28">
+        <v>30</v>
+      </c>
+      <c r="F694" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G694" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7">
+      <c r="A695" s="32">
+        <f t="shared" si="10"/>
+        <v>693</v>
+      </c>
+      <c r="B695" s="56" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C695" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D695" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E695" s="28">
+        <v>20</v>
+      </c>
+      <c r="F695" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G695" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7">
+      <c r="A696" s="32">
+        <f t="shared" si="10"/>
+        <v>694</v>
+      </c>
+      <c r="B696" s="56" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C696" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D696" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E696" s="28">
+        <v>40</v>
+      </c>
+      <c r="F696" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G696" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7">
+      <c r="A697" s="32">
+        <f t="shared" si="10"/>
+        <v>695</v>
+      </c>
+      <c r="B697" s="56" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C697" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D697" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E697" s="28">
+        <v>50</v>
+      </c>
+      <c r="F697" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G697" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7">
+      <c r="A698" s="32">
+        <f t="shared" si="10"/>
+        <v>696</v>
+      </c>
+      <c r="B698" s="56" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C698" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D698" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E698" s="28">
+        <v>60</v>
+      </c>
+      <c r="F698" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G698" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7">
+      <c r="A699" s="32">
+        <f t="shared" si="10"/>
+        <v>697</v>
+      </c>
+      <c r="B699" s="56" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C699" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D699" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E699" s="28">
+        <v>40</v>
+      </c>
+      <c r="F699" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G699" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7">
+      <c r="A700" s="32">
+        <f t="shared" si="10"/>
+        <v>698</v>
+      </c>
+      <c r="B700" s="56" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C700" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D700" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E700" s="28">
+        <v>50</v>
+      </c>
+      <c r="F700" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G700" s="8" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7">
+      <c r="A701" s="32">
+        <f t="shared" si="10"/>
+        <v>699</v>
+      </c>
+      <c r="B701" s="56" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C701" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D701" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E701" s="28">
+        <v>40</v>
+      </c>
+      <c r="F701" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G701" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7">
+      <c r="A702" s="32">
+        <f t="shared" si="10"/>
+        <v>700</v>
+      </c>
+      <c r="B702" s="56" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C702" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D702" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E702" s="28">
+        <v>40</v>
+      </c>
+      <c r="F702" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G702" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7">
+      <c r="A703" s="32">
+        <f t="shared" si="10"/>
+        <v>701</v>
+      </c>
+      <c r="B703" s="56" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C703" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D703" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E703" s="28">
+        <v>40</v>
+      </c>
+      <c r="F703" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G703" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7">
+      <c r="A704" s="32">
+        <f t="shared" si="10"/>
+        <v>702</v>
+      </c>
+      <c r="B704" s="56" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C704" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D704" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E704" s="28">
+        <v>50</v>
+      </c>
+      <c r="F704" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G704" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7">
+      <c r="A705" s="32">
+        <f t="shared" si="10"/>
+        <v>703</v>
+      </c>
+      <c r="B705" s="56" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C705" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D705" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E705" s="28">
+        <v>40</v>
+      </c>
+      <c r="F705" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G705" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7">
+      <c r="A706" s="32">
+        <f t="shared" si="10"/>
+        <v>704</v>
+      </c>
+      <c r="B706" s="56" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C706" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D706" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E706" s="28">
+        <v>40</v>
+      </c>
+      <c r="F706" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G706" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7">
+      <c r="A707" s="32">
+        <f t="shared" si="10"/>
+        <v>705</v>
+      </c>
+      <c r="B707" s="56" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C707" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D707" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E707" s="28">
+        <v>30</v>
+      </c>
+      <c r="F707" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G707" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7">
+      <c r="A708" s="32">
+        <f t="shared" ref="A708:A771" si="11">ROW()-2</f>
+        <v>706</v>
+      </c>
+      <c r="B708" s="56" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C708" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D708" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E708" s="28">
+        <v>30</v>
+      </c>
+      <c r="F708" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G708" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7">
+      <c r="A709" s="32">
+        <f t="shared" si="11"/>
+        <v>707</v>
+      </c>
+      <c r="B709" s="56" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C709" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D709" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E709" s="28">
+        <v>50</v>
+      </c>
+      <c r="F709" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G709" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7">
+      <c r="A710" s="32">
+        <f t="shared" si="11"/>
+        <v>708</v>
+      </c>
+      <c r="B710" s="56" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C710" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D710" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E710" s="28">
+        <v>40</v>
+      </c>
+      <c r="F710" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G710" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7">
+      <c r="A711" s="32">
+        <f t="shared" si="11"/>
+        <v>709</v>
+      </c>
+      <c r="B711" s="56" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C711" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D711" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E711" s="28">
+        <v>20</v>
+      </c>
+      <c r="F711" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G711" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7">
+      <c r="A712" s="32">
+        <f t="shared" si="11"/>
+        <v>710</v>
+      </c>
+      <c r="B712" s="56" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C712" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D712" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E712" s="28">
+        <v>20</v>
+      </c>
+      <c r="F712" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G712" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7">
+      <c r="A713" s="32">
+        <f t="shared" si="11"/>
+        <v>711</v>
+      </c>
+      <c r="B713" s="56" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C713" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D713" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E713" s="28">
+        <v>30</v>
+      </c>
+      <c r="F713" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G713" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7">
+      <c r="A714" s="32">
+        <f t="shared" si="11"/>
+        <v>712</v>
+      </c>
+      <c r="B714" s="56" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C714" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D714" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E714" s="28">
+        <v>40</v>
+      </c>
+      <c r="F714" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G714" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7">
+      <c r="A715" s="32">
+        <f t="shared" si="11"/>
+        <v>713</v>
+      </c>
+      <c r="B715" s="56" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C715" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D715" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E715" s="28">
+        <v>40</v>
+      </c>
+      <c r="F715" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G715" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7">
+      <c r="A716" s="32">
+        <f t="shared" si="11"/>
+        <v>714</v>
+      </c>
+      <c r="B716" s="56" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C716" s="5">
+        <v>44201</v>
+      </c>
+      <c r="D716" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E716" s="28">
+        <v>20</v>
+      </c>
+      <c r="F716" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G716" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7">
+      <c r="A717" s="32">
+        <f t="shared" si="11"/>
+        <v>715</v>
+      </c>
+      <c r="B717" s="56" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C717" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D717" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E717" s="28">
+        <v>60</v>
+      </c>
+      <c r="F717" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G717" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7">
+      <c r="A718" s="32">
+        <f t="shared" si="11"/>
+        <v>716</v>
+      </c>
+      <c r="B718" s="56" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C718" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D718" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E718" s="28">
+        <v>50</v>
+      </c>
+      <c r="F718" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G718" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7">
+      <c r="A719" s="32">
+        <f t="shared" si="11"/>
+        <v>717</v>
+      </c>
+      <c r="B719" s="56" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C719" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D719" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E719" s="28">
+        <v>40</v>
+      </c>
+      <c r="F719" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G719" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7">
+      <c r="A720" s="32">
+        <f t="shared" si="11"/>
+        <v>718</v>
+      </c>
+      <c r="B720" s="56" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C720" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D720" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E720" s="28">
+        <v>30</v>
+      </c>
+      <c r="F720" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G720" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7">
+      <c r="A721" s="32">
+        <f t="shared" si="11"/>
+        <v>719</v>
+      </c>
+      <c r="B721" s="56" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C721" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D721" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E721" s="28">
+        <v>20</v>
+      </c>
+      <c r="F721" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G721" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7">
+      <c r="A722" s="32">
+        <f t="shared" si="11"/>
+        <v>720</v>
+      </c>
+      <c r="B722" s="56" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C722" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D722" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E722" s="28">
+        <v>40</v>
+      </c>
+      <c r="F722" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G722" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7">
+      <c r="A723" s="32">
+        <f t="shared" si="11"/>
+        <v>721</v>
+      </c>
+      <c r="B723" s="56" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C723" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D723" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E723" s="28">
+        <v>40</v>
+      </c>
+      <c r="F723" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G723" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7">
+      <c r="A724" s="32">
+        <f t="shared" si="11"/>
+        <v>722</v>
+      </c>
+      <c r="B724" s="56" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C724" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D724" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E724" s="28">
+        <v>70</v>
+      </c>
+      <c r="F724" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G724" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7">
+      <c r="A725" s="32">
+        <f t="shared" si="11"/>
+        <v>723</v>
+      </c>
+      <c r="B725" s="56" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C725" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D725" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E725" s="28">
+        <v>30</v>
+      </c>
+      <c r="F725" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G725" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7">
+      <c r="A726" s="32">
+        <f t="shared" si="11"/>
+        <v>724</v>
+      </c>
+      <c r="B726" s="56" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C726" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D726" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E726" s="28">
+        <v>70</v>
+      </c>
+      <c r="F726" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G726" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7">
+      <c r="A727" s="32">
+        <f t="shared" si="11"/>
+        <v>725</v>
+      </c>
+      <c r="B727" s="56" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C727" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D727" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E727" s="28">
+        <v>70</v>
+      </c>
+      <c r="F727" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G727" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7">
+      <c r="A728" s="32">
+        <f t="shared" si="11"/>
+        <v>726</v>
+      </c>
+      <c r="B728" s="56" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C728" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D728" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E728" s="28">
+        <v>30</v>
+      </c>
+      <c r="F728" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G728" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7">
+      <c r="A729" s="32">
+        <f t="shared" si="11"/>
+        <v>727</v>
+      </c>
+      <c r="B729" s="56" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C729" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D729" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E729" s="28">
+        <v>40</v>
+      </c>
+      <c r="F729" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G729" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7">
+      <c r="A730" s="32">
+        <f t="shared" si="11"/>
+        <v>728</v>
+      </c>
+      <c r="B730" s="56" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C730" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D730" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E730" s="28">
+        <v>20</v>
+      </c>
+      <c r="F730" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G730" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7">
+      <c r="A731" s="32">
+        <f t="shared" si="11"/>
+        <v>729</v>
+      </c>
+      <c r="B731" s="56" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C731" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D731" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E731" s="28">
+        <v>70</v>
+      </c>
+      <c r="F731" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G731" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7">
+      <c r="A732" s="32">
+        <f t="shared" si="11"/>
+        <v>730</v>
+      </c>
+      <c r="B732" s="56" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C732" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D732" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E732" s="28">
+        <v>30</v>
+      </c>
+      <c r="F732" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G732" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7">
+      <c r="A733" s="32">
+        <f t="shared" si="11"/>
+        <v>731</v>
+      </c>
+      <c r="B733" s="56" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C733" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D733" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E733" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F733" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G733" s="8" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7">
+      <c r="A734" s="32">
+        <f t="shared" si="11"/>
+        <v>732</v>
+      </c>
+      <c r="B734" s="56" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C734" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D734" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E734" s="28">
+        <v>50</v>
+      </c>
+      <c r="F734" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G734" s="8" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7">
+      <c r="A735" s="32">
+        <f t="shared" si="11"/>
+        <v>733</v>
+      </c>
+      <c r="B735" s="56" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C735" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D735" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E735" s="28">
+        <v>10</v>
+      </c>
+      <c r="F735" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G735" s="8" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7">
+      <c r="A736" s="32">
+        <f t="shared" si="11"/>
+        <v>734</v>
+      </c>
+      <c r="B736" s="56" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C736" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D736" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E736" s="28">
+        <v>30</v>
+      </c>
+      <c r="F736" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G736" s="8" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7">
+      <c r="A737" s="32">
+        <f t="shared" si="11"/>
+        <v>735</v>
+      </c>
+      <c r="B737" s="56" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C737" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D737" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E737" s="28">
+        <v>30</v>
+      </c>
+      <c r="F737" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G737" s="8" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7">
+      <c r="A738" s="32">
+        <f t="shared" si="11"/>
+        <v>736</v>
+      </c>
+      <c r="B738" s="56" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C738" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D738" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E738" s="28">
+        <v>30</v>
+      </c>
+      <c r="F738" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G738" s="8" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7">
+      <c r="A739" s="32">
+        <f t="shared" si="11"/>
+        <v>737</v>
+      </c>
+      <c r="B739" s="56" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C739" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D739" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E739" s="28">
+        <v>30</v>
+      </c>
+      <c r="F739" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G739" s="8" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7">
+      <c r="A740" s="32">
+        <f t="shared" si="11"/>
+        <v>738</v>
+      </c>
+      <c r="B740" s="56" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C740" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D740" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E740" s="28">
+        <v>10</v>
+      </c>
+      <c r="F740" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G740" s="8" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7">
+      <c r="A741" s="32">
+        <f t="shared" si="11"/>
+        <v>739</v>
+      </c>
+      <c r="B741" s="56" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C741" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D741" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E741" s="28">
+        <v>50</v>
+      </c>
+      <c r="F741" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G741" s="8" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7">
+      <c r="A742" s="32">
+        <f t="shared" si="11"/>
+        <v>740</v>
+      </c>
+      <c r="B742" s="56" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C742" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D742" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E742" s="28">
+        <v>20</v>
+      </c>
+      <c r="F742" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G742" s="8" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7">
+      <c r="A743" s="32">
+        <f t="shared" si="11"/>
+        <v>741</v>
+      </c>
+      <c r="B743" s="56" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C743" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D743" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E743" s="28">
+        <v>10</v>
+      </c>
+      <c r="F743" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G743" s="8" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7">
+      <c r="A744" s="32">
+        <f t="shared" si="11"/>
+        <v>742</v>
+      </c>
+      <c r="B744" s="56" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C744" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D744" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E744" s="28">
+        <v>50</v>
+      </c>
+      <c r="F744" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G744" s="8" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7">
+      <c r="A745" s="32">
+        <f t="shared" si="11"/>
+        <v>743</v>
+      </c>
+      <c r="B745" s="56" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C745" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D745" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E745" s="28">
+        <v>50</v>
+      </c>
+      <c r="F745" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G745" s="8" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7">
+      <c r="A746" s="32">
+        <f t="shared" si="11"/>
+        <v>744</v>
+      </c>
+      <c r="B746" s="56" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C746" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D746" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E746" s="28">
+        <v>10</v>
+      </c>
+      <c r="F746" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G746" s="8" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7">
+      <c r="A747" s="32">
+        <f t="shared" si="11"/>
+        <v>745</v>
+      </c>
+      <c r="B747" s="56" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C747" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D747" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E747" s="28">
+        <v>70</v>
+      </c>
+      <c r="F747" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G747" s="8" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7">
+      <c r="A748" s="32">
+        <f t="shared" si="11"/>
+        <v>746</v>
+      </c>
+      <c r="B748" s="56" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C748" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D748" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E748" s="28">
+        <v>30</v>
+      </c>
+      <c r="F748" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G748" s="8" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7">
+      <c r="A749" s="32">
+        <f t="shared" si="11"/>
+        <v>747</v>
+      </c>
+      <c r="B749" s="56" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C749" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D749" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E749" s="28">
+        <v>70</v>
+      </c>
+      <c r="F749" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G749" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7">
+      <c r="A750" s="32">
+        <f t="shared" si="11"/>
+        <v>748</v>
+      </c>
+      <c r="B750" s="56" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C750" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D750" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E750" s="28">
+        <v>50</v>
+      </c>
+      <c r="F750" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G750" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7">
+      <c r="A751" s="32">
+        <f t="shared" si="11"/>
+        <v>749</v>
+      </c>
+      <c r="B751" s="56" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C751" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D751" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E751" s="28">
+        <v>20</v>
+      </c>
+      <c r="F751" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G751" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7">
+      <c r="A752" s="32">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+      <c r="B752" s="56" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C752" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D752" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E752" s="28">
+        <v>30</v>
+      </c>
+      <c r="F752" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G752" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7">
+      <c r="A753" s="32">
+        <f t="shared" si="11"/>
+        <v>751</v>
+      </c>
+      <c r="B753" s="56" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C753" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D753" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E753" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F753" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G753" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" ht="34.5">
+      <c r="A754" s="32">
+        <f t="shared" si="11"/>
+        <v>752</v>
+      </c>
+      <c r="B754" s="56" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C754" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D754" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E754" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F754" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G754" s="16" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" ht="34.5">
+      <c r="A755" s="32">
+        <f t="shared" si="11"/>
+        <v>753</v>
+      </c>
+      <c r="B755" s="56" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C755" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D755" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E755" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F755" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G755" s="16" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" ht="34.5">
+      <c r="A756" s="32">
+        <f t="shared" si="11"/>
+        <v>754</v>
+      </c>
+      <c r="B756" s="56" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C756" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D756" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E756" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F756" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G756" s="16" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" ht="34.5">
+      <c r="A757" s="32">
+        <f t="shared" si="11"/>
+        <v>755</v>
+      </c>
+      <c r="B757" s="56" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C757" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D757" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E757" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F757" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G757" s="16" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7">
+      <c r="A758" s="32">
+        <f t="shared" si="11"/>
+        <v>756</v>
+      </c>
+      <c r="B758" s="56" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C758" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D758" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E758" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F758" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G758" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7">
+      <c r="A759" s="32">
+        <f t="shared" si="11"/>
+        <v>757</v>
+      </c>
+      <c r="B759" s="56" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C759" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D759" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E759" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F759" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G759" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7">
+      <c r="A760" s="32">
+        <f t="shared" si="11"/>
+        <v>758</v>
+      </c>
+      <c r="B760" s="56" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C760" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D760" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E760" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F760" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G760" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7">
+      <c r="A761" s="32">
+        <f t="shared" si="11"/>
+        <v>759</v>
+      </c>
+      <c r="B761" s="56" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C761" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D761" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E761" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F761" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G761" s="16" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7">
+      <c r="A762" s="32">
+        <f t="shared" si="11"/>
+        <v>760</v>
+      </c>
+      <c r="B762" s="56" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C762" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D762" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E762" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F762" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G762" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7">
+      <c r="A763" s="32">
+        <f t="shared" si="11"/>
+        <v>761</v>
+      </c>
+      <c r="B763" s="56" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C763" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D763" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E763" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F763" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G763" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7">
+      <c r="A764" s="32">
+        <f t="shared" si="11"/>
+        <v>762</v>
+      </c>
+      <c r="B764" s="56" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C764" s="5">
+        <v>44202</v>
+      </c>
+      <c r="D764" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E764" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F764" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G764" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7">
+      <c r="A765" s="32">
+        <f t="shared" si="11"/>
+        <v>763</v>
+      </c>
+      <c r="B765" s="56" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C765" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D765" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E765" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F765" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G765" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7">
+      <c r="A766" s="32">
+        <f t="shared" si="11"/>
+        <v>764</v>
+      </c>
+      <c r="B766" s="56" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C766" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D766" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E766" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F766" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G766" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7">
+      <c r="A767" s="32">
+        <f t="shared" si="11"/>
+        <v>765</v>
+      </c>
+      <c r="B767" s="56" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C767" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D767" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E767" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F767" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G767" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7">
+      <c r="A768" s="32">
+        <f t="shared" si="11"/>
+        <v>766</v>
+      </c>
+      <c r="B768" s="56" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C768" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D768" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E768" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F768" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G768" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7">
+      <c r="A769" s="32">
+        <f t="shared" si="11"/>
+        <v>767</v>
+      </c>
+      <c r="B769" s="56" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C769" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D769" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E769" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F769" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G769" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7">
+      <c r="A770" s="32">
+        <f t="shared" si="11"/>
+        <v>768</v>
+      </c>
+      <c r="B770" s="56" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C770" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D770" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E770" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F770" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G770" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7">
+      <c r="A771" s="32">
+        <f t="shared" si="11"/>
+        <v>769</v>
+      </c>
+      <c r="B771" s="56" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C771" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D771" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E771" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F771" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G771" s="16" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7">
+      <c r="A772" s="32">
+        <f t="shared" ref="A772:A806" si="12">ROW()-2</f>
+        <v>770</v>
+      </c>
+      <c r="B772" s="56" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C772" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D772" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E772" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F772" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G772" s="16" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7">
+      <c r="A773" s="32">
+        <f t="shared" si="12"/>
+        <v>771</v>
+      </c>
+      <c r="B773" s="56" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C773" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D773" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E773" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F773" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G773" s="16" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" ht="34.5">
+      <c r="A774" s="32">
+        <f t="shared" si="12"/>
+        <v>772</v>
+      </c>
+      <c r="B774" s="56" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C774" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D774" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E774" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F774" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G774" s="16" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" ht="34.5">
+      <c r="A775" s="32">
+        <f t="shared" si="12"/>
+        <v>773</v>
+      </c>
+      <c r="B775" s="56" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C775" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D775" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E775" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F775" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G775" s="16" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" ht="34.5">
+      <c r="A776" s="32">
+        <f t="shared" si="12"/>
+        <v>774</v>
+      </c>
+      <c r="B776" s="56" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C776" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D776" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E776" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F776" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G776" s="16" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7">
+      <c r="A777" s="32">
+        <f t="shared" si="12"/>
+        <v>775</v>
+      </c>
+      <c r="B777" s="56" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C777" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D777" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E777" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F777" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G777" s="16" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7">
+      <c r="A778" s="32">
+        <f t="shared" si="12"/>
+        <v>776</v>
+      </c>
+      <c r="B778" s="56" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C778" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D778" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E778" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F778" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G778" s="16" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7">
+      <c r="A779" s="32">
+        <f t="shared" si="12"/>
+        <v>777</v>
+      </c>
+      <c r="B779" s="56" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C779" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D779" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E779" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F779" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G779" s="16" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7">
+      <c r="A780" s="32">
+        <f t="shared" si="12"/>
+        <v>778</v>
+      </c>
+      <c r="B780" s="56" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C780" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D780" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E780" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F780" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G780" s="16" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7">
+      <c r="A781" s="32">
+        <f t="shared" si="12"/>
+        <v>779</v>
+      </c>
+      <c r="B781" s="56" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C781" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D781" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E781" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F781" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G781" s="16" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7">
+      <c r="A782" s="32">
+        <f t="shared" si="12"/>
+        <v>780</v>
+      </c>
+      <c r="B782" s="56" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C782" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D782" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E782" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F782" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G782" s="16" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7">
+      <c r="A783" s="32">
+        <f t="shared" si="12"/>
+        <v>781</v>
+      </c>
+      <c r="B783" s="56" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C783" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D783" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E783" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F783" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G783" s="16" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7">
+      <c r="A784" s="32">
+        <f t="shared" si="12"/>
+        <v>782</v>
+      </c>
+      <c r="B784" s="56" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C784" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D784" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E784" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F784" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G784" s="16" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7">
+      <c r="A785" s="32">
+        <f t="shared" si="12"/>
+        <v>783</v>
+      </c>
+      <c r="B785" s="56" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C785" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D785" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E785" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F785" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G785" s="16" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7">
+      <c r="A786" s="32">
+        <f t="shared" si="12"/>
+        <v>784</v>
+      </c>
+      <c r="B786" s="56" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C786" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D786" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E786" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F786" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G786" s="16" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7">
+      <c r="A787" s="32">
+        <f t="shared" si="12"/>
+        <v>785</v>
+      </c>
+      <c r="B787" s="56" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C787" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D787" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E787" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F787" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G787" s="16" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7">
+      <c r="A788" s="32">
+        <f t="shared" si="12"/>
+        <v>786</v>
+      </c>
+      <c r="B788" s="56" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C788" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D788" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E788" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F788" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G788" s="16" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7">
+      <c r="A789" s="32">
+        <f t="shared" si="12"/>
+        <v>787</v>
+      </c>
+      <c r="B789" s="56" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C789" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D789" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E789" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F789" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G789" s="16" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7">
+      <c r="A790" s="32">
+        <f t="shared" si="12"/>
+        <v>788</v>
+      </c>
+      <c r="B790" s="56" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C790" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D790" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E790" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F790" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G790" s="16" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7">
+      <c r="A791" s="32">
+        <f t="shared" si="12"/>
+        <v>789</v>
+      </c>
+      <c r="B791" s="56" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C791" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D791" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E791" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F791" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G791" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7">
+      <c r="A792" s="32">
+        <f t="shared" si="12"/>
+        <v>790</v>
+      </c>
+      <c r="B792" s="56" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C792" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D792" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E792" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F792" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G792" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7">
+      <c r="A793" s="32">
+        <f t="shared" si="12"/>
+        <v>791</v>
+      </c>
+      <c r="B793" s="56" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C793" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D793" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E793" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F793" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G793" s="16" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7">
+      <c r="A794" s="32">
+        <f t="shared" si="12"/>
+        <v>792</v>
+      </c>
+      <c r="B794" s="56" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C794" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D794" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E794" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F794" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G794" s="16" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7">
+      <c r="A795" s="32">
+        <f t="shared" si="12"/>
+        <v>793</v>
+      </c>
+      <c r="B795" s="56" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C795" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D795" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E795" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F795" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G795" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7">
+      <c r="A796" s="32">
+        <f t="shared" si="12"/>
+        <v>794</v>
+      </c>
+      <c r="B796" s="56" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C796" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D796" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E796" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F796" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G796" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7">
+      <c r="A797" s="32">
+        <f t="shared" si="12"/>
+        <v>795</v>
+      </c>
+      <c r="B797" s="56" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C797" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D797" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E797" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F797" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G797" s="16" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7">
+      <c r="A798" s="32">
+        <f t="shared" si="12"/>
+        <v>796</v>
+      </c>
+      <c r="B798" s="56" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C798" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D798" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E798" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F798" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G798" s="16" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7">
+      <c r="A799" s="32">
+        <f t="shared" si="12"/>
+        <v>797</v>
+      </c>
+      <c r="B799" s="56" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C799" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D799" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E799" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F799" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G799" s="16" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7">
+      <c r="A800" s="32">
+        <f t="shared" si="12"/>
+        <v>798</v>
+      </c>
+      <c r="B800" s="56" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C800" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D800" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E800" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F800" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G800" s="16" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7">
+      <c r="A801" s="32">
+        <f t="shared" si="12"/>
+        <v>799</v>
+      </c>
+      <c r="B801" s="56" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C801" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D801" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E801" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F801" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G801" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7">
+      <c r="A802" s="32">
+        <f t="shared" si="12"/>
+        <v>800</v>
+      </c>
+      <c r="B802" s="56" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C802" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D802" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E802" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F802" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G802" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7">
+      <c r="A803" s="32">
+        <f t="shared" si="12"/>
+        <v>801</v>
+      </c>
+      <c r="B803" s="56" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C803" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D803" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E803" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F803" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G803" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7">
+      <c r="A804" s="32">
+        <f t="shared" si="12"/>
+        <v>802</v>
+      </c>
+      <c r="B804" s="56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C804" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D804" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E804" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F804" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G804" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7">
+      <c r="A805" s="32">
+        <f t="shared" si="12"/>
+        <v>803</v>
+      </c>
+      <c r="B805" s="56" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C805" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D805" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E805" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F805" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G805" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7">
+      <c r="A806" s="32">
+        <f t="shared" si="12"/>
+        <v>804</v>
+      </c>
+      <c r="B806" s="56" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C806" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D806" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E806" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F806" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G806" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7">
+      <c r="A807" s="32"/>
+      <c r="B807" s="56"/>
+      <c r="C807" s="5"/>
+      <c r="D807" s="4"/>
+      <c r="E807" s="28"/>
+      <c r="F807" s="28"/>
+      <c r="G807" s="8"/>
+    </row>
+    <row r="808" spans="1:7">
+      <c r="A808" s="32"/>
+      <c r="B808" s="56"/>
+      <c r="C808" s="5"/>
+      <c r="D808" s="4"/>
+      <c r="E808" s="28"/>
+      <c r="F808" s="28"/>
+      <c r="G808" s="8"/>
+    </row>
+    <row r="809" spans="1:7">
+      <c r="A809" s="32"/>
+      <c r="B809" s="56"/>
+      <c r="C809" s="5"/>
+      <c r="D809" s="4"/>
+      <c r="E809" s="28"/>
+      <c r="F809" s="28"/>
+      <c r="G809" s="8"/>
+    </row>
+    <row r="810" spans="1:7">
+      <c r="A810" s="32"/>
+      <c r="B810" s="56"/>
+      <c r="C810" s="5"/>
+      <c r="D810" s="4"/>
+      <c r="E810" s="28"/>
+      <c r="F810" s="28"/>
+      <c r="G810" s="8"/>
+    </row>
+    <row r="811" spans="1:7">
+      <c r="A811" s="32"/>
+      <c r="B811" s="56"/>
+      <c r="C811" s="5"/>
+      <c r="D811" s="4"/>
+      <c r="E811" s="28"/>
+      <c r="F811" s="28"/>
+      <c r="G811" s="8"/>
+    </row>
+    <row r="812" spans="1:7">
+      <c r="A812" s="32"/>
+      <c r="B812" s="56"/>
+      <c r="C812" s="5"/>
+      <c r="D812" s="4"/>
+      <c r="E812" s="28"/>
+      <c r="F812" s="28"/>
+      <c r="G812" s="8"/>
+    </row>
+    <row r="813" spans="1:7">
+      <c r="A813" s="32"/>
+      <c r="B813" s="56"/>
+      <c r="C813" s="5"/>
+      <c r="D813" s="4"/>
+      <c r="E813" s="28"/>
+      <c r="F813" s="28"/>
+      <c r="G813" s="8"/>
+    </row>
+    <row r="814" spans="1:7">
+      <c r="A814" s="32"/>
+      <c r="B814" s="56"/>
+      <c r="C814" s="5"/>
+      <c r="D814" s="4"/>
+      <c r="E814" s="28"/>
+      <c r="F814" s="28"/>
+      <c r="G814" s="8"/>
+    </row>
+    <row r="815" spans="1:7">
+      <c r="A815" s="32"/>
+      <c r="B815" s="56"/>
+      <c r="C815" s="5"/>
+      <c r="D815" s="4"/>
+      <c r="E815" s="28"/>
+      <c r="F815" s="28"/>
+      <c r="G815" s="8"/>
+    </row>
+    <row r="816" spans="1:7">
+      <c r="A816" s="32"/>
+      <c r="B816" s="56"/>
+      <c r="C816" s="5"/>
+      <c r="D816" s="4"/>
+      <c r="E816" s="28"/>
+      <c r="F816" s="28"/>
+      <c r="G816" s="8"/>
+    </row>
+    <row r="817" spans="1:7">
+      <c r="A817" s="32"/>
+      <c r="B817" s="56"/>
+      <c r="C817" s="5"/>
+      <c r="D817" s="4"/>
+      <c r="E817" s="28"/>
+      <c r="F817" s="28"/>
+      <c r="G817" s="8"/>
+    </row>
+    <row r="818" spans="1:7">
+      <c r="A818" s="32"/>
+      <c r="B818" s="56"/>
+      <c r="C818" s="5"/>
+      <c r="D818" s="4"/>
+      <c r="E818" s="28"/>
+      <c r="F818" s="28"/>
+      <c r="G818" s="8"/>
+    </row>
+    <row r="819" spans="1:7">
+      <c r="A819" s="32"/>
+      <c r="B819" s="56"/>
+      <c r="C819" s="5"/>
+      <c r="D819" s="4"/>
+      <c r="E819" s="28"/>
+      <c r="F819" s="28"/>
+      <c r="G819" s="8"/>
+    </row>
+    <row r="820" spans="1:7">
+      <c r="A820" s="32"/>
+      <c r="B820" s="56"/>
+      <c r="C820" s="5"/>
+      <c r="D820" s="4"/>
+      <c r="E820" s="28"/>
+      <c r="F820" s="28"/>
+      <c r="G820" s="8"/>
+    </row>
+    <row r="821" spans="1:7">
+      <c r="A821" s="32"/>
+      <c r="B821" s="56"/>
+      <c r="C821" s="5"/>
+      <c r="D821" s="4"/>
+      <c r="E821" s="28"/>
+      <c r="F821" s="28"/>
+      <c r="G821" s="8"/>
+    </row>
+    <row r="822" spans="1:7">
+      <c r="A822" s="32"/>
+      <c r="B822" s="56"/>
+      <c r="C822" s="5"/>
+      <c r="D822" s="4"/>
+      <c r="E822" s="28"/>
+      <c r="F822" s="28"/>
+      <c r="G822" s="8"/>
+    </row>
+    <row r="823" spans="1:7">
+      <c r="A823" s="32"/>
+      <c r="B823" s="56"/>
+      <c r="C823" s="5"/>
+      <c r="D823" s="4"/>
+      <c r="E823" s="28"/>
+      <c r="F823" s="28"/>
+      <c r="G823" s="8"/>
+    </row>
+    <row r="824" spans="1:7">
+      <c r="A824" s="32"/>
+      <c r="B824" s="56"/>
+      <c r="C824" s="5"/>
+      <c r="D824" s="4"/>
+      <c r="E824" s="28"/>
+      <c r="F824" s="28"/>
+      <c r="G824" s="8"/>
+    </row>
+    <row r="825" spans="1:7">
+      <c r="A825" s="32"/>
+      <c r="B825" s="56"/>
+      <c r="C825" s="5"/>
+      <c r="D825" s="4"/>
+      <c r="E825" s="28"/>
+      <c r="F825" s="28"/>
+      <c r="G825" s="8"/>
+    </row>
+    <row r="826" spans="1:7">
+      <c r="A826" s="32"/>
+      <c r="B826" s="56"/>
+      <c r="C826" s="5"/>
+      <c r="D826" s="4"/>
+      <c r="E826" s="28"/>
+      <c r="F826" s="28"/>
+      <c r="G826" s="8"/>
+    </row>
+    <row r="827" spans="1:7">
+      <c r="A827" s="32"/>
+      <c r="B827" s="56"/>
+      <c r="C827" s="5"/>
+      <c r="D827" s="4"/>
+      <c r="E827" s="28"/>
+      <c r="F827" s="28"/>
+      <c r="G827" s="8"/>
+    </row>
+    <row r="828" spans="1:7">
+      <c r="A828" s="32"/>
+      <c r="B828" s="56"/>
+      <c r="C828" s="5"/>
+      <c r="D828" s="4"/>
+      <c r="E828" s="28"/>
+      <c r="F828" s="28"/>
+      <c r="G828" s="8"/>
+    </row>
+    <row r="829" spans="1:7">
+      <c r="A829" s="32"/>
+      <c r="B829" s="56"/>
+      <c r="C829" s="5"/>
+      <c r="D829" s="4"/>
+      <c r="E829" s="28"/>
+      <c r="F829" s="28"/>
+      <c r="G829" s="8"/>
+    </row>
+    <row r="830" spans="1:7">
+      <c r="A830" s="32"/>
+      <c r="B830" s="56"/>
+      <c r="C830" s="5"/>
+      <c r="D830" s="4"/>
+      <c r="E830" s="28"/>
+      <c r="F830" s="28"/>
+      <c r="G830" s="8"/>
+    </row>
+    <row r="831" spans="1:7">
+      <c r="A831" s="32"/>
+      <c r="B831" s="56"/>
+      <c r="C831" s="5"/>
+      <c r="D831" s="4"/>
+      <c r="E831" s="28"/>
+      <c r="F831" s="28"/>
+      <c r="G831" s="8"/>
+    </row>
+    <row r="832" spans="1:7">
+      <c r="A832" s="32"/>
+      <c r="B832" s="56"/>
+      <c r="C832" s="5"/>
+      <c r="D832" s="4"/>
+      <c r="E832" s="28"/>
+      <c r="F832" s="28"/>
+      <c r="G832" s="8"/>
+    </row>
+    <row r="833" spans="1:7">
+      <c r="A833" s="32"/>
+      <c r="B833" s="56"/>
+      <c r="C833" s="5"/>
+      <c r="D833" s="4"/>
+      <c r="E833" s="28"/>
+      <c r="F833" s="28"/>
+      <c r="G833" s="8"/>
+    </row>
+    <row r="834" spans="1:7">
+      <c r="A834" s="32"/>
+      <c r="B834" s="56"/>
+      <c r="C834" s="5"/>
+      <c r="D834" s="4"/>
+      <c r="E834" s="28"/>
+      <c r="F834" s="28"/>
+      <c r="G834" s="8"/>
+    </row>
+    <row r="835" spans="1:7">
+      <c r="A835" s="32"/>
+      <c r="B835" s="56"/>
+      <c r="C835" s="5"/>
+      <c r="D835" s="4"/>
+      <c r="E835" s="28"/>
+      <c r="F835" s="28"/>
+      <c r="G835" s="8"/>
+    </row>
+    <row r="836" spans="1:7">
+      <c r="A836" s="32"/>
+      <c r="B836" s="56"/>
+      <c r="C836" s="5"/>
+      <c r="D836" s="4"/>
+      <c r="E836" s="28"/>
+      <c r="F836" s="28"/>
+      <c r="G836" s="8"/>
+    </row>
+    <row r="837" spans="1:7">
+      <c r="A837" s="32"/>
+      <c r="B837" s="56"/>
+      <c r="C837" s="5"/>
+      <c r="D837" s="4"/>
+      <c r="E837" s="28"/>
+      <c r="F837" s="28"/>
+      <c r="G837" s="8"/>
+    </row>
+    <row r="838" spans="1:7">
+      <c r="A838" s="32"/>
+      <c r="B838" s="56"/>
+      <c r="C838" s="5"/>
+      <c r="D838" s="4"/>
+      <c r="E838" s="28"/>
+      <c r="F838" s="28"/>
+      <c r="G838" s="8"/>
+    </row>
+    <row r="839" spans="1:7">
+      <c r="A839" s="32"/>
+      <c r="B839" s="56"/>
+      <c r="C839" s="5"/>
+      <c r="D839" s="4"/>
+      <c r="E839" s="28"/>
+      <c r="F839" s="28"/>
+      <c r="G839" s="8"/>
+    </row>
+    <row r="840" spans="1:7">
+      <c r="A840" s="32"/>
+      <c r="B840" s="56"/>
+      <c r="C840" s="5"/>
+      <c r="D840" s="4"/>
+      <c r="E840" s="28"/>
+      <c r="F840" s="28"/>
+      <c r="G840" s="8"/>
+    </row>
+    <row r="841" spans="1:7">
+      <c r="A841" s="32"/>
+      <c r="B841" s="56"/>
+      <c r="C841" s="5"/>
+      <c r="D841" s="4"/>
+      <c r="E841" s="28"/>
+      <c r="F841" s="28"/>
+      <c r="G841" s="8"/>
+    </row>
+    <row r="842" spans="1:7">
+      <c r="A842" s="32"/>
+      <c r="B842" s="56"/>
+      <c r="C842" s="5"/>
+      <c r="D842" s="4"/>
+      <c r="E842" s="28"/>
+      <c r="F842" s="28"/>
+      <c r="G842" s="8"/>
+    </row>
+    <row r="843" spans="1:7">
+      <c r="A843" s="32"/>
+      <c r="B843" s="56"/>
+      <c r="C843" s="5"/>
+      <c r="D843" s="4"/>
+      <c r="E843" s="28"/>
+      <c r="F843" s="28"/>
+      <c r="G843" s="8"/>
+    </row>
+    <row r="844" spans="1:7">
+      <c r="A844" s="32"/>
+      <c r="B844" s="56"/>
+      <c r="C844" s="5"/>
+      <c r="D844" s="4"/>
+      <c r="E844" s="28"/>
+      <c r="F844" s="28"/>
+      <c r="G844" s="8"/>
+    </row>
+    <row r="845" spans="1:7">
+      <c r="A845" s="32"/>
+      <c r="B845" s="56"/>
+      <c r="C845" s="5"/>
+      <c r="D845" s="4"/>
+      <c r="E845" s="28"/>
+      <c r="F845" s="28"/>
+      <c r="G845" s="8"/>
+    </row>
+    <row r="846" spans="1:7">
+      <c r="A846" s="32"/>
+      <c r="B846" s="56"/>
+      <c r="C846" s="5"/>
+      <c r="D846" s="4"/>
+      <c r="E846" s="28"/>
+      <c r="F846" s="28"/>
+      <c r="G846" s="8"/>
+    </row>
+    <row r="847" spans="1:7">
+      <c r="A847" s="32"/>
+      <c r="B847" s="56"/>
+      <c r="C847" s="5"/>
+      <c r="D847" s="4"/>
+      <c r="E847" s="28"/>
+      <c r="F847" s="28"/>
+      <c r="G847" s="8"/>
+    </row>
+    <row r="848" spans="1:7">
+      <c r="A848" s="32"/>
+      <c r="B848" s="56"/>
+      <c r="C848" s="5"/>
+      <c r="D848" s="4"/>
+      <c r="E848" s="28"/>
+      <c r="F848" s="28"/>
+      <c r="G848" s="8"/>
+    </row>
+    <row r="849" spans="1:7">
+      <c r="A849" s="32"/>
+      <c r="B849" s="56"/>
+      <c r="C849" s="5"/>
+      <c r="D849" s="4"/>
+      <c r="E849" s="28"/>
+      <c r="F849" s="28"/>
+      <c r="G849" s="8"/>
+    </row>
+    <row r="850" spans="1:7">
+      <c r="A850" s="32"/>
+      <c r="B850" s="56"/>
+      <c r="C850" s="5"/>
+      <c r="D850" s="4"/>
+      <c r="E850" s="28"/>
+      <c r="F850" s="28"/>
+      <c r="G850" s="8"/>
+    </row>
+    <row r="851" spans="1:7">
+      <c r="A851" s="32"/>
+      <c r="B851" s="56"/>
+      <c r="C851" s="5"/>
+      <c r="D851" s="4"/>
+      <c r="E851" s="28"/>
+      <c r="F851" s="28"/>
+      <c r="G851" s="8"/>
+    </row>
+    <row r="852" spans="1:7">
+      <c r="A852" s="32"/>
+      <c r="B852" s="56"/>
+      <c r="C852" s="5"/>
+      <c r="D852" s="4"/>
+      <c r="E852" s="28"/>
+      <c r="F852" s="28"/>
+      <c r="G852" s="8"/>
+    </row>
+    <row r="853" spans="1:7">
+      <c r="A853" s="32"/>
+      <c r="B853" s="56"/>
+      <c r="C853" s="5"/>
+      <c r="D853" s="4"/>
+      <c r="E853" s="28"/>
+      <c r="F853" s="28"/>
+      <c r="G853" s="8"/>
+    </row>
+    <row r="854" spans="1:7">
+      <c r="A854" s="32"/>
+      <c r="B854" s="56"/>
+      <c r="C854" s="5"/>
+      <c r="D854" s="4"/>
+      <c r="E854" s="28"/>
+      <c r="F854" s="28"/>
+      <c r="G854" s="8"/>
+    </row>
+    <row r="855" spans="1:7">
+      <c r="A855" s="32"/>
+      <c r="B855" s="56"/>
+      <c r="C855" s="5"/>
+      <c r="D855" s="4"/>
+      <c r="E855" s="28"/>
+      <c r="F855" s="28"/>
+      <c r="G855" s="8"/>
+    </row>
+    <row r="856" spans="1:7">
+      <c r="A856" s="32"/>
+      <c r="B856" s="56"/>
+      <c r="C856" s="5"/>
+      <c r="D856" s="4"/>
+      <c r="E856" s="28"/>
+      <c r="F856" s="28"/>
+      <c r="G856" s="8"/>
+    </row>
+    <row r="857" spans="1:7">
+      <c r="A857" s="32"/>
+      <c r="B857" s="56"/>
+      <c r="C857" s="5"/>
+      <c r="D857" s="4"/>
+      <c r="E857" s="28"/>
+      <c r="F857" s="28"/>
+      <c r="G857" s="8"/>
+    </row>
+    <row r="858" spans="1:7">
+      <c r="A858" s="32"/>
+      <c r="B858" s="56"/>
+      <c r="C858" s="5"/>
+      <c r="D858" s="4"/>
+      <c r="E858" s="28"/>
+      <c r="F858" s="28"/>
+      <c r="G858" s="8"/>
+    </row>
+    <row r="859" spans="1:7">
+      <c r="A859" s="32"/>
+      <c r="B859" s="56"/>
+      <c r="C859" s="5"/>
+      <c r="D859" s="4"/>
+      <c r="E859" s="28"/>
+      <c r="F859" s="28"/>
+      <c r="G859" s="8"/>
+    </row>
+    <row r="860" spans="1:7">
+      <c r="A860" s="32"/>
+      <c r="B860" s="56"/>
+      <c r="C860" s="5"/>
+      <c r="D860" s="4"/>
+      <c r="E860" s="28"/>
+      <c r="F860" s="28"/>
+      <c r="G860" s="8"/>
+    </row>
+    <row r="861" spans="1:7">
+      <c r="A861" s="32"/>
+      <c r="B861" s="56"/>
+      <c r="C861" s="5"/>
+      <c r="D861" s="4"/>
+      <c r="E861" s="28"/>
+      <c r="F861" s="28"/>
+      <c r="G861" s="8"/>
+    </row>
+    <row r="862" spans="1:7">
+      <c r="A862" s="32"/>
+      <c r="B862" s="56"/>
+      <c r="C862" s="5"/>
+      <c r="D862" s="4"/>
+      <c r="E862" s="28"/>
+      <c r="F862" s="28"/>
+      <c r="G862" s="8"/>
+    </row>
+    <row r="863" spans="1:7">
+      <c r="A863" s="32"/>
+      <c r="B863" s="56"/>
+      <c r="C863" s="5"/>
+      <c r="D863" s="4"/>
+      <c r="E863" s="28"/>
+      <c r="F863" s="28"/>
+      <c r="G863" s="8"/>
+    </row>
+    <row r="864" spans="1:7">
+      <c r="A864" s="32"/>
+      <c r="B864" s="56"/>
+      <c r="C864" s="5"/>
+      <c r="D864" s="4"/>
+      <c r="E864" s="28"/>
+      <c r="F864" s="28"/>
+      <c r="G864" s="8"/>
+    </row>
+    <row r="865" spans="1:7">
+      <c r="A865" s="32"/>
+      <c r="B865" s="56"/>
+      <c r="C865" s="5"/>
+      <c r="D865" s="4"/>
+      <c r="E865" s="28"/>
+      <c r="F865" s="28"/>
+      <c r="G865" s="8"/>
+    </row>
+    <row r="866" spans="1:7">
+      <c r="A866" s="32"/>
+      <c r="B866" s="56"/>
+      <c r="C866" s="5"/>
+      <c r="D866" s="4"/>
+      <c r="E866" s="28"/>
+      <c r="F866" s="28"/>
+      <c r="G866" s="8"/>
+    </row>
+    <row r="867" spans="1:7">
+      <c r="A867" s="32"/>
+      <c r="B867" s="56"/>
+      <c r="C867" s="5"/>
+      <c r="D867" s="4"/>
+      <c r="E867" s="28"/>
+      <c r="F867" s="28"/>
+      <c r="G867" s="8"/>
+    </row>
+    <row r="868" spans="1:7">
+      <c r="A868" s="32"/>
+      <c r="B868" s="56"/>
+      <c r="C868" s="5"/>
+      <c r="D868" s="4"/>
+      <c r="E868" s="28"/>
+      <c r="F868" s="28"/>
+      <c r="G868" s="8"/>
+    </row>
+    <row r="869" spans="1:7">
+      <c r="A869" s="32"/>
+      <c r="B869" s="56"/>
+      <c r="C869" s="5"/>
+      <c r="D869" s="4"/>
+      <c r="E869" s="28"/>
+      <c r="F869" s="28"/>
+      <c r="G869" s="8"/>
+    </row>
+    <row r="870" spans="1:7">
+      <c r="A870" s="32"/>
+      <c r="B870" s="56"/>
+      <c r="C870" s="5"/>
+      <c r="D870" s="4"/>
+      <c r="E870" s="28"/>
+      <c r="F870" s="28"/>
+      <c r="G870" s="8"/>
+    </row>
+    <row r="871" spans="1:7">
+      <c r="A871" s="32"/>
+      <c r="B871" s="56"/>
+      <c r="C871" s="5"/>
+      <c r="D871" s="4"/>
+      <c r="E871" s="28"/>
+      <c r="F871" s="28"/>
+      <c r="G871" s="8"/>
+    </row>
+    <row r="872" spans="1:7">
+      <c r="A872" s="32"/>
+      <c r="B872" s="56"/>
+      <c r="C872" s="5"/>
+      <c r="D872" s="4"/>
+      <c r="E872" s="28"/>
+      <c r="F872" s="28"/>
+      <c r="G872" s="8"/>
+    </row>
+    <row r="873" spans="1:7">
+      <c r="A873" s="32"/>
+      <c r="B873" s="56"/>
+      <c r="C873" s="5"/>
+      <c r="D873" s="4"/>
+      <c r="E873" s="28"/>
+      <c r="F873" s="28"/>
+      <c r="G873" s="8"/>
+    </row>
+    <row r="874" spans="1:7">
+      <c r="A874" s="32"/>
+      <c r="B874" s="56"/>
+      <c r="C874" s="5"/>
+      <c r="D874" s="4"/>
+      <c r="E874" s="28"/>
+      <c r="F874" s="28"/>
+      <c r="G874" s="8"/>
+    </row>
+    <row r="875" spans="1:7">
+      <c r="A875" s="32"/>
+      <c r="B875" s="56"/>
+      <c r="C875" s="5"/>
+      <c r="D875" s="4"/>
+      <c r="E875" s="28"/>
+      <c r="F875" s="28"/>
+      <c r="G875" s="8"/>
+    </row>
+    <row r="876" spans="1:7">
+      <c r="A876" s="32"/>
+      <c r="B876" s="56"/>
+      <c r="C876" s="5"/>
+      <c r="D876" s="4"/>
+      <c r="E876" s="28"/>
+      <c r="F876" s="28"/>
+      <c r="G876" s="8"/>
+    </row>
+    <row r="877" spans="1:7">
+      <c r="A877" s="32"/>
+      <c r="B877" s="56"/>
+      <c r="C877" s="5"/>
+      <c r="D877" s="4"/>
+      <c r="E877" s="28"/>
+      <c r="F877" s="28"/>
+      <c r="G877" s="8"/>
+    </row>
+    <row r="878" spans="1:7">
+      <c r="A878" s="32"/>
+      <c r="B878" s="56"/>
+      <c r="C878" s="5"/>
+      <c r="D878" s="4"/>
+      <c r="E878" s="28"/>
+      <c r="F878" s="28"/>
+      <c r="G878" s="8"/>
+    </row>
+    <row r="879" spans="1:7">
+      <c r="A879" s="32"/>
+      <c r="B879" s="56"/>
+      <c r="C879" s="5"/>
+      <c r="D879" s="4"/>
+      <c r="E879" s="28"/>
+      <c r="F879" s="28"/>
+      <c r="G879" s="8"/>
+    </row>
+    <row r="880" spans="1:7">
+      <c r="A880" s="32"/>
+      <c r="B880" s="56"/>
+      <c r="C880" s="5"/>
+      <c r="D880" s="4"/>
+      <c r="E880" s="28"/>
+      <c r="F880" s="28"/>
+      <c r="G880" s="8"/>
+    </row>
+    <row r="881" spans="1:7">
+      <c r="A881" s="32"/>
+      <c r="B881" s="56"/>
+      <c r="C881" s="5"/>
+      <c r="D881" s="4"/>
+      <c r="E881" s="28"/>
+      <c r="F881" s="28"/>
+      <c r="G881" s="8"/>
+    </row>
+    <row r="882" spans="1:7">
+      <c r="A882" s="32"/>
+      <c r="B882" s="56"/>
+      <c r="C882" s="5"/>
+      <c r="D882" s="4"/>
+      <c r="E882" s="28"/>
+      <c r="F882" s="28"/>
+      <c r="G882" s="8"/>
+    </row>
+    <row r="883" spans="1:7">
+      <c r="A883" s="32"/>
+      <c r="B883" s="56"/>
+      <c r="C883" s="5"/>
+      <c r="D883" s="4"/>
+      <c r="E883" s="28"/>
+      <c r="F883" s="28"/>
+      <c r="G883" s="8"/>
+    </row>
+    <row r="884" spans="1:7">
+      <c r="A884" s="32"/>
+      <c r="B884" s="56"/>
+      <c r="C884" s="5"/>
+      <c r="D884" s="4"/>
+      <c r="E884" s="28"/>
+      <c r="F884" s="28"/>
+      <c r="G884" s="8"/>
+    </row>
+    <row r="885" spans="1:7">
+      <c r="A885" s="32"/>
+      <c r="B885" s="56"/>
+      <c r="C885" s="5"/>
+      <c r="D885" s="4"/>
+      <c r="E885" s="28"/>
+      <c r="F885" s="28"/>
+      <c r="G885" s="8"/>
+    </row>
+    <row r="886" spans="1:7">
+      <c r="A886" s="32"/>
+      <c r="B886" s="56"/>
+      <c r="C886" s="5"/>
+      <c r="D886" s="4"/>
+      <c r="E886" s="28"/>
+      <c r="F886" s="28"/>
+      <c r="G886" s="8"/>
+    </row>
+    <row r="887" spans="1:7">
+      <c r="A887" s="32"/>
+      <c r="B887" s="56"/>
+      <c r="C887" s="5"/>
+      <c r="D887" s="4"/>
+      <c r="E887" s="28"/>
+      <c r="F887" s="28"/>
+      <c r="G887" s="8"/>
+    </row>
+    <row r="888" spans="1:7">
+      <c r="A888" s="32"/>
+      <c r="B888" s="56"/>
+      <c r="C888" s="5"/>
+      <c r="D888" s="4"/>
+      <c r="E888" s="28"/>
+      <c r="F888" s="28"/>
+      <c r="G888" s="8"/>
+    </row>
+    <row r="889" spans="1:7">
+      <c r="A889" s="32"/>
+      <c r="B889" s="56"/>
+      <c r="C889" s="5"/>
+      <c r="D889" s="4"/>
+      <c r="E889" s="28"/>
+      <c r="F889" s="28"/>
+      <c r="G889" s="8"/>
+    </row>
+    <row r="890" spans="1:7">
+      <c r="A890" s="32"/>
+      <c r="B890" s="56"/>
+      <c r="C890" s="5"/>
+      <c r="D890" s="4"/>
+      <c r="E890" s="28"/>
+      <c r="F890" s="28"/>
+      <c r="G890" s="8"/>
+    </row>
+    <row r="891" spans="1:7">
+      <c r="A891" s="32"/>
+      <c r="B891" s="56"/>
+      <c r="C891" s="5"/>
+      <c r="D891" s="4"/>
+      <c r="E891" s="28"/>
+      <c r="F891" s="28"/>
+      <c r="G891" s="8"/>
+    </row>
+    <row r="892" spans="1:7">
+      <c r="A892" s="32"/>
+      <c r="B892" s="56"/>
+      <c r="C892" s="5"/>
+      <c r="D892" s="4"/>
+      <c r="E892" s="28"/>
+      <c r="F892" s="28"/>
+      <c r="G892" s="8"/>
+    </row>
+    <row r="893" spans="1:7">
+      <c r="A893" s="32"/>
+      <c r="B893" s="56"/>
+      <c r="C893" s="5"/>
+      <c r="D893" s="4"/>
+      <c r="E893" s="28"/>
+      <c r="F893" s="28"/>
+      <c r="G893" s="8"/>
+    </row>
+    <row r="894" spans="1:7">
+      <c r="A894" s="32"/>
+      <c r="B894" s="56"/>
+      <c r="C894" s="5"/>
+      <c r="D894" s="4"/>
+      <c r="E894" s="28"/>
+      <c r="F894" s="28"/>
+      <c r="G894" s="8"/>
+    </row>
+    <row r="895" spans="1:7">
+      <c r="A895" s="32"/>
+      <c r="B895" s="56"/>
+      <c r="C895" s="5"/>
+      <c r="D895" s="4"/>
+      <c r="E895" s="28"/>
+      <c r="F895" s="28"/>
+      <c r="G895" s="8"/>
+    </row>
+    <row r="896" spans="1:7">
+      <c r="A896" s="32"/>
+      <c r="B896" s="56"/>
+      <c r="C896" s="5"/>
+      <c r="D896" s="4"/>
+      <c r="E896" s="28"/>
+      <c r="F896" s="28"/>
+      <c r="G896" s="8"/>
+    </row>
+    <row r="897" spans="1:7">
+      <c r="A897" s="32"/>
+      <c r="B897" s="56"/>
+      <c r="C897" s="5"/>
+      <c r="D897" s="4"/>
+      <c r="E897" s="28"/>
+      <c r="F897" s="28"/>
+      <c r="G897" s="8"/>
+    </row>
+    <row r="898" spans="1:7">
+      <c r="A898" s="32"/>
+      <c r="B898" s="56"/>
+      <c r="C898" s="5"/>
+      <c r="D898" s="4"/>
+      <c r="E898" s="28"/>
+      <c r="F898" s="28"/>
+      <c r="G898" s="8"/>
+    </row>
+    <row r="899" spans="1:7">
+      <c r="A899" s="32"/>
+      <c r="B899" s="56"/>
+      <c r="C899" s="5"/>
+      <c r="D899" s="4"/>
+      <c r="E899" s="28"/>
+      <c r="F899" s="28"/>
+      <c r="G899" s="8"/>
+    </row>
+    <row r="900" spans="1:7">
+      <c r="A900" s="32"/>
+      <c r="B900" s="56"/>
+      <c r="C900" s="5"/>
+      <c r="D900" s="4"/>
+      <c r="E900" s="28"/>
+      <c r="F900" s="28"/>
+      <c r="G900" s="8"/>
+    </row>
+    <row r="901" spans="1:7">
+      <c r="A901" s="32"/>
+      <c r="B901" s="56"/>
+      <c r="C901" s="5"/>
+      <c r="D901" s="4"/>
+      <c r="E901" s="28"/>
+      <c r="F901" s="28"/>
+      <c r="G901" s="8"/>
+    </row>
+    <row r="902" spans="1:7">
+      <c r="A902" s="32"/>
+      <c r="B902" s="56"/>
+      <c r="C902" s="5"/>
+      <c r="D902" s="4"/>
+      <c r="E902" s="28"/>
+      <c r="F902" s="28"/>
+      <c r="G902" s="8"/>
+    </row>
+    <row r="903" spans="1:7">
+      <c r="A903" s="32"/>
+      <c r="B903" s="56"/>
+      <c r="C903" s="5"/>
+      <c r="D903" s="4"/>
+      <c r="E903" s="28"/>
+      <c r="F903" s="28"/>
+      <c r="G903" s="8"/>
+    </row>
+    <row r="904" spans="1:7">
+      <c r="A904" s="32"/>
+      <c r="B904" s="56"/>
+      <c r="C904" s="5"/>
+      <c r="D904" s="4"/>
+      <c r="E904" s="28"/>
+      <c r="F904" s="28"/>
+      <c r="G904" s="8"/>
+    </row>
+    <row r="905" spans="1:7">
+      <c r="A905" s="32"/>
+      <c r="B905" s="56"/>
+      <c r="C905" s="5"/>
+      <c r="D905" s="4"/>
+      <c r="E905" s="28"/>
+      <c r="F905" s="28"/>
+      <c r="G905" s="8"/>
+    </row>
+    <row r="906" spans="1:7">
+      <c r="A906" s="32"/>
+      <c r="B906" s="56"/>
+      <c r="C906" s="5"/>
+      <c r="D906" s="4"/>
+      <c r="E906" s="28"/>
+      <c r="F906" s="28"/>
+      <c r="G906" s="8"/>
+    </row>
+    <row r="907" spans="1:7">
+      <c r="A907" s="32"/>
+      <c r="B907" s="56"/>
+      <c r="C907" s="5"/>
+      <c r="D907" s="4"/>
+      <c r="E907" s="28"/>
+      <c r="F907" s="28"/>
+      <c r="G907" s="8"/>
+    </row>
+    <row r="908" spans="1:7">
+      <c r="A908" s="32"/>
+      <c r="B908" s="56"/>
+      <c r="C908" s="5"/>
+      <c r="D908" s="4"/>
+      <c r="E908" s="28"/>
+      <c r="F908" s="28"/>
+      <c r="G908" s="8"/>
+    </row>
+    <row r="909" spans="1:7">
+      <c r="A909" s="32"/>
+      <c r="B909" s="56"/>
+      <c r="C909" s="5"/>
+      <c r="D909" s="4"/>
+      <c r="E909" s="28"/>
+      <c r="F909" s="28"/>
+      <c r="G909" s="8"/>
+    </row>
+    <row r="910" spans="1:7">
+      <c r="A910" s="32"/>
+      <c r="B910" s="56"/>
+      <c r="C910" s="5"/>
+      <c r="D910" s="4"/>
+      <c r="E910" s="28"/>
+      <c r="F910" s="28"/>
+      <c r="G910" s="8"/>
+    </row>
+    <row r="911" spans="1:7">
+      <c r="A911" s="32"/>
+      <c r="B911" s="56"/>
+      <c r="C911" s="5"/>
+      <c r="D911" s="4"/>
+      <c r="E911" s="28"/>
+      <c r="F911" s="28"/>
+      <c r="G911" s="8"/>
+    </row>
+    <row r="912" spans="1:7">
+      <c r="A912" s="32"/>
+      <c r="B912" s="56"/>
+      <c r="C912" s="5"/>
+      <c r="D912" s="4"/>
+      <c r="E912" s="28"/>
+      <c r="F912" s="28"/>
+      <c r="G912" s="8"/>
+    </row>
+    <row r="913" spans="1:7">
+      <c r="A913" s="32"/>
+      <c r="B913" s="56"/>
+      <c r="C913" s="5"/>
+      <c r="D913" s="4"/>
+      <c r="E913" s="28"/>
+      <c r="F913" s="28"/>
+      <c r="G913" s="8"/>
+    </row>
+    <row r="914" spans="1:7">
+      <c r="A914" s="32"/>
+      <c r="B914" s="56"/>
+      <c r="C914" s="5"/>
+      <c r="D914" s="4"/>
+      <c r="E914" s="28"/>
+      <c r="F914" s="28"/>
+      <c r="G914" s="8"/>
+    </row>
+    <row r="915" spans="1:7">
+      <c r="A915" s="32"/>
+      <c r="B915" s="56"/>
+      <c r="C915" s="5"/>
+      <c r="D915" s="4"/>
+      <c r="E915" s="28"/>
+      <c r="F915" s="28"/>
+      <c r="G915" s="8"/>
+    </row>
+    <row r="916" spans="1:7">
+      <c r="A916" s="32"/>
+      <c r="B916" s="56"/>
+      <c r="C916" s="5"/>
+      <c r="D916" s="4"/>
+      <c r="E916" s="28"/>
+      <c r="F916" s="28"/>
+      <c r="G916" s="8"/>
+    </row>
+    <row r="917" spans="1:7">
+      <c r="A917" s="32"/>
+      <c r="B917" s="56"/>
+      <c r="C917" s="5"/>
+      <c r="D917" s="4"/>
+      <c r="E917" s="28"/>
+      <c r="F917" s="28"/>
+      <c r="G917" s="8"/>
+    </row>
+    <row r="918" spans="1:7">
+      <c r="A918" s="32"/>
+      <c r="B918" s="56"/>
+      <c r="C918" s="5"/>
+      <c r="D918" s="4"/>
+      <c r="E918" s="28"/>
+      <c r="F918" s="28"/>
+      <c r="G918" s="8"/>
+    </row>
+    <row r="919" spans="1:7">
+      <c r="A919" s="32"/>
+      <c r="B919" s="56"/>
+      <c r="C919" s="5"/>
+      <c r="D919" s="4"/>
+      <c r="E919" s="28"/>
+      <c r="F919" s="28"/>
+      <c r="G919" s="8"/>
+    </row>
+    <row r="920" spans="1:7">
+      <c r="A920" s="32"/>
+      <c r="B920" s="56"/>
+      <c r="C920" s="5"/>
+      <c r="D920" s="4"/>
+      <c r="E920" s="28"/>
+      <c r="F920" s="28"/>
+      <c r="G920" s="8"/>
+    </row>
+    <row r="921" spans="1:7">
+      <c r="A921" s="32"/>
+      <c r="B921" s="56"/>
+      <c r="C921" s="5"/>
+      <c r="D921" s="4"/>
+      <c r="E921" s="28"/>
+      <c r="F921" s="28"/>
+      <c r="G921" s="8"/>
+    </row>
+    <row r="922" spans="1:7">
+      <c r="A922" s="32"/>
+      <c r="B922" s="56"/>
+      <c r="C922" s="5"/>
+      <c r="D922" s="4"/>
+      <c r="E922" s="28"/>
+      <c r="F922" s="28"/>
+      <c r="G922" s="8"/>
+    </row>
+    <row r="923" spans="1:7">
+      <c r="A923" s="32"/>
+      <c r="B923" s="56"/>
+      <c r="C923" s="5"/>
+      <c r="D923" s="4"/>
+      <c r="E923" s="28"/>
+      <c r="F923" s="28"/>
+      <c r="G923" s="8"/>
+    </row>
+    <row r="924" spans="1:7">
+      <c r="A924" s="32"/>
+      <c r="B924" s="56"/>
+      <c r="C924" s="5"/>
+      <c r="D924" s="4"/>
+      <c r="E924" s="28"/>
+      <c r="F924" s="28"/>
+      <c r="G924" s="8"/>
+    </row>
+    <row r="925" spans="1:7">
+      <c r="A925" s="32"/>
+      <c r="B925" s="56"/>
+      <c r="C925" s="5"/>
+      <c r="D925" s="4"/>
+      <c r="E925" s="28"/>
+      <c r="F925" s="28"/>
+      <c r="G925" s="8"/>
+    </row>
+    <row r="926" spans="1:7">
+      <c r="A926" s="32"/>
+      <c r="B926" s="56"/>
+      <c r="C926" s="5"/>
+      <c r="D926" s="4"/>
+      <c r="E926" s="28"/>
+      <c r="F926" s="28"/>
+      <c r="G926" s="8"/>
+    </row>
+    <row r="927" spans="1:7">
+      <c r="A927" s="32"/>
+      <c r="B927" s="56"/>
+      <c r="C927" s="5"/>
+      <c r="D927" s="4"/>
+      <c r="E927" s="28"/>
+      <c r="F927" s="28"/>
+      <c r="G927" s="8"/>
+    </row>
+    <row r="928" spans="1:7">
+      <c r="A928" s="32"/>
+      <c r="B928" s="56"/>
+      <c r="C928" s="5"/>
+      <c r="D928" s="4"/>
+      <c r="E928" s="28"/>
+      <c r="F928" s="28"/>
+      <c r="G928" s="8"/>
+    </row>
+    <row r="929" spans="1:7">
+      <c r="A929" s="32"/>
+      <c r="B929" s="56"/>
+      <c r="C929" s="5"/>
+      <c r="D929" s="4"/>
+      <c r="E929" s="28"/>
+      <c r="F929" s="28"/>
+      <c r="G929" s="8"/>
+    </row>
+    <row r="930" spans="1:7">
+      <c r="A930" s="32"/>
+      <c r="B930" s="56"/>
+      <c r="C930" s="5"/>
+      <c r="D930" s="4"/>
+      <c r="E930" s="28"/>
+      <c r="F930" s="28"/>
+      <c r="G930" s="8"/>
+    </row>
+    <row r="931" spans="1:7">
+      <c r="A931" s="32"/>
+      <c r="B931" s="56"/>
+      <c r="C931" s="5"/>
+      <c r="D931" s="4"/>
+      <c r="E931" s="28"/>
+      <c r="F931" s="28"/>
+      <c r="G931" s="8"/>
+    </row>
+    <row r="932" spans="1:7">
+      <c r="A932" s="32"/>
+      <c r="B932" s="56"/>
+      <c r="C932" s="5"/>
+      <c r="D932" s="4"/>
+      <c r="E932" s="28"/>
+      <c r="F932" s="28"/>
+      <c r="G932" s="8"/>
+    </row>
+    <row r="933" spans="1:7">
+      <c r="A933" s="32"/>
+      <c r="B933" s="56"/>
+      <c r="C933" s="5"/>
+      <c r="D933" s="4"/>
+      <c r="E933" s="28"/>
+      <c r="F933" s="28"/>
+      <c r="G933" s="8"/>
+    </row>
+    <row r="934" spans="1:7">
+      <c r="A934" s="32"/>
+      <c r="B934" s="56"/>
+      <c r="C934" s="5"/>
+      <c r="D934" s="4"/>
+      <c r="E934" s="28"/>
+      <c r="F934" s="28"/>
+      <c r="G934" s="8"/>
+    </row>
+    <row r="935" spans="1:7">
+      <c r="A935" s="32"/>
+      <c r="B935" s="56"/>
+      <c r="C935" s="5"/>
+      <c r="D935" s="4"/>
+      <c r="E935" s="28"/>
+      <c r="F935" s="28"/>
+      <c r="G935" s="8"/>
+    </row>
+    <row r="936" spans="1:7">
+      <c r="A936" s="32"/>
+      <c r="B936" s="56"/>
+      <c r="C936" s="5"/>
+      <c r="D936" s="4"/>
+      <c r="E936" s="28"/>
+      <c r="F936" s="28"/>
+      <c r="G936" s="8"/>
+    </row>
+    <row r="937" spans="1:7">
+      <c r="A937" s="32"/>
+      <c r="B937" s="56"/>
+      <c r="C937" s="5"/>
+      <c r="D937" s="4"/>
+      <c r="E937" s="28"/>
+      <c r="F937" s="28"/>
+      <c r="G937" s="8"/>
+    </row>
+    <row r="938" spans="1:7">
+      <c r="A938" s="32"/>
+      <c r="B938" s="56"/>
+      <c r="C938" s="5"/>
+      <c r="D938" s="4"/>
+      <c r="E938" s="28"/>
+      <c r="F938" s="28"/>
+      <c r="G938" s="8"/>
+    </row>
+    <row r="939" spans="1:7">
+      <c r="A939" s="32"/>
+      <c r="B939" s="56"/>
+      <c r="C939" s="5"/>
+      <c r="D939" s="4"/>
+      <c r="E939" s="28"/>
+      <c r="F939" s="28"/>
+      <c r="G939" s="8"/>
+    </row>
+    <row r="940" spans="1:7">
+      <c r="A940" s="32"/>
+      <c r="B940" s="56"/>
+      <c r="C940" s="5"/>
+      <c r="D940" s="4"/>
+      <c r="E940" s="28"/>
+      <c r="F940" s="28"/>
+      <c r="G940" s="8"/>
+    </row>
+    <row r="941" spans="1:7">
+      <c r="A941" s="32"/>
+      <c r="B941" s="56"/>
+      <c r="C941" s="5"/>
+      <c r="D941" s="4"/>
+      <c r="E941" s="28"/>
+      <c r="F941" s="28"/>
+      <c r="G941" s="8"/>
+    </row>
+    <row r="942" spans="1:7">
+      <c r="A942" s="32"/>
+      <c r="B942" s="56"/>
+      <c r="C942" s="5"/>
+      <c r="D942" s="4"/>
+      <c r="E942" s="28"/>
+      <c r="F942" s="28"/>
+      <c r="G942" s="8"/>
+    </row>
+    <row r="943" spans="1:7">
+      <c r="A943" s="32"/>
+      <c r="B943" s="56"/>
+      <c r="C943" s="5"/>
+      <c r="D943" s="4"/>
+      <c r="E943" s="28"/>
+      <c r="F943" s="28"/>
+      <c r="G943" s="8"/>
+    </row>
+    <row r="944" spans="1:7">
+      <c r="A944" s="32"/>
+      <c r="B944" s="56"/>
+      <c r="C944" s="5"/>
+      <c r="D944" s="4"/>
+      <c r="E944" s="28"/>
+      <c r="F944" s="28"/>
+      <c r="G944" s="8"/>
+    </row>
+    <row r="945" spans="1:7">
+      <c r="A945" s="32"/>
+      <c r="B945" s="56"/>
+      <c r="C945" s="5"/>
+      <c r="D945" s="4"/>
+      <c r="E945" s="28"/>
+      <c r="F945" s="28"/>
+      <c r="G945" s="8"/>
+    </row>
+    <row r="946" spans="1:7">
+      <c r="A946" s="32"/>
+      <c r="B946" s="56"/>
+      <c r="C946" s="5"/>
+      <c r="D946" s="4"/>
+      <c r="E946" s="28"/>
+      <c r="F946" s="28"/>
+      <c r="G946" s="8"/>
+    </row>
+    <row r="947" spans="1:7">
+      <c r="A947" s="32"/>
+      <c r="B947" s="56"/>
+      <c r="C947" s="5"/>
+      <c r="D947" s="4"/>
+      <c r="E947" s="28"/>
+      <c r="F947" s="28"/>
+      <c r="G947" s="8"/>
+    </row>
+    <row r="948" spans="1:7">
+      <c r="A948" s="32"/>
+      <c r="B948" s="56"/>
+      <c r="C948" s="5"/>
+      <c r="D948" s="4"/>
+      <c r="E948" s="28"/>
+      <c r="F948" s="28"/>
+      <c r="G948" s="8"/>
+    </row>
+    <row r="949" spans="1:7">
+      <c r="A949" s="32"/>
+      <c r="B949" s="56"/>
+      <c r="C949" s="5"/>
+      <c r="D949" s="4"/>
+      <c r="E949" s="28"/>
+      <c r="F949" s="28"/>
+      <c r="G949" s="8"/>
+    </row>
+    <row r="950" spans="1:7">
+      <c r="A950" s="32"/>
+      <c r="B950" s="56"/>
+      <c r="C950" s="5"/>
+      <c r="D950" s="4"/>
+      <c r="E950" s="28"/>
+      <c r="F950" s="28"/>
+      <c r="G950" s="8"/>
+    </row>
+    <row r="951" spans="1:7">
+      <c r="A951" s="32"/>
+      <c r="B951" s="56"/>
+      <c r="C951" s="5"/>
+      <c r="D951" s="4"/>
+      <c r="E951" s="28"/>
+      <c r="F951" s="28"/>
+      <c r="G951" s="8"/>
+    </row>
+    <row r="952" spans="1:7">
+      <c r="A952" s="32"/>
+      <c r="B952" s="56"/>
+      <c r="C952" s="5"/>
+      <c r="D952" s="4"/>
+      <c r="E952" s="28"/>
+      <c r="F952" s="28"/>
+      <c r="G952" s="8"/>
+    </row>
+    <row r="953" spans="1:7">
+      <c r="A953" s="32"/>
+      <c r="B953" s="56"/>
+      <c r="C953" s="5"/>
+      <c r="D953" s="4"/>
+      <c r="E953" s="28"/>
+      <c r="F953" s="28"/>
+      <c r="G953" s="8"/>
+    </row>
+    <row r="954" spans="1:7">
+      <c r="A954" s="32"/>
+      <c r="B954" s="56"/>
+      <c r="C954" s="5"/>
+      <c r="D954" s="4"/>
+      <c r="E954" s="28"/>
+      <c r="F954" s="28"/>
+      <c r="G954" s="8"/>
+    </row>
+    <row r="955" spans="1:7">
+      <c r="A955" s="32"/>
+      <c r="B955" s="56"/>
+      <c r="C955" s="5"/>
+      <c r="D955" s="4"/>
+      <c r="E955" s="28"/>
+      <c r="F955" s="28"/>
+      <c r="G955" s="8"/>
+    </row>
+    <row r="956" spans="1:7">
+      <c r="A956" s="32"/>
+      <c r="B956" s="56"/>
+      <c r="C956" s="5"/>
+      <c r="D956" s="4"/>
+      <c r="E956" s="28"/>
+      <c r="F956" s="28"/>
+      <c r="G956" s="8"/>
+    </row>
+    <row r="957" spans="1:7">
+      <c r="A957" s="32"/>
+      <c r="B957" s="56"/>
+      <c r="C957" s="5"/>
+      <c r="D957" s="4"/>
+      <c r="E957" s="28"/>
+      <c r="F957" s="28"/>
+      <c r="G957" s="8"/>
+    </row>
+    <row r="958" spans="1:7">
+      <c r="A958" s="32"/>
+      <c r="B958" s="56"/>
+      <c r="C958" s="5"/>
+      <c r="D958" s="4"/>
+      <c r="E958" s="28"/>
+      <c r="F958" s="28"/>
+      <c r="G958" s="8"/>
+    </row>
+    <row r="959" spans="1:7">
+      <c r="A959" s="32"/>
+      <c r="B959" s="56"/>
+      <c r="C959" s="5"/>
+      <c r="D959" s="4"/>
+      <c r="E959" s="28"/>
+      <c r="F959" s="28"/>
+      <c r="G959" s="8"/>
+    </row>
+    <row r="960" spans="1:7">
+      <c r="A960" s="32"/>
+      <c r="B960" s="56"/>
+      <c r="C960" s="5"/>
+      <c r="D960" s="4"/>
+      <c r="E960" s="28"/>
+      <c r="F960" s="28"/>
+      <c r="G960" s="8"/>
+    </row>
+    <row r="961" spans="1:7">
+      <c r="A961" s="32"/>
+      <c r="B961" s="56"/>
+      <c r="C961" s="5"/>
+      <c r="D961" s="4"/>
+      <c r="E961" s="28"/>
+      <c r="F961" s="28"/>
+      <c r="G961" s="8"/>
+    </row>
+    <row r="962" spans="1:7">
+      <c r="A962" s="32"/>
+      <c r="B962" s="56"/>
+      <c r="C962" s="5"/>
+      <c r="D962" s="4"/>
+      <c r="E962" s="28"/>
+      <c r="F962" s="28"/>
+      <c r="G962" s="8"/>
+    </row>
+    <row r="963" spans="1:7">
+      <c r="A963" s="32"/>
+      <c r="B963" s="56"/>
+      <c r="C963" s="5"/>
+      <c r="D963" s="4"/>
+      <c r="E963" s="28"/>
+      <c r="F963" s="28"/>
+      <c r="G963" s="8"/>
+    </row>
+    <row r="964" spans="1:7">
+      <c r="A964" s="32"/>
+      <c r="B964" s="56"/>
+      <c r="C964" s="5"/>
+      <c r="D964" s="4"/>
+      <c r="E964" s="28"/>
+      <c r="F964" s="28"/>
+      <c r="G964" s="8"/>
+    </row>
+    <row r="965" spans="1:7">
+      <c r="A965" s="32"/>
+      <c r="B965" s="56"/>
+      <c r="C965" s="5"/>
+      <c r="D965" s="4"/>
+      <c r="E965" s="28"/>
+      <c r="F965" s="28"/>
+      <c r="G965" s="8"/>
+    </row>
+    <row r="966" spans="1:7">
+      <c r="A966" s="32"/>
+      <c r="B966" s="56"/>
+      <c r="C966" s="5"/>
+      <c r="D966" s="4"/>
+      <c r="E966" s="28"/>
+      <c r="F966" s="28"/>
+      <c r="G966" s="8"/>
+    </row>
+    <row r="967" spans="1:7">
+      <c r="A967" s="32"/>
+      <c r="B967" s="56"/>
+      <c r="C967" s="5"/>
+      <c r="D967" s="4"/>
+      <c r="E967" s="28"/>
+      <c r="F967" s="28"/>
+      <c r="G967" s="8"/>
+    </row>
+    <row r="968" spans="1:7">
+      <c r="A968" s="32"/>
+      <c r="B968" s="56"/>
+      <c r="C968" s="5"/>
+      <c r="D968" s="4"/>
+      <c r="E968" s="28"/>
+      <c r="F968" s="28"/>
+      <c r="G968" s="8"/>
+    </row>
+    <row r="969" spans="1:7">
+      <c r="A969" s="32"/>
+      <c r="B969" s="56"/>
+      <c r="C969" s="5"/>
+      <c r="D969" s="4"/>
+      <c r="E969" s="28"/>
+      <c r="F969" s="28"/>
+      <c r="G969" s="8"/>
+    </row>
+    <row r="970" spans="1:7">
+      <c r="A970" s="32"/>
+      <c r="B970" s="56"/>
+      <c r="C970" s="5"/>
+      <c r="D970" s="4"/>
+      <c r="E970" s="28"/>
+      <c r="F970" s="28"/>
+      <c r="G970" s="8"/>
+    </row>
+    <row r="971" spans="1:7">
+      <c r="A971" s="32"/>
+      <c r="B971" s="56"/>
+      <c r="C971" s="5"/>
+      <c r="D971" s="4"/>
+      <c r="E971" s="28"/>
+      <c r="F971" s="28"/>
+      <c r="G971" s="8"/>
+    </row>
+    <row r="972" spans="1:7">
+      <c r="A972" s="32"/>
+      <c r="B972" s="56"/>
+      <c r="C972" s="5"/>
+      <c r="D972" s="4"/>
+      <c r="E972" s="28"/>
+      <c r="F972" s="28"/>
+      <c r="G972" s="8"/>
+    </row>
+    <row r="973" spans="1:7">
+      <c r="A973" s="32"/>
+      <c r="B973" s="56"/>
+      <c r="C973" s="5"/>
+      <c r="D973" s="4"/>
+      <c r="E973" s="28"/>
+      <c r="F973" s="28"/>
+      <c r="G973" s="8"/>
+    </row>
+    <row r="974" spans="1:7">
+      <c r="A974" s="32"/>
+      <c r="B974" s="56"/>
+      <c r="C974" s="5"/>
+      <c r="D974" s="4"/>
+      <c r="E974" s="28"/>
+      <c r="F974" s="28"/>
+      <c r="G974" s="8"/>
+    </row>
+    <row r="975" spans="1:7">
+      <c r="A975" s="32"/>
+      <c r="B975" s="56"/>
+      <c r="C975" s="5"/>
+      <c r="D975" s="4"/>
+      <c r="E975" s="28"/>
+      <c r="F975" s="28"/>
+      <c r="G975" s="8"/>
+    </row>
+    <row r="976" spans="1:7">
+      <c r="A976" s="32"/>
+      <c r="B976" s="56"/>
+      <c r="C976" s="5"/>
+      <c r="D976" s="4"/>
+      <c r="E976" s="28"/>
+      <c r="F976" s="28"/>
+      <c r="G976" s="8"/>
+    </row>
+    <row r="977" spans="1:7">
+      <c r="A977" s="32"/>
+      <c r="B977" s="56"/>
+      <c r="C977" s="5"/>
+      <c r="D977" s="4"/>
+      <c r="E977" s="28"/>
+      <c r="F977" s="28"/>
+      <c r="G977" s="8"/>
+    </row>
+    <row r="978" spans="1:7">
+      <c r="A978" s="32"/>
+      <c r="B978" s="56"/>
+      <c r="C978" s="5"/>
+      <c r="D978" s="4"/>
+      <c r="E978" s="28"/>
+      <c r="F978" s="28"/>
+      <c r="G978" s="8"/>
+    </row>
+    <row r="979" spans="1:7">
+      <c r="A979" s="32"/>
+      <c r="B979" s="56"/>
+      <c r="C979" s="5"/>
+      <c r="D979" s="4"/>
+      <c r="E979" s="28"/>
+      <c r="F979" s="28"/>
+      <c r="G979" s="8"/>
+    </row>
+    <row r="980" spans="1:7">
+      <c r="A980" s="32"/>
+      <c r="B980" s="56"/>
+      <c r="C980" s="5"/>
+      <c r="D980" s="4"/>
+      <c r="E980" s="28"/>
+      <c r="F980" s="28"/>
+      <c r="G980" s="8"/>
+    </row>
+    <row r="981" spans="1:7">
+      <c r="A981" s="32"/>
+      <c r="B981" s="56"/>
+      <c r="C981" s="5"/>
+      <c r="D981" s="4"/>
+      <c r="E981" s="28"/>
+      <c r="F981" s="28"/>
+      <c r="G981" s="8"/>
+    </row>
+    <row r="982" spans="1:7">
+      <c r="A982" s="32"/>
+      <c r="B982" s="56"/>
+      <c r="C982" s="5"/>
+      <c r="D982" s="4"/>
+      <c r="E982" s="28"/>
+      <c r="F982" s="28"/>
+      <c r="G982" s="8"/>
+    </row>
+    <row r="983" spans="1:7">
+      <c r="A983" s="32"/>
+      <c r="B983" s="56"/>
+      <c r="C983" s="5"/>
+      <c r="D983" s="4"/>
+      <c r="E983" s="28"/>
+      <c r="F983" s="28"/>
+      <c r="G983" s="8"/>
+    </row>
+    <row r="984" spans="1:7">
+      <c r="A984" s="32"/>
+      <c r="B984" s="56"/>
+      <c r="C984" s="5"/>
+      <c r="D984" s="4"/>
+      <c r="E984" s="28"/>
+      <c r="F984" s="28"/>
+      <c r="G984" s="8"/>
+    </row>
+    <row r="985" spans="1:7">
+      <c r="A985" s="32"/>
+      <c r="B985" s="56"/>
+      <c r="C985" s="5"/>
+      <c r="D985" s="4"/>
+      <c r="E985" s="28"/>
+      <c r="F985" s="28"/>
+      <c r="G985" s="8"/>
+    </row>
+    <row r="986" spans="1:7">
+      <c r="A986" s="32"/>
+      <c r="B986" s="56"/>
+      <c r="C986" s="5"/>
+      <c r="D986" s="4"/>
+      <c r="E986" s="28"/>
+      <c r="F986" s="28"/>
+      <c r="G986" s="8"/>
+    </row>
+    <row r="987" spans="1:7">
+      <c r="A987" s="32"/>
+      <c r="B987" s="56"/>
+      <c r="C987" s="5"/>
+      <c r="D987" s="4"/>
+      <c r="E987" s="28"/>
+      <c r="F987" s="28"/>
+      <c r="G987" s="8"/>
+    </row>
+    <row r="988" spans="1:7">
+      <c r="A988" s="32"/>
+      <c r="B988" s="56"/>
+      <c r="C988" s="5"/>
+      <c r="D988" s="4"/>
+      <c r="E988" s="28"/>
+      <c r="F988" s="28"/>
+      <c r="G988" s="8"/>
+    </row>
+    <row r="989" spans="1:7">
+      <c r="A989" s="32"/>
+      <c r="B989" s="56"/>
+      <c r="C989" s="5"/>
+      <c r="D989" s="4"/>
+      <c r="E989" s="28"/>
+      <c r="F989" s="28"/>
+      <c r="G989" s="8"/>
+    </row>
+    <row r="990" spans="1:7">
+      <c r="A990" s="32"/>
+      <c r="B990" s="56"/>
+      <c r="C990" s="5"/>
+      <c r="D990" s="4"/>
+      <c r="E990" s="28"/>
+      <c r="F990" s="28"/>
+      <c r="G990" s="8"/>
+    </row>
+    <row r="991" spans="1:7">
+      <c r="A991" s="32"/>
+      <c r="B991" s="56"/>
+      <c r="C991" s="5"/>
+      <c r="D991" s="4"/>
+      <c r="E991" s="28"/>
+      <c r="F991" s="28"/>
+      <c r="G991" s="8"/>
+    </row>
+    <row r="992" spans="1:7">
+      <c r="A992" s="32"/>
+      <c r="B992" s="56"/>
+      <c r="C992" s="5"/>
+      <c r="D992" s="4"/>
+      <c r="E992" s="28"/>
+      <c r="F992" s="28"/>
+      <c r="G992" s="8"/>
+    </row>
+    <row r="993" spans="1:7">
+      <c r="A993" s="32"/>
+      <c r="B993" s="56"/>
+      <c r="C993" s="5"/>
+      <c r="D993" s="4"/>
+      <c r="E993" s="28"/>
+      <c r="F993" s="28"/>
+      <c r="G993" s="8"/>
+    </row>
+    <row r="994" spans="1:7">
+      <c r="A994" s="32"/>
+      <c r="B994" s="56"/>
+      <c r="C994" s="5"/>
+      <c r="D994" s="4"/>
+      <c r="E994" s="28"/>
+      <c r="F994" s="28"/>
+      <c r="G994" s="8"/>
+    </row>
+    <row r="995" spans="1:7">
+      <c r="A995" s="32"/>
+      <c r="B995" s="56"/>
+      <c r="C995" s="5"/>
+      <c r="D995" s="4"/>
+      <c r="E995" s="28"/>
+      <c r="F995" s="28"/>
+      <c r="G995" s="8"/>
+    </row>
+    <row r="996" spans="1:7">
+      <c r="A996" s="32"/>
+      <c r="B996" s="56"/>
+      <c r="C996" s="5"/>
+      <c r="D996" s="4"/>
+      <c r="E996" s="28"/>
+      <c r="F996" s="28"/>
+      <c r="G996" s="8"/>
+    </row>
+    <row r="997" spans="1:7">
+      <c r="A997" s="32"/>
+      <c r="B997" s="56"/>
+      <c r="C997" s="5"/>
+      <c r="D997" s="4"/>
+      <c r="E997" s="28"/>
+      <c r="F997" s="28"/>
+      <c r="G997" s="8"/>
+    </row>
+    <row r="998" spans="1:7">
+      <c r="A998" s="32"/>
+      <c r="B998" s="56"/>
+      <c r="C998" s="5"/>
+      <c r="D998" s="4"/>
+      <c r="E998" s="28"/>
+      <c r="F998" s="28"/>
+      <c r="G998" s="8"/>
+    </row>
+    <row r="999" spans="1:7">
+      <c r="A999" s="32"/>
+      <c r="B999" s="56"/>
+      <c r="C999" s="5"/>
+      <c r="D999" s="4"/>
+      <c r="E999" s="28"/>
+      <c r="F999" s="28"/>
+      <c r="G999" s="8"/>
+    </row>
+    <row r="1000" spans="1:7">
+      <c r="A1000" s="32"/>
+      <c r="B1000" s="56"/>
+      <c r="C1000" s="5"/>
+      <c r="D1000" s="4"/>
+      <c r="E1000" s="28"/>
+      <c r="F1000" s="28"/>
+      <c r="G1000" s="8"/>
+    </row>
+    <row r="1001" spans="1:7">
+      <c r="A1001" s="32"/>
+      <c r="B1001" s="56"/>
+      <c r="C1001" s="5"/>
+      <c r="D1001" s="4"/>
+      <c r="E1001" s="28"/>
+      <c r="F1001" s="28"/>
+      <c r="G1001" s="8"/>
+    </row>
+    <row r="1002" spans="1:7">
+      <c r="A1002" s="32"/>
+      <c r="B1002" s="56"/>
+      <c r="C1002" s="5"/>
+      <c r="D1002" s="4"/>
+      <c r="E1002" s="28"/>
+      <c r="F1002" s="28"/>
+      <c r="G1002" s="8"/>
+    </row>
+    <row r="1003" spans="1:7">
+      <c r="A1003" s="32"/>
+      <c r="B1003" s="56"/>
+      <c r="C1003" s="5"/>
+      <c r="D1003" s="4"/>
+      <c r="E1003" s="28"/>
+      <c r="F1003" s="28"/>
+      <c r="G1003" s="8"/>
+    </row>
+    <row r="1004" spans="1:7">
+      <c r="A1004" s="32"/>
+      <c r="B1004" s="56"/>
+      <c r="C1004" s="5"/>
+      <c r="D1004" s="4"/>
+      <c r="E1004" s="28"/>
+      <c r="F1004" s="28"/>
+      <c r="G1004" s="8"/>
+    </row>
+    <row r="1005" spans="1:7">
+      <c r="A1005" s="32"/>
+      <c r="B1005" s="56"/>
+      <c r="C1005" s="5"/>
+      <c r="D1005" s="4"/>
+      <c r="E1005" s="28"/>
+      <c r="F1005" s="28"/>
+      <c r="G1005" s="8"/>
+    </row>
+    <row r="1006" spans="1:7">
+      <c r="A1006" s="32"/>
+      <c r="B1006" s="56"/>
+      <c r="C1006" s="5"/>
+      <c r="D1006" s="4"/>
+      <c r="E1006" s="28"/>
+      <c r="F1006" s="28"/>
+      <c r="G1006" s="8"/>
+    </row>
+    <row r="1007" spans="1:7">
+      <c r="A1007" s="32"/>
+      <c r="B1007" s="56"/>
+      <c r="C1007" s="5"/>
+      <c r="D1007" s="4"/>
+      <c r="E1007" s="28"/>
+      <c r="F1007" s="28"/>
+      <c r="G1007" s="8"/>
+    </row>
+    <row r="1008" spans="1:7">
+      <c r="A1008" s="32"/>
+      <c r="B1008" s="56"/>
+      <c r="C1008" s="5"/>
+      <c r="D1008" s="4"/>
+      <c r="E1008" s="28"/>
+      <c r="F1008" s="28"/>
+      <c r="G1008" s="8"/>
+    </row>
+    <row r="1009" spans="1:7">
+      <c r="A1009" s="32"/>
+      <c r="B1009" s="56"/>
+      <c r="C1009" s="5"/>
+      <c r="D1009" s="4"/>
+      <c r="E1009" s="28"/>
+      <c r="F1009" s="28"/>
+      <c r="G1009" s="8"/>
+    </row>
+    <row r="1010" spans="1:7">
+      <c r="A1010" s="32"/>
+      <c r="B1010" s="56"/>
+      <c r="C1010" s="5"/>
+      <c r="D1010" s="4"/>
+      <c r="E1010" s="28"/>
+      <c r="F1010" s="28"/>
+      <c r="G1010" s="8"/>
+    </row>
+    <row r="1011" spans="1:7">
+      <c r="A1011" s="32"/>
+      <c r="B1011" s="56"/>
+      <c r="C1011" s="5"/>
+      <c r="D1011" s="4"/>
+      <c r="E1011" s="28"/>
+      <c r="F1011" s="28"/>
+      <c r="G1011" s="8"/>
+    </row>
+    <row r="1012" spans="1:7">
+      <c r="A1012" s="32"/>
+      <c r="B1012" s="56"/>
+      <c r="C1012" s="5"/>
+      <c r="D1012" s="4"/>
+      <c r="E1012" s="28"/>
+      <c r="F1012" s="28"/>
+      <c r="G1012" s="8"/>
+    </row>
+    <row r="1013" spans="1:7">
+      <c r="A1013" s="32"/>
+      <c r="B1013" s="56"/>
+      <c r="C1013" s="5"/>
+      <c r="D1013" s="4"/>
+      <c r="E1013" s="28"/>
+      <c r="F1013" s="28"/>
+      <c r="G1013" s="8"/>
+    </row>
+    <row r="1014" spans="1:7">
+      <c r="A1014" s="32"/>
+      <c r="B1014" s="56"/>
+      <c r="C1014" s="5"/>
+      <c r="D1014" s="4"/>
+      <c r="E1014" s="28"/>
+      <c r="F1014" s="28"/>
+      <c r="G1014" s="8"/>
+    </row>
+    <row r="1015" spans="1:7">
+      <c r="A1015" s="32"/>
+      <c r="B1015" s="56"/>
+      <c r="C1015" s="5"/>
+      <c r="D1015" s="4"/>
+      <c r="E1015" s="28"/>
+      <c r="F1015" s="28"/>
+      <c r="G1015" s="8"/>
+    </row>
+    <row r="1016" spans="1:7">
+      <c r="A1016" s="32"/>
+      <c r="B1016" s="56"/>
+      <c r="C1016" s="5"/>
+      <c r="D1016" s="4"/>
+      <c r="E1016" s="28"/>
+      <c r="F1016" s="28"/>
+      <c r="G1016" s="8"/>
+    </row>
+    <row r="1017" spans="1:7">
+      <c r="A1017" s="32"/>
+      <c r="B1017" s="56"/>
+      <c r="C1017" s="5"/>
+      <c r="D1017" s="4"/>
+      <c r="E1017" s="28"/>
+      <c r="F1017" s="28"/>
+      <c r="G1017" s="8"/>
+    </row>
+    <row r="1018" spans="1:7">
+      <c r="A1018" s="32"/>
+      <c r="B1018" s="56"/>
+      <c r="C1018" s="5"/>
+      <c r="D1018" s="4"/>
+      <c r="E1018" s="28"/>
+      <c r="F1018" s="28"/>
+      <c r="G1018" s="8"/>
+    </row>
+    <row r="1019" spans="1:7">
+      <c r="A1019" s="32"/>
+      <c r="B1019" s="56"/>
+      <c r="C1019" s="5"/>
+      <c r="D1019" s="4"/>
+      <c r="E1019" s="28"/>
+      <c r="F1019" s="28"/>
+      <c r="G1019" s="8"/>
+    </row>
+    <row r="1020" spans="1:7">
+      <c r="A1020" s="32"/>
+      <c r="B1020" s="56"/>
+      <c r="C1020" s="5"/>
+      <c r="D1020" s="4"/>
+      <c r="E1020" s="28"/>
+      <c r="F1020" s="28"/>
+      <c r="G1020" s="8"/>
+    </row>
+    <row r="1021" spans="1:7">
+      <c r="A1021" s="32"/>
+      <c r="B1021" s="56"/>
+      <c r="C1021" s="5"/>
+      <c r="D1021" s="4"/>
+      <c r="E1021" s="28"/>
+      <c r="F1021" s="28"/>
+      <c r="G1021" s="8"/>
+    </row>
+    <row r="1022" spans="1:7">
+      <c r="A1022" s="32"/>
+      <c r="B1022" s="56"/>
+      <c r="C1022" s="5"/>
+      <c r="D1022" s="4"/>
+      <c r="E1022" s="28"/>
+      <c r="F1022" s="28"/>
+      <c r="G1022" s="8"/>
+    </row>
+    <row r="1023" spans="1:7">
+      <c r="A1023" s="32"/>
+      <c r="B1023" s="56"/>
+      <c r="C1023" s="5"/>
+      <c r="D1023" s="4"/>
+      <c r="E1023" s="28"/>
+      <c r="F1023" s="28"/>
+      <c r="G1023" s="8"/>
+    </row>
+    <row r="1024" spans="1:7">
+      <c r="A1024" s="32"/>
+      <c r="B1024" s="56"/>
+      <c r="C1024" s="5"/>
+      <c r="D1024" s="4"/>
+      <c r="E1024" s="28"/>
+      <c r="F1024" s="28"/>
+      <c r="G1024" s="8"/>
+    </row>
+    <row r="1025" spans="1:7">
+      <c r="A1025" s="32"/>
+      <c r="B1025" s="56"/>
+      <c r="C1025" s="5"/>
+      <c r="D1025" s="4"/>
+      <c r="E1025" s="28"/>
+      <c r="F1025" s="28"/>
+      <c r="G1025" s="8"/>
+    </row>
+    <row r="1026" spans="1:7">
+      <c r="A1026" s="32"/>
+      <c r="B1026" s="56"/>
+      <c r="C1026" s="5"/>
+      <c r="D1026" s="4"/>
+      <c r="E1026" s="28"/>
+      <c r="F1026" s="28"/>
+      <c r="G1026" s="8"/>
+    </row>
+    <row r="1027" spans="1:7">
+      <c r="A1027" s="32"/>
+      <c r="B1027" s="56"/>
+      <c r="C1027" s="5"/>
+      <c r="D1027" s="4"/>
+      <c r="E1027" s="28"/>
+      <c r="F1027" s="28"/>
+      <c r="G1027" s="8"/>
+    </row>
+    <row r="1028" spans="1:7">
+      <c r="A1028" s="32"/>
+      <c r="B1028" s="56"/>
+      <c r="C1028" s="5"/>
+      <c r="D1028" s="4"/>
+      <c r="E1028" s="28"/>
+      <c r="F1028" s="28"/>
+      <c r="G1028" s="8"/>
+    </row>
+    <row r="1029" spans="1:7">
+      <c r="A1029" s="32"/>
+      <c r="B1029" s="56"/>
+      <c r="C1029" s="5"/>
+      <c r="D1029" s="4"/>
+      <c r="E1029" s="28"/>
+      <c r="F1029" s="28"/>
+      <c r="G1029" s="8"/>
+    </row>
+    <row r="1030" spans="1:7">
+      <c r="A1030" s="32"/>
+      <c r="B1030" s="56"/>
+      <c r="C1030" s="5"/>
+      <c r="D1030" s="4"/>
+      <c r="E1030" s="28"/>
+      <c r="F1030" s="28"/>
+      <c r="G1030" s="8"/>
+    </row>
+    <row r="1031" spans="1:7">
+      <c r="A1031" s="32"/>
+      <c r="B1031" s="56"/>
+      <c r="C1031" s="5"/>
+      <c r="D1031" s="4"/>
+      <c r="E1031" s="28"/>
+      <c r="F1031" s="28"/>
+      <c r="G1031" s="8"/>
+    </row>
+    <row r="1032" spans="1:7">
+      <c r="A1032" s="32"/>
+      <c r="B1032" s="56"/>
+      <c r="C1032" s="5"/>
+      <c r="D1032" s="4"/>
+      <c r="E1032" s="28"/>
+      <c r="F1032" s="28"/>
+      <c r="G1032" s="8"/>
+    </row>
+    <row r="1033" spans="1:7">
+      <c r="A1033" s="32"/>
+      <c r="B1033" s="56"/>
+      <c r="C1033" s="5"/>
+      <c r="D1033" s="4"/>
+      <c r="E1033" s="28"/>
+      <c r="F1033" s="28"/>
+      <c r="G1033" s="8"/>
+    </row>
+    <row r="1034" spans="1:7">
+      <c r="A1034" s="32"/>
+      <c r="B1034" s="56"/>
+      <c r="C1034" s="5"/>
+      <c r="D1034" s="4"/>
+      <c r="E1034" s="28"/>
+      <c r="F1034" s="28"/>
+      <c r="G1034" s="8"/>
+    </row>
+    <row r="1035" spans="1:7">
+      <c r="A1035" s="32"/>
+      <c r="B1035" s="56"/>
+      <c r="C1035" s="5"/>
+      <c r="D1035" s="4"/>
+      <c r="E1035" s="28"/>
+      <c r="F1035" s="28"/>
+      <c r="G1035" s="8"/>
+    </row>
+    <row r="1036" spans="1:7">
+      <c r="A1036" s="32"/>
+      <c r="B1036" s="56"/>
+      <c r="C1036" s="5"/>
+      <c r="D1036" s="4"/>
+      <c r="E1036" s="28"/>
+      <c r="F1036" s="28"/>
+      <c r="G1036" s="8"/>
+    </row>
+    <row r="1037" spans="1:7">
+      <c r="A1037" s="32"/>
+      <c r="B1037" s="56"/>
+      <c r="C1037" s="5"/>
+      <c r="D1037" s="4"/>
+      <c r="E1037" s="28"/>
+      <c r="F1037" s="28"/>
+      <c r="G1037" s="8"/>
+    </row>
+    <row r="1038" spans="1:7">
+      <c r="A1038" s="32"/>
+      <c r="B1038" s="56"/>
+      <c r="C1038" s="5"/>
+      <c r="D1038" s="4"/>
+      <c r="E1038" s="28"/>
+      <c r="F1038" s="28"/>
+      <c r="G1038" s="8"/>
+    </row>
+    <row r="1039" spans="1:7">
+      <c r="A1039" s="32"/>
+      <c r="B1039" s="56"/>
+      <c r="C1039" s="5"/>
+      <c r="D1039" s="4"/>
+      <c r="E1039" s="28"/>
+      <c r="F1039" s="28"/>
+      <c r="G1039" s="8"/>
+    </row>
+    <row r="1040" spans="1:7">
+      <c r="A1040" s="32"/>
+      <c r="B1040" s="56"/>
+      <c r="C1040" s="5"/>
+      <c r="D1040" s="4"/>
+      <c r="E1040" s="28"/>
+      <c r="F1040" s="28"/>
+      <c r="G1040" s="8"/>
+    </row>
+    <row r="1041" spans="1:7">
+      <c r="A1041" s="32"/>
+      <c r="B1041" s="56"/>
+      <c r="C1041" s="5"/>
+      <c r="D1041" s="4"/>
+      <c r="E1041" s="28"/>
+      <c r="F1041" s="28"/>
+      <c r="G1041" s="8"/>
+    </row>
+    <row r="1042" spans="1:7">
+      <c r="A1042" s="32"/>
+      <c r="B1042" s="56"/>
+      <c r="C1042" s="5"/>
+      <c r="D1042" s="4"/>
+      <c r="E1042" s="28"/>
+      <c r="F1042" s="28"/>
+      <c r="G1042" s="8"/>
+    </row>
+    <row r="1043" spans="1:7">
+      <c r="A1043" s="32"/>
+      <c r="B1043" s="56"/>
+      <c r="C1043" s="5"/>
+      <c r="D1043" s="4"/>
+      <c r="E1043" s="28"/>
+      <c r="F1043" s="28"/>
+      <c r="G1043" s="8"/>
+    </row>
+    <row r="1044" spans="1:7">
+      <c r="A1044" s="32"/>
+      <c r="B1044" s="56"/>
+      <c r="C1044" s="5"/>
+      <c r="D1044" s="4"/>
+      <c r="E1044" s="28"/>
+      <c r="F1044" s="28"/>
+      <c r="G1044" s="8"/>
+    </row>
+    <row r="1045" spans="1:7">
+      <c r="A1045" s="32"/>
+      <c r="B1045" s="56"/>
+      <c r="C1045" s="5"/>
+      <c r="D1045" s="4"/>
+      <c r="E1045" s="28"/>
+      <c r="F1045" s="28"/>
+      <c r="G1045" s="8"/>
+    </row>
+    <row r="1046" spans="1:7">
+      <c r="A1046" s="32"/>
+      <c r="B1046" s="56"/>
+      <c r="C1046" s="5"/>
+      <c r="D1046" s="4"/>
+      <c r="E1046" s="28"/>
+      <c r="F1046" s="28"/>
+      <c r="G1046" s="8"/>
+    </row>
+    <row r="1047" spans="1:7">
+      <c r="A1047" s="32"/>
+      <c r="B1047" s="56"/>
+      <c r="C1047" s="5"/>
+      <c r="D1047" s="4"/>
+      <c r="E1047" s="28"/>
+      <c r="F1047" s="28"/>
+      <c r="G1047" s="8"/>
+    </row>
+    <row r="1048" spans="1:7">
+      <c r="A1048" s="32"/>
+      <c r="B1048" s="56"/>
+      <c r="C1048" s="5"/>
+      <c r="D1048" s="4"/>
+      <c r="E1048" s="28"/>
+      <c r="F1048" s="28"/>
+      <c r="G1048" s="8"/>
+    </row>
+    <row r="1049" spans="1:7">
+      <c r="A1049" s="32"/>
+      <c r="B1049" s="56"/>
+      <c r="C1049" s="5"/>
+      <c r="D1049" s="4"/>
+      <c r="E1049" s="28"/>
+      <c r="F1049" s="28"/>
+      <c r="G1049" s="8"/>
+    </row>
+    <row r="1050" spans="1:7">
+      <c r="A1050" s="32"/>
+      <c r="B1050" s="56"/>
+      <c r="C1050" s="5"/>
+      <c r="D1050" s="4"/>
+      <c r="E1050" s="28"/>
+      <c r="F1050" s="28"/>
+      <c r="G1050" s="8"/>
+    </row>
+    <row r="1051" spans="1:7">
+      <c r="A1051" s="32"/>
+      <c r="B1051" s="56"/>
+      <c r="C1051" s="5"/>
+      <c r="D1051" s="4"/>
+      <c r="E1051" s="28"/>
+      <c r="F1051" s="28"/>
+      <c r="G1051" s="8"/>
+    </row>
+    <row r="1052" spans="1:7">
+      <c r="A1052" s="32"/>
+      <c r="B1052" s="56"/>
+      <c r="C1052" s="5"/>
+      <c r="D1052" s="4"/>
+      <c r="E1052" s="28"/>
+      <c r="F1052" s="28"/>
+      <c r="G1052" s="8"/>
+    </row>
+    <row r="1053" spans="1:7">
+      <c r="A1053" s="32"/>
+      <c r="B1053" s="56"/>
+      <c r="C1053" s="5"/>
+      <c r="D1053" s="4"/>
+      <c r="E1053" s="28"/>
+      <c r="F1053" s="28"/>
+      <c r="G1053" s="8"/>
+    </row>
+    <row r="1054" spans="1:7">
+      <c r="A1054" s="32"/>
+      <c r="B1054" s="56"/>
+      <c r="C1054" s="5"/>
+      <c r="D1054" s="4"/>
+      <c r="E1054" s="28"/>
+      <c r="F1054" s="28"/>
+      <c r="G1054" s="8"/>
+    </row>
+    <row r="1055" spans="1:7">
+      <c r="A1055" s="32"/>
+      <c r="B1055" s="56"/>
+      <c r="C1055" s="5"/>
+      <c r="D1055" s="4"/>
+      <c r="E1055" s="28"/>
+      <c r="F1055" s="28"/>
+      <c r="G1055" s="8"/>
+    </row>
+    <row r="1056" spans="1:7">
+      <c r="A1056" s="32"/>
+      <c r="B1056" s="56"/>
+      <c r="C1056" s="5"/>
+      <c r="D1056" s="4"/>
+      <c r="E1056" s="28"/>
+      <c r="F1056" s="28"/>
+      <c r="G1056" s="8"/>
+    </row>
+    <row r="1057" spans="1:7">
+      <c r="A1057" s="32"/>
+      <c r="B1057" s="56"/>
+      <c r="C1057" s="5"/>
+      <c r="D1057" s="4"/>
+      <c r="E1057" s="28"/>
+      <c r="F1057" s="28"/>
+      <c r="G1057" s="8"/>
+    </row>
+    <row r="1058" spans="1:7">
+      <c r="A1058" s="32"/>
+      <c r="B1058" s="56"/>
+      <c r="C1058" s="5"/>
+      <c r="D1058" s="4"/>
+      <c r="E1058" s="28"/>
+      <c r="F1058" s="28"/>
+      <c r="G1058" s="8"/>
+    </row>
+    <row r="1059" spans="1:7">
+      <c r="A1059" s="32"/>
+      <c r="B1059" s="56"/>
+      <c r="C1059" s="5"/>
+      <c r="D1059" s="4"/>
+      <c r="E1059" s="28"/>
+      <c r="F1059" s="28"/>
+      <c r="G1059" s="8"/>
+    </row>
+    <row r="1060" spans="1:7">
+      <c r="A1060" s="32"/>
+      <c r="B1060" s="56"/>
+      <c r="C1060" s="5"/>
+      <c r="D1060" s="4"/>
+      <c r="E1060" s="28"/>
+      <c r="F1060" s="28"/>
+      <c r="G1060" s="8"/>
+    </row>
+    <row r="1061" spans="1:7">
+      <c r="A1061" s="32"/>
+      <c r="B1061" s="56"/>
+      <c r="C1061" s="5"/>
+      <c r="D1061" s="4"/>
+      <c r="E1061" s="28"/>
+      <c r="F1061" s="28"/>
+      <c r="G1061" s="8"/>
+    </row>
+    <row r="1062" spans="1:7">
+      <c r="A1062" s="32"/>
+      <c r="B1062" s="56"/>
+      <c r="C1062" s="5"/>
+      <c r="D1062" s="4"/>
+      <c r="E1062" s="28"/>
+      <c r="F1062" s="28"/>
+      <c r="G1062" s="8"/>
+    </row>
+    <row r="1063" spans="1:7">
+      <c r="A1063" s="32"/>
+      <c r="B1063" s="56"/>
+      <c r="C1063" s="5"/>
+      <c r="D1063" s="4"/>
+      <c r="E1063" s="28"/>
+      <c r="F1063" s="28"/>
+      <c r="G1063" s="8"/>
+    </row>
+    <row r="1064" spans="1:7">
+      <c r="A1064" s="32"/>
+      <c r="B1064" s="56"/>
+      <c r="C1064" s="5"/>
+      <c r="D1064" s="4"/>
+      <c r="E1064" s="28"/>
+      <c r="F1064" s="28"/>
+      <c r="G1064" s="8"/>
+    </row>
+    <row r="1065" spans="1:7">
+      <c r="A1065" s="32"/>
+      <c r="B1065" s="56"/>
+      <c r="C1065" s="5"/>
+      <c r="D1065" s="4"/>
+      <c r="E1065" s="28"/>
+      <c r="F1065" s="28"/>
+      <c r="G1065" s="8"/>
+    </row>
+    <row r="1066" spans="1:7">
+      <c r="A1066" s="32"/>
+      <c r="B1066" s="56"/>
+      <c r="C1066" s="5"/>
+      <c r="D1066" s="4"/>
+      <c r="E1066" s="28"/>
+      <c r="F1066" s="28"/>
+      <c r="G1066" s="8"/>
+    </row>
+    <row r="1067" spans="1:7">
+      <c r="A1067" s="32"/>
+      <c r="B1067" s="56"/>
+      <c r="C1067" s="5"/>
+      <c r="D1067" s="4"/>
+      <c r="E1067" s="28"/>
+      <c r="F1067" s="28"/>
+      <c r="G1067" s="8"/>
+    </row>
+    <row r="1068" spans="1:7">
+      <c r="A1068" s="32"/>
+      <c r="B1068" s="56"/>
+      <c r="C1068" s="5"/>
+      <c r="D1068" s="4"/>
+      <c r="E1068" s="28"/>
+      <c r="F1068" s="28"/>
+      <c r="G1068" s="8"/>
+    </row>
+    <row r="1069" spans="1:7">
+      <c r="A1069" s="32"/>
+      <c r="B1069" s="56"/>
+      <c r="C1069" s="5"/>
+      <c r="D1069" s="4"/>
+      <c r="E1069" s="28"/>
+      <c r="F1069" s="28"/>
+      <c r="G1069" s="8"/>
+    </row>
+    <row r="1070" spans="1:7">
+      <c r="A1070" s="32"/>
+      <c r="B1070" s="56"/>
+      <c r="C1070" s="5"/>
+      <c r="D1070" s="4"/>
+      <c r="E1070" s="28"/>
+      <c r="F1070" s="28"/>
+      <c r="G1070" s="8"/>
+    </row>
+    <row r="1071" spans="1:7">
+      <c r="A1071" s="32"/>
+      <c r="B1071" s="56"/>
+      <c r="C1071" s="5"/>
+      <c r="D1071" s="4"/>
+      <c r="E1071" s="28"/>
+      <c r="F1071" s="28"/>
+      <c r="G1071" s="8"/>
+    </row>
+    <row r="1072" spans="1:7">
+      <c r="A1072" s="32"/>
+      <c r="B1072" s="56"/>
+      <c r="C1072" s="5"/>
+      <c r="D1072" s="4"/>
+      <c r="E1072" s="28"/>
+      <c r="F1072" s="28"/>
+      <c r="G1072" s="8"/>
+    </row>
+    <row r="1073" spans="1:7">
+      <c r="A1073" s="32"/>
+      <c r="B1073" s="56"/>
+      <c r="C1073" s="5"/>
+      <c r="D1073" s="4"/>
+      <c r="E1073" s="28"/>
+      <c r="F1073" s="28"/>
+      <c r="G1073" s="8"/>
+    </row>
+    <row r="1074" spans="1:7">
+      <c r="A1074" s="32"/>
+      <c r="B1074" s="56"/>
+      <c r="C1074" s="5"/>
+      <c r="D1074" s="4"/>
+      <c r="E1074" s="28"/>
+      <c r="F1074" s="28"/>
+      <c r="G1074" s="8"/>
+    </row>
+    <row r="1075" spans="1:7">
+      <c r="A1075" s="32"/>
+      <c r="B1075" s="56"/>
+      <c r="C1075" s="5"/>
+      <c r="D1075" s="4"/>
+      <c r="E1075" s="28"/>
+      <c r="F1075" s="28"/>
+      <c r="G1075" s="8"/>
+    </row>
+    <row r="1076" spans="1:7">
+      <c r="A1076" s="32"/>
+      <c r="B1076" s="56"/>
+      <c r="C1076" s="5"/>
+      <c r="D1076" s="4"/>
+      <c r="E1076" s="28"/>
+      <c r="F1076" s="28"/>
+      <c r="G1076" s="8"/>
+    </row>
+    <row r="1077" spans="1:7">
+      <c r="A1077" s="32"/>
+      <c r="B1077" s="56"/>
+      <c r="C1077" s="5"/>
+      <c r="D1077" s="4"/>
+      <c r="E1077" s="28"/>
+      <c r="F1077" s="28"/>
+      <c r="G1077" s="8"/>
+    </row>
+    <row r="1078" spans="1:7">
+      <c r="A1078" s="32"/>
+      <c r="B1078" s="56"/>
+      <c r="C1078" s="5"/>
+      <c r="D1078" s="4"/>
+      <c r="E1078" s="28"/>
+      <c r="F1078" s="28"/>
+      <c r="G1078" s="8"/>
+    </row>
+    <row r="1079" spans="1:7">
+      <c r="A1079" s="32"/>
+      <c r="B1079" s="56"/>
+      <c r="C1079" s="5"/>
+      <c r="D1079" s="4"/>
+      <c r="E1079" s="28"/>
+      <c r="F1079" s="28"/>
+      <c r="G1079" s="8"/>
+    </row>
+    <row r="1080" spans="1:7">
+      <c r="A1080" s="32"/>
+      <c r="B1080" s="56"/>
+      <c r="C1080" s="5"/>
+      <c r="D1080" s="4"/>
+      <c r="E1080" s="28"/>
+      <c r="F1080" s="28"/>
+      <c r="G1080" s="8"/>
+    </row>
+    <row r="1081" spans="1:7">
+      <c r="A1081" s="32"/>
+      <c r="B1081" s="56"/>
+      <c r="C1081" s="5"/>
+      <c r="D1081" s="4"/>
+      <c r="E1081" s="28"/>
+      <c r="F1081" s="28"/>
+      <c r="G1081" s="8"/>
+    </row>
+    <row r="1082" spans="1:7">
+      <c r="A1082" s="32"/>
+      <c r="B1082" s="56"/>
+      <c r="C1082" s="5"/>
+      <c r="D1082" s="4"/>
+      <c r="E1082" s="28"/>
+      <c r="F1082" s="28"/>
+      <c r="G1082" s="8"/>
+    </row>
+    <row r="1083" spans="1:7">
+      <c r="A1083" s="32"/>
+      <c r="B1083" s="56"/>
+      <c r="C1083" s="5"/>
+      <c r="D1083" s="4"/>
+      <c r="E1083" s="28"/>
+      <c r="F1083" s="28"/>
+      <c r="G1083" s="8"/>
+    </row>
+    <row r="1084" spans="1:7">
+      <c r="A1084" s="32"/>
+      <c r="B1084" s="56"/>
+      <c r="C1084" s="5"/>
+      <c r="D1084" s="4"/>
+      <c r="E1084" s="28"/>
+      <c r="F1084" s="28"/>
+      <c r="G1084" s="8"/>
+    </row>
+    <row r="1085" spans="1:7">
+      <c r="A1085" s="32"/>
+      <c r="B1085" s="56"/>
+      <c r="C1085" s="5"/>
+      <c r="D1085" s="4"/>
+      <c r="E1085" s="28"/>
+      <c r="F1085" s="28"/>
+      <c r="G1085" s="8"/>
+    </row>
+    <row r="1086" spans="1:7">
+      <c r="A1086" s="32"/>
+      <c r="B1086" s="56"/>
+      <c r="C1086" s="5"/>
+      <c r="D1086" s="4"/>
+      <c r="E1086" s="28"/>
+      <c r="F1086" s="28"/>
+      <c r="G1086" s="8"/>
+    </row>
+    <row r="1087" spans="1:7">
+      <c r="A1087" s="32"/>
+      <c r="B1087" s="56"/>
+      <c r="C1087" s="5"/>
+      <c r="D1087" s="4"/>
+      <c r="E1087" s="28"/>
+      <c r="F1087" s="28"/>
+      <c r="G1087" s="8"/>
+    </row>
+    <row r="1088" spans="1:7">
+      <c r="A1088" s="32"/>
+      <c r="B1088" s="56"/>
+      <c r="C1088" s="5"/>
+      <c r="D1088" s="4"/>
+      <c r="E1088" s="28"/>
+      <c r="F1088" s="28"/>
+      <c r="G1088" s="8"/>
+    </row>
+    <row r="1089" spans="1:7">
+      <c r="A1089" s="32"/>
+      <c r="B1089" s="56"/>
+      <c r="C1089" s="5"/>
+      <c r="D1089" s="4"/>
+      <c r="E1089" s="28"/>
+      <c r="F1089" s="28"/>
+      <c r="G1089" s="8"/>
+    </row>
+    <row r="1090" spans="1:7">
+      <c r="A1090" s="32"/>
+      <c r="B1090" s="56"/>
+      <c r="C1090" s="5"/>
+      <c r="D1090" s="4"/>
+      <c r="E1090" s="28"/>
+      <c r="F1090" s="28"/>
+      <c r="G1090" s="8"/>
+    </row>
+    <row r="1091" spans="1:7">
+      <c r="A1091" s="32"/>
+      <c r="B1091" s="56"/>
+      <c r="C1091" s="5"/>
+      <c r="D1091" s="4"/>
+      <c r="E1091" s="28"/>
+      <c r="F1091" s="28"/>
+      <c r="G1091" s="8"/>
+    </row>
+    <row r="1092" spans="1:7">
+      <c r="A1092" s="32"/>
+      <c r="B1092" s="56"/>
+      <c r="C1092" s="5"/>
+      <c r="D1092" s="4"/>
+      <c r="E1092" s="28"/>
+      <c r="F1092" s="28"/>
+      <c r="G1092" s="8"/>
+    </row>
+    <row r="1093" spans="1:7">
+      <c r="A1093" s="32"/>
+      <c r="B1093" s="56"/>
+      <c r="C1093" s="5"/>
+      <c r="D1093" s="4"/>
+      <c r="E1093" s="28"/>
+      <c r="F1093" s="28"/>
+      <c r="G1093" s="8"/>
+    </row>
+    <row r="1094" spans="1:7">
+      <c r="A1094" s="32"/>
+      <c r="B1094" s="56"/>
+      <c r="C1094" s="5"/>
+      <c r="D1094" s="4"/>
+      <c r="E1094" s="28"/>
+      <c r="F1094" s="28"/>
+      <c r="G1094" s="8"/>
+    </row>
+    <row r="1095" spans="1:7">
+      <c r="A1095" s="32"/>
+      <c r="B1095" s="56"/>
+      <c r="C1095" s="5"/>
+      <c r="D1095" s="4"/>
+      <c r="E1095" s="28"/>
+      <c r="F1095" s="28"/>
+      <c r="G1095" s="8"/>
+    </row>
+    <row r="1096" spans="1:7">
+      <c r="A1096" s="32"/>
+      <c r="B1096" s="56"/>
+      <c r="C1096" s="5"/>
+      <c r="D1096" s="4"/>
+      <c r="E1096" s="28"/>
+      <c r="F1096" s="28"/>
+      <c r="G1096" s="8"/>
+    </row>
+    <row r="1097" spans="1:7">
+      <c r="A1097" s="32"/>
+      <c r="B1097" s="56"/>
+      <c r="C1097" s="5"/>
+      <c r="D1097" s="4"/>
+      <c r="E1097" s="28"/>
+      <c r="F1097" s="28"/>
+      <c r="G1097" s="8"/>
+    </row>
+    <row r="1098" spans="1:7">
+      <c r="A1098" s="32"/>
+      <c r="B1098" s="56"/>
+      <c r="C1098" s="5"/>
+      <c r="D1098" s="4"/>
+      <c r="E1098" s="28"/>
+      <c r="F1098" s="28"/>
+      <c r="G1098" s="8"/>
+    </row>
+    <row r="1099" spans="1:7">
+      <c r="A1099" s="32"/>
+      <c r="B1099" s="56"/>
+      <c r="C1099" s="5"/>
+      <c r="D1099" s="4"/>
+      <c r="E1099" s="28"/>
+      <c r="F1099" s="28"/>
+      <c r="G1099" s="8"/>
+    </row>
+    <row r="1100" spans="1:7">
+      <c r="A1100" s="32"/>
+      <c r="B1100" s="56"/>
+      <c r="C1100" s="5"/>
+      <c r="D1100" s="4"/>
+      <c r="E1100" s="28"/>
+      <c r="F1100" s="28"/>
+      <c r="G1100" s="8"/>
+    </row>
+    <row r="1101" spans="1:7">
+      <c r="A1101" s="32"/>
+      <c r="B1101" s="56"/>
+      <c r="C1101" s="5"/>
+      <c r="D1101" s="4"/>
+      <c r="E1101" s="28"/>
+      <c r="F1101" s="28"/>
+      <c r="G1101" s="8"/>
+    </row>
+    <row r="1102" spans="1:7">
+      <c r="A1102" s="32"/>
+      <c r="B1102" s="56"/>
+      <c r="C1102" s="5"/>
+      <c r="D1102" s="4"/>
+      <c r="E1102" s="28"/>
+      <c r="F1102" s="28"/>
+      <c r="G1102" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H306"/>
@@ -33627,9 +40005,9 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations xWindow="263" yWindow="207" count="4">
-    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2 E607:E1048576"/>
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2 E1103:E1048576"/>
     <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="番号のみ入力" prompt="「県内」「例目」は自動表示" sqref="B1:B1048576"/>
-    <dataValidation type="list" imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E606">
+    <dataValidation type="list" imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1102">
       <formula1>"10未満,10,20,30,40,50,60,70,80,90,100"</formula1>
     </dataValidation>
     <dataValidation type="list" imeMode="hiragana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
@@ -33654,7 +40032,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -33662,9 +40040,12 @@
     <col min="1" max="1" width="4.5" style="22" customWidth="1"/>
     <col min="2" max="2" width="12" style="22" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="5.875" style="22" customWidth="1"/>
-    <col min="5" max="6" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9" style="22"/>
+    <col min="4" max="4" width="6.75" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="10" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="22"/>
+    <col min="8" max="8" width="10.875" style="22" customWidth="1"/>
+    <col min="9" max="10" width="9" style="22"/>
     <col min="11" max="12" width="2.25" style="22" customWidth="1"/>
     <col min="13" max="14" width="9" style="44"/>
     <col min="15" max="15" width="2.5" style="44" customWidth="1"/>
@@ -33674,27 +40055,27 @@
     <col min="21" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20.25" thickBot="1">
+    <row r="1" spans="1:20" ht="26.25" customHeight="1" thickBot="1">
       <c r="B1" s="22" t="s">
         <v>917</v>
       </c>
-      <c r="G1" s="63">
-        <f ca="1">TODAY()</f>
-        <v>44201</v>
-      </c>
-      <c r="H1" s="64"/>
+      <c r="G1" s="64">
+        <f ca="1">TODAY()-1</f>
+        <v>44202</v>
+      </c>
+      <c r="H1" s="65"/>
       <c r="I1" s="42"/>
       <c r="J1" s="42"/>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="63" t="s">
         <v>925</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
     </row>
     <row r="2" spans="1:20" ht="21" thickTop="1" thickBot="1">
       <c r="B2" s="23" t="s">
@@ -33715,10 +40096,10 @@
       <c r="H2" s="23" t="s">
         <v>923</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="61" t="s">
         <v>924</v>
       </c>
-      <c r="J2" s="61"/>
+      <c r="J2" s="62"/>
       <c r="M2" s="43" t="s">
         <v>915</v>
       </c>
@@ -33746,18 +40127,18 @@
       </c>
       <c r="C3" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"10未満")</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>826</v>
       </c>
       <c r="F3" s="39">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M2:$N3)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G3" s="39">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P2:$Q3)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="39">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S2:$T3)</f>
@@ -33765,7 +40146,7 @@
       </c>
       <c r="I3" s="41">
         <f>SUM(F3:H3)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J3" s="41" t="str">
         <f>IF(C3=I3,"◎","×")</f>
@@ -33798,18 +40179,18 @@
       </c>
       <c r="C4" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"10")</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>827</v>
       </c>
       <c r="F4" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M4:$N5)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G4" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P4:$Q5)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H4" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S4:$T5)</f>
@@ -33817,7 +40198,7 @@
       </c>
       <c r="I4" s="41">
         <f t="shared" ref="I4:I13" si="0">SUM(F4:H4)</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J4" s="41" t="str">
         <f t="shared" ref="J4:J13" si="1">IF(C4=I4,"◎","×")</f>
@@ -33850,18 +40231,18 @@
       </c>
       <c r="C5" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"20")</f>
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>828</v>
       </c>
       <c r="F5" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M6:$N7)</f>
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G5" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P6:$Q7)</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H5" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S6:$T7)</f>
@@ -33869,7 +40250,7 @@
       </c>
       <c r="I5" s="41">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="J5" s="41" t="str">
         <f t="shared" si="1"/>
@@ -33902,18 +40283,18 @@
       </c>
       <c r="C6" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"30")</f>
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>829</v>
       </c>
       <c r="F6" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M8:$N9)</f>
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G6" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P8:$Q9)</f>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H6" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S8:$T9)</f>
@@ -33921,7 +40302,7 @@
       </c>
       <c r="I6" s="41">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="J6" s="41" t="str">
         <f t="shared" si="1"/>
@@ -33954,18 +40335,18 @@
       </c>
       <c r="C7" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"40")</f>
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>830</v>
       </c>
       <c r="F7" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M10:$N11)</f>
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="G7" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P10:$Q11)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H7" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S10:$T11)</f>
@@ -33973,7 +40354,7 @@
       </c>
       <c r="I7" s="41">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="J7" s="41" t="str">
         <f t="shared" si="1"/>
@@ -34006,18 +40387,18 @@
       </c>
       <c r="C8" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"50")</f>
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>831</v>
       </c>
       <c r="F8" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M12:$N13)</f>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G8" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P12:$Q13)</f>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H8" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S12:$T13)</f>
@@ -34025,7 +40406,7 @@
       </c>
       <c r="I8" s="41">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="J8" s="41" t="str">
         <f t="shared" si="1"/>
@@ -34058,18 +40439,18 @@
       </c>
       <c r="C9" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"60")</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>832</v>
       </c>
       <c r="F9" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M14:$N15)</f>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G9" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P14:$Q15)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S14:$T15)</f>
@@ -34077,7 +40458,7 @@
       </c>
       <c r="I9" s="41">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J9" s="41" t="str">
         <f t="shared" si="1"/>
@@ -34110,18 +40491,18 @@
       </c>
       <c r="C10" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"70")</f>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>833</v>
       </c>
       <c r="F10" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M16:$N17)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G10" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P16:$Q17)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H10" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S16:$T17)</f>
@@ -34129,7 +40510,7 @@
       </c>
       <c r="I10" s="41">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J10" s="41" t="str">
         <f t="shared" si="1"/>
@@ -34162,14 +40543,14 @@
       </c>
       <c r="C11" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"80")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>834</v>
       </c>
       <c r="F11" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M18:$N19)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P18:$Q19)</f>
@@ -34181,7 +40562,7 @@
       </c>
       <c r="I11" s="41">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" s="41" t="str">
         <f t="shared" si="1"/>
@@ -34318,18 +40699,18 @@
       </c>
       <c r="C14" s="48">
         <f>SUM(C3:C13)</f>
-        <v>673</v>
+        <v>804</v>
       </c>
       <c r="E14" s="47" t="s">
         <v>922</v>
       </c>
       <c r="F14" s="48">
         <f>SUM(F3:F13)</f>
-        <v>394</v>
+        <v>478</v>
       </c>
       <c r="G14" s="48">
         <f t="shared" ref="G14:H14" si="2">SUM(G3:G13)</f>
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="H14" s="48">
         <f t="shared" si="2"/>
@@ -34337,7 +40718,7 @@
       </c>
       <c r="I14" s="41">
         <f t="shared" ref="I14" si="3">SUM(F14:H14)</f>
-        <v>673</v>
+        <v>804</v>
       </c>
       <c r="J14" s="41" t="str">
         <f t="shared" ref="J14" si="4">IF(C14=I14,"◎","×")</f>
@@ -34544,7 +40925,7 @@
     </row>
     <row r="24" spans="13:20" ht="20.25" thickTop="1"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
   <mergeCells count="3">
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="M1:T1"/>
@@ -34558,7 +40939,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I3:I13 J3:J14 G4:G14 F4 F5:F14 H4:H14" unlockedFormula="1"/>
+    <ignoredError sqref="I3:I13 J3:J14 G4:G14 F4 F5:F14 H4:H14 G1" unlockedFormula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/work/09_utsunomiya_city.xlsx
+++ b/work/09_utsunomiya_city.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs1901\30051500保健予防課\★ホームページ用　発生件数\"/>
@@ -17,11 +17,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HP公表用 一覧'!$A$2:$H$306</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'HP公表用 一覧'!$A$1:$G$806</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'HP公表用 一覧'!$A$1:$G$897</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'年齢・男女別集計　自動集計'!$B$1:$H$20</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'HP公表用 一覧'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -8647,7 +8647,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="1407">
   <si>
     <t>年代</t>
   </si>
@@ -18457,11 +18457,494 @@
   <si>
     <t>県内2105例目</t>
   </si>
+  <si>
+    <t>県内2201例目</t>
+  </si>
+  <si>
+    <t>県内2202例目</t>
+  </si>
+  <si>
+    <t>県1787，1901，2013（No.617，676,802）例目の同僚</t>
+  </si>
+  <si>
+    <t>県内2203例目</t>
+  </si>
+  <si>
+    <t>県内2204例目</t>
+  </si>
+  <si>
+    <t>県1937（No.712）例目の同僚</t>
+  </si>
+  <si>
+    <t>県内2205例目</t>
+  </si>
+  <si>
+    <t>県内2206例目</t>
+  </si>
+  <si>
+    <t>県内2207例目</t>
+  </si>
+  <si>
+    <t>高根沢町在住</t>
+  </si>
+  <si>
+    <t>県内2208例目</t>
+  </si>
+  <si>
+    <t>県1928，2209（No.703，814）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2209例目</t>
+  </si>
+  <si>
+    <t>県1928，2208（No.703，813）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2210例目</t>
+  </si>
+  <si>
+    <t>県内2211例目</t>
+  </si>
+  <si>
+    <t>県内2212例目</t>
+  </si>
+  <si>
+    <t>県内2213例目</t>
+  </si>
+  <si>
+    <t>県内2214例目</t>
+  </si>
+  <si>
+    <t>県内2215例目</t>
+  </si>
+  <si>
+    <t>県2216（No.821）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2216例目</t>
+  </si>
+  <si>
+    <t>県2215（No.820）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2217例目</t>
+  </si>
+  <si>
+    <t>栃木市在住</t>
+  </si>
+  <si>
+    <t>県内2218例目</t>
+  </si>
+  <si>
+    <t>県内2219例目</t>
+  </si>
+  <si>
+    <t>県1975（No.750）例目の知人</t>
+  </si>
+  <si>
+    <t>県内2220例目</t>
+  </si>
+  <si>
+    <t>県内2221例目</t>
+  </si>
+  <si>
+    <t>県内2222例目</t>
+  </si>
+  <si>
+    <t>県2223（No.828）例目の別居家族</t>
+  </si>
+  <si>
+    <t>県内2223例目</t>
+  </si>
+  <si>
+    <t>県2222（No.827）例目の別居家族</t>
+  </si>
+  <si>
+    <t>県内2224例目</t>
+  </si>
+  <si>
+    <t>県内2225例目</t>
+  </si>
+  <si>
+    <t>県内2226例目</t>
+  </si>
+  <si>
+    <t>県内2227例目</t>
+  </si>
+  <si>
+    <t>県内2228例目</t>
+  </si>
+  <si>
+    <t>芳賀町在住</t>
+  </si>
+  <si>
+    <t>県内2229例目</t>
+  </si>
+  <si>
+    <t>県内2230例目</t>
+  </si>
+  <si>
+    <t>県内2231例目</t>
+  </si>
+  <si>
+    <t>県内2232例目</t>
+  </si>
+  <si>
+    <t>県内2233例目</t>
+  </si>
+  <si>
+    <t>県内2234例目</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>県内2235例目</t>
+  </si>
+  <si>
+    <t>県内2236例目</t>
+  </si>
+  <si>
+    <t>県内2237例目</t>
+  </si>
+  <si>
+    <t>県内2238例目</t>
+  </si>
+  <si>
+    <t>県内2239例目</t>
+  </si>
+  <si>
+    <t>県内2240例目</t>
+  </si>
+  <si>
+    <t>県1960（No.735）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2241例目</t>
+  </si>
+  <si>
+    <t>県1945（No.720）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2242例目</t>
+  </si>
+  <si>
+    <t>県20（No.11）例目のクラスター関係</t>
+  </si>
+  <si>
+    <t>県内2243例目</t>
+  </si>
+  <si>
+    <t>県1972（No.747）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2244例目</t>
+  </si>
+  <si>
+    <t>県2058（No.757）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2245例目</t>
+  </si>
+  <si>
+    <t>県内2246例目</t>
+  </si>
+  <si>
+    <t>県2061（No.760）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2247例目</t>
+  </si>
+  <si>
+    <t>県内2248例目</t>
+  </si>
+  <si>
+    <t>県1950（No.725）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2249例目</t>
+  </si>
+  <si>
+    <t>県2064（No.763）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2250例目</t>
+  </si>
+  <si>
+    <t>県内2251例目</t>
+  </si>
+  <si>
+    <t>県内2252例目</t>
+  </si>
+  <si>
+    <t>県外の陽性者の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2253例目</t>
+  </si>
+  <si>
+    <t>県1907（No.682）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2254例目</t>
+  </si>
+  <si>
+    <t>県内2255例目</t>
+  </si>
+  <si>
+    <t>県内2200例目</t>
+  </si>
+  <si>
+    <t>県内2334例目</t>
+  </si>
+  <si>
+    <t>県内2335例目</t>
+  </si>
+  <si>
+    <t>県内2336例目</t>
+  </si>
+  <si>
+    <t>県内2337例目</t>
+  </si>
+  <si>
+    <t>県2338，2339，2340，2341，2342（No.865，866，867，868，869）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2338例目</t>
+  </si>
+  <si>
+    <t>県2337，2339，2340，2341，2342（No.864，866，867，868，869）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2339例目</t>
+  </si>
+  <si>
+    <t>県2337，2338，2340，2341，2342（No.864，865，867，868，869）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2340例目</t>
+  </si>
+  <si>
+    <t>県2337，2338，2339，2341，2342（No.864，865，866，868，869）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2341例目</t>
+  </si>
+  <si>
+    <t>県2337，2338，2339，2340，2342（No.864，865，866，867，869）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2342例目</t>
+  </si>
+  <si>
+    <t>県2337，2338，2339，2340，2341（No.864，865，866，867，868）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2343例目</t>
+  </si>
+  <si>
+    <t>県1814，1815，1816，1841，1842（No.644，645，646，671，672）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2344例目</t>
+  </si>
+  <si>
+    <t>県内2345例目</t>
+  </si>
+  <si>
+    <t>県2346（No.873）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2346例目</t>
+  </si>
+  <si>
+    <t>県2345（No.872）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2347例目</t>
+  </si>
+  <si>
+    <t>県内2348例目</t>
+  </si>
+  <si>
+    <t>県内2349例目</t>
+  </si>
+  <si>
+    <t>県内2350例目</t>
+  </si>
+  <si>
+    <t>県内2351例目</t>
+  </si>
+  <si>
+    <t>県内2352例目</t>
+  </si>
+  <si>
+    <t>県内2353例目</t>
+  </si>
+  <si>
+    <t>県内2354例目</t>
+  </si>
+  <si>
+    <t>県内2355例目</t>
+  </si>
+  <si>
+    <t>県内2356例目</t>
+  </si>
+  <si>
+    <t>県内2357例目</t>
+  </si>
+  <si>
+    <t>県内2358例目</t>
+  </si>
+  <si>
+    <t>県内2359例目</t>
+  </si>
+  <si>
+    <t>県内2360例目</t>
+  </si>
+  <si>
+    <t>県内2361例目</t>
+  </si>
+  <si>
+    <t>県内2362例目</t>
+  </si>
+  <si>
+    <t>県1940（No.715）例目の同居家族</t>
+  </si>
+  <si>
+    <t>県内2363例目</t>
+  </si>
+  <si>
+    <t>県内2364例目</t>
+  </si>
+  <si>
+    <t>県内2365例目</t>
+  </si>
+  <si>
+    <t>県内2366例目</t>
+  </si>
+  <si>
+    <t>県内2367例目</t>
+  </si>
+  <si>
+    <t>県内2368例目</t>
+  </si>
+  <si>
+    <t>県内2369例目</t>
+  </si>
+  <si>
+    <t>県内2370例目</t>
+  </si>
+  <si>
+    <t>県内2371例目</t>
+  </si>
+  <si>
+    <t>県内2372例目</t>
+  </si>
+  <si>
+    <t>県内2373例目</t>
+  </si>
+  <si>
+    <t>県内2374例目</t>
+  </si>
+  <si>
+    <t>県内2375例目</t>
+  </si>
+  <si>
+    <t>県内2376例目</t>
+  </si>
+  <si>
+    <t>県内2377例目</t>
+  </si>
+  <si>
+    <t>県内2378例目</t>
+  </si>
+  <si>
+    <t>県内2379例目</t>
+  </si>
+  <si>
+    <t>県2101（No.800）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2380例目</t>
+  </si>
+  <si>
+    <t>県内2381例目</t>
+  </si>
+  <si>
+    <t>県1787，1901，2103，2202（No.617，676，802，807）の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2382例目</t>
+  </si>
+  <si>
+    <t>県2096，2097，2098（No.795，796，797）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2383例目</t>
+  </si>
+  <si>
+    <t>県内2384例目</t>
+  </si>
+  <si>
+    <t>県2211（No.816）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2385例目</t>
+  </si>
+  <si>
+    <t>県内2386例目</t>
+  </si>
+  <si>
+    <t>県2204（No.809）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2387例目</t>
+  </si>
+  <si>
+    <t>県2201（No.806）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2388例目</t>
+  </si>
+  <si>
+    <t>県1926（No.701）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2389例目</t>
+  </si>
+  <si>
+    <t>県2098（No.797）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2390例目</t>
+  </si>
+  <si>
+    <t>県2254（No.859）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2391例目</t>
+  </si>
+  <si>
+    <t>県2215（No.820）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2392例目</t>
+  </si>
+  <si>
+    <t>県2226（No.831）例目の濃厚接触者</t>
+  </si>
+  <si>
+    <t>県内2393例目</t>
+  </si>
+  <si>
+    <t>県2223（No.828）例目の濃厚接触者</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;県内&quot;@&quot;例目&quot;"/>
   </numFmts>
@@ -19302,11 +19785,11 @@
   <dimension ref="A1:I1102"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D808" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J866" sqref="J866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -37334,1048 +37817,2672 @@
       </c>
     </row>
     <row r="807" spans="1:7">
-      <c r="A807" s="32"/>
-      <c r="B807" s="56"/>
-      <c r="C807" s="5"/>
-      <c r="D807" s="4"/>
-      <c r="E807" s="28"/>
-      <c r="F807" s="28"/>
-      <c r="G807" s="8"/>
+      <c r="A807" s="32">
+        <v>805</v>
+      </c>
+      <c r="B807" s="56" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C807" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D807" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E807" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F807" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G807" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="808" spans="1:7">
-      <c r="A808" s="32"/>
-      <c r="B808" s="56"/>
-      <c r="C808" s="5"/>
-      <c r="D808" s="4"/>
-      <c r="E808" s="28"/>
-      <c r="F808" s="28"/>
-      <c r="G808" s="8"/>
+      <c r="A808" s="32">
+        <v>806</v>
+      </c>
+      <c r="B808" s="56" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C808" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D808" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E808" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F808" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G808" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="809" spans="1:7">
-      <c r="A809" s="32"/>
-      <c r="B809" s="56"/>
-      <c r="C809" s="5"/>
-      <c r="D809" s="4"/>
-      <c r="E809" s="28"/>
-      <c r="F809" s="28"/>
-      <c r="G809" s="8"/>
+      <c r="A809" s="32">
+        <v>807</v>
+      </c>
+      <c r="B809" s="56" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C809" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D809" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E809" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F809" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G809" s="8" t="s">
+        <v>1248</v>
+      </c>
     </row>
     <row r="810" spans="1:7">
-      <c r="A810" s="32"/>
-      <c r="B810" s="56"/>
-      <c r="C810" s="5"/>
-      <c r="D810" s="4"/>
-      <c r="E810" s="28"/>
-      <c r="F810" s="28"/>
-      <c r="G810" s="8"/>
+      <c r="A810" s="32">
+        <v>808</v>
+      </c>
+      <c r="B810" s="56" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C810" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D810" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E810" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F810" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G810" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="811" spans="1:7">
-      <c r="A811" s="32"/>
-      <c r="B811" s="56"/>
-      <c r="C811" s="5"/>
-      <c r="D811" s="4"/>
-      <c r="E811" s="28"/>
-      <c r="F811" s="28"/>
-      <c r="G811" s="8"/>
+      <c r="A811" s="32">
+        <v>809</v>
+      </c>
+      <c r="B811" s="56" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C811" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D811" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E811" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F811" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G811" s="8" t="s">
+        <v>1251</v>
+      </c>
     </row>
     <row r="812" spans="1:7">
-      <c r="A812" s="32"/>
-      <c r="B812" s="56"/>
-      <c r="C812" s="5"/>
-      <c r="D812" s="4"/>
-      <c r="E812" s="28"/>
-      <c r="F812" s="28"/>
-      <c r="G812" s="8"/>
+      <c r="A812" s="32">
+        <v>810</v>
+      </c>
+      <c r="B812" s="56" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C812" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D812" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E812" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F812" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G812" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="813" spans="1:7">
-      <c r="A813" s="32"/>
-      <c r="B813" s="56"/>
-      <c r="C813" s="5"/>
-      <c r="D813" s="4"/>
-      <c r="E813" s="28"/>
-      <c r="F813" s="28"/>
-      <c r="G813" s="8"/>
+      <c r="A813" s="32">
+        <v>811</v>
+      </c>
+      <c r="B813" s="56" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C813" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D813" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E813" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F813" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G813" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="814" spans="1:7">
-      <c r="A814" s="32"/>
-      <c r="B814" s="56"/>
-      <c r="C814" s="5"/>
-      <c r="D814" s="4"/>
-      <c r="E814" s="28"/>
-      <c r="F814" s="28"/>
-      <c r="G814" s="8"/>
+      <c r="A814" s="32">
+        <v>812</v>
+      </c>
+      <c r="B814" s="56" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C814" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D814" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E814" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F814" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G814" s="8" t="s">
+        <v>1255</v>
+      </c>
     </row>
     <row r="815" spans="1:7">
-      <c r="A815" s="32"/>
-      <c r="B815" s="56"/>
-      <c r="C815" s="5"/>
-      <c r="D815" s="4"/>
-      <c r="E815" s="28"/>
-      <c r="F815" s="28"/>
-      <c r="G815" s="8"/>
+      <c r="A815" s="32">
+        <v>813</v>
+      </c>
+      <c r="B815" s="56" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C815" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D815" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E815" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F815" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G815" s="8" t="s">
+        <v>1257</v>
+      </c>
     </row>
     <row r="816" spans="1:7">
-      <c r="A816" s="32"/>
-      <c r="B816" s="56"/>
-      <c r="C816" s="5"/>
-      <c r="D816" s="4"/>
-      <c r="E816" s="28"/>
-      <c r="F816" s="28"/>
-      <c r="G816" s="8"/>
+      <c r="A816" s="32">
+        <v>814</v>
+      </c>
+      <c r="B816" s="56" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C816" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D816" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E816" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F816" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G816" s="8" t="s">
+        <v>1259</v>
+      </c>
     </row>
     <row r="817" spans="1:7">
-      <c r="A817" s="32"/>
-      <c r="B817" s="56"/>
-      <c r="C817" s="5"/>
-      <c r="D817" s="4"/>
-      <c r="E817" s="28"/>
-      <c r="F817" s="28"/>
-      <c r="G817" s="8"/>
+      <c r="A817" s="32">
+        <v>815</v>
+      </c>
+      <c r="B817" s="56" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C817" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D817" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E817" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F817" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G817" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="818" spans="1:7">
-      <c r="A818" s="32"/>
-      <c r="B818" s="56"/>
-      <c r="C818" s="5"/>
-      <c r="D818" s="4"/>
-      <c r="E818" s="28"/>
-      <c r="F818" s="28"/>
-      <c r="G818" s="8"/>
+      <c r="A818" s="32">
+        <v>816</v>
+      </c>
+      <c r="B818" s="56" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C818" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D818" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E818" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F818" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G818" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="819" spans="1:7">
-      <c r="A819" s="32"/>
-      <c r="B819" s="56"/>
-      <c r="C819" s="5"/>
-      <c r="D819" s="4"/>
-      <c r="E819" s="28"/>
-      <c r="F819" s="28"/>
-      <c r="G819" s="8"/>
+      <c r="A819" s="32">
+        <v>817</v>
+      </c>
+      <c r="B819" s="56" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C819" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D819" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E819" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F819" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G819" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="820" spans="1:7">
-      <c r="A820" s="32"/>
-      <c r="B820" s="56"/>
-      <c r="C820" s="5"/>
-      <c r="D820" s="4"/>
-      <c r="E820" s="28"/>
-      <c r="F820" s="28"/>
-      <c r="G820" s="8"/>
+      <c r="A820" s="32">
+        <v>818</v>
+      </c>
+      <c r="B820" s="56" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C820" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D820" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E820" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F820" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G820" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="821" spans="1:7">
-      <c r="A821" s="32"/>
-      <c r="B821" s="56"/>
-      <c r="C821" s="5"/>
-      <c r="D821" s="4"/>
-      <c r="E821" s="28"/>
-      <c r="F821" s="28"/>
-      <c r="G821" s="8"/>
+      <c r="A821" s="32">
+        <v>819</v>
+      </c>
+      <c r="B821" s="56" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C821" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D821" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E821" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F821" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G821" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="822" spans="1:7">
-      <c r="A822" s="32"/>
-      <c r="B822" s="56"/>
-      <c r="C822" s="5"/>
-      <c r="D822" s="4"/>
-      <c r="E822" s="28"/>
-      <c r="F822" s="28"/>
-      <c r="G822" s="8"/>
+      <c r="A822" s="32">
+        <v>820</v>
+      </c>
+      <c r="B822" s="56" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C822" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D822" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E822" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F822" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G822" s="8" t="s">
+        <v>1266</v>
+      </c>
     </row>
     <row r="823" spans="1:7">
-      <c r="A823" s="32"/>
-      <c r="B823" s="56"/>
-      <c r="C823" s="5"/>
-      <c r="D823" s="4"/>
-      <c r="E823" s="28"/>
-      <c r="F823" s="28"/>
-      <c r="G823" s="8"/>
+      <c r="A823" s="32">
+        <v>821</v>
+      </c>
+      <c r="B823" s="56" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C823" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D823" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E823" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F823" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G823" s="8" t="s">
+        <v>1268</v>
+      </c>
     </row>
     <row r="824" spans="1:7">
-      <c r="A824" s="32"/>
-      <c r="B824" s="56"/>
-      <c r="C824" s="5"/>
-      <c r="D824" s="4"/>
-      <c r="E824" s="28"/>
-      <c r="F824" s="28"/>
-      <c r="G824" s="8"/>
+      <c r="A824" s="32">
+        <v>822</v>
+      </c>
+      <c r="B824" s="56" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C824" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D824" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E824" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F824" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G824" s="8" t="s">
+        <v>1270</v>
+      </c>
     </row>
     <row r="825" spans="1:7">
-      <c r="A825" s="32"/>
-      <c r="B825" s="56"/>
-      <c r="C825" s="5"/>
-      <c r="D825" s="4"/>
-      <c r="E825" s="28"/>
-      <c r="F825" s="28"/>
-      <c r="G825" s="8"/>
+      <c r="A825" s="32">
+        <v>823</v>
+      </c>
+      <c r="B825" s="56" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C825" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D825" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E825" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F825" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G825" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="826" spans="1:7">
-      <c r="A826" s="32"/>
-      <c r="B826" s="56"/>
-      <c r="C826" s="5"/>
-      <c r="D826" s="4"/>
-      <c r="E826" s="28"/>
-      <c r="F826" s="28"/>
-      <c r="G826" s="8"/>
+      <c r="A826" s="32">
+        <v>824</v>
+      </c>
+      <c r="B826" s="56" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C826" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D826" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E826" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F826" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G826" s="8" t="s">
+        <v>1273</v>
+      </c>
     </row>
     <row r="827" spans="1:7">
-      <c r="A827" s="32"/>
-      <c r="B827" s="56"/>
-      <c r="C827" s="5"/>
-      <c r="D827" s="4"/>
-      <c r="E827" s="28"/>
-      <c r="F827" s="28"/>
-      <c r="G827" s="8"/>
+      <c r="A827" s="32">
+        <v>825</v>
+      </c>
+      <c r="B827" s="56" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C827" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D827" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E827" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F827" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G827" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="828" spans="1:7">
-      <c r="A828" s="32"/>
-      <c r="B828" s="56"/>
-      <c r="C828" s="5"/>
-      <c r="D828" s="4"/>
-      <c r="E828" s="28"/>
-      <c r="F828" s="28"/>
-      <c r="G828" s="8"/>
+      <c r="A828" s="32">
+        <v>826</v>
+      </c>
+      <c r="B828" s="56" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C828" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D828" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E828" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F828" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G828" s="8" t="s">
+        <v>1239</v>
+      </c>
     </row>
     <row r="829" spans="1:7">
-      <c r="A829" s="32"/>
-      <c r="B829" s="56"/>
-      <c r="C829" s="5"/>
-      <c r="D829" s="4"/>
-      <c r="E829" s="28"/>
-      <c r="F829" s="28"/>
-      <c r="G829" s="8"/>
+      <c r="A829" s="32">
+        <v>827</v>
+      </c>
+      <c r="B829" s="56" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C829" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D829" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E829" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F829" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G829" s="8" t="s">
+        <v>1277</v>
+      </c>
     </row>
     <row r="830" spans="1:7">
-      <c r="A830" s="32"/>
-      <c r="B830" s="56"/>
-      <c r="C830" s="5"/>
-      <c r="D830" s="4"/>
-      <c r="E830" s="28"/>
-      <c r="F830" s="28"/>
-      <c r="G830" s="8"/>
+      <c r="A830" s="32">
+        <v>828</v>
+      </c>
+      <c r="B830" s="56" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C830" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D830" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E830" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F830" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G830" s="8" t="s">
+        <v>1279</v>
+      </c>
     </row>
     <row r="831" spans="1:7">
-      <c r="A831" s="32"/>
-      <c r="B831" s="56"/>
-      <c r="C831" s="5"/>
-      <c r="D831" s="4"/>
-      <c r="E831" s="28"/>
-      <c r="F831" s="28"/>
-      <c r="G831" s="8"/>
+      <c r="A831" s="32">
+        <v>829</v>
+      </c>
+      <c r="B831" s="56" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C831" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D831" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E831" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F831" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G831" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="832" spans="1:7">
-      <c r="A832" s="32"/>
-      <c r="B832" s="56"/>
-      <c r="C832" s="5"/>
-      <c r="D832" s="4"/>
-      <c r="E832" s="28"/>
-      <c r="F832" s="28"/>
-      <c r="G832" s="8"/>
+      <c r="A832" s="32">
+        <v>830</v>
+      </c>
+      <c r="B832" s="56" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C832" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D832" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E832" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F832" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G832" s="8" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="833" spans="1:7">
-      <c r="A833" s="32"/>
-      <c r="B833" s="56"/>
-      <c r="C833" s="5"/>
-      <c r="D833" s="4"/>
-      <c r="E833" s="28"/>
-      <c r="F833" s="28"/>
-      <c r="G833" s="8"/>
+      <c r="A833" s="32">
+        <v>831</v>
+      </c>
+      <c r="B833" s="56" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C833" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D833" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E833" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F833" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G833" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="834" spans="1:7">
-      <c r="A834" s="32"/>
-      <c r="B834" s="56"/>
-      <c r="C834" s="5"/>
-      <c r="D834" s="4"/>
-      <c r="E834" s="28"/>
-      <c r="F834" s="28"/>
-      <c r="G834" s="8"/>
+      <c r="A834" s="32">
+        <v>832</v>
+      </c>
+      <c r="B834" s="56" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C834" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D834" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E834" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F834" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G834" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="835" spans="1:7">
-      <c r="A835" s="32"/>
-      <c r="B835" s="56"/>
-      <c r="C835" s="5"/>
-      <c r="D835" s="4"/>
-      <c r="E835" s="28"/>
-      <c r="F835" s="28"/>
-      <c r="G835" s="8"/>
+      <c r="A835" s="32">
+        <v>833</v>
+      </c>
+      <c r="B835" s="56" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C835" s="5">
+        <v>44203</v>
+      </c>
+      <c r="D835" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E835" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F835" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G835" s="8" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="836" spans="1:7">
-      <c r="A836" s="32"/>
-      <c r="B836" s="56"/>
-      <c r="C836" s="5"/>
-      <c r="D836" s="4"/>
-      <c r="E836" s="28"/>
-      <c r="F836" s="28"/>
-      <c r="G836" s="8"/>
+      <c r="A836" s="32">
+        <v>834</v>
+      </c>
+      <c r="B836" s="56" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C836" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D836" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E836" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F836" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G836" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="837" spans="1:7">
-      <c r="A837" s="32"/>
-      <c r="B837" s="56"/>
-      <c r="C837" s="5"/>
-      <c r="D837" s="4"/>
-      <c r="E837" s="28"/>
-      <c r="F837" s="28"/>
-      <c r="G837" s="8"/>
+      <c r="A837" s="32">
+        <v>835</v>
+      </c>
+      <c r="B837" s="56" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C837" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D837" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E837" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F837" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G837" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="838" spans="1:7">
-      <c r="A838" s="32"/>
-      <c r="B838" s="56"/>
-      <c r="C838" s="5"/>
-      <c r="D838" s="4"/>
-      <c r="E838" s="28"/>
-      <c r="F838" s="28"/>
-      <c r="G838" s="8"/>
+      <c r="A838" s="32">
+        <v>836</v>
+      </c>
+      <c r="B838" s="56" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C838" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D838" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E838" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F838" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G838" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="839" spans="1:7">
-      <c r="A839" s="32"/>
-      <c r="B839" s="56"/>
-      <c r="C839" s="5"/>
-      <c r="D839" s="4"/>
-      <c r="E839" s="28"/>
-      <c r="F839" s="28"/>
-      <c r="G839" s="8"/>
+      <c r="A839" s="32">
+        <v>837</v>
+      </c>
+      <c r="B839" s="56" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C839" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D839" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E839" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F839" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G839" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="840" spans="1:7">
-      <c r="A840" s="32"/>
-      <c r="B840" s="56"/>
-      <c r="C840" s="5"/>
-      <c r="D840" s="4"/>
-      <c r="E840" s="28"/>
-      <c r="F840" s="28"/>
-      <c r="G840" s="8"/>
+      <c r="A840" s="32">
+        <v>838</v>
+      </c>
+      <c r="B840" s="56" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C840" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D840" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E840" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F840" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G840" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="841" spans="1:7">
-      <c r="A841" s="32"/>
-      <c r="B841" s="56"/>
-      <c r="C841" s="5"/>
-      <c r="D841" s="4"/>
-      <c r="E841" s="28"/>
-      <c r="F841" s="28"/>
-      <c r="G841" s="8"/>
+      <c r="A841" s="32">
+        <v>839</v>
+      </c>
+      <c r="B841" s="56" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C841" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D841" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E841" s="28" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F841" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G841" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="842" spans="1:7">
-      <c r="A842" s="32"/>
-      <c r="B842" s="56"/>
-      <c r="C842" s="5"/>
-      <c r="D842" s="4"/>
-      <c r="E842" s="28"/>
-      <c r="F842" s="28"/>
-      <c r="G842" s="8"/>
+      <c r="A842" s="32">
+        <v>840</v>
+      </c>
+      <c r="B842" s="56" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C842" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D842" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E842" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F842" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G842" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="843" spans="1:7">
-      <c r="A843" s="32"/>
-      <c r="B843" s="56"/>
-      <c r="C843" s="5"/>
-      <c r="D843" s="4"/>
-      <c r="E843" s="28"/>
-      <c r="F843" s="28"/>
-      <c r="G843" s="8"/>
+      <c r="A843" s="32">
+        <v>841</v>
+      </c>
+      <c r="B843" s="56" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C843" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D843" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E843" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F843" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G843" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="844" spans="1:7">
-      <c r="A844" s="32"/>
-      <c r="B844" s="56"/>
-      <c r="C844" s="5"/>
-      <c r="D844" s="4"/>
-      <c r="E844" s="28"/>
-      <c r="F844" s="28"/>
-      <c r="G844" s="8"/>
+      <c r="A844" s="32">
+        <v>842</v>
+      </c>
+      <c r="B844" s="56" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C844" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D844" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E844" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F844" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G844" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="845" spans="1:7">
-      <c r="A845" s="32"/>
-      <c r="B845" s="56"/>
-      <c r="C845" s="5"/>
-      <c r="D845" s="4"/>
-      <c r="E845" s="28"/>
-      <c r="F845" s="28"/>
-      <c r="G845" s="8"/>
+      <c r="A845" s="32">
+        <v>843</v>
+      </c>
+      <c r="B845" s="56" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C845" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D845" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E845" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F845" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G845" s="8" t="s">
+        <v>1216</v>
+      </c>
     </row>
     <row r="846" spans="1:7">
-      <c r="A846" s="32"/>
-      <c r="B846" s="56"/>
-      <c r="C846" s="5"/>
-      <c r="D846" s="4"/>
-      <c r="E846" s="28"/>
-      <c r="F846" s="28"/>
-      <c r="G846" s="8"/>
+      <c r="A846" s="32">
+        <v>844</v>
+      </c>
+      <c r="B846" s="56" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C846" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D846" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E846" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F846" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G846" s="8" t="s">
+        <v>1216</v>
+      </c>
     </row>
     <row r="847" spans="1:7">
-      <c r="A847" s="32"/>
-      <c r="B847" s="56"/>
-      <c r="C847" s="5"/>
-      <c r="D847" s="4"/>
-      <c r="E847" s="28"/>
-      <c r="F847" s="28"/>
-      <c r="G847" s="8"/>
+      <c r="A847" s="32">
+        <v>845</v>
+      </c>
+      <c r="B847" s="56" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C847" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D847" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E847" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F847" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G847" s="8" t="s">
+        <v>1299</v>
+      </c>
     </row>
     <row r="848" spans="1:7">
-      <c r="A848" s="32"/>
-      <c r="B848" s="56"/>
-      <c r="C848" s="5"/>
-      <c r="D848" s="4"/>
-      <c r="E848" s="28"/>
-      <c r="F848" s="28"/>
-      <c r="G848" s="8"/>
+      <c r="A848" s="32">
+        <v>846</v>
+      </c>
+      <c r="B848" s="56" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C848" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D848" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E848" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F848" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G848" s="8" t="s">
+        <v>1301</v>
+      </c>
     </row>
     <row r="849" spans="1:7">
-      <c r="A849" s="32"/>
-      <c r="B849" s="56"/>
-      <c r="C849" s="5"/>
-      <c r="D849" s="4"/>
-      <c r="E849" s="28"/>
-      <c r="F849" s="28"/>
-      <c r="G849" s="8"/>
+      <c r="A849" s="32">
+        <v>847</v>
+      </c>
+      <c r="B849" s="56" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C849" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D849" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E849" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F849" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G849" s="8" t="s">
+        <v>1303</v>
+      </c>
     </row>
     <row r="850" spans="1:7">
-      <c r="A850" s="32"/>
-      <c r="B850" s="56"/>
-      <c r="C850" s="5"/>
-      <c r="D850" s="4"/>
-      <c r="E850" s="28"/>
-      <c r="F850" s="28"/>
-      <c r="G850" s="8"/>
+      <c r="A850" s="32">
+        <v>848</v>
+      </c>
+      <c r="B850" s="56" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C850" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D850" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E850" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F850" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G850" s="8" t="s">
+        <v>1305</v>
+      </c>
     </row>
     <row r="851" spans="1:7">
-      <c r="A851" s="32"/>
-      <c r="B851" s="56"/>
-      <c r="C851" s="5"/>
-      <c r="D851" s="4"/>
-      <c r="E851" s="28"/>
-      <c r="F851" s="28"/>
-      <c r="G851" s="8"/>
+      <c r="A851" s="32">
+        <v>849</v>
+      </c>
+      <c r="B851" s="56" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C851" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D851" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E851" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F851" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G851" s="8" t="s">
+        <v>1307</v>
+      </c>
     </row>
     <row r="852" spans="1:7">
-      <c r="A852" s="32"/>
-      <c r="B852" s="56"/>
-      <c r="C852" s="5"/>
-      <c r="D852" s="4"/>
-      <c r="E852" s="28"/>
-      <c r="F852" s="28"/>
-      <c r="G852" s="8"/>
+      <c r="A852" s="32">
+        <v>850</v>
+      </c>
+      <c r="B852" s="56" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C852" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D852" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E852" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F852" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G852" s="8" t="s">
+        <v>1307</v>
+      </c>
     </row>
     <row r="853" spans="1:7">
-      <c r="A853" s="32"/>
-      <c r="B853" s="56"/>
-      <c r="C853" s="5"/>
-      <c r="D853" s="4"/>
-      <c r="E853" s="28"/>
-      <c r="F853" s="28"/>
-      <c r="G853" s="8"/>
+      <c r="A853" s="32">
+        <v>851</v>
+      </c>
+      <c r="B853" s="56" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C853" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D853" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E853" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F853" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G853" s="8" t="s">
+        <v>1310</v>
+      </c>
     </row>
     <row r="854" spans="1:7">
-      <c r="A854" s="32"/>
-      <c r="B854" s="56"/>
-      <c r="C854" s="5"/>
-      <c r="D854" s="4"/>
-      <c r="E854" s="28"/>
-      <c r="F854" s="28"/>
-      <c r="G854" s="8"/>
+      <c r="A854" s="32">
+        <v>852</v>
+      </c>
+      <c r="B854" s="56" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C854" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D854" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E854" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F854" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G854" s="8" t="s">
+        <v>1305</v>
+      </c>
     </row>
     <row r="855" spans="1:7">
-      <c r="A855" s="32"/>
-      <c r="B855" s="56"/>
-      <c r="C855" s="5"/>
-      <c r="D855" s="4"/>
-      <c r="E855" s="28"/>
-      <c r="F855" s="28"/>
-      <c r="G855" s="8"/>
+      <c r="A855" s="32">
+        <v>853</v>
+      </c>
+      <c r="B855" s="56" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C855" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D855" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E855" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F855" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G855" s="8" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="856" spans="1:7">
-      <c r="A856" s="32"/>
-      <c r="B856" s="56"/>
-      <c r="C856" s="5"/>
-      <c r="D856" s="4"/>
-      <c r="E856" s="28"/>
-      <c r="F856" s="28"/>
-      <c r="G856" s="8"/>
+      <c r="A856" s="32">
+        <v>854</v>
+      </c>
+      <c r="B856" s="56" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C856" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D856" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E856" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F856" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G856" s="8" t="s">
+        <v>1315</v>
+      </c>
     </row>
     <row r="857" spans="1:7">
-      <c r="A857" s="32"/>
-      <c r="B857" s="56"/>
-      <c r="C857" s="5"/>
-      <c r="D857" s="4"/>
-      <c r="E857" s="28"/>
-      <c r="F857" s="28"/>
-      <c r="G857" s="8"/>
+      <c r="A857" s="32">
+        <v>855</v>
+      </c>
+      <c r="B857" s="56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C857" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D857" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E857" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F857" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G857" s="8" t="s">
+        <v>1315</v>
+      </c>
     </row>
     <row r="858" spans="1:7">
-      <c r="A858" s="32"/>
-      <c r="B858" s="56"/>
-      <c r="C858" s="5"/>
-      <c r="D858" s="4"/>
-      <c r="E858" s="28"/>
-      <c r="F858" s="28"/>
-      <c r="G858" s="8"/>
+      <c r="A858" s="32">
+        <v>856</v>
+      </c>
+      <c r="B858" s="56" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C858" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D858" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E858" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F858" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G858" s="8" t="s">
+        <v>1315</v>
+      </c>
     </row>
     <row r="859" spans="1:7">
-      <c r="A859" s="32"/>
-      <c r="B859" s="56"/>
-      <c r="C859" s="5"/>
-      <c r="D859" s="4"/>
-      <c r="E859" s="28"/>
-      <c r="F859" s="28"/>
-      <c r="G859" s="8"/>
+      <c r="A859" s="32">
+        <v>857</v>
+      </c>
+      <c r="B859" s="56" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C859" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D859" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E859" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F859" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G859" s="8" t="s">
+        <v>1319</v>
+      </c>
     </row>
     <row r="860" spans="1:7">
-      <c r="A860" s="32"/>
-      <c r="B860" s="56"/>
-      <c r="C860" s="5"/>
-      <c r="D860" s="4"/>
-      <c r="E860" s="28"/>
-      <c r="F860" s="28"/>
-      <c r="G860" s="8"/>
+      <c r="A860" s="32">
+        <v>858</v>
+      </c>
+      <c r="B860" s="56" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C860" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D860" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E860" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F860" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G860" s="8" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="861" spans="1:7">
-      <c r="A861" s="32"/>
-      <c r="B861" s="56"/>
-      <c r="C861" s="5"/>
-      <c r="D861" s="4"/>
-      <c r="E861" s="28"/>
-      <c r="F861" s="28"/>
-      <c r="G861" s="8"/>
+      <c r="A861" s="32">
+        <v>859</v>
+      </c>
+      <c r="B861" s="56" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C861" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D861" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E861" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F861" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G861" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="862" spans="1:7">
-      <c r="A862" s="32"/>
-      <c r="B862" s="56"/>
-      <c r="C862" s="5"/>
-      <c r="D862" s="4"/>
-      <c r="E862" s="28"/>
-      <c r="F862" s="28"/>
-      <c r="G862" s="8"/>
+      <c r="A862" s="32">
+        <v>860</v>
+      </c>
+      <c r="B862" s="56" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C862" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D862" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E862" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F862" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G862" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="863" spans="1:7">
-      <c r="A863" s="32"/>
-      <c r="B863" s="56"/>
-      <c r="C863" s="5"/>
-      <c r="D863" s="4"/>
-      <c r="E863" s="28"/>
-      <c r="F863" s="28"/>
-      <c r="G863" s="8"/>
+      <c r="A863" s="32">
+        <v>861</v>
+      </c>
+      <c r="B863" s="56" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C863" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D863" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E863" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F863" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G863" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="864" spans="1:7">
-      <c r="A864" s="32"/>
-      <c r="B864" s="56"/>
-      <c r="C864" s="5"/>
-      <c r="D864" s="4"/>
-      <c r="E864" s="28"/>
-      <c r="F864" s="28"/>
-      <c r="G864" s="8"/>
+      <c r="A864" s="32">
+        <v>862</v>
+      </c>
+      <c r="B864" s="56" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C864" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D864" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E864" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F864" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G864" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="865" spans="1:7">
-      <c r="A865" s="32"/>
-      <c r="B865" s="56"/>
-      <c r="C865" s="5"/>
-      <c r="D865" s="4"/>
-      <c r="E865" s="28"/>
-      <c r="F865" s="28"/>
-      <c r="G865" s="8"/>
-    </row>
-    <row r="866" spans="1:7">
-      <c r="A866" s="32"/>
-      <c r="B866" s="56"/>
-      <c r="C866" s="5"/>
-      <c r="D866" s="4"/>
-      <c r="E866" s="28"/>
-      <c r="F866" s="28"/>
-      <c r="G866" s="8"/>
-    </row>
-    <row r="867" spans="1:7">
-      <c r="A867" s="32"/>
-      <c r="B867" s="56"/>
-      <c r="C867" s="5"/>
-      <c r="D867" s="4"/>
-      <c r="E867" s="28"/>
-      <c r="F867" s="28"/>
-      <c r="G867" s="8"/>
-    </row>
-    <row r="868" spans="1:7">
-      <c r="A868" s="32"/>
-      <c r="B868" s="56"/>
-      <c r="C868" s="5"/>
-      <c r="D868" s="4"/>
-      <c r="E868" s="28"/>
-      <c r="F868" s="28"/>
-      <c r="G868" s="8"/>
-    </row>
-    <row r="869" spans="1:7">
-      <c r="A869" s="32"/>
-      <c r="B869" s="56"/>
-      <c r="C869" s="5"/>
-      <c r="D869" s="4"/>
-      <c r="E869" s="28"/>
-      <c r="F869" s="28"/>
-      <c r="G869" s="8"/>
-    </row>
-    <row r="870" spans="1:7">
-      <c r="A870" s="32"/>
-      <c r="B870" s="56"/>
-      <c r="C870" s="5"/>
-      <c r="D870" s="4"/>
-      <c r="E870" s="28"/>
-      <c r="F870" s="28"/>
-      <c r="G870" s="8"/>
-    </row>
-    <row r="871" spans="1:7">
-      <c r="A871" s="32"/>
-      <c r="B871" s="56"/>
-      <c r="C871" s="5"/>
-      <c r="D871" s="4"/>
-      <c r="E871" s="28"/>
-      <c r="F871" s="28"/>
-      <c r="G871" s="8"/>
-    </row>
-    <row r="872" spans="1:7">
-      <c r="A872" s="32"/>
-      <c r="B872" s="56"/>
-      <c r="C872" s="5"/>
-      <c r="D872" s="4"/>
-      <c r="E872" s="28"/>
-      <c r="F872" s="28"/>
-      <c r="G872" s="8"/>
+      <c r="A865" s="32">
+        <v>863</v>
+      </c>
+      <c r="B865" s="56" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C865" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D865" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E865" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F865" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G865" s="8" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" ht="51.75">
+      <c r="A866" s="32">
+        <v>864</v>
+      </c>
+      <c r="B866" s="56" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C866" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D866" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E866" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F866" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G866" s="16" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" ht="51.75">
+      <c r="A867" s="32">
+        <v>865</v>
+      </c>
+      <c r="B867" s="56" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C867" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D867" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E867" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F867" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G867" s="16" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" ht="51.75">
+      <c r="A868" s="32">
+        <v>866</v>
+      </c>
+      <c r="B868" s="56" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C868" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D868" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E868" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F868" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G868" s="16" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" ht="51.75">
+      <c r="A869" s="32">
+        <v>867</v>
+      </c>
+      <c r="B869" s="56" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C869" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D869" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E869" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F869" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G869" s="16" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" ht="51.75">
+      <c r="A870" s="32">
+        <v>868</v>
+      </c>
+      <c r="B870" s="56" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C870" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D870" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E870" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F870" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G870" s="16" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" ht="51.75">
+      <c r="A871" s="32">
+        <v>869</v>
+      </c>
+      <c r="B871" s="56" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C871" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D871" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E871" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F871" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G871" s="16" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" ht="51.75">
+      <c r="A872" s="32">
+        <v>870</v>
+      </c>
+      <c r="B872" s="56" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C872" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D872" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E872" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F872" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G872" s="16" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="873" spans="1:7">
-      <c r="A873" s="32"/>
-      <c r="B873" s="56"/>
-      <c r="C873" s="5"/>
-      <c r="D873" s="4"/>
-      <c r="E873" s="28"/>
-      <c r="F873" s="28"/>
-      <c r="G873" s="8"/>
+      <c r="A873" s="32">
+        <v>871</v>
+      </c>
+      <c r="B873" s="56" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C873" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D873" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E873" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F873" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G873" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="874" spans="1:7">
-      <c r="A874" s="32"/>
-      <c r="B874" s="56"/>
-      <c r="C874" s="5"/>
-      <c r="D874" s="4"/>
-      <c r="E874" s="28"/>
-      <c r="F874" s="28"/>
-      <c r="G874" s="8"/>
+      <c r="A874" s="32">
+        <v>872</v>
+      </c>
+      <c r="B874" s="56" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C874" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D874" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E874" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F874" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G874" s="8" t="s">
+        <v>1344</v>
+      </c>
     </row>
     <row r="875" spans="1:7">
-      <c r="A875" s="32"/>
-      <c r="B875" s="56"/>
-      <c r="C875" s="5"/>
-      <c r="D875" s="4"/>
-      <c r="E875" s="28"/>
-      <c r="F875" s="28"/>
-      <c r="G875" s="8"/>
+      <c r="A875" s="32">
+        <v>873</v>
+      </c>
+      <c r="B875" s="56" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C875" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D875" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E875" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F875" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G875" s="8" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="876" spans="1:7">
-      <c r="A876" s="32"/>
-      <c r="B876" s="56"/>
-      <c r="C876" s="5"/>
-      <c r="D876" s="4"/>
-      <c r="E876" s="28"/>
-      <c r="F876" s="28"/>
-      <c r="G876" s="8"/>
+      <c r="A876" s="32">
+        <v>874</v>
+      </c>
+      <c r="B876" s="56" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C876" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D876" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E876" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F876" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G876" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="877" spans="1:7">
-      <c r="A877" s="32"/>
-      <c r="B877" s="56"/>
-      <c r="C877" s="5"/>
-      <c r="D877" s="4"/>
-      <c r="E877" s="28"/>
-      <c r="F877" s="28"/>
-      <c r="G877" s="8"/>
+      <c r="A877" s="32">
+        <v>875</v>
+      </c>
+      <c r="B877" s="56" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C877" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D877" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E877" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F877" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G877" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="878" spans="1:7">
-      <c r="A878" s="32"/>
-      <c r="B878" s="56"/>
-      <c r="C878" s="5"/>
-      <c r="D878" s="4"/>
-      <c r="E878" s="28"/>
-      <c r="F878" s="28"/>
-      <c r="G878" s="8"/>
+      <c r="A878" s="32">
+        <v>876</v>
+      </c>
+      <c r="B878" s="56" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C878" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D878" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E878" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F878" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G878" s="8" t="s">
+        <v>1270</v>
+      </c>
     </row>
     <row r="879" spans="1:7">
-      <c r="A879" s="32"/>
-      <c r="B879" s="56"/>
-      <c r="C879" s="5"/>
-      <c r="D879" s="4"/>
-      <c r="E879" s="28"/>
-      <c r="F879" s="28"/>
-      <c r="G879" s="8"/>
+      <c r="A879" s="32">
+        <v>877</v>
+      </c>
+      <c r="B879" s="56" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C879" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D879" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E879" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F879" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G879" s="8" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="880" spans="1:7">
-      <c r="A880" s="32"/>
-      <c r="B880" s="56"/>
-      <c r="C880" s="5"/>
-      <c r="D880" s="4"/>
-      <c r="E880" s="28"/>
-      <c r="F880" s="28"/>
-      <c r="G880" s="8"/>
+      <c r="A880" s="32">
+        <v>878</v>
+      </c>
+      <c r="B880" s="56" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C880" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D880" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E880" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F880" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G880" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="881" spans="1:7">
-      <c r="A881" s="32"/>
-      <c r="B881" s="56"/>
-      <c r="C881" s="5"/>
-      <c r="D881" s="4"/>
-      <c r="E881" s="28"/>
-      <c r="F881" s="28"/>
-      <c r="G881" s="8"/>
+      <c r="A881" s="32">
+        <v>879</v>
+      </c>
+      <c r="B881" s="56" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C881" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D881" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E881" s="28" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F881" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G881" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="882" spans="1:7">
-      <c r="A882" s="32"/>
-      <c r="B882" s="56"/>
-      <c r="C882" s="5"/>
-      <c r="D882" s="4"/>
-      <c r="E882" s="28"/>
-      <c r="F882" s="28"/>
-      <c r="G882" s="8"/>
+      <c r="A882" s="32">
+        <v>880</v>
+      </c>
+      <c r="B882" s="56" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C882" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D882" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E882" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F882" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G882" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="883" spans="1:7">
-      <c r="A883" s="32"/>
-      <c r="B883" s="56"/>
-      <c r="C883" s="5"/>
-      <c r="D883" s="4"/>
-      <c r="E883" s="28"/>
-      <c r="F883" s="28"/>
-      <c r="G883" s="8"/>
+      <c r="A883" s="32">
+        <v>881</v>
+      </c>
+      <c r="B883" s="56" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C883" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D883" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E883" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F883" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G883" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="884" spans="1:7">
-      <c r="A884" s="32"/>
-      <c r="B884" s="56"/>
-      <c r="C884" s="5"/>
-      <c r="D884" s="4"/>
-      <c r="E884" s="28"/>
-      <c r="F884" s="28"/>
-      <c r="G884" s="8"/>
+      <c r="A884" s="32">
+        <v>882</v>
+      </c>
+      <c r="B884" s="56" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C884" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D884" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E884" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F884" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G884" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="885" spans="1:7">
-      <c r="A885" s="32"/>
-      <c r="B885" s="56"/>
-      <c r="C885" s="5"/>
-      <c r="D885" s="4"/>
-      <c r="E885" s="28"/>
-      <c r="F885" s="28"/>
-      <c r="G885" s="8"/>
+      <c r="A885" s="32">
+        <v>883</v>
+      </c>
+      <c r="B885" s="56" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C885" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D885" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E885" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F885" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G885" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="886" spans="1:7">
-      <c r="A886" s="32"/>
-      <c r="B886" s="56"/>
-      <c r="C886" s="5"/>
-      <c r="D886" s="4"/>
-      <c r="E886" s="28"/>
-      <c r="F886" s="28"/>
-      <c r="G886" s="8"/>
+      <c r="A886" s="32">
+        <v>884</v>
+      </c>
+      <c r="B886" s="56" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C886" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D886" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E886" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F886" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G886" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="887" spans="1:7">
-      <c r="A887" s="32"/>
-      <c r="B887" s="56"/>
-      <c r="C887" s="5"/>
-      <c r="D887" s="4"/>
-      <c r="E887" s="28"/>
-      <c r="F887" s="28"/>
-      <c r="G887" s="8"/>
+      <c r="A887" s="32">
+        <v>885</v>
+      </c>
+      <c r="B887" s="56" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C887" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D887" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E887" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F887" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G887" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="888" spans="1:7">
-      <c r="A888" s="32"/>
-      <c r="B888" s="56"/>
-      <c r="C888" s="5"/>
-      <c r="D888" s="4"/>
-      <c r="E888" s="28"/>
-      <c r="F888" s="28"/>
-      <c r="G888" s="8"/>
+      <c r="A888" s="32">
+        <v>886</v>
+      </c>
+      <c r="B888" s="56" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C888" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D888" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E888" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F888" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G888" s="8" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="889" spans="1:7">
-      <c r="A889" s="32"/>
-      <c r="B889" s="56"/>
-      <c r="C889" s="5"/>
-      <c r="D889" s="4"/>
-      <c r="E889" s="28"/>
-      <c r="F889" s="28"/>
-      <c r="G889" s="8"/>
+      <c r="A889" s="32">
+        <v>887</v>
+      </c>
+      <c r="B889" s="56" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C889" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D889" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E889" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F889" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G889" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="890" spans="1:7">
-      <c r="A890" s="32"/>
-      <c r="B890" s="56"/>
-      <c r="C890" s="5"/>
-      <c r="D890" s="4"/>
-      <c r="E890" s="28"/>
-      <c r="F890" s="28"/>
-      <c r="G890" s="8"/>
+      <c r="A890" s="32">
+        <v>888</v>
+      </c>
+      <c r="B890" s="56" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C890" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D890" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E890" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F890" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G890" s="8" t="s">
+        <v>1203</v>
+      </c>
     </row>
     <row r="891" spans="1:7">
-      <c r="A891" s="32"/>
-      <c r="B891" s="56"/>
-      <c r="C891" s="5"/>
-      <c r="D891" s="4"/>
-      <c r="E891" s="28"/>
-      <c r="F891" s="28"/>
-      <c r="G891" s="8"/>
+      <c r="A891" s="32">
+        <v>889</v>
+      </c>
+      <c r="B891" s="56" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C891" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D891" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E891" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F891" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G891" s="8" t="s">
+        <v>1363</v>
+      </c>
     </row>
     <row r="892" spans="1:7">
-      <c r="A892" s="32"/>
-      <c r="B892" s="56"/>
-      <c r="C892" s="5"/>
-      <c r="D892" s="4"/>
-      <c r="E892" s="28"/>
-      <c r="F892" s="28"/>
-      <c r="G892" s="8"/>
+      <c r="A892" s="32">
+        <v>890</v>
+      </c>
+      <c r="B892" s="56" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C892" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D892" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E892" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F892" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G892" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="893" spans="1:7">
-      <c r="A893" s="32"/>
-      <c r="B893" s="56"/>
-      <c r="C893" s="5"/>
-      <c r="D893" s="4"/>
-      <c r="E893" s="28"/>
-      <c r="F893" s="28"/>
-      <c r="G893" s="8"/>
+      <c r="A893" s="32">
+        <v>891</v>
+      </c>
+      <c r="B893" s="56" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C893" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D893" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E893" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F893" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G893" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="894" spans="1:7">
-      <c r="A894" s="32"/>
-      <c r="B894" s="56"/>
-      <c r="C894" s="5"/>
-      <c r="D894" s="4"/>
-      <c r="E894" s="28"/>
-      <c r="F894" s="28"/>
-      <c r="G894" s="8"/>
+      <c r="A894" s="32">
+        <v>892</v>
+      </c>
+      <c r="B894" s="56" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C894" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D894" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E894" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F894" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G894" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="895" spans="1:7">
-      <c r="A895" s="32"/>
-      <c r="B895" s="56"/>
-      <c r="C895" s="5"/>
-      <c r="D895" s="4"/>
-      <c r="E895" s="28"/>
-      <c r="F895" s="28"/>
-      <c r="G895" s="8"/>
+      <c r="A895" s="32">
+        <v>893</v>
+      </c>
+      <c r="B895" s="56" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C895" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D895" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E895" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F895" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G895" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="896" spans="1:7">
-      <c r="A896" s="32"/>
-      <c r="B896" s="56"/>
-      <c r="C896" s="5"/>
-      <c r="D896" s="4"/>
-      <c r="E896" s="28"/>
-      <c r="F896" s="28"/>
-      <c r="G896" s="8"/>
+      <c r="A896" s="32">
+        <v>894</v>
+      </c>
+      <c r="B896" s="56" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C896" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D896" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E896" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F896" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G896" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="897" spans="1:7">
-      <c r="A897" s="32"/>
-      <c r="B897" s="56"/>
-      <c r="C897" s="5"/>
-      <c r="D897" s="4"/>
-      <c r="E897" s="28"/>
-      <c r="F897" s="28"/>
-      <c r="G897" s="8"/>
+      <c r="A897" s="32">
+        <v>895</v>
+      </c>
+      <c r="B897" s="56" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C897" s="5">
+        <v>44204</v>
+      </c>
+      <c r="D897" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E897" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F897" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G897" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="898" spans="1:7">
-      <c r="A898" s="32"/>
-      <c r="B898" s="56"/>
-      <c r="C898" s="5"/>
-      <c r="D898" s="4"/>
-      <c r="E898" s="28"/>
-      <c r="F898" s="28"/>
-      <c r="G898" s="8"/>
+      <c r="A898" s="32">
+        <v>896</v>
+      </c>
+      <c r="B898" s="56" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C898" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D898" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E898" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F898" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G898" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="899" spans="1:7">
-      <c r="A899" s="32"/>
-      <c r="B899" s="56"/>
-      <c r="C899" s="5"/>
-      <c r="D899" s="4"/>
-      <c r="E899" s="28"/>
-      <c r="F899" s="28"/>
-      <c r="G899" s="8"/>
+      <c r="A899" s="32">
+        <v>897</v>
+      </c>
+      <c r="B899" s="56" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C899" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D899" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E899" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F899" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G899" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="900" spans="1:7">
-      <c r="A900" s="32"/>
-      <c r="B900" s="56"/>
-      <c r="C900" s="5"/>
-      <c r="D900" s="4"/>
-      <c r="E900" s="28"/>
-      <c r="F900" s="28"/>
-      <c r="G900" s="8"/>
+      <c r="A900" s="32">
+        <v>898</v>
+      </c>
+      <c r="B900" s="56" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C900" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D900" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E900" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F900" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G900" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="901" spans="1:7">
-      <c r="A901" s="32"/>
-      <c r="B901" s="56"/>
-      <c r="C901" s="5"/>
-      <c r="D901" s="4"/>
-      <c r="E901" s="28"/>
-      <c r="F901" s="28"/>
-      <c r="G901" s="8"/>
+      <c r="A901" s="32">
+        <v>899</v>
+      </c>
+      <c r="B901" s="56" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C901" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D901" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E901" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F901" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G901" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="902" spans="1:7">
-      <c r="A902" s="32"/>
-      <c r="B902" s="56"/>
-      <c r="C902" s="5"/>
-      <c r="D902" s="4"/>
-      <c r="E902" s="28"/>
-      <c r="F902" s="28"/>
-      <c r="G902" s="8"/>
+      <c r="A902" s="32">
+        <v>900</v>
+      </c>
+      <c r="B902" s="56" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C902" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D902" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E902" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F902" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G902" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="903" spans="1:7">
-      <c r="A903" s="32"/>
-      <c r="B903" s="56"/>
-      <c r="C903" s="5"/>
-      <c r="D903" s="4"/>
-      <c r="E903" s="28"/>
-      <c r="F903" s="28"/>
-      <c r="G903" s="8"/>
+      <c r="A903" s="32">
+        <v>901</v>
+      </c>
+      <c r="B903" s="56" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C903" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D903" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E903" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F903" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G903" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="904" spans="1:7">
-      <c r="A904" s="32"/>
-      <c r="B904" s="56"/>
-      <c r="C904" s="5"/>
-      <c r="D904" s="4"/>
-      <c r="E904" s="28"/>
-      <c r="F904" s="28"/>
-      <c r="G904" s="8"/>
+      <c r="A904" s="32">
+        <v>902</v>
+      </c>
+      <c r="B904" s="56" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C904" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D904" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E904" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F904" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G904" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="905" spans="1:7">
-      <c r="A905" s="32"/>
-      <c r="B905" s="56"/>
-      <c r="C905" s="5"/>
-      <c r="D905" s="4"/>
-      <c r="E905" s="28"/>
-      <c r="F905" s="28"/>
-      <c r="G905" s="8"/>
+      <c r="A905" s="32">
+        <v>903</v>
+      </c>
+      <c r="B905" s="56" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C905" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D905" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E905" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F905" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G905" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="906" spans="1:7">
-      <c r="A906" s="32"/>
-      <c r="B906" s="56"/>
-      <c r="C906" s="5"/>
-      <c r="D906" s="4"/>
-      <c r="E906" s="28"/>
-      <c r="F906" s="28"/>
-      <c r="G906" s="8"/>
+      <c r="A906" s="32">
+        <v>904</v>
+      </c>
+      <c r="B906" s="56" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C906" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D906" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E906" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F906" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G906" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="907" spans="1:7">
-      <c r="A907" s="32"/>
-      <c r="B907" s="56"/>
-      <c r="C907" s="5"/>
-      <c r="D907" s="4"/>
-      <c r="E907" s="28"/>
-      <c r="F907" s="28"/>
-      <c r="G907" s="8"/>
+      <c r="A907" s="32">
+        <v>905</v>
+      </c>
+      <c r="B907" s="56" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C907" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D907" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E907" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F907" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G907" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="908" spans="1:7">
-      <c r="A908" s="32"/>
-      <c r="B908" s="56"/>
-      <c r="C908" s="5"/>
-      <c r="D908" s="4"/>
-      <c r="E908" s="28"/>
-      <c r="F908" s="28"/>
-      <c r="G908" s="8"/>
+      <c r="A908" s="32">
+        <v>906</v>
+      </c>
+      <c r="B908" s="56" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C908" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D908" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E908" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F908" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G908" s="8" t="s">
+        <v>1381</v>
+      </c>
     </row>
     <row r="909" spans="1:7">
-      <c r="A909" s="32"/>
-      <c r="B909" s="56"/>
-      <c r="C909" s="5"/>
-      <c r="D909" s="4"/>
-      <c r="E909" s="28"/>
-      <c r="F909" s="28"/>
-      <c r="G909" s="8"/>
+      <c r="A909" s="32">
+        <v>907</v>
+      </c>
+      <c r="B909" s="56" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C909" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D909" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E909" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F909" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G909" s="8" t="s">
+        <v>1381</v>
+      </c>
     </row>
     <row r="910" spans="1:7">
-      <c r="A910" s="32"/>
-      <c r="B910" s="56"/>
-      <c r="C910" s="5"/>
-      <c r="D910" s="4"/>
-      <c r="E910" s="28"/>
-      <c r="F910" s="28"/>
-      <c r="G910" s="8"/>
+      <c r="A910" s="32">
+        <v>908</v>
+      </c>
+      <c r="B910" s="56" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C910" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D910" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E910" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F910" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G910" s="8" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="911" spans="1:7">
-      <c r="A911" s="32"/>
-      <c r="B911" s="56"/>
-      <c r="C911" s="5"/>
-      <c r="D911" s="4"/>
-      <c r="E911" s="28"/>
-      <c r="F911" s="28"/>
-      <c r="G911" s="8"/>
+      <c r="A911" s="32">
+        <v>909</v>
+      </c>
+      <c r="B911" s="56" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C911" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D911" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E911" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F911" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G911" s="8" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="912" spans="1:7">
-      <c r="A912" s="32"/>
-      <c r="B912" s="56"/>
-      <c r="C912" s="5"/>
-      <c r="D912" s="4"/>
-      <c r="E912" s="28"/>
-      <c r="F912" s="28"/>
-      <c r="G912" s="8"/>
+      <c r="A912" s="32">
+        <v>910</v>
+      </c>
+      <c r="B912" s="56" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C912" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D912" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E912" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F912" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G912" s="8" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="913" spans="1:7">
-      <c r="A913" s="32"/>
-      <c r="B913" s="56"/>
-      <c r="C913" s="5"/>
-      <c r="D913" s="4"/>
-      <c r="E913" s="28"/>
-      <c r="F913" s="28"/>
-      <c r="G913" s="8"/>
+      <c r="A913" s="32">
+        <v>911</v>
+      </c>
+      <c r="B913" s="56" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C913" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D913" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E913" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F913" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G913" s="8" t="s">
+        <v>1389</v>
+      </c>
     </row>
     <row r="914" spans="1:7">
-      <c r="A914" s="32"/>
-      <c r="B914" s="56"/>
-      <c r="C914" s="5"/>
-      <c r="D914" s="4"/>
-      <c r="E914" s="28"/>
-      <c r="F914" s="28"/>
-      <c r="G914" s="8"/>
+      <c r="A914" s="32">
+        <v>912</v>
+      </c>
+      <c r="B914" s="56" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C914" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D914" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E914" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F914" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G914" s="8" t="s">
+        <v>1389</v>
+      </c>
     </row>
     <row r="915" spans="1:7">
-      <c r="A915" s="32"/>
-      <c r="B915" s="56"/>
-      <c r="C915" s="5"/>
-      <c r="D915" s="4"/>
-      <c r="E915" s="28"/>
-      <c r="F915" s="28"/>
-      <c r="G915" s="8"/>
+      <c r="A915" s="32">
+        <v>913</v>
+      </c>
+      <c r="B915" s="56" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C915" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D915" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E915" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F915" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G915" s="8" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="916" spans="1:7">
-      <c r="A916" s="32"/>
-      <c r="B916" s="56"/>
-      <c r="C916" s="5"/>
-      <c r="D916" s="4"/>
-      <c r="E916" s="28"/>
-      <c r="F916" s="28"/>
-      <c r="G916" s="8"/>
+      <c r="A916" s="32">
+        <v>914</v>
+      </c>
+      <c r="B916" s="56" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C916" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D916" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E916" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F916" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G916" s="8" t="s">
+        <v>1394</v>
+      </c>
     </row>
     <row r="917" spans="1:7">
-      <c r="A917" s="32"/>
-      <c r="B917" s="56"/>
-      <c r="C917" s="5"/>
-      <c r="D917" s="4"/>
-      <c r="E917" s="28"/>
-      <c r="F917" s="28"/>
-      <c r="G917" s="8"/>
+      <c r="A917" s="32">
+        <v>915</v>
+      </c>
+      <c r="B917" s="56" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C917" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D917" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E917" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F917" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G917" s="8" t="s">
+        <v>1396</v>
+      </c>
     </row>
     <row r="918" spans="1:7">
-      <c r="A918" s="32"/>
-      <c r="B918" s="56"/>
-      <c r="C918" s="5"/>
-      <c r="D918" s="4"/>
-      <c r="E918" s="28"/>
-      <c r="F918" s="28"/>
-      <c r="G918" s="8"/>
+      <c r="A918" s="32">
+        <v>916</v>
+      </c>
+      <c r="B918" s="56" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C918" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D918" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E918" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F918" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G918" s="8" t="s">
+        <v>1398</v>
+      </c>
     </row>
     <row r="919" spans="1:7">
-      <c r="A919" s="32"/>
-      <c r="B919" s="56"/>
-      <c r="C919" s="5"/>
-      <c r="D919" s="4"/>
-      <c r="E919" s="28"/>
-      <c r="F919" s="28"/>
-      <c r="G919" s="8"/>
+      <c r="A919" s="32">
+        <v>917</v>
+      </c>
+      <c r="B919" s="56" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C919" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D919" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E919" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F919" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G919" s="8" t="s">
+        <v>1400</v>
+      </c>
     </row>
     <row r="920" spans="1:7">
-      <c r="A920" s="32"/>
-      <c r="B920" s="56"/>
-      <c r="C920" s="5"/>
-      <c r="D920" s="4"/>
-      <c r="E920" s="28"/>
-      <c r="F920" s="28"/>
-      <c r="G920" s="8"/>
+      <c r="A920" s="32">
+        <v>918</v>
+      </c>
+      <c r="B920" s="56" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C920" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D920" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E920" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F920" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G920" s="8" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="921" spans="1:7">
-      <c r="A921" s="32"/>
-      <c r="B921" s="56"/>
-      <c r="C921" s="5"/>
-      <c r="D921" s="4"/>
-      <c r="E921" s="28"/>
-      <c r="F921" s="28"/>
-      <c r="G921" s="8"/>
+      <c r="A921" s="32">
+        <v>919</v>
+      </c>
+      <c r="B921" s="56" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C921" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D921" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E921" s="28" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F921" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G921" s="8" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="922" spans="1:7">
-      <c r="A922" s="32"/>
-      <c r="B922" s="56"/>
-      <c r="C922" s="5"/>
-      <c r="D922" s="4"/>
-      <c r="E922" s="28"/>
-      <c r="F922" s="28"/>
-      <c r="G922" s="8"/>
+      <c r="A922" s="32">
+        <v>920</v>
+      </c>
+      <c r="B922" s="56" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C922" s="5">
+        <v>44205</v>
+      </c>
+      <c r="D922" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E922" s="28" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F922" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G922" s="8" t="s">
+        <v>1406</v>
+      </c>
     </row>
     <row r="923" spans="1:7">
       <c r="A923" s="32"/>
@@ -40061,7 +42168,7 @@
       </c>
       <c r="G1" s="64">
         <f ca="1">TODAY()-1</f>
-        <v>44202</v>
+        <v>44204</v>
       </c>
       <c r="H1" s="65"/>
       <c r="I1" s="42"/>
@@ -40127,18 +42234,18 @@
       </c>
       <c r="C3" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"10未満")</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>826</v>
       </c>
       <c r="F3" s="39">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M2:$N3)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" s="39">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P2:$Q3)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H3" s="39">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S2:$T3)</f>
@@ -40146,7 +42253,7 @@
       </c>
       <c r="I3" s="41">
         <f>SUM(F3:H3)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J3" s="41" t="str">
         <f>IF(C3=I3,"◎","×")</f>
@@ -40179,18 +42286,18 @@
       </c>
       <c r="C4" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"10")</f>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>827</v>
       </c>
       <c r="F4" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M4:$N5)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G4" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P4:$Q5)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S4:$T5)</f>
@@ -40198,7 +42305,7 @@
       </c>
       <c r="I4" s="41">
         <f t="shared" ref="I4:I13" si="0">SUM(F4:H4)</f>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J4" s="41" t="str">
         <f t="shared" ref="J4:J13" si="1">IF(C4=I4,"◎","×")</f>
@@ -40231,18 +42338,18 @@
       </c>
       <c r="C5" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"20")</f>
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>828</v>
       </c>
       <c r="F5" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M6:$N7)</f>
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="G5" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P6:$Q7)</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H5" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S6:$T7)</f>
@@ -40250,7 +42357,7 @@
       </c>
       <c r="I5" s="41">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="J5" s="41" t="str">
         <f t="shared" si="1"/>
@@ -40283,18 +42390,18 @@
       </c>
       <c r="C6" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"30")</f>
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>829</v>
       </c>
       <c r="F6" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M8:$N9)</f>
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G6" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P8:$Q9)</f>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H6" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S8:$T9)</f>
@@ -40302,7 +42409,7 @@
       </c>
       <c r="I6" s="41">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="J6" s="41" t="str">
         <f t="shared" si="1"/>
@@ -40335,18 +42442,18 @@
       </c>
       <c r="C7" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"40")</f>
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>830</v>
       </c>
       <c r="F7" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M10:$N11)</f>
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G7" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P10:$Q11)</f>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H7" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S10:$T11)</f>
@@ -40354,7 +42461,7 @@
       </c>
       <c r="I7" s="41">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="J7" s="41" t="str">
         <f t="shared" si="1"/>
@@ -40387,18 +42494,18 @@
       </c>
       <c r="C8" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"50")</f>
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>831</v>
       </c>
       <c r="F8" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M12:$N13)</f>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G8" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P12:$Q13)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S12:$T13)</f>
@@ -40406,7 +42513,7 @@
       </c>
       <c r="I8" s="41">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J8" s="41" t="str">
         <f t="shared" si="1"/>
@@ -40439,18 +42546,18 @@
       </c>
       <c r="C9" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"60")</f>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>832</v>
       </c>
       <c r="F9" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M14:$N15)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G9" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P14:$Q15)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H9" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S14:$T15)</f>
@@ -40458,7 +42565,7 @@
       </c>
       <c r="I9" s="41">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J9" s="41" t="str">
         <f t="shared" si="1"/>
@@ -40491,18 +42598,18 @@
       </c>
       <c r="C10" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"70")</f>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>833</v>
       </c>
       <c r="F10" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M16:$N17)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G10" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P16:$Q17)</f>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H10" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$S16:$T17)</f>
@@ -40510,7 +42617,7 @@
       </c>
       <c r="I10" s="41">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="J10" s="41" t="str">
         <f t="shared" si="1"/>
@@ -40543,14 +42650,14 @@
       </c>
       <c r="C11" s="20">
         <f>COUNTIF('HP公表用 一覧'!$E:$G,"80")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>834</v>
       </c>
       <c r="F11" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$M18:$N19)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G11" s="25">
         <f>DCOUNTA('HP公表用 一覧'!$A$2:$G$9999,,$P18:$Q19)</f>
@@ -40562,7 +42669,7 @@
       </c>
       <c r="I11" s="41">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J11" s="41" t="str">
         <f t="shared" si="1"/>
@@ -40699,18 +42806,18 @@
       </c>
       <c r="C14" s="48">
         <f>SUM(C3:C13)</f>
-        <v>804</v>
+        <v>920</v>
       </c>
       <c r="E14" s="47" t="s">
         <v>922</v>
       </c>
       <c r="F14" s="48">
         <f>SUM(F3:F13)</f>
-        <v>478</v>
+        <v>552</v>
       </c>
       <c r="G14" s="48">
         <f t="shared" ref="G14:H14" si="2">SUM(G3:G13)</f>
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="H14" s="48">
         <f t="shared" si="2"/>
@@ -40718,7 +42825,7 @@
       </c>
       <c r="I14" s="41">
         <f t="shared" ref="I14" si="3">SUM(F14:H14)</f>
-        <v>804</v>
+        <v>920</v>
       </c>
       <c r="J14" s="41" t="str">
         <f t="shared" ref="J14" si="4">IF(C14=I14,"◎","×")</f>
